--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,3288 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4071" uniqueCount="4071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2978">
   <si>
     <t>New column 0 Url</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/maje-plaid-print-coat-fklng</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/le-ciel-bleu-faux-fur-coat-fjp4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loewe-trapeze-coat-fofid</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-down-coat-flyhd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/acne-studios-coat-fkkwr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-1997-coat-f2dvi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentina-shah-printed-peacoat-w-tags-fposi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ted-baker-peacoat-fqgpw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-fpejx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-cashmere-coat-fp2c8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-trench-coat-fp084</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alexandre-plokhov-coat-fogel</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/pajar-parka-foewm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-shearling-fur-coat-w-tags-fpmak</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-animal-print-faux-fur-coat-fm96a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/isabel-marant-trench-coat-flmet</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-fur-coat-w-tags-fpm71</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/monse-trench-coat-w-tags-fh9fh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-fj4vd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-coat-figgi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-trench-coat-fjmw9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dolce-gabbana-peacoat-fhqs2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fur-fur-coat-fob50</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-down-coat-fo4je</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-trench-coat-fo1tq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/s-max-mara-virgin-wool-coat-fbppe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tom-ford-lamb-leather-trench-coat-w-tags-fozmx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-faux-fur-coat-fo1bv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-saint-laurent-rive-gauche-vintage-1992-peacoat-flgoa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tory-burch-peacoat-ew2x5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/luisa-spagnoli-virgin-wool-peacoat-fdesk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-fpmj1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dries-van-noten-trench-coat-fpa5j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-fur-coat-fp8ny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ralph-lauren-trench-coat-focul</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/nanushka-trench-coat-fo8xg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/allsaints-peacoat-fn622</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/barbour-trench-coat-fmttu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/a-w-a-k-e-mode-coat-fds7d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-peacoat-fnyp4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/celine-virgin-wool-trench-coat-fnuz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-trench-coat-fnpo4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/akris-trench-coat-fnhl1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-peacoat-fnbg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/maje-coat-fn5nb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-2004-trench-coat-fiprr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-2018-coat-finfa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-vintage-late-1990-s-early-2000-s-fur-coat-fibw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-2019-la-pausa-faux-fur-coat-fg66o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/saint-laurent-plaid-print-cape-f5ibt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-coat-fhxyj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/victoria-beckham-virgin-wool-peacoat-fb5ko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/saint-laurent-peacoat-f7ziz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/calvin-klein-collection-parka-fnug0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ganni-down-coat-fnca1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/intermix-plaid-print-coat-ffsgw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-coat-f4aj7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/frances-valentine-animal-print-faux-fur-coat-w-tags-fl7mv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/avanti-leather-coat-fnd5a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/givenchy-mink-fur-coat-fm4jt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-saint-laurent-rive-gauche-vintage-1980-s-trench-coat-fisv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/heidi-merrick-peacoat-ewj8e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-fgifw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rick-owens-coat-fiivy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-peacoat-fdmph</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sam-down-coat-ff4fb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/walter-baker-coat-fcnft</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/reformation-houndstooth-print-faux-fur-coat-fi2ra</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/salvatore-ferragamo-coat-fg3u4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/kate-spade-new-york-coat-fmzcf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-printed-coat-fm7gy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-fm0qs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/nanushka-faux-fur-coat-fn1bm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-animal-print-faux-fur-coat-fn12k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/lemaire-trench-coat-fmm9d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ermanno-scervino-coat-fmg8h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-down-coat-fmaep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/walter-baker-lamb-leather-coat-w-tags-fa4wz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jil-sander-coat-fbq81</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sandro-coat-f1fx9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sportmax-virgin-wool-faux-fur-coat-fmnki</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-2007-coat-fi4ai</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-cashmere-coat-fades</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-kensington-parka-down-coat-f4li7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tom-ford-silk-trench-coat-fdeqv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ted-baker-parka-w-tags-fgrfc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-fmt58</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/emerson-fry-trench-coat-w-tags-fjgsg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-peacoat-fg5qm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/veronica-beard-printed-coat-w-tags-fmd25</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-down-coat-fl1xe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-f6at1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-fur-coat-ffwz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rains-coat-fcs8o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-faux-fur-coat-flm9j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-animal-print-faux-fur-coat-flg0s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-2013-down-coat-fl9sj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sam-down-coat-fkwgm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-fk7ag</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-vintage-2004-peacoat-fgwfh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/herno-down-coat-f9ns1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-shearling-fur-coat-f7ng4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/parajumpers-parka-ffhvy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-trench-coat-f8fnl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tory-burch-coat-fg7rp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/nanushka-down-coat-w-tags-flzav</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-parka-fm0l9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-down-coat-flv2t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/weekend-max-mara-trench-coat-flosq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-flca4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ted-baker-trench-coat-w-tags-fghg8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-parka-fkplk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-parka-fkg31</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-down-coat-ff7l7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rag-bone-coat-f6uut</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/a-l-c-peacoat-faj1v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-floyb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-prorsum-fur-coat-feooc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-vintage-down-coat-f78kt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moschino-silk-coat-fk2mf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/j-brand-x-theory-trench-coat-fivv6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/woolrich-parka-fdy0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dries-van-noten-coat-f74b3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/london-fog-coat-fl1z7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-row-coat-w-tags-fj83b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/iro-plaid-print-coat-fi6lc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/junya-watanabe-comme-des-garcons-vintage-2003-coat-f98dh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-trench-coat-w-tags-f952s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-fivha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jonathan-simkhai-plaid-print-coat-fj3vz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/khaite-trench-coat-fhe97</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-houndstooth-print-coat-f6amv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-fk6ym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-fe3ow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-striped-coat-f6mpw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-arrivals-down-coat-fhjm9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-saint-laurent-rive-gauche-vintage-2001-trench-coat-fbmrh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/thom-browne-coat-fg7du</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stella-mccartney-plaid-print-trench-coat-ffe0x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/celine-coat-f4ffu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-lacroix-vintage-1990-s-peacoat-fa51y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-trench-coat-fbkxs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-cashmere-faux-fur-coat-fi98w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bogner-down-coat-fgnge</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/neiman-marcus-mink-fur-coat-fg7t5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-down-coat-ffjs1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sandy-liang-parka-fixcr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-fjew2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-lamb-leather-cape-fj6ia</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-trench-coat-w-tags-fhiqn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fleurette-coat-fi0yc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/leonard-vintage-1980-s-evening-jacket-fctqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rains-parka-w-tags-fav15</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-trench-coat-fi8fk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/zoran-coat-fhuvj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-2020-silk-trench-coat-w-tags-fa2p4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-virgin-wool-peacoat-fgl5p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-2018-tweed-pattern-coat-fdfvl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dolce-gabbana-patterned-trench-coat-fcl89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alice-olivia-coat-fa9od</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-2012-paris-bombay-coat-ffpte</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/john-varvatos-lambskin-coat-fdvwi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sam-down-coat-f8uv3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-w-tags-fghsn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/andrew-marc-leather-coat-fgnjt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/adrienne-landau-faux-fur-coat-fdbcq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-plaid-print-peacoat-f2z2a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-prorsum-alpaca-faux-fur-coat-f6ynz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-virgin-wool-peacoat-f8nok</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-striped-faux-fur-coat-fb7b2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rodebjer-peacoat-fbq6z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/birger-christensen-lambswool-faux-fur-coat-fgs9g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-saint-laurent-cashmere-coat-fgbaf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rains-trench-coat-faqgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-2019-suyen-down-coat-febcr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/brunello-cucinelli-alpaca-faux-fur-coat-fccy7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vivienne-hu-colorblock-pattern-trench-coat-fbswa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-lambskin-coat-ferci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-f5m2g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/post-card-down-coat-ew1va</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ralph-lauren-collection-baby-camel-poncho-fabht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-vintage-1999-trench-coat-f7iez</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-virgin-wool-coat-ez6ns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-sport-trench-coat-f6wan</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-ffn5s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-ffl9x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bill-blass-peacoat-cmgw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-vintage-virgin-wool-peacoat-f49o9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-trench-coat-fffr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/joie-trench-coat-fe3td</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/kate-spade-new-york-peacoat-fdhv0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/barbour-coat-fawgm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michele-negri-shearling-fur-coat-d0d6s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-fekpt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/anine-bing-plaid-print-faux-fur-coat-fg9r4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/missoni-plaid-print-faux-fur-coat-ffkl6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/pinko-trench-coat-fe56q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-2019-down-coat-feqo9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ann-demeulemeester-leather-fur-coat-f8hpc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/lanvin-coat-fjvlo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/diane-von-furstenberg-mink-striped-fur-coat-ffe6t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/diane-von-furstenberg-trench-coat-ffbrt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jarbo-coat-ff6xw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-down-coat-fdep4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/donna-salyers-faux-fur-coat-fcjg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-peacoat-ff9gg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-virgin-wool-printed-fur-coat-ffxd0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-coat-ffnri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sandro-coat-faqwz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/birger-christensen-fur-coat-fjfhm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/allsaints-trench-coat-fja9s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/balenciaga-2019-new-swing-technical-riptstop-down-coat-w-tags-fafrq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stella-mccartney-printed-trench-coat-feglo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/belstaff-peacoat-fe8c5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ann-demeulemeester-vintage-2000-s-trench-coat-faele</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-f6zl6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/emerson-fry-coat-fgkmr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-fur-coat-ff7zu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/akris-vintage-plaid-print-coat-fehla</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-coat-ez0bm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-lamb-fur-fur-coat-f64m2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/summa-cashmere-parka-w-tags-fcxuk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/agnona-parka-fckbp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dusan-cashmere-coat-f9tas</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/weekend-max-mara-virgin-wool-coat-fd5jk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bogner-parka-fd3nx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-leather-fur-coat-f99h8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/parajumpers-down-coat-fdnmw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-down-coat-f3euo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alexander-mcqueen-2019-lamb-leather-coat-fdziw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-w-tags-f7uv6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/scanlan-theodore-coat-f52vi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-trench-coat-f98b3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-2011-down-coat-f6k9z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/balenciaga-2017-animal-print-faux-fur-coat-f5d1l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-1999-faux-fur-coat-fbzab</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/herno-reversible-down-coat-fdefx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-coat-f9nwp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rudsak-down-coat-f68vz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dolce-gabbana-coat-f664s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-trench-coat-f4zph</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-coat-fcqdx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/weekend-max-mara-coat-fcm1p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-f6ohb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/baum-und-pferdgarten-coat-w-tags-es218</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/juan-carlos-obando-trench-coat-w-tags-fbhwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/barbara-bui-fur-coat-fb50k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-faux-fur-coat-faxt3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ugg-down-coat-fb9ru</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/proenza-schouler-trench-coat-w-tags-erzyt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-trench-coat-fbijm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marc-by-marc-jacobs-trench-coat-fb9ln</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chloe-virgin-wool-coat-feyd4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-vintage-late-1990-s-early-2000-s-fur-coat-f4z2q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-parka-f6pdg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-sport-parka-f6dn7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-f6dvt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-faux-fur-coat-evts5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/givenchy-lambskin-striped-faux-fur-coat-faf9l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-faar8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-down-coat-f47zx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/lauren-manoogian-alpaca-faux-fur-coat-f8f7a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/calvin-klein-205w39nyc-parka-f9sn4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ch-carolina-herrera-trench-coat-eratl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-plaid-print-faux-fur-coat-ex7cg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sam-down-coat-f5nof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/miu-miu-peacoat-f989n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fleurette-coat-f2vkg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-vintage-1980-s-coat-f7o8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-fdj2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-esola</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-f76m0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moschino-cheap-and-chic-vintage-2000-s-peacoat-f52j1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-virgin-wool-trench-coat-evt0d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/oilily-peacoat-w-tags-f8h7b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rene-lezard-trench-coat-f859p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alice-olivia-printed-coat-w-tags-f7jz1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-peacoat-f82kh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rails-plaid-print-coat-ezmgp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/caron-callahan-trench-coat-ey0x0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/coach-1941-shearling-fur-coat-f8k6m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/revillon-fur-coat-f876t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marc-new-york-by-andrew-marc-faux-fur-coat-fbz26</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rosetta-getty-trench-coat-w-tags-etrgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/r13-animal-print-faux-fur-coat-w-tags-f69i3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-peacoat-f38on</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-row-silk-coat-eznrv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-2017-anthemis-parka-f717i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-check-virgin-wool-coat-f5jzn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-parka-f64tg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loewe-vintage-late-1990-s-early-2000-s-coat-f4gp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/boontheshop-plaid-print-trench-coat-w-tags-f736h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/balenciaga-virgin-wool-plaid-print-coat-f6y8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sies-marjan-tweed-pattern-faux-fur-coat-f5ctr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/balenciaga-virgin-wool-houndstooth-print-trench-coat-f6g7t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-down-coat-f6fhg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/giorgio-armani-cashmere-coat-f669f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-f5np1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/neiman-marcus-cape-f419i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/weekend-max-mara-trench-coat-f1o2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fjallraven-down-coat-f6j9m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-colorblock-pattern-faux-fur-coat-f8v0h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tory-burch-trench-coat-f8p52</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/anna-sui-floral-print-coat-f5kn1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-en2m6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-mink-fur-coat-f5me6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chloe-vintage-2005-coat-ex7sy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-trench-coat-ewthw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-prorsum-trench-coat-exdtv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ganni-faux-fur-coat-evomp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-trench-coat-f43kt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-silk-trench-coat-f1my1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-wool-coat-f2i8w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/hobbs-london-trench-coat-f2x6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/nanushka-faux-fur-coat-f1tqh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/escada-coat-f0u43</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marshall-columbia-parka-f4hku</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/barbour-parka-f4fd9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/brunello-cucinelli-coat-f37em</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-fox-animal-print-fur-coat-eqexo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/eskandar-evening-jacket-ezlkm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-vintage-2005-coat-eu0wu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/perfect-moment-down-coat-w-tags-f45ug</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/per-se-plaid-print-coat-f2s2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michelle-mason-virgin-wool-peacoat-ev606</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-peacoat-er24g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-row-peacoat-w-tags-eziil</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-trench-coat-ewgbu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-coat-ex2xk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-peacoat-eg57y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/barbour-coat-etklh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/maje-plaid-print-coat-f2xa1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/duvetica-virgin-wool-parka-ezw4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/celine-vintage-late-1990-s-early-2000-s-coat-ewffe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gerard-darel-peacoat-eyc2z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-peacoat-f0ujq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chloe-virgin-wool-cape-f2jm8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/barbour-coat-f2jcf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alice-olivia-floral-print-trench-coat-f2ii2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michael-kors-animal-print-faux-fur-coat-f4di7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tory-burch-down-coat-ewma5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/belstaff-coat-f0d89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/diane-von-furstenberg-tweed-pattern-coat-eznh5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-2018-virgin-wool-peacoat-ezfdi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-feraud-vintage-2000-s-coat-eyxft</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-vintage-late-1990-s-early-2000-s-coat-etyqp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/milly-virgin-wool-coat-f1j77</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/brunello-cucinelli-peacoat-f1ihe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bogner-fire-ice-down-coat-f1c0p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sofia-cashmere-tweed-pattern-faux-fur-coat-f15e5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/humanoid-faux-fur-coat-f0vob</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-f0ndq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/pologeorgis-fur-coat-f0hms</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/roucha-peacoat-f0g0v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ines-marechal-virgin-wool-peacoat-f0dkh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-eyucm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dolce-gabbana-printed-coat-eui6m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/st-john-faux-fur-coat-ezby9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/engineered-garments-coat-eu4xv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-leather-fur-coat-ezv1e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/piacenza-trench-coat-eskl1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-vintage-1980-s-coat-erovt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-peacoat-f35lr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-coat-evoqi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/davide-cenci-merino-wool-tweed-pattern-coat-evnrd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alaia-printed-coat-evwo1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ted-baker-trench-coat-etw37</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-melinda-trench-coat-ex8hs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rena-lange-coat-ex1xt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-virgin-wool-coat-ewv2n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tolchinsky-furs-coat-ewi3v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ports-1961-coat-ex5hs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-w-tags-f03c2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/m-missoni-printed-cape-w-tags-exxzp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alexander-wang-trench-coat-eygs5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yigal-azrouel-coat-euf2l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/hermes-late-1990-s-early-2000-s-trench-coat-ew5lc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-silk-printed-coat-9n3sr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/karen-millen-virgin-wool-trench-coat-er44u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-printed-trench-coat-ezobq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-trench-coat-ez24u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/s-max-mara-trench-coat-eympk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/hermes-peacoat-ex3b4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/balenciaga-vintage-2008-trench-coat-euy1j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-peacoat-ex13f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-trench-coat-epaax</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-mink-fur-coat-w-tags-eum68</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/co-2020-coat-w-tags-elu42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/s-max-mara-virgin-wool-trench-coat-eytup</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-faux-fur-coat-erwi5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-prorsum-trench-coat-eobw5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-virgin-wool-peacoat-exojw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-faux-fur-coat-ex4o7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ilse-jacobsen-faux-fur-coat-ew6br</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/band-of-outsiders-animal-print-faux-fur-coat-eupoj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/miharayasuhiro-silk-parka-ethhz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-peacoat-evgdr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/akris-trench-coat-eutfr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-vintage-1990-s-trench-coat-elgq6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-faux-fur-coat-ew1yq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-eunzx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moschino-jeans-printed-peacoat-eug3v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/giorgio-armani-2015-coat-espey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-2020-tweed-pattern-coat-el4im</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sandro-fur-coat-ejht4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-egcu5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/kate-spade-new-york-striped-coat-etjis</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/studio-by-searle-parka-eta18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sachin-babi-coat-essf9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-ede4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-animal-print-faux-fur-coat-et3ul</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/nina-ricci-coat-es1hb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bogner-animal-print-faux-fur-coat-erd11</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/london-fog-trench-coat-er856</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gianfranco-ferre-vintage-orylag-peacoat-er24o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/st-john-coat-eth7r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-peacoat-etend</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-cape-etb03</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-kooples-parka-et4ej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rochas-patterned-coat-est7k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/salvatore-ferragamo-floral-print-coat-esrpb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-faux-fur-coat-esflr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jacques-ferber-fur-coat-erxtk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/donnybrook-faux-fur-coat-ernox</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-feraud-vintage-late-1980-s-early-1990-s-coat-eqt40</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-cape-eqjlu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/london-fog-trench-coat-eom4b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-1980-s-peacoat-eh0h5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/balenciaga-coat-eszqf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/morgane-le-fay-faux-fur-coat-esv55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/london-fog-coat-erbwi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dries-van-noten-wool-fur-coat-evs3o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-efxpv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-eqpkq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-coat-eqk0d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-animal-print-fur-coat-eq13o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-down-coat-etsgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stella-mccartney-coat-epy4m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marc-jacobs-coat-epd7r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ted-baker-coat-eo4ym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/blue-duck-faux-fur-coat-ekq2r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bod-christensen-trench-coat-eogs7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-ekdjt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/i-magnin-faux-fur-coat-eo79w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/camilla-printed-cape-eov0a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/other-fur-coat-eoocr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-faux-fur-coat-eokhe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/adolfo-dominguez-coat-emynx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/st-john-collection-plaid-print-coat-emizy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-elxfv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bill-blass-floral-print-coat-em8bk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marni-coat-emn0n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/helly-hansen-trench-coat-enywi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gryphon-coat-elm87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/acne-studios-coat-ei53t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/luciano-barbera-alpaca-coat-eohwi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/woolrich-fur-coat-eoan7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/iro-coat-en2vv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/london-fog-trench-coat-en27y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bisang-couture-fur-coat-ekt17</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/brunello-cucinelli-coat-eni3h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fleurette-coat-ek2g6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-vintage-down-coat-ektxl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-em9s1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/see-by-chloe-striped-peacoat-ellox</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/t-by-alexander-wang-coat-elfx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michael-michael-kors-parka-ekf39</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/junya-watanabe-comme-des-garcons-2019-printed-coat-ei97q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/lanvin-angora-trench-coat-ecj51</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-vintage-suede-coat-eadxk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/brunello-cucinelli-leather-fur-coat-eigbn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-down-coat-ed94i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-coat-eioai</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/harry-rosenfeld-faux-fur-coat-efy6p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-efoyv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-printed-coat-efktg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-coat-ee7pm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/columbia-parka-eemuk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mr-mrs-italy-parka-ed75v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/suzanne-rae-coat-ecncb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-saint-laurent-vintage-1980-s-fur-coat-eb67i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/st-john-peacoat-ecawy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-arrivals-down-coat-e0yrw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-faux-fur-coat-edutw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/st-john-printed-coat-ed3k1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/herno-coat-eclch</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/andrew-marc-fur-coat-eb6xa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/joseph-trench-coat-e6ti7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-linen-striped-trench-coat-e856y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-2004-trench-coat-d6ppe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-coat-e76ot</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/brunello-cucinelli-peacoat-e8ddt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/i-am-gia-coat-e7flc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alexander-mcqueen-coat-e7ce6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-vintage-1990-s-trench-coat-e58f7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-coat-e824s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/pam-gela-animal-print-faux-fur-coat-e7n9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-e7j12</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/oof-wear-faux-fur-coat-e6dzl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bill-blass-vintage-1990-s-coat-e5x87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-2005-coat-blyo3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/emilio-pucci-down-coat-e42an</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-virgin-wool-peacoat-dtd6h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-dyb2t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gimo-s-italiana-coat-dtex4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michael-kors-animal-print-trench-coat-dsu8a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/akris-coat-ds5y7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-faux-fur-coat-drihl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-coat-dsxzd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bouchra-jarrar-faux-fur-coat-drs5f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-trench-coat-dpao9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/st-john-tweed-pattern-peacoat-drg14</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-faux-fur-coat-dqd3j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michael-kors-coat-de3qp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/givenchy-vintage-1980-s-coat-dpgw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-arrivals-trench-coat-dolaa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/emanuel-ungaro-vintage-1980-s-coat-dm0mw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dolce-gabbana-wool-coat-dkawm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/derek-lam-10-crosby-fur-coat-dpjgd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alexander-mcqueen-trench-coat-dpfzn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-trench-coat-dhmzj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-faux-fur-coat-dt5zm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-fur-coat-ds93p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-leather-coat-d4fyx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michael-michael-kors-kevi-2-wool-coat-dqfge</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jean-muir-vintage-1990-s-coat-dk3w3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gianni-versace-vintage-late-1980-s-early-1990-s-trench-coat-dp1a0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/i-am-gia-animal-print-coat-w-tags-dlney</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-mink-fur-coat-cl2b1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-faux-fur-coat-crmcs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-tie-dye-print-fur-coat-d86u7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-parka-dblnx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bisang-couture-trench-coat-b80qc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/toogood-coat-d5z8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/msgm-colorblock-pattern-coat-dc7c3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fleurette-lambswool-coat-d8b35</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/pologeorgis-fur-coat-bvkis</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-2019-paris-new-york-coat-dcbex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-fur-coat-w-tags-d65qg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bogner-peacoat-dd8gz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-wool-coat-d99n3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/st-john-coat-d7q0x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/eskandar-linen-printed-coat-d6s92</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-virgin-wool-coat-d6s2l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-wool-coat-d76m5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-cw4xf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bottega-veneta-colorblock-pattern-faux-fur-coat-d882a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chanel-vintage-wool-coat-cznnd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-cw4gp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dries-van-noten-striped-faux-fur-coat-cilns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/isabel-marant-coat-co03m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-w-tags-cpe3q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-faux-fur-coat-w-tags-cpkad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/galanos-vintage-demi-couture-coat-c9pdh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/galanos-vintage-coat-c98hj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-lace-pattern-coat-cq3lu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/maison-margiela-down-coat-cbhr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sachi-wool-coat-cdlc4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/morton-s-furs-faux-fur-coat-cikmn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-faux-fur-coat-b8egl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/post-card-parka-ceysw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jane-post-coat-cjby0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/balenciaga-wool-coat-c7imp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/escada-margaretha-ley-coat-ceaw6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/canada-goose-parka-c8440</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-colorblock-pattern-peacoat-ce2ak</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dolce-gabbana-parka-cdhpk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/opifix-shearling-fur-coat-cddk9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ermenegildo-zegna-cape-cca50</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/etro-paisley-print-trench-coat-cc9yx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bally-coat-cc12f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-arrivals-atlas-coat-by6el</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/opening-ceremony-wool-animal-print-cape-c7t0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-row-silk-trench-coat-w-tags-bot6b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-fur-coat-c1aqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-cashmere-fur-coat-bywu3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-parka-w-tags-bpotz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bigardini-faux-fur-coat-c3f6j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/lauren-manoogian-coat-bssrw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fur-fur-coat-bxdoq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/michael-kors-fur-trimmed-knee-length-coat-w-tags-bwnkl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bogner-coat-bvoku</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fur-fur-coat-brc8g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-parka-bqo0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/giambattista-valli-tweed-pattern-poncho-bkoi8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fendi-vintage-1990-s-trench-coat-bg283</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bob-mackie-fur-coat-bhic9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/oscar-de-la-renta-wool-coat-b3653</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jocelyn-faux-fur-coat-bba1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/trilogy-animal-print-fur-coat-b57o4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/saga-fur-coat-9ofr8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/braschi-fur-coat-w-tags-9mrwl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-down-coat-w-tags-8rv9j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-fur-coat-92nlv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fur-fur-coat-7apt4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bisang-couture-sheared-mink-coat-NLEgFWeF3Mw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sheared-mink-long-coat-R3TiqxUMvAY</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-suede-sheared-mink-coat</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-parka-fopcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/herno-down-coat-fv6vc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-coat-fq5yh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/coat-printed-cape-e0nno</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/a-l-c-trench-coat-fn9la</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/avec-les-filles-faux-fur-coat-w-tags-fwxb5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/kate-spade-new-york-trench-coat-w-tags-fwx54</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-coat-fwx2n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-coat-fwwzf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-cashmere-coat-fwuzu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-fwkta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marc-le-bihan-coat-fwjt6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/akris-punto-trench-coat-fwjdz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/london-fog-trench-coat-fwg1a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/donna-karan-faux-fur-coat-fwfh4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/giorgio-armani-coat-fweq0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/utzon-reversible-lambskin-faux-fur-coat-fwcoi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-tweed-pattern-coat-fwbrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jil-sander-silk-coat-fw9tk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dries-van-noten-printed-coat-fw9gf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/saga-furs-fur-coat-fw6sk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/herno-coat-fmoh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-trench-coat-fl9dx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-trench-coat-w-tags-fvg6e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/la-doublej-printed-coat-w-tags-fv8qp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-down-coat-ftrj8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/fur-shearling-animal-print-fur-coat-fvz48</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-parka-fvugc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-cape-fvuf6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/black-crane-coat-fvch2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-coat-fvar8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vintage-unbranded-faux-fur-coat-fv9z1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/frame-trench-coat-fv9m1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/prada-virgin-wool-coat-fv0el</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/celine-peacoat-fur79</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/dennis-basso-fur-coat-frh5d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/acne-studios-coat-foyxa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rains-printed-parka-f9uxu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-faux-fur-coat-fozk9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-cashmere-coat-ftth2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-genevriette-down-coat-fl2hn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-faux-fur-coat-frstu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/yves-salomon-reversible-lamb-fur-fur-coat-w-tags-fw85k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/meteo-by-yves-salomon-lambskin-faux-fur-coat-fv3zc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-elder-statesman-coat-w-tags-fuye5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-virgin-wool-graphic-print-coat-fw4t6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-fvggj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-row-lambskin-trench-coat-fvgee</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tory-burch-striped-coat-fv2ij</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-peacoat-fv1a8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-london-trench-coat-fuguu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-coat-w-tags-ftc6w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marni-2014-lamb-leather-faux-fur-coat-fu3c5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-peacoat-fpj5r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/weekend-max-mara-parka-fmhb7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-camel-hair-trench-coat-fqxxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marvin-richards-down-coat-w-tags-fvj6s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-faux-fur-coat-fwfpi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/denimaxx-cape-fwams</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-moka-down-coat-fwa37</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/adrienne-landau-animal-print-fur-coat-fwa28</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/cinzia-rocca-cashmere-coat-fw7s1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-peacoat-fvk0k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/etoile-isabel-marant-tweed-pattern-faux-fur-coat-fvjyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/oblique-creations-coat-fvig3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/blumarine-animal-print-coat-fvg9i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/momoni-faux-fur-coat-fvace</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/lafayette-148-tweed-pattern-faux-fur-coat-fv1lu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-coat-fv0ne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/bonwit-teller-fur-coat-fuxa7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-prorsum-peacoat-fu7ju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-wool-w-tags-c57pf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/calvin-klein-collection-2013-animal-print-trench-coat-fvk4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/msgm-coat-w-tags-fvmwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/derek-lam-virgin-wool-coat-fvwuu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/costume-national-trench-coat-fvs95</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sandro-coat-fv6xx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/a-l-c-faux-fur-coat-fpx5q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/akris-x-bergdorf-goodman-cashmere-coat-fi6lb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/maje-cape-fj4q3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-bady-down-coat-w-tags-fq8c4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/valentino-parka-fvazk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-virgin-wool-coat-fv8pw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-tinuv-down-coat-fv880</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/narciso-rodriguez-leather-fur-coat-fv7r0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-fur-coat-ftjoo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-studio-fur-coat-fqxa5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/acne-studios-down-coat-fmmj1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vivienne-hu-tweed-pattern-coat-w-tags-fvtaz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/chloe-2019-virgin-wool-cape-w-tags-fttg5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/duvetica-faux-fur-coat-fvv3v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-lambswool-trench-coat-fvi4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-coat-fvemr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/saks-potts-shearling-fur-coat-frllj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/mackage-down-coat-fya2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/soia-kyo-parka-fw0l5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/maison-martin-margiela-vintage-2004-coat-ffrfe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alexander-mcqueen-trench-coat-ff79b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rebecca-taylor-animal-print-faux-fur-coat-fw27r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/isabel-marant-plaid-print-coat-fw11a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/unsigned-mink-fur-coat-fhb4n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jacket-coat-eeohj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/coat-leather-fur-coat-e7vu8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/blk-dnm-peacoat-ft52n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/intuition-paris-lamb-leather-fur-coat-fqdzi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ralph-lauren-peacoat-ftgv6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rta-denim-fur-coat-f6epu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-lambskin-trimmed-double-face-wool-cashmere-trench-coat-w-tags-fm6ct</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/allsaints-coat-fuxlx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ted-baker-peacoat-fus4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-brit-trench-coat-fun6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-adoxa-down-coat-fu05a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/donna-karan-faux-fur-coat-ftlus</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/gucci-2018-gg-macrame-coat-ftg2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loewe-coat-ftba0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/missoni-faux-fur-coat-ft8wp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/celine-peacoat-fmndv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/r-g-kane-coat-enpzn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/vince-coat-fnqy7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/coach-1941-lamb-leather-trench-coat-fqbh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/r13-faux-fur-coat-fvf8m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/the-north-face-parka-fveek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-alpaca-trench-coat-fm5ff</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/elisabetta-franchi-down-coat-fkoc3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/issey-miyake-faux-fur-coat-fm3p7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/celine-trench-coat-fnban</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/petite-studio-nyc-trench-coat-fupd1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/tibi-coat-fuhfz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-coat-fueaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/burberry-s-trench-coat-fu71s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/nili-lotan-coat-fu6jt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-faux-fur-coat-fu488</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/oak-fort-peacoat-fu3jt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/hobbs-london-coat-fu35n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/co-trench-coat-fu2bb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/monica-byrne-cape-ftv89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/loro-piana-coat-fto9d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/alexander-wang-virgin-wool-coat-ftnx9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/marc-by-marc-jacobs-fur-coat-ftflr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/sandro-trench-coat-fsrch</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/martin-grant-printed-trench-coat-fpqit</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/jean-paul-gaultier-classique-vintage-late-1990-s-early-2000-s-peacoat-fpjsn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/moncler-flammette-down-coat-fm65f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/a-l-c-plaid-print-coat-w-tags-fv2co</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ch-carolina-herrera-peacoat-fv9zb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/max-mara-cashmere-colorblock-pattern-coat-fv5ns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/s-max-mara-virgin-wool-coat-fv47y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-biker-jacket-fwi4c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/l-agence-striped-blazer-fwl53</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/paule-ka-tweed-pattern-evening-jacket-fwkgt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-evening-jacket-fwioy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rene-lezard-evening-jacket-fwicq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-blazer-fwi63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rodebjer-blazer-fwhho</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-kooples-blazer-fwgum</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-plaid-print-blazer-fwgf1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-tweed-pattern-evening-jacket-fwgdu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-fwfzt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-jacket-fwfwv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joseph-blazer-fwfn2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/blaze-milano-plaid-print-blazer-fwfjx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-houndstooth-print-blazer-fwf66</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-leather-vest-fwm4l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/isabel-marant-evening-jacket-fwln2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-evening-jacket-fwkny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-jacket-fwkma</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-printed-blazer-fwkdo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-down-jacket-fwkbw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-animal-print-evening-jacket-fwk4c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/haute-hippie-fur-jacket-fwk32</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-printed-blazer-fwk2p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jocelyn-down-jacket-fwjvp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-fwjfb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-striped-evening-jacket-fwjet</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-fwjaj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fwj5s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/frame-evening-jacket-fwj50</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fjallraven-faux-fur-jacket-fwixj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-evening-jacket-fwioq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/aviator-nation-jacket-fwin1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-alpaca-tweed-pattern-evening-jacket-fwimq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-plaid-print-cape-fvisk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-denim-jacket-w-tags-fwf4a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-blazer-fwe4a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fwe1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-blazer-fwcpj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fleur-du-mal-silk-printed-blazer-fwckg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jocelyn-faux-fur-jacket-w-tags-fwbvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-plaid-print-blazer-fwbus</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-minkoff-lamb-leather-biker-jacket-fwal3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-blazer-fwagd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-virgin-wool-blazer-fw8p5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fw7ne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fw723</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-blazer-fw6y3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/leggiadro-animal-print-evening-jacket-fw6ka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-tweed-pattern-blazer-fvkqs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adidas-x-ivy-park-blazer-fvjw7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/for-love-lemons-blazer-fvfn2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-shearling-fur-jacket-w-tags-furrx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1998-blazer-fuqd5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ohne-titel-suede-biker-jacket-fwill</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-vest-fwifl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-tweed-pattern-evening-jacket-fwidj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-faux-fur-jacket-fwic6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-evening-jacket-fwibq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-plaid-print-evening-jacket-fwiap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-printed-evening-jacket-fwiag</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-blazer-fwi30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-leather-biker-jacket-fwhzr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/y-3-denim-jacket-fwhm3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-lamb-leather-biker-jacket-fwhg4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-kooples-down-jacket-fwhcs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-virgin-wool-jacket-fwh1x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-by-marc-jacobs-denim-jacket-fwgkx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/see-by-chloe-leather-biker-jacket-fwgik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/intermix-leather-biker-jacket-fwg7p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-fwg6g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/see-by-chloe-evening-jacket-fwg2y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/aviator-nation-striped-performance-jacket-fwfvl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-lamb-leather-evening-jacket-fwfrf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-denim-jacket-fwfhx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-jacket-fwf32</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/salvatore-santoro-leather-evening-jacket-fwezn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/thes-thes-fur-jacket-fwdeu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/leggiadro-tweed-pattern-blazer-fwd6l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ugg-leather-faux-fur-jacket-fwd04</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-colorblock-pattern-vest-fwcvu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maje-leather-biker-jacket-fwcv8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-leather-biker-jacket-fwbwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/parajumpers-vest-fwbwn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mackage-down-jacket-fwbvl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fwbum</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-lamb-leather-biker-jacket-fwb4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-evening-jacket-fwaeu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/leggiadro-evening-jacket-fwa47</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/leggiadro-evening-jacket-fwa2k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-fur-jacket-fw86a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/levi-s-made-crafted-colorblock-pattern-denim-jacket-fw7ac</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-plaid-print-evening-jacket-fw71t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fw6rh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-by-marc-jacobs-jacket-fw5yv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-drkshdw-biker-jacket-fw27l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zimmermann-bolero-fw1sp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fw0yp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fvzam</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fvxcu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fvp16</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fvp05</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/calypso-printed-cape-fvo6m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-jacket-fvo3v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alberto-makali-printed-cape-fvmpy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/holzweiler-down-jacket-fvljx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/frame-utility-jacket-fvkvd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/peuterey-vest-fvkcw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/facetasm-denim-jacket-fvf4z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/wathne-vest-fvdds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-utility-jacket-fvbqy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-tweed-pattern-jacket-fv6pt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/peuterey-performance-jacket-fv5n7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2017-graphic-print-jacket-fv2jk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2018-floral-print-bomber-jacket-fv198</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-x-ellesse-merino-wool-vest-fv0mw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-bomber-jacket-futvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/cinq-a-sept-leather-biker-jacket-fs9lt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-fo73h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2004-evening-jacket-fpute</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2009-silk-blazer-fpe7h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/j-mendel-mink-fur-jacket-fzizw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fn7s5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/crossley-blazer-fzhzx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-utility-jacket-fmh5j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-minkoff-down-jacket-fowr4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-blazer-fzc0w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-leather-cape-fowem</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2011-blazer-fzaa0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2013-hymalay-down-jacket-fz9yt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-evening-jacket-freef</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-2008-tweed-pattern-blazer-fz8fp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-plaid-print-blazer-fpoep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/issey-miyake-vintage-2008-jacket-f3bvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/area-jacket-fz719</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-ft7p5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nike-x-ambush-printed-jacket-fz5ui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/isabel-marant-utility-jacket-fz5hc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-vintage-1985-evening-jacket-fz5h3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-denim-jacket-w-tags-fkhm1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1996-blazer-fz4i6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1998-blazer-fz45z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-1997-wool-evening-jacket-fz42q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fpkg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-virgin-wool-blazer-fvyf3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-virgin-wool-evening-jacket-fvqb2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-silk-utility-jacket-fvi12</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-silk-blazer-fw0ky</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-denim-jacket-fvzew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/issey-miyake-blazer-fvzcq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mary-mcfadden-evening-jacket-fvyf7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rena-lange-silk-blazer-fvu52</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-virgin-wool-plaid-print-blazer-fvt2m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2013-blazer-fvrtu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-blazer-fvrls</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-tweed-pattern-evening-jacket-fvr6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2010-silk-blazer-fvmbb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-blazer-fvimg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-blazer-fvidc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/walter-baker-leather-evening-jacket-fvcot</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-virgin-wool-blazer-ftrib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-bomber-jacket-fuuqm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-calfskin-jacket-fun73</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pam-gela-animal-print-jacket-w-tags-fvaak</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-plaid-print-blazer-fva17</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hunter-bomber-jacket-w-tags-fv87a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2011-utility-jacket-fv607</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-jacket-fv18h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-blazer-fv0cn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-blazer-fuy4o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-blazer-fuvvw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/proenza-schouler-printed-evening-jacket-fuvlb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-utility-jacket-fuu1t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2018-contrast-trim-blazer-futxp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2011-blazer-futpk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carolina-herrera-blazer-fusyu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/isabel-marant-blazer-fuqyj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-blazer-fup3v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-jacket-fuok1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-houndstooth-print-blazer-funiw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-blazer-fueui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-blazer-fudyf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-blazer-fudcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-blazer-fublq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fu8mb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-w-tags-fu3q8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-ftzwo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-plaid-print-blazer-ftzvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loewe-2020-cropped-fur-jacket-ftyc2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-ftuhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-blazer-fttmg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-virgin-wool-blazer-ftswj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-ftrzy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-blazer-ftrax</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-2016-bomber-jacket-fw0u4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-blazer-ftacb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-1998-blazer-fqu0e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-blazer-ftpwy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/golden-goose-jacket-ftlx3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-w-tags-ft433</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-vest-w-tags-ft1p4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-utility-jacket-w-tags-ft0pt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-shearling-fur-jacket-w-tags-fsrh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-blazer-fshz9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-striped-jacket-fs22y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-jacket-fs1al</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-virgin-wool-blazer-fs0x1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1999-blazer-fs0ba</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-frz2x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-virgin-wool-striped-blazer-froo2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-frky9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-blazer-fqywl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-fqytp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-printed-blazer-fqy5l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/thierry-mugler-vintage-1990-s-blazer-fques</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-utility-jacket-fqma0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-2005-blazer-fqjt9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/issey-miyake-vintage-2003-blazer-fqg2n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/argent-virgin-wool-blazer-fpz97</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-virgin-wool-blazer-fpuu4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1998-blazer-fp1ai</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-late-1990-s-early-2000-s-evening-jacket-folu4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-plaid-print-blazer-fojgo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-vintage-1980-s-blazer-foja8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-blazer-fn0ow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-vintage-2000-s-blazer-fmi00</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-cheap-and-chic-vintage-2000-s-blazer-flkbg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/off-white-c-o-virgil-abloh-blazer-fjl2r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-printed-evening-jacket-fw0ge</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-utility-jacket-fw0g6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-printed-evening-jacket-fw09l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbara-bui-lambskin-biker-jacket-fw09f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-2008-tweed-pattern-evening-jacket-fvzpv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-tweed-pattern-evening-jacket-fvyok</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karl-lagerfeld-tweed-pattern-evening-jacket-fvyhj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/isabel-marant-vest-fvy14</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-fvxkl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-salomon-fur-jacket-fvxi8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-faux-fur-jacket-fvxg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ami-biker-jacket-fvxb6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-collection-leather-evening-jacket-fvww9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-bady-down-jacket-fvwb7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-fvw65</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alaia-animal-print-evening-jacket-fvuc9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-down-jacket-fvu5t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saks-fifth-avenue-silk-bomber-jacket-fvtv7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-fur-jacket-fvssq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-evening-jacket-fvpns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carolina-herrera-printed-evening-jacket-fvpd8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-1980-s-jacket-fvomg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-silk-bomber-jacket-fvlv2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-animal-print-utility-jacket-fvj0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-fvhcf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-calf-leather-jacket-fvek7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-jacket-fvejf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-jacket-fvcvj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-fvbzj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-sport-jacket-fvbrd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marmot-down-jacket-fvbjo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jocelyn-fur-jacket-fvbfz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/norma-kamali-biker-jacket-fvavz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-w-tags-fbjjk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-striped-blazer-w-tags-f30ad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nili-lotan-down-jacket-fi4t8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-black-label-blazer-fffa8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-blazer-f1fi0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-tweed-pattern-evening-jacket-f0673</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-tweed-pattern-evening-jacket-w-tags-deham</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mother-the-smoker-blazer-d7adc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/derek-lam-10-crosby-striped-blazer-bzjyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-vest-fvai3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-cheap-and-chic-virgin-wool-evening-jacket-fva4w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-printed-evening-jacket-fv9ym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-faux-fur-jacket-fv9t6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/soia-kyo-lamb-leather-biker-jacket-fv9p8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-suede-blazer-fv9hx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mother-of-pearl-utility-jacket-fv9ex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vakko-leather-biker-jacket-fv9dm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fv9a5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fv98c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/agolde-denim-jacket-fv95w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fv90f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-jacket-fv8yc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-utility-jacket-fv3yx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-fv1vh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-utility-jacket-fv1vf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-fuzto</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-utility-jacket-fuztl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-blazer-fuy5c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-bolero-fuxzw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-jacket-fuxbm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-utility-jacket-fuwho</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-utility-jacket-fuvq8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-striped-jacket-fuust</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-jacket-futo1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/telfar-jacket-furzt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-striped-vest-fur40</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-suede-biker-jacket-fur0k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-fur0b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-biker-jacket-fuqy1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-fuqp2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-jacket-fuqhn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-blazer-fupoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-leather-jacket-fuotp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-funzc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-animal-print-cape-fumsu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carmen-marc-valvo-bolero-fultp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/3-1-phillip-lim-vest-fuk7q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-fur-jacket-fujuw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-evening-jacket-fujm0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-evening-jacket-fuj0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/current-elliott-denim-jacket-fuihj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-vest-fuctf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/l-agence-denim-jacket-fuchz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-biker-jacket-fucd1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/haute-hippie-vest-fubg9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/harvey-faircloth-colorblock-pattern-utility-jacket-fuaxb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-fu4iv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-fu3w2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-utility-jacket-fu3sr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ted-baker-jacket-fu247</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-printed-evening-jacket-fu1sl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-jacket-fu10p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/junya-watanabe-comme-des-garcons-jacket-fu0tf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-ftzwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-floral-print-evening-jacket-ftzp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-cheap-and-chic-jacket-ftxsa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emilio-pucci-printed-blazer-ftxrc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-plaid-print-utility-jacket-ftrds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-utility-jacket-ftr53</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-jacket-ftr3n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-utility-jacket-ftohw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-late-1990-s-early-2000-s-vest-ftlis</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-striped-vest-ftdga</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-fur-jacket-ft6l5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-1999-blazer-ft03j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-jacket-fszz0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-leather-blazer-fsw9a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-leather-striped-biker-jacket-fsvpn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2017-floral-print-evening-jacket-fst87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-denim-jacket-fso7e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-zoe-evening-jacket-fsih0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-jacket-fsf3n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-1993-vest-fsecl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-vintage-2000-s-blazer-fsdmd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-2003-denim-jacket-fsa1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-bomber-jacket-fs3mi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-printed-blazer-frkxq</t>
   </si>
   <si>
     <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-leather-jacket-frktk</t>
@@ -12570,10 +9291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4071"/>
+  <dimension ref="A1:A2978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4071" workbookViewId="0">
-      <selection activeCell="A4071" sqref="A4071"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27468,5471 +24189,6 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="2979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2979" t="s">
-        <v>2978</v>
-      </c>
-    </row>
-    <row r="2980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2980" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="2981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2981" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="2982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2982" t="s">
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="2983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2983" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="2984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2984" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="2985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2985" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="2986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2986" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="2987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2987" t="s">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="2988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2988" t="s">
-        <v>2987</v>
-      </c>
-    </row>
-    <row r="2989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2989" t="s">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="2990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2990" t="s">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="2991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2991" t="s">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="2992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2992" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2993" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="2994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2994" t="s">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2995" t="s">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="2996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2996" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="2997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2997" t="s">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="2998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2998" t="s">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="2999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2999" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="3000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3000" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="3001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3001" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3002" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="3003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3003" t="s">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="3004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3004" t="s">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="3005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3005" t="s">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="3006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3006" t="s">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="3007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3007" t="s">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="3008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3008" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="3009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3009" t="s">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="3010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3010" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="3011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3011" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="3012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3012" t="s">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="3013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3013" t="s">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="3014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3014" t="s">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="3015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3015" t="s">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3016" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="3017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3017" t="s">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3018" t="s">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="3019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3019" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3020" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3021" t="s">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="3022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3022" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3023" t="s">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3024" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="3025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3025" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="3026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3026" t="s">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="3027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3027" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="3028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3028" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="3029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3029" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="3030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3030" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="3031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3031" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="3032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3032" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="3033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3033" t="s">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="3034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3034" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="3035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3035" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="3036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3036" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="3037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3037" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="3038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3038" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="3039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3039" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="3040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3040" t="s">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="3041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3041" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="3042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3042" t="s">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="3043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3043" t="s">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="3044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3044" t="s">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="3045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3045" t="s">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="3046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3046" t="s">
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="3047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3047" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="3048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3048" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="3049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3049" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="3050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3050" t="s">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="3051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3051" t="s">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="3052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3052" t="s">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="3053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3053" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="3054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3054" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="3055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3055" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="3056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3056" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="3057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3057" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="3058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3058" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="3059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3059" t="s">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="3060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3060" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="3061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3061" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3062" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="3063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3063" t="s">
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="3064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3064" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="3065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3065" t="s">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="3066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3066" t="s">
-        <v>3065</v>
-      </c>
-    </row>
-    <row r="3067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3067" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3068" t="s">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3069" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="3070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3070" t="s">
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3071" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3072" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="3073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3073" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="3074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3074" t="s">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="3075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3075" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="3076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3076" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="3077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3077" t="s">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="3078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3078" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="3079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3079" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="3080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3080" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="3081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3081" t="s">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="3082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3082" t="s">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="3083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3083" t="s">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="3084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3084" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="3085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3085" t="s">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="3086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3086" t="s">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="3087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3087" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="3088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3088" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="3089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3089" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="3090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3090" t="s">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="3091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3091" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="3092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3092" t="s">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="3093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3093" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="3094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3094" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="3095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3095" t="s">
-        <v>3094</v>
-      </c>
-    </row>
-    <row r="3096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3096" t="s">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="3097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3097" t="s">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="3098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3098" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="3099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3099" t="s">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="3100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3100" t="s">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="3101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3101" t="s">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="3102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3102" t="s">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="3103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3103" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="3104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3104" t="s">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="3105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3105" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="3106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3106" t="s">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="3107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3107" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="3108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3108" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="3109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3109" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="3110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3110" t="s">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="3111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3111" t="s">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="3112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3112" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="3113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3113" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="3114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3114" t="s">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="3115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3115" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="3116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3116" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="3117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3117" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="3118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3118" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="3119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3119" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3120" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3121" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3122" t="s">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3123" t="s">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3124" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3125" t="s">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3126" t="s">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3127" t="s">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3128" t="s">
-        <v>3127</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3129" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3130" t="s">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3131" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3132" t="s">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3133" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3134" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3135" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3136" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3137" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3138" t="s">
-        <v>3137</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3139" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3140" t="s">
-        <v>3139</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3141" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3142" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3143" t="s">
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3144" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3145" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3146" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3147" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3148" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3149" t="s">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3150" t="s">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3151" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3152" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3153" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3154" t="s">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3155" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3156" t="s">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3157" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3158" t="s">
-        <v>3157</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3159" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3160" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3161" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3162" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3163" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3164" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3165" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3166" t="s">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3167" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3168" t="s">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3169" t="s">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3170" t="s">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3171" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3172" t="s">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3173" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3174" t="s">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3175" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3176" t="s">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3177" t="s">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3178" t="s">
-        <v>3177</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3179" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3180" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3181" t="s">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3182" t="s">
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3183" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3184" t="s">
-        <v>3183</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3185" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3186" t="s">
-        <v>3185</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3187" t="s">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3188" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3189" t="s">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3190" t="s">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3191" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3192" t="s">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3193" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3194" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3195" t="s">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3196" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3197" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3198" t="s">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3199" t="s">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3200" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3201" t="s">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3202" t="s">
-        <v>3201</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3203" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3204" t="s">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3205" t="s">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3206" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3207" t="s">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3208" t="s">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3209" t="s">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3210" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3211" t="s">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3212" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3213" t="s">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3214" t="s">
-        <v>3213</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3215" t="s">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3216" t="s">
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3217" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3218" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="3219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3219" t="s">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="3220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3220" t="s">
-        <v>3219</v>
-      </c>
-    </row>
-    <row r="3221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3221" t="s">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="3222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3222" t="s">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="3223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3223" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="3224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3224" t="s">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="3225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3225" t="s">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="3226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3226" t="s">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="3227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3227" t="s">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="3228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3228" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="3229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3229" t="s">
-        <v>3228</v>
-      </c>
-    </row>
-    <row r="3230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3230" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="3231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3231" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="3232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3232" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="3233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3233" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="3234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3234" t="s">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="3235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3235" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="3236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3236" t="s">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3237" t="s">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="3238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3238" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="3239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3239" t="s">
-        <v>3238</v>
-      </c>
-    </row>
-    <row r="3240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3240" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="3241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3241" t="s">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="3242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3242" t="s">
-        <v>3241</v>
-      </c>
-    </row>
-    <row r="3243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3243" t="s">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="3244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3244" t="s">
-        <v>3243</v>
-      </c>
-    </row>
-    <row r="3245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3245" t="s">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="3246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3246" t="s">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="3247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3247" t="s">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="3248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3248" t="s">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="3249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3249" t="s">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="3250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3250" t="s">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="3251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3251" t="s">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="3252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3252" t="s">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="3253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3253" t="s">
-        <v>3252</v>
-      </c>
-    </row>
-    <row r="3254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3254" t="s">
-        <v>3253</v>
-      </c>
-    </row>
-    <row r="3255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3255" t="s">
-        <v>3254</v>
-      </c>
-    </row>
-    <row r="3256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3256" t="s">
-        <v>3255</v>
-      </c>
-    </row>
-    <row r="3257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3257" t="s">
-        <v>3256</v>
-      </c>
-    </row>
-    <row r="3258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3258" t="s">
-        <v>3257</v>
-      </c>
-    </row>
-    <row r="3259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3259" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="3260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3260" t="s">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="3261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3261" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="3262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3262" t="s">
-        <v>3261</v>
-      </c>
-    </row>
-    <row r="3263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3263" t="s">
-        <v>3262</v>
-      </c>
-    </row>
-    <row r="3264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3264" t="s">
-        <v>3263</v>
-      </c>
-    </row>
-    <row r="3265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3265" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="3266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3266" t="s">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="3267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3267" t="s">
-        <v>3266</v>
-      </c>
-    </row>
-    <row r="3268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3268" t="s">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="3269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3269" t="s">
-        <v>3268</v>
-      </c>
-    </row>
-    <row r="3270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3270" t="s">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="3271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3271" t="s">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="3272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3272" t="s">
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="3273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3273" t="s">
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="3274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3274" t="s">
-        <v>3273</v>
-      </c>
-    </row>
-    <row r="3275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3275" t="s">
-        <v>3274</v>
-      </c>
-    </row>
-    <row r="3276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3276" t="s">
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="3277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3277" t="s">
-        <v>3276</v>
-      </c>
-    </row>
-    <row r="3278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3278" t="s">
-        <v>3277</v>
-      </c>
-    </row>
-    <row r="3279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3279" t="s">
-        <v>3278</v>
-      </c>
-    </row>
-    <row r="3280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3280" t="s">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="3281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3281" t="s">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="3282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3282" t="s">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="3283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3283" t="s">
-        <v>3282</v>
-      </c>
-    </row>
-    <row r="3284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3284" t="s">
-        <v>3283</v>
-      </c>
-    </row>
-    <row r="3285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3285" t="s">
-        <v>3284</v>
-      </c>
-    </row>
-    <row r="3286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3286" t="s">
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="3287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3287" t="s">
-        <v>3286</v>
-      </c>
-    </row>
-    <row r="3288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3288" t="s">
-        <v>3287</v>
-      </c>
-    </row>
-    <row r="3289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3289" t="s">
-        <v>3288</v>
-      </c>
-    </row>
-    <row r="3290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3290" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="3291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3291" t="s">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="3292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3292" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="3293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3293" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="3294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3294" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="3295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3295" t="s">
-        <v>3294</v>
-      </c>
-    </row>
-    <row r="3296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3296" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="3297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3297" t="s">
-        <v>3296</v>
-      </c>
-    </row>
-    <row r="3298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3298" t="s">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="3299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3299" t="s">
-        <v>3298</v>
-      </c>
-    </row>
-    <row r="3300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3300" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="3301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3301" t="s">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3302" t="s">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="3303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3303" t="s">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="3304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3304" t="s">
-        <v>3303</v>
-      </c>
-    </row>
-    <row r="3305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3305" t="s">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="3306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3306" t="s">
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="3307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3307" t="s">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="3308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3308" t="s">
-        <v>3307</v>
-      </c>
-    </row>
-    <row r="3309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3309" t="s">
-        <v>3308</v>
-      </c>
-    </row>
-    <row r="3310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3310" t="s">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="3311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3311" t="s">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="3312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3312" t="s">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="3313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3313" t="s">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="3314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3314" t="s">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="3315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3315" t="s">
-        <v>3314</v>
-      </c>
-    </row>
-    <row r="3316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3316" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="3317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3317" t="s">
-        <v>3316</v>
-      </c>
-    </row>
-    <row r="3318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3318" t="s">
-        <v>3317</v>
-      </c>
-    </row>
-    <row r="3319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3319" t="s">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="3320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3320" t="s">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="3321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3321" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="3322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3322" t="s">
-        <v>3321</v>
-      </c>
-    </row>
-    <row r="3323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3323" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="3324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3324" t="s">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="3325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3325" t="s">
-        <v>3324</v>
-      </c>
-    </row>
-    <row r="3326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3326" t="s">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="3327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3327" t="s">
-        <v>3326</v>
-      </c>
-    </row>
-    <row r="3328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3328" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="3329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3329" t="s">
-        <v>3328</v>
-      </c>
-    </row>
-    <row r="3330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3330" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="3331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3331" t="s">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="3332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3332" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="3333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3333" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="3334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3334" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="3335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3335" t="s">
-        <v>3334</v>
-      </c>
-    </row>
-    <row r="3336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3336" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="3337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3337" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="3338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3338" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="3339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3339" t="s">
-        <v>3338</v>
-      </c>
-    </row>
-    <row r="3340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3340" t="s">
-        <v>3339</v>
-      </c>
-    </row>
-    <row r="3341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3341" t="s">
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="3342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3342" t="s">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="3343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3343" t="s">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="3344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3344" t="s">
-        <v>3343</v>
-      </c>
-    </row>
-    <row r="3345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3345" t="s">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="3346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3346" t="s">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="3347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3347" t="s">
-        <v>3346</v>
-      </c>
-    </row>
-    <row r="3348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3348" t="s">
-        <v>3347</v>
-      </c>
-    </row>
-    <row r="3349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3349" t="s">
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="3350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3350" t="s">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="3351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3351" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="3352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3352" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="3353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3353" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="3354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3354" t="s">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="3355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3355" t="s">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="3356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3356" t="s">
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="3357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3357" t="s">
-        <v>3356</v>
-      </c>
-    </row>
-    <row r="3358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3358" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="3359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3359" t="s">
-        <v>3358</v>
-      </c>
-    </row>
-    <row r="3360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3360" t="s">
-        <v>3359</v>
-      </c>
-    </row>
-    <row r="3361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3361" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="3362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3362" t="s">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="3363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3363" t="s">
-        <v>3362</v>
-      </c>
-    </row>
-    <row r="3364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3364" t="s">
-        <v>3363</v>
-      </c>
-    </row>
-    <row r="3365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3365" t="s">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="3366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3366" t="s">
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="3367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3367" t="s">
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="3368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3368" t="s">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="3369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3369" t="s">
-        <v>3368</v>
-      </c>
-    </row>
-    <row r="3370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3370" t="s">
-        <v>3369</v>
-      </c>
-    </row>
-    <row r="3371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3371" t="s">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="3372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3372" t="s">
-        <v>3371</v>
-      </c>
-    </row>
-    <row r="3373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3373" t="s">
-        <v>3372</v>
-      </c>
-    </row>
-    <row r="3374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3374" t="s">
-        <v>3373</v>
-      </c>
-    </row>
-    <row r="3375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3375" t="s">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="3376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3376" t="s">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="3377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3377" t="s">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="3378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3378" t="s">
-        <v>3377</v>
-      </c>
-    </row>
-    <row r="3379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3379" t="s">
-        <v>3378</v>
-      </c>
-    </row>
-    <row r="3380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3380" t="s">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="3381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3381" t="s">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="3382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3382" t="s">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="3383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3383" t="s">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="3384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3384" t="s">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="3385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3385" t="s">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="3386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3386" t="s">
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="3387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3387" t="s">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="3388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3388" t="s">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="3389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3389" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="3390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3390" t="s">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="3391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3391" t="s">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="3392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3392" t="s">
-        <v>3391</v>
-      </c>
-    </row>
-    <row r="3393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3393" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="3394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3394" t="s">
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="3395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3395" t="s">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="3396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3396" t="s">
-        <v>3395</v>
-      </c>
-    </row>
-    <row r="3397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3397" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="3398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3398" t="s">
-        <v>3397</v>
-      </c>
-    </row>
-    <row r="3399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3399" t="s">
-        <v>3398</v>
-      </c>
-    </row>
-    <row r="3400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3400" t="s">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3401" t="s">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3402" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="3403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3403" t="s">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="3404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3404" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="3405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3405" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="3406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3406" t="s">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="3407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3407" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="3408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3408" t="s">
-        <v>3407</v>
-      </c>
-    </row>
-    <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3409" t="s">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3410" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row r="3411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3411" t="s">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="3412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3412" t="s">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="3413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3413" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="3414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3414" t="s">
-        <v>3413</v>
-      </c>
-    </row>
-    <row r="3415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3415" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="3416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3416" t="s">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="3417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3417" t="s">
-        <v>3416</v>
-      </c>
-    </row>
-    <row r="3418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3418" t="s">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="3419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3419" t="s">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="3420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3420" t="s">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="3421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3421" t="s">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="3422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3422" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="3423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3423" t="s">
-        <v>3422</v>
-      </c>
-    </row>
-    <row r="3424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3424" t="s">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="3425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3425" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="3426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3426" t="s">
-        <v>3425</v>
-      </c>
-    </row>
-    <row r="3427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3427" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="3428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3428" t="s">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="3429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3429" t="s">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="3430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3430" t="s">
-        <v>3429</v>
-      </c>
-    </row>
-    <row r="3431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3431" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="3432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3432" t="s">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="3433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3433" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="3434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3434" t="s">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="3435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3435" t="s">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="3436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3436" t="s">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="3437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3437" t="s">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="3438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3438" t="s">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="3439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3439" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="3440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3440" t="s">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="3441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3441" t="s">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="3442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3442" t="s">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="3443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3443" t="s">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="3444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3444" t="s">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="3445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3445" t="s">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="3446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3446" t="s">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="3447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3447" t="s">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="3448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3448" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3449" t="s">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="3450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3450" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="3451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3451" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="3452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3452" t="s">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="3453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3453" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="3454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3454" t="s">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="3455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3455" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="3456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3456" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="3457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3457" t="s">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="3458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3458" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="3459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3459" t="s">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="3460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3460" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="3461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3461" t="s">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="3462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3462" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="3463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3463" t="s">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="3464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3464" t="s">
-        <v>3463</v>
-      </c>
-    </row>
-    <row r="3465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3465" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="3466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3466" t="s">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="3467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3467" t="s">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="3468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3468" t="s">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="3469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3469" t="s">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3470" t="s">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="3471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3471" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="3472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3472" t="s">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="3473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3473" t="s">
-        <v>3472</v>
-      </c>
-    </row>
-    <row r="3474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3474" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3475" t="s">
-        <v>3474</v>
-      </c>
-    </row>
-    <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3476" t="s">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="3477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3477" t="s">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3478" t="s">
-        <v>3477</v>
-      </c>
-    </row>
-    <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3479" t="s">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="3480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3480" t="s">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="3481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3481" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="3482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3482" t="s">
-        <v>3481</v>
-      </c>
-    </row>
-    <row r="3483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3483" t="s">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="3484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3484" t="s">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="3485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3485" t="s">
-        <v>3484</v>
-      </c>
-    </row>
-    <row r="3486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3486" t="s">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="3487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3487" t="s">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="3488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3488" t="s">
-        <v>3487</v>
-      </c>
-    </row>
-    <row r="3489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3489" t="s">
-        <v>3488</v>
-      </c>
-    </row>
-    <row r="3490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3490" t="s">
-        <v>3489</v>
-      </c>
-    </row>
-    <row r="3491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3491" t="s">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="3492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3492" t="s">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="3493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3493" t="s">
-        <v>3492</v>
-      </c>
-    </row>
-    <row r="3494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3494" t="s">
-        <v>3493</v>
-      </c>
-    </row>
-    <row r="3495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3495" t="s">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="3496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3496" t="s">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="3497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3497" t="s">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="3498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3498" t="s">
-        <v>3497</v>
-      </c>
-    </row>
-    <row r="3499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3499" t="s">
-        <v>3498</v>
-      </c>
-    </row>
-    <row r="3500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3500" t="s">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="3501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3501" t="s">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3502" t="s">
-        <v>3501</v>
-      </c>
-    </row>
-    <row r="3503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3503" t="s">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="3504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3504" t="s">
-        <v>3503</v>
-      </c>
-    </row>
-    <row r="3505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3505" t="s">
-        <v>3504</v>
-      </c>
-    </row>
-    <row r="3506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3506" t="s">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="3507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3507" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="3508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3508" t="s">
-        <v>3507</v>
-      </c>
-    </row>
-    <row r="3509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3509" t="s">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="3510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3510" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="3511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3511" t="s">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="3512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3512" t="s">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="3513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3513" t="s">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="3514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3514" t="s">
-        <v>3513</v>
-      </c>
-    </row>
-    <row r="3515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3515" t="s">
-        <v>3514</v>
-      </c>
-    </row>
-    <row r="3516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3516" t="s">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="3517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3517" t="s">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="3518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3518" t="s">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="3519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3519" t="s">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="3520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3520" t="s">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="3521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3521" t="s">
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="3522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3522" t="s">
-        <v>3521</v>
-      </c>
-    </row>
-    <row r="3523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3523" t="s">
-        <v>3522</v>
-      </c>
-    </row>
-    <row r="3524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3524" t="s">
-        <v>3523</v>
-      </c>
-    </row>
-    <row r="3525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3525" t="s">
-        <v>3524</v>
-      </c>
-    </row>
-    <row r="3526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3526" t="s">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="3527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3527" t="s">
-        <v>3526</v>
-      </c>
-    </row>
-    <row r="3528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3528" t="s">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="3529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3529" t="s">
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="3530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3530" t="s">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="3531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3531" t="s">
-        <v>3530</v>
-      </c>
-    </row>
-    <row r="3532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3532" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="3533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3533" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="3534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3534" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="3535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3535" t="s">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="3536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3536" t="s">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="3537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3537" t="s">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="3538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3538" t="s">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="3539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3539" t="s">
-        <v>3538</v>
-      </c>
-    </row>
-    <row r="3540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3540" t="s">
-        <v>3539</v>
-      </c>
-    </row>
-    <row r="3541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3541" t="s">
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="3542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3542" t="s">
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="3543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3543" t="s">
-        <v>3542</v>
-      </c>
-    </row>
-    <row r="3544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3544" t="s">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="3545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3545" t="s">
-        <v>3544</v>
-      </c>
-    </row>
-    <row r="3546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3546" t="s">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="3547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3547" t="s">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="3548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3548" t="s">
-        <v>3547</v>
-      </c>
-    </row>
-    <row r="3549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3549" t="s">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="3550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3550" t="s">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="3551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3551" t="s">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="3552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3552" t="s">
-        <v>3551</v>
-      </c>
-    </row>
-    <row r="3553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3553" t="s">
-        <v>3552</v>
-      </c>
-    </row>
-    <row r="3554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3554" t="s">
-        <v>3553</v>
-      </c>
-    </row>
-    <row r="3555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3555" t="s">
-        <v>3554</v>
-      </c>
-    </row>
-    <row r="3556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3556" t="s">
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="3557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3557" t="s">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="3558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3558" t="s">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="3559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3559" t="s">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="3560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3560" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="3561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3561" t="s">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="3562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3562" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="3563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3563" t="s">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="3564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3564" t="s">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="3565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3565" t="s">
-        <v>3564</v>
-      </c>
-    </row>
-    <row r="3566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3566" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="3567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3567" t="s">
-        <v>3566</v>
-      </c>
-    </row>
-    <row r="3568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3568" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="3569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3569" t="s">
-        <v>3568</v>
-      </c>
-    </row>
-    <row r="3570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3570" t="s">
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="3571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3571" t="s">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="3572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3572" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="3573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3573" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="3574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3574" t="s">
-        <v>3573</v>
-      </c>
-    </row>
-    <row r="3575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3575" t="s">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="3576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3576" t="s">
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="3577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3577" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="3578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3578" t="s">
-        <v>3577</v>
-      </c>
-    </row>
-    <row r="3579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3579" t="s">
-        <v>3578</v>
-      </c>
-    </row>
-    <row r="3580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3580" t="s">
-        <v>3579</v>
-      </c>
-    </row>
-    <row r="3581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3581" t="s">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="3582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3582" t="s">
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="3583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3583" t="s">
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="3584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3584" t="s">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="3585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3585" t="s">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="3586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3586" t="s">
-        <v>3585</v>
-      </c>
-    </row>
-    <row r="3587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3587" t="s">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="3588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3588" t="s">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="3589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3589" t="s">
-        <v>3588</v>
-      </c>
-    </row>
-    <row r="3590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3590" t="s">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="3591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3591" t="s">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="3592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3592" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="3593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3593" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="3594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3594" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3595" t="s">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3596" t="s">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="3597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3597" t="s">
-        <v>3596</v>
-      </c>
-    </row>
-    <row r="3598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3598" t="s">
-        <v>3597</v>
-      </c>
-    </row>
-    <row r="3599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3599" t="s">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="3600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3600" t="s">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3601" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3602" t="s">
-        <v>3601</v>
-      </c>
-    </row>
-    <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3603" t="s">
-        <v>3602</v>
-      </c>
-    </row>
-    <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3604" t="s">
-        <v>3603</v>
-      </c>
-    </row>
-    <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3605" t="s">
-        <v>3604</v>
-      </c>
-    </row>
-    <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3606" t="s">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="3607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3607" t="s">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="3608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3608" t="s">
-        <v>3607</v>
-      </c>
-    </row>
-    <row r="3609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3609" t="s">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="3610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3610" t="s">
-        <v>3609</v>
-      </c>
-    </row>
-    <row r="3611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3611" t="s">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="3612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3612" t="s">
-        <v>3611</v>
-      </c>
-    </row>
-    <row r="3613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3613" t="s">
-        <v>3612</v>
-      </c>
-    </row>
-    <row r="3614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3614" t="s">
-        <v>3613</v>
-      </c>
-    </row>
-    <row r="3615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3615" t="s">
-        <v>3614</v>
-      </c>
-    </row>
-    <row r="3616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3616" t="s">
-        <v>3615</v>
-      </c>
-    </row>
-    <row r="3617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3617" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="3618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3618" t="s">
-        <v>3617</v>
-      </c>
-    </row>
-    <row r="3619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3619" t="s">
-        <v>3618</v>
-      </c>
-    </row>
-    <row r="3620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3620" t="s">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="3621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3621" t="s">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="3622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3622" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="3623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3623" t="s">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="3624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3624" t="s">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="3625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3625" t="s">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="3626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3626" t="s">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="3627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3627" t="s">
-        <v>3626</v>
-      </c>
-    </row>
-    <row r="3628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3628" t="s">
-        <v>3627</v>
-      </c>
-    </row>
-    <row r="3629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3629" t="s">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="3630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3630" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="3631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3631" t="s">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="3632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3632" t="s">
-        <v>3631</v>
-      </c>
-    </row>
-    <row r="3633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3633" t="s">
-        <v>3632</v>
-      </c>
-    </row>
-    <row r="3634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3634" t="s">
-        <v>3633</v>
-      </c>
-    </row>
-    <row r="3635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3635" t="s">
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="3636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3636" t="s">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="3637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3637" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="3638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3638" t="s">
-        <v>3637</v>
-      </c>
-    </row>
-    <row r="3639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3639" t="s">
-        <v>3638</v>
-      </c>
-    </row>
-    <row r="3640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3640" t="s">
-        <v>3639</v>
-      </c>
-    </row>
-    <row r="3641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3641" t="s">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="3642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3642" t="s">
-        <v>3641</v>
-      </c>
-    </row>
-    <row r="3643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3643" t="s">
-        <v>3642</v>
-      </c>
-    </row>
-    <row r="3644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3644" t="s">
-        <v>3643</v>
-      </c>
-    </row>
-    <row r="3645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3645" t="s">
-        <v>3644</v>
-      </c>
-    </row>
-    <row r="3646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3646" t="s">
-        <v>3645</v>
-      </c>
-    </row>
-    <row r="3647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3647" t="s">
-        <v>3646</v>
-      </c>
-    </row>
-    <row r="3648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3648" t="s">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="3649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3649" t="s">
-        <v>3648</v>
-      </c>
-    </row>
-    <row r="3650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3650" t="s">
-        <v>3649</v>
-      </c>
-    </row>
-    <row r="3651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3651" t="s">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="3652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3652" t="s">
-        <v>3651</v>
-      </c>
-    </row>
-    <row r="3653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3653" t="s">
-        <v>3652</v>
-      </c>
-    </row>
-    <row r="3654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3654" t="s">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="3655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3655" t="s">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="3656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3656" t="s">
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="3657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3657" t="s">
-        <v>3656</v>
-      </c>
-    </row>
-    <row r="3658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3658" t="s">
-        <v>3657</v>
-      </c>
-    </row>
-    <row r="3659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3659" t="s">
-        <v>3658</v>
-      </c>
-    </row>
-    <row r="3660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3660" t="s">
-        <v>3659</v>
-      </c>
-    </row>
-    <row r="3661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3661" t="s">
-        <v>3660</v>
-      </c>
-    </row>
-    <row r="3662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3662" t="s">
-        <v>3661</v>
-      </c>
-    </row>
-    <row r="3663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3663" t="s">
-        <v>3662</v>
-      </c>
-    </row>
-    <row r="3664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3664" t="s">
-        <v>3663</v>
-      </c>
-    </row>
-    <row r="3665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3665" t="s">
-        <v>3664</v>
-      </c>
-    </row>
-    <row r="3666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3666" t="s">
-        <v>3665</v>
-      </c>
-    </row>
-    <row r="3667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3667" t="s">
-        <v>3666</v>
-      </c>
-    </row>
-    <row r="3668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3668" t="s">
-        <v>3667</v>
-      </c>
-    </row>
-    <row r="3669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3669" t="s">
-        <v>3668</v>
-      </c>
-    </row>
-    <row r="3670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3670" t="s">
-        <v>3669</v>
-      </c>
-    </row>
-    <row r="3671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3671" t="s">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="3672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3672" t="s">
-        <v>3671</v>
-      </c>
-    </row>
-    <row r="3673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3673" t="s">
-        <v>3672</v>
-      </c>
-    </row>
-    <row r="3674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3674" t="s">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="3675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3675" t="s">
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="3676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3676" t="s">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="3677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3677" t="s">
-        <v>3676</v>
-      </c>
-    </row>
-    <row r="3678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3678" t="s">
-        <v>3677</v>
-      </c>
-    </row>
-    <row r="3679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3679" t="s">
-        <v>3678</v>
-      </c>
-    </row>
-    <row r="3680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3680" t="s">
-        <v>3679</v>
-      </c>
-    </row>
-    <row r="3681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3681" t="s">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="3682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3682" t="s">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="3683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3683" t="s">
-        <v>3682</v>
-      </c>
-    </row>
-    <row r="3684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3684" t="s">
-        <v>3683</v>
-      </c>
-    </row>
-    <row r="3685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3685" t="s">
-        <v>3684</v>
-      </c>
-    </row>
-    <row r="3686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3686" t="s">
-        <v>3685</v>
-      </c>
-    </row>
-    <row r="3687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3687" t="s">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="3688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3688" t="s">
-        <v>3687</v>
-      </c>
-    </row>
-    <row r="3689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3689" t="s">
-        <v>3688</v>
-      </c>
-    </row>
-    <row r="3690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3690" t="s">
-        <v>3689</v>
-      </c>
-    </row>
-    <row r="3691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3691" t="s">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="3692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3692" t="s">
-        <v>3691</v>
-      </c>
-    </row>
-    <row r="3693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3693" t="s">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="3694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3694" t="s">
-        <v>3693</v>
-      </c>
-    </row>
-    <row r="3695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3695" t="s">
-        <v>3694</v>
-      </c>
-    </row>
-    <row r="3696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3696" t="s">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="3697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3697" t="s">
-        <v>3696</v>
-      </c>
-    </row>
-    <row r="3698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3698" t="s">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="3699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3699" t="s">
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="3700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3700" t="s">
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="3701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3701" t="s">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="3702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3702" t="s">
-        <v>3701</v>
-      </c>
-    </row>
-    <row r="3703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3703" t="s">
-        <v>3702</v>
-      </c>
-    </row>
-    <row r="3704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3704" t="s">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="3705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3705" t="s">
-        <v>3704</v>
-      </c>
-    </row>
-    <row r="3706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3706" t="s">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="3707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3707" t="s">
-        <v>3706</v>
-      </c>
-    </row>
-    <row r="3708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3708" t="s">
-        <v>3707</v>
-      </c>
-    </row>
-    <row r="3709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3709" t="s">
-        <v>3708</v>
-      </c>
-    </row>
-    <row r="3710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3710" t="s">
-        <v>3709</v>
-      </c>
-    </row>
-    <row r="3711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3711" t="s">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="3712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3712" t="s">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="3713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3713" t="s">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="3714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3714" t="s">
-        <v>3713</v>
-      </c>
-    </row>
-    <row r="3715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3715" t="s">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="3716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3716" t="s">
-        <v>3715</v>
-      </c>
-    </row>
-    <row r="3717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3717" t="s">
-        <v>3716</v>
-      </c>
-    </row>
-    <row r="3718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3718" t="s">
-        <v>3717</v>
-      </c>
-    </row>
-    <row r="3719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3719" t="s">
-        <v>3718</v>
-      </c>
-    </row>
-    <row r="3720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3720" t="s">
-        <v>3719</v>
-      </c>
-    </row>
-    <row r="3721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3721" t="s">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="3722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3722" t="s">
-        <v>3721</v>
-      </c>
-    </row>
-    <row r="3723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3723" t="s">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="3724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3724" t="s">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="3725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3725" t="s">
-        <v>3724</v>
-      </c>
-    </row>
-    <row r="3726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3726" t="s">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="3727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3727" t="s">
-        <v>3726</v>
-      </c>
-    </row>
-    <row r="3728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3728" t="s">
-        <v>3727</v>
-      </c>
-    </row>
-    <row r="3729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3729" t="s">
-        <v>3728</v>
-      </c>
-    </row>
-    <row r="3730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3730" t="s">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="3731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3731" t="s">
-        <v>3730</v>
-      </c>
-    </row>
-    <row r="3732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3732" t="s">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="3733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3733" t="s">
-        <v>3732</v>
-      </c>
-    </row>
-    <row r="3734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3734" t="s">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="3735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3735" t="s">
-        <v>3734</v>
-      </c>
-    </row>
-    <row r="3736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3736" t="s">
-        <v>3735</v>
-      </c>
-    </row>
-    <row r="3737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3737" t="s">
-        <v>3736</v>
-      </c>
-    </row>
-    <row r="3738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3738" t="s">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="3739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3739" t="s">
-        <v>3738</v>
-      </c>
-    </row>
-    <row r="3740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3740" t="s">
-        <v>3739</v>
-      </c>
-    </row>
-    <row r="3741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3741" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="3742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3742" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="3743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3743" t="s">
-        <v>3742</v>
-      </c>
-    </row>
-    <row r="3744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3744" t="s">
-        <v>3743</v>
-      </c>
-    </row>
-    <row r="3745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3745" t="s">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="3746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3746" t="s">
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="3747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3747" t="s">
-        <v>3746</v>
-      </c>
-    </row>
-    <row r="3748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3748" t="s">
-        <v>3747</v>
-      </c>
-    </row>
-    <row r="3749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3749" t="s">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="3750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3750" t="s">
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="3751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3751" t="s">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="3752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3752" t="s">
-        <v>3751</v>
-      </c>
-    </row>
-    <row r="3753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3753" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="3754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3754" t="s">
-        <v>3753</v>
-      </c>
-    </row>
-    <row r="3755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3755" t="s">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="3756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3756" t="s">
-        <v>3755</v>
-      </c>
-    </row>
-    <row r="3757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3757" t="s">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="3758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3758" t="s">
-        <v>3757</v>
-      </c>
-    </row>
-    <row r="3759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3759" t="s">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="3760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3760" t="s">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="3761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3761" t="s">
-        <v>3760</v>
-      </c>
-    </row>
-    <row r="3762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3762" t="s">
-        <v>3761</v>
-      </c>
-    </row>
-    <row r="3763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3763" t="s">
-        <v>3762</v>
-      </c>
-    </row>
-    <row r="3764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3764" t="s">
-        <v>3763</v>
-      </c>
-    </row>
-    <row r="3765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3765" t="s">
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="3766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3766" t="s">
-        <v>3765</v>
-      </c>
-    </row>
-    <row r="3767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3767" t="s">
-        <v>3766</v>
-      </c>
-    </row>
-    <row r="3768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3768" t="s">
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="3769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3769" t="s">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="3770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3770" t="s">
-        <v>3769</v>
-      </c>
-    </row>
-    <row r="3771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3771" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="3772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3772" t="s">
-        <v>3771</v>
-      </c>
-    </row>
-    <row r="3773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3773" t="s">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="3774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3774" t="s">
-        <v>3773</v>
-      </c>
-    </row>
-    <row r="3775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3775" t="s">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="3776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3776" t="s">
-        <v>3775</v>
-      </c>
-    </row>
-    <row r="3777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3777" t="s">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="3778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3778" t="s">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="3779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3779" t="s">
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="3780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3780" t="s">
-        <v>3779</v>
-      </c>
-    </row>
-    <row r="3781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3781" t="s">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="3782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3782" t="s">
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="3783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3783" t="s">
-        <v>3782</v>
-      </c>
-    </row>
-    <row r="3784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3784" t="s">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="3785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3785" t="s">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="3786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3786" t="s">
-        <v>3785</v>
-      </c>
-    </row>
-    <row r="3787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3787" t="s">
-        <v>3786</v>
-      </c>
-    </row>
-    <row r="3788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3788" t="s">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="3789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3789" t="s">
-        <v>3788</v>
-      </c>
-    </row>
-    <row r="3790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3790" t="s">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="3791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3791" t="s">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="3792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3792" t="s">
-        <v>3791</v>
-      </c>
-    </row>
-    <row r="3793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3793" t="s">
-        <v>3792</v>
-      </c>
-    </row>
-    <row r="3794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3794" t="s">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="3795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3795" t="s">
-        <v>3794</v>
-      </c>
-    </row>
-    <row r="3796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3796" t="s">
-        <v>3795</v>
-      </c>
-    </row>
-    <row r="3797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3797" t="s">
-        <v>3796</v>
-      </c>
-    </row>
-    <row r="3798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3798" t="s">
-        <v>3797</v>
-      </c>
-    </row>
-    <row r="3799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3799" t="s">
-        <v>3798</v>
-      </c>
-    </row>
-    <row r="3800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3800" t="s">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="3801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3801" t="s">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="3802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3802" t="s">
-        <v>3801</v>
-      </c>
-    </row>
-    <row r="3803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3803" t="s">
-        <v>3802</v>
-      </c>
-    </row>
-    <row r="3804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3804" t="s">
-        <v>3803</v>
-      </c>
-    </row>
-    <row r="3805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3805" t="s">
-        <v>3804</v>
-      </c>
-    </row>
-    <row r="3806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3806" t="s">
-        <v>3805</v>
-      </c>
-    </row>
-    <row r="3807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3807" t="s">
-        <v>3806</v>
-      </c>
-    </row>
-    <row r="3808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3808" t="s">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="3809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3809" t="s">
-        <v>3808</v>
-      </c>
-    </row>
-    <row r="3810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3810" t="s">
-        <v>3809</v>
-      </c>
-    </row>
-    <row r="3811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3811" t="s">
-        <v>3810</v>
-      </c>
-    </row>
-    <row r="3812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3812" t="s">
-        <v>3811</v>
-      </c>
-    </row>
-    <row r="3813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3813" t="s">
-        <v>3812</v>
-      </c>
-    </row>
-    <row r="3814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3814" t="s">
-        <v>3813</v>
-      </c>
-    </row>
-    <row r="3815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3815" t="s">
-        <v>3814</v>
-      </c>
-    </row>
-    <row r="3816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3816" t="s">
-        <v>3815</v>
-      </c>
-    </row>
-    <row r="3817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3817" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="3818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3818" t="s">
-        <v>3817</v>
-      </c>
-    </row>
-    <row r="3819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3819" t="s">
-        <v>3818</v>
-      </c>
-    </row>
-    <row r="3820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3820" t="s">
-        <v>3819</v>
-      </c>
-    </row>
-    <row r="3821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3821" t="s">
-        <v>3820</v>
-      </c>
-    </row>
-    <row r="3822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3822" t="s">
-        <v>3821</v>
-      </c>
-    </row>
-    <row r="3823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3823" t="s">
-        <v>3822</v>
-      </c>
-    </row>
-    <row r="3824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3824" t="s">
-        <v>3823</v>
-      </c>
-    </row>
-    <row r="3825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3825" t="s">
-        <v>3824</v>
-      </c>
-    </row>
-    <row r="3826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3826" t="s">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="3827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3827" t="s">
-        <v>3826</v>
-      </c>
-    </row>
-    <row r="3828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3828" t="s">
-        <v>3827</v>
-      </c>
-    </row>
-    <row r="3829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3829" t="s">
-        <v>3828</v>
-      </c>
-    </row>
-    <row r="3830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3830" t="s">
-        <v>3829</v>
-      </c>
-    </row>
-    <row r="3831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3831" t="s">
-        <v>3830</v>
-      </c>
-    </row>
-    <row r="3832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3832" t="s">
-        <v>3831</v>
-      </c>
-    </row>
-    <row r="3833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3833" t="s">
-        <v>3832</v>
-      </c>
-    </row>
-    <row r="3834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3834" t="s">
-        <v>3833</v>
-      </c>
-    </row>
-    <row r="3835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3835" t="s">
-        <v>3834</v>
-      </c>
-    </row>
-    <row r="3836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3836" t="s">
-        <v>3835</v>
-      </c>
-    </row>
-    <row r="3837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3837" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="3838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3838" t="s">
-        <v>3837</v>
-      </c>
-    </row>
-    <row r="3839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3839" t="s">
-        <v>3838</v>
-      </c>
-    </row>
-    <row r="3840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3840" t="s">
-        <v>3839</v>
-      </c>
-    </row>
-    <row r="3841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3841" t="s">
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="3842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3842" t="s">
-        <v>3841</v>
-      </c>
-    </row>
-    <row r="3843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3843" t="s">
-        <v>3842</v>
-      </c>
-    </row>
-    <row r="3844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3844" t="s">
-        <v>3843</v>
-      </c>
-    </row>
-    <row r="3845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3845" t="s">
-        <v>3844</v>
-      </c>
-    </row>
-    <row r="3846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3846" t="s">
-        <v>3845</v>
-      </c>
-    </row>
-    <row r="3847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3847" t="s">
-        <v>3846</v>
-      </c>
-    </row>
-    <row r="3848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3848" t="s">
-        <v>3847</v>
-      </c>
-    </row>
-    <row r="3849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3849" t="s">
-        <v>3848</v>
-      </c>
-    </row>
-    <row r="3850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3850" t="s">
-        <v>3849</v>
-      </c>
-    </row>
-    <row r="3851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3851" t="s">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="3852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3852" t="s">
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="3853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3853" t="s">
-        <v>3852</v>
-      </c>
-    </row>
-    <row r="3854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3854" t="s">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="3855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3855" t="s">
-        <v>3854</v>
-      </c>
-    </row>
-    <row r="3856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3856" t="s">
-        <v>3855</v>
-      </c>
-    </row>
-    <row r="3857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3857" t="s">
-        <v>3856</v>
-      </c>
-    </row>
-    <row r="3858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3858" t="s">
-        <v>3857</v>
-      </c>
-    </row>
-    <row r="3859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3859" t="s">
-        <v>3858</v>
-      </c>
-    </row>
-    <row r="3860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3860" t="s">
-        <v>3859</v>
-      </c>
-    </row>
-    <row r="3861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3861" t="s">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="3862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3862" t="s">
-        <v>3861</v>
-      </c>
-    </row>
-    <row r="3863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3863" t="s">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="3864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3864" t="s">
-        <v>3863</v>
-      </c>
-    </row>
-    <row r="3865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3865" t="s">
-        <v>3864</v>
-      </c>
-    </row>
-    <row r="3866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3866" t="s">
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="3867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3867" t="s">
-        <v>3866</v>
-      </c>
-    </row>
-    <row r="3868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3868" t="s">
-        <v>3867</v>
-      </c>
-    </row>
-    <row r="3869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3869" t="s">
-        <v>3868</v>
-      </c>
-    </row>
-    <row r="3870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3870" t="s">
-        <v>3869</v>
-      </c>
-    </row>
-    <row r="3871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3871" t="s">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="3872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3872" t="s">
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="3873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3873" t="s">
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="3874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3874" t="s">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="3875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3875" t="s">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="3876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3876" t="s">
-        <v>3875</v>
-      </c>
-    </row>
-    <row r="3877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3877" t="s">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="3878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3878" t="s">
-        <v>3877</v>
-      </c>
-    </row>
-    <row r="3879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3879" t="s">
-        <v>3878</v>
-      </c>
-    </row>
-    <row r="3880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3880" t="s">
-        <v>3879</v>
-      </c>
-    </row>
-    <row r="3881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3881" t="s">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="3882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3882" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="3883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3883" t="s">
-        <v>3882</v>
-      </c>
-    </row>
-    <row r="3884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3884" t="s">
-        <v>3883</v>
-      </c>
-    </row>
-    <row r="3885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3885" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="3886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3886" t="s">
-        <v>3885</v>
-      </c>
-    </row>
-    <row r="3887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3887" t="s">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="3888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3888" t="s">
-        <v>3887</v>
-      </c>
-    </row>
-    <row r="3889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3889" t="s">
-        <v>3888</v>
-      </c>
-    </row>
-    <row r="3890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3890" t="s">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="3891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3891" t="s">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="3892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3892" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="3893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3893" t="s">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="3894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3894" t="s">
-        <v>3893</v>
-      </c>
-    </row>
-    <row r="3895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3895" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="3896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3896" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="3897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3897" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="3898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3898" t="s">
-        <v>3897</v>
-      </c>
-    </row>
-    <row r="3899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3899" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="3900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3900" t="s">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="3901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3901" t="s">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="3902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3902" t="s">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="3903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3903" t="s">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="3904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3904" t="s">
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="3905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3905" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="3906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3906" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="3907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3907" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="3908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3908" t="s">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="3909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3909" t="s">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="3910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3910" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="3911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3911" t="s">
-        <v>3910</v>
-      </c>
-    </row>
-    <row r="3912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3912" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="3913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3913" t="s">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="3914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3914" t="s">
-        <v>3913</v>
-      </c>
-    </row>
-    <row r="3915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3915" t="s">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="3916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3916" t="s">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="3917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3917" t="s">
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="3918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3918" t="s">
-        <v>3917</v>
-      </c>
-    </row>
-    <row r="3919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3919" t="s">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="3920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3920" t="s">
-        <v>3919</v>
-      </c>
-    </row>
-    <row r="3921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3921" t="s">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="3922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3922" t="s">
-        <v>3921</v>
-      </c>
-    </row>
-    <row r="3923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3923" t="s">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="3924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3924" t="s">
-        <v>3923</v>
-      </c>
-    </row>
-    <row r="3925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3925" t="s">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="3926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3926" t="s">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="3927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3927" t="s">
-        <v>3926</v>
-      </c>
-    </row>
-    <row r="3928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3928" t="s">
-        <v>3927</v>
-      </c>
-    </row>
-    <row r="3929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3929" t="s">
-        <v>3928</v>
-      </c>
-    </row>
-    <row r="3930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3930" t="s">
-        <v>3929</v>
-      </c>
-    </row>
-    <row r="3931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3931" t="s">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="3932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3932" t="s">
-        <v>3931</v>
-      </c>
-    </row>
-    <row r="3933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3933" t="s">
-        <v>3932</v>
-      </c>
-    </row>
-    <row r="3934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3934" t="s">
-        <v>3933</v>
-      </c>
-    </row>
-    <row r="3935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3935" t="s">
-        <v>3934</v>
-      </c>
-    </row>
-    <row r="3936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3936" t="s">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="3937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3937" t="s">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="3938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3938" t="s">
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="3939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3939" t="s">
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="3940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3940" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="3941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3941" t="s">
-        <v>3940</v>
-      </c>
-    </row>
-    <row r="3942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3942" t="s">
-        <v>3941</v>
-      </c>
-    </row>
-    <row r="3943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3943" t="s">
-        <v>3942</v>
-      </c>
-    </row>
-    <row r="3944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3944" t="s">
-        <v>3943</v>
-      </c>
-    </row>
-    <row r="3945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3945" t="s">
-        <v>3944</v>
-      </c>
-    </row>
-    <row r="3946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3946" t="s">
-        <v>3945</v>
-      </c>
-    </row>
-    <row r="3947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3947" t="s">
-        <v>3946</v>
-      </c>
-    </row>
-    <row r="3948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3948" t="s">
-        <v>3947</v>
-      </c>
-    </row>
-    <row r="3949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3949" t="s">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="3950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3950" t="s">
-        <v>3949</v>
-      </c>
-    </row>
-    <row r="3951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3951" t="s">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="3952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3952" t="s">
-        <v>3951</v>
-      </c>
-    </row>
-    <row r="3953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3953" t="s">
-        <v>3952</v>
-      </c>
-    </row>
-    <row r="3954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3954" t="s">
-        <v>3953</v>
-      </c>
-    </row>
-    <row r="3955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3955" t="s">
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="3956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3956" t="s">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="3957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3957" t="s">
-        <v>3956</v>
-      </c>
-    </row>
-    <row r="3958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3958" t="s">
-        <v>3957</v>
-      </c>
-    </row>
-    <row r="3959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3959" t="s">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="3960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3960" t="s">
-        <v>3959</v>
-      </c>
-    </row>
-    <row r="3961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3961" t="s">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="3962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3962" t="s">
-        <v>3961</v>
-      </c>
-    </row>
-    <row r="3963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3963" t="s">
-        <v>3962</v>
-      </c>
-    </row>
-    <row r="3964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3964" t="s">
-        <v>3963</v>
-      </c>
-    </row>
-    <row r="3965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3965" t="s">
-        <v>3964</v>
-      </c>
-    </row>
-    <row r="3966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3966" t="s">
-        <v>3965</v>
-      </c>
-    </row>
-    <row r="3967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3967" t="s">
-        <v>3966</v>
-      </c>
-    </row>
-    <row r="3968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3968" t="s">
-        <v>3967</v>
-      </c>
-    </row>
-    <row r="3969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3969" t="s">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="3970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3970" t="s">
-        <v>3969</v>
-      </c>
-    </row>
-    <row r="3971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3971" t="s">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="3972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3972" t="s">
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="3973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3973" t="s">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="3974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3974" t="s">
-        <v>3973</v>
-      </c>
-    </row>
-    <row r="3975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3975" t="s">
-        <v>3974</v>
-      </c>
-    </row>
-    <row r="3976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3976" t="s">
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="3977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3977" t="s">
-        <v>3976</v>
-      </c>
-    </row>
-    <row r="3978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3978" t="s">
-        <v>3977</v>
-      </c>
-    </row>
-    <row r="3979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3979" t="s">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="3980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3980" t="s">
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="3981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3981" t="s">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="3982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3982" t="s">
-        <v>3981</v>
-      </c>
-    </row>
-    <row r="3983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3983" t="s">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="3984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3984" t="s">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="3985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3985" t="s">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="3986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3986" t="s">
-        <v>3985</v>
-      </c>
-    </row>
-    <row r="3987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3987" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="3988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3988" t="s">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="3989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3989" t="s">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="3990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3990" t="s">
-        <v>3989</v>
-      </c>
-    </row>
-    <row r="3991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3991" t="s">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="3992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3992" t="s">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="3993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3993" t="s">
-        <v>3992</v>
-      </c>
-    </row>
-    <row r="3994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3994" t="s">
-        <v>3993</v>
-      </c>
-    </row>
-    <row r="3995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3995" t="s">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="3996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3996" t="s">
-        <v>3995</v>
-      </c>
-    </row>
-    <row r="3997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3997" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="3998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3998" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="3999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3999" t="s">
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="4000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4000" t="s">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="4001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4001" t="s">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4002" t="s">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="4003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4003" t="s">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="4004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4004" t="s">
-        <v>4003</v>
-      </c>
-    </row>
-    <row r="4005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4005" t="s">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="4006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4006" t="s">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="4007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4007" t="s">
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="4008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4008" t="s">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="4009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4009" t="s">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="4010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4010" t="s">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="4011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4011" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="4012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4012" t="s">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="4013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4013" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="4014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4014" t="s">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="4015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4015" t="s">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="4016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4016" t="s">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="4017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4017" t="s">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="4018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4018" t="s">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="4019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4019" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="4020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4020" t="s">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="4021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4021" t="s">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="4022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4022" t="s">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="4023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4023" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="4024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4024" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="4025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4025" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="4026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4026" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="4027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4027" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="4028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4028" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="4029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4029" t="s">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="4030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4030" t="s">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="4031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4031" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="4032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4032" t="s">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="4033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4033" t="s">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="4034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4034" t="s">
-        <v>4033</v>
-      </c>
-    </row>
-    <row r="4035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4035" t="s">
-        <v>4034</v>
-      </c>
-    </row>
-    <row r="4036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4036" t="s">
-        <v>4035</v>
-      </c>
-    </row>
-    <row r="4037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4037" t="s">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="4038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4038" t="s">
-        <v>4037</v>
-      </c>
-    </row>
-    <row r="4039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4039" t="s">
-        <v>4038</v>
-      </c>
-    </row>
-    <row r="4040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4040" t="s">
-        <v>4039</v>
-      </c>
-    </row>
-    <row r="4041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4041" t="s">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="4042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4042" t="s">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="4043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4043" t="s">
-        <v>4042</v>
-      </c>
-    </row>
-    <row r="4044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4044" t="s">
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="4045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4045" t="s">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="4046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4046" t="s">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="4047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4047" t="s">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="4048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4048" t="s">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="4049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4049" t="s">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="4050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4050" t="s">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="4051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4051" t="s">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="4052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4052" t="s">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="4053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4053" t="s">
-        <v>4052</v>
-      </c>
-    </row>
-    <row r="4054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4054" t="s">
-        <v>4053</v>
-      </c>
-    </row>
-    <row r="4055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4055" t="s">
-        <v>4054</v>
-      </c>
-    </row>
-    <row r="4056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4056" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="4057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4057" t="s">
-        <v>4056</v>
-      </c>
-    </row>
-    <row r="4058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4058" t="s">
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="4059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4059" t="s">
-        <v>4058</v>
-      </c>
-    </row>
-    <row r="4060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4060" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="4061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4061" t="s">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="4062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4062" t="s">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="4063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4063" t="s">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="4064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4064" t="s">
-        <v>4063</v>
-      </c>
-    </row>
-    <row r="4065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4065" t="s">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="4066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4066" t="s">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="4067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4067" t="s">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="4068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4068" t="s">
-        <v>4067</v>
-      </c>
-    </row>
-    <row r="4069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4069" t="s">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="4070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4070" t="s">
-        <v>4069</v>
-      </c>
-    </row>
-    <row r="4071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4071" t="s">
-        <v>4070</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,1089 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="2618">
   <si>
     <t>New column 0 Url</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-leather-jacket-frktk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2002-evening-jacket-frhpi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/haute-hippie-evening-jacket-frhcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-fur-jacket-frb5q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-2009-jacket-fr5ji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-late-1990-s-early-2000-s-biker-jacket-fr07e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-fqy7x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-leather-jacket-fqy7g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-2013-jacket-fqx59</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-plaid-print-blazer-fqwya</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rena-lange-virgin-wool-evening-jacket-fqvz9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/revillon-mink-fur-jacket-fqvxn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/comme-des-garcons-bomber-jacket-fqvgw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-2001-blazer-fque9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ungaro-paris-vintage-1980-s-evening-jacket-fqu3x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-mohair-vest-fqlnh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kenzo-vintage-2000-s-blazer-fqlgn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-evening-jacket-fqidj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-vintage-2006-blazer-fqdj2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-2016-down-jacket-fqdit</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-zoe-vest-fq4ia</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-printed-evening-jacket-fq1sk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-bomber-jacket-fq1ja</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-cashmere-vest-fq13m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-2004-jacket-fpvxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dana-stein-fur-jacket-fplib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-late-1990-s-early-2000-s-utility-jacket-fpjud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-faux-fur-jacket-fp3q7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fp14g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-2010-vest-fozwq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/halpern-striped-bolero-foyva</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maticevski-cape-fopoi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-lambskin-biker-jacket-fomb4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-jacket-fokz3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-late-1990-s-early-2000-s-jacket-fogin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/paloma-wool-jacket-fo8rd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/doma-lamb-leather-biker-jacket-fo0tf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rosie-hw-x-paige-evening-jacket-fnmzn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-1994-fur-jacket-fnitj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mackage-down-jacket-fn7ib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-evening-jacket-fmydp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-jeans-vintage-1990-s-denim-jacket-fmt13</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-lamb-leather-biker-jacket-fmrix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-evening-jacket-fmhql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-denim-jacket-fmhke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-cashmere-jacket-fmcwr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-lamb-leather-biker-jacket-fmc2f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/blk-dnm-leather-evening-jacket-fl2ly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-fki9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-printed-jacket-fhsze</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-mcqueen-floral-print-bomber-jacket-fhsn4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-vintage-jeans-cashmere-evening-jacket-fgwse</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-2016-surf-sound-sunset-teddy-bomber-jacket-fgovl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jaeger-silk-bomber-jacket-ffw1r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-1999-utility-jacket-ffvkz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-mcqueen-leather-colorblock-pattern-jacket-ffqtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dries-van-noten-animal-print-denim-jacket-fbtnp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-jacket-faszf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alberto-makali-animal-print-fur-jacket-f7wpl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pendleton-virgin-wool-biker-jacket-f76bm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marissa-webb-striped-vest-f0vqg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nour-hammour-lambskin-utility-jacket-f06ta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marcell-von-berlin-lambskin-biker-jacket-w-tags-ftm6o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/capulet-ddusv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adam-lippes-tweed-pattern-evening-jacket-w-tags-fnp37</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-faux-fur-jacket-fz35j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-rive-gauche-vintage-1970-s-evening-jacket-fz2uf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/weekend-max-mara-virgin-wool-jacket-fz2ch</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mackage-leather-biker-jacket-fz1yr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/geoffrey-beene-vintage-late-1970-s-early-1980-s-bolero-fz1xl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandro-faux-fur-jacket-fr4pn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-jacket-fpozf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-2022-damier-azur-denim-jacket-f9iuh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-blazer-fpgm6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/belstaff-fur-jacket-fsam6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-jacket-fox5t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-blazer-ff44w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-blazer-ftqa4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-tweed-pattern-jacket-fmx6c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alberto-makali-fox-fur-jacket-fpnoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-blazer-fyzk9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/greg-lauren-denim-jacket-fo4he</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-floral-print-blazer-fritm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-jacket-fqazx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-tweed-pattern-jacket-fq6w8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-leather-biker-jacket-fp0va</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vintage-unbranded-paisley-print-jacket-fqoph</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-plaid-print-blazer-fr0i5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-sport-vintage-2000-s-vest-fmpyu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-fo814</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-ftnaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jil-sander-navy-lamb-leather-evening-jacket-frn4l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-tweed-pattern-blazer-fo244</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fpi0t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-silk-printed-bolero-fn5bw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adidas-originals-by-ji-won-choi-striped-bomber-jacket-w-tags-fnx6q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mother-jacket-fnpsq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fmwwh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/re-done-suede-blazer-fkc13</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-tweed-pattern-evening-jacket-w-tags-fpftk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/equipment-blazer-frxgr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-virgin-wool-evening-jacket-fuzbh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-printed-faux-fur-jacket-w-tags-fkm2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fdox2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-tweed-pattern-blazer-w-tags-fpv1x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-fur-printed-fur-jacket-fi5i6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-down-jacket-fsumj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-down-jacket-fltqa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sprwmn-leather-blazer-fhqws</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fabiana-filippi-blazer-w-tags-fw918</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-blazer-fw9qa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-cashmere-blazer-fw9fa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-cashmere-blazer-fw9d3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-evening-jacket-fw8mr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tom-ford-virgin-wool-blazer-fw7pf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/isabel-marant-printed-evening-jacket-fw72h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alessandro-dell-acqua-floral-print-evening-jacket-fw59z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-blazer-fw55z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-blazer-fw506</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-plaid-print-blazer-fw3rc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/altuzarra-blazer-fw3of</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-lamb-leather-biker-jacket-w-tags-fvqfe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-tweed-pattern-blazer-fvpw8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lemaire-blazer-fvhg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-w-tags-fvhdt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-tweed-pattern-blazer-w-tags-fv9nz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-jacobs-blazer-fvzo7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hyein-seo-vest-w-tags-fvqyo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fvqso</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-mcqueen-printed-blazer-fvqqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-tweed-pattern-evening-jacket-fvqhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fvqdc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fvptg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-virgin-wool-blazer-fvpt0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-deer-biker-jacket-w-tags-fvp5s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-blazer-fvhuj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/plein-sud-evening-jacket-fvhpq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fvhle</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-virgin-wool-blazer-fvfwk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/magda-butrym-blazer-fvfu1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ronny-kobo-silk-plaid-print-blazer-fvelm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fve2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-evening-jacket-fvd86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-striped-blazer-fvd68</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kobi-halperin-evening-jacket-w-tags-fvcpt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rena-lange-virgin-wool-blazer-fvbn8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-silk-evening-jacket-fvbay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-printed-faux-fur-jacket-w-tags-fvaey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-striped-blazer-fvaap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/walter-baker-blazer-fva8w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-floral-print-blazer-fva89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-evening-jacket-fv9al</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chloe-silk-blazer-fv979</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-jacket-fv8xs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-jacket-w-tags-fv8uh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-animal-print-evening-jacket-w-tags-fv8ml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-evening-jacket-w-tags-fv6f1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-goat-leather-biker-jacket-fv6co</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-blazer-w-tags-fur8h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-striped-blazer-fv8br</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fv7xg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-blazer-fv7js</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-jacket-fv70t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fv6xp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-evening-jacket-w-tags-fv6p2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-patterned-evening-jacket-fv6kd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-patterned-evening-jacket-fv6gx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/altuzarra-blazer-fv6e0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/favorite-daughter-blazer-fv6d0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-jacket-fv6ca</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-jacket-fv3yk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-tweed-pattern-evening-jacket-fv2m6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fv2aj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-striped-blazer-fv27y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-blazer-fv232</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-blazer-fv0qd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alaia-lamb-leather-vest-fv0ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-printed-blazer-fuzvv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-silk-plaid-print-blazer-fuzmr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-elder-statesman-jacket-fuzgz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-evening-jacket-w-tags-fuyie</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-blazer-fuyhq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/peter-cohen-silk-jacket-w-tags-fuy97</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-tweed-pattern-evening-jacket-fuxh0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-blazer-fuxf3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-collection-virgin-wool-blazer-fuwvh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-tweed-pattern-jacket-fuvq6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/derek-lam-10-crosby-blazer-fus4f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ugg-colorblock-pattern-faux-fur-jacket-w-tags-fumtf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-bomber-jacket-w-tags-fumdl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-blazer-fujag</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ulla-johnson-utility-jacket-fuj00</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/a-l-c-blazer-fuh7n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/band-of-outsiders-blazer-fu063</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-ftvps</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-blazer-ftppl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-rive-gauche-vintage-striped-blazer-fsq8e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/valentino-vintage-1980-s-blazer-fs3wb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-rive-gauche-vintage-1980-s-blazer-frs19</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-plaid-print-blazer-fqvfy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jil-sander-blazer-fwihu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-lamb-leather-biker-jacket-fw981</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jil-sander-blazer-fw96p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-salomon-lamb-fur-biker-jacket-fw8jw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-tweed-pattern-evening-jacket-fw8h4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-vest-fw8cv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-jacket-fw81p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-lamb-leather-bomber-jacket-fw7e4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dries-van-noten-floral-print-evening-jacket-fw7de</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-tweed-pattern-jacket-fw732</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-fw6ku</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-evening-jacket-fw673</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bottega-veneta-biker-jacket-fw5tw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/andrew-marc-leather-fur-jacket-fw5tt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-plaid-print-evening-jacket-fw4zj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-goat-leather-evening-jacket-fw4je</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/perfecto-brand-by-schott-nyc-leather-biker-jacket-fw4dw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/noi-firenze-biker-jacket-fw3sm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-goat-leather-evening-jacket-fw2tq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roberto-cavalli-2010-silk-jacket-fw2dd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-grenoble-floral-print-down-jacket-fw2a5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-vest-fw1ku</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/missoni-printed-evening-jacket-fw1k9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fw1in</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2016-down-jacket-fw1d6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/belstaff-leather-biker-jacket-fw1cp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2016-down-jacket-fw12w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-printed-evening-jacket-fvu1e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-denim-jacket-fvr60</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-tweed-pattern-evening-jacket-fvr47</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-vest-fvqxf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-fvqwj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-vest-fvoz3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-evening-jacket-fvov5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-evening-jacket-fvotn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-animal-print-faux-fur-jacket-fvorh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-striped-blazer-fvopz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sea-new-york-printed-utility-jacket-fvo80</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/farm-rio-printed-down-jacket-fvo7k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-bolero-fvnay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nili-lotan-camouflage-print-jacket-fvmc6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-vest-fvjqe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fvhym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandro-leather-bomber-jacket-fvhwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-evening-jacket-fvht0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/reformation-biker-jacket-fvhfy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loyd-ford-jacket-fvhc1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fvhby</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fvgzb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexis-cape-fvg61</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-evening-jacket-fvg0x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-down-jacket-fvfxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-shearling-fur-jacket-fvfvf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pam-gela-striped-bomber-jacket-fvftp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-jacket-fvfr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-plaid-print-faux-fur-jacket-fvfgo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/james-purcell-silk-bolero-fvevp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-down-jacket-fvetm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-faux-fur-jacket-fveog</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-evening-jacket-fveij</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/muubaa-goat-leather-biker-jacket-fve19</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-colorblock-pattern-evening-jacket-fvdrk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-silk-faux-fur-jacket-fvdj6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jenni-kayne-coyote-fur-jacket-fvdgr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-logo-graphic-striped-chenille-track-top-striped-faux-fur-jacket-fvdcg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fumito-ganryu-jacket-fvcqn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-mcqueen-leather-biker-jacket-fvcpg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-silk-jacket-fvcof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-vest-fvcm7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-fvciu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pologeorgis-vest-fvc6t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/norman-norell-ny-blazer-fvbg8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fvaro</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fvans</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/isabel-marant-jacket-fvalr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-wang-blazer-fvaa3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-printed-faux-fur-jacket-fva97</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-fva10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-fv9q2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mcguire-animal-print-faux-fur-jacket-fv9ii</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mcguire-faux-fur-jacket-fv9gu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-jacket-fv8zc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-blazer-fv8vy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/milly-tweed-pattern-evening-jacket-fv8tq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-lamb-leather-jacket-fv8qk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-evening-jacket-fv8n6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/badgley-mischka-bolero-fv8jx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/schumacher-faux-fur-jacket-fv6za</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-vest-fv6tt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-jacket-fv6ka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-activewear-vest-fv6iz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-activewear-vest-fv6hr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/isabel-marant-evening-jacket-fv6bq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-jacket-fv6a0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-bomber-jacket-fv69v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-blazer-fv69e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-houndstooth-print-jacket-fv627</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-evening-jacket-fv3pa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fv36u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-vest-fv2dr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vivienne-westwood-striped-biker-jacket-fv0w6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-utility-jacket-fv0kv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-evening-jacket-fuycr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-silk-jacket-fuy2m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-jacket-fuxqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vanessa-bruno-faux-fur-jacket-fuwp5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-lamb-leather-evening-jacket-fuw9l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/faith-connexion-cape-fuvhe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/philosophy-di-alberta-ferretti-biker-jacket-fusvt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/badgley-mischka-fox-fur-jacket-fuqem</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joseph-cape-fupzs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-leather-jacket-fuosq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dale-dressin-fur-jacket-fun6q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-silk-floral-print-bomber-jacket-fumxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-vest-ful72</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maje-fur-jacket-fuiwh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-jacket-fuiks</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/derek-lam-blazer-ftxu5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-jacket-ftxr1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-2008-blazer-ftxnv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-2013-silk-evening-jacket-ftsta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-floral-print-down-jacket-fthki</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jil-sander-cashmere-jacket-ftcdt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marimekko-cape-ft9mm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-cheap-and-chic-vintage-1993-blazer-fswa3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/givenchy-vintage-1980-s-blazer-fsvy6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/valentino-vintage-late-1980-s-early-1990-s-evening-jacket-fsq7g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/d-g-vintage-2000-s-evening-jacket-fsq6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-rive-gauche-vintage-late-1970-s-early-1980-s-vest-frs1z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-rive-gauche-vintage-1980-s-evening-jacket-frrwx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alaia-vintage-late-1980-s-early-1990-s-blazer-frrrf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-down-jacket-freg8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bisang-alpine-bolero-fr1wb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/walter-baker-bomber-jacket-fqa0n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-floral-print-evening-jacket-fpmpl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brogden-lamb-leather-jacket-fpime</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-goat-leather-biker-jacket-fpch5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-denim-jacket-folt0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-plaid-print-blazer-fly1k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rains-utility-jacket-w-tags-f6p01</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-w-tags-cshzl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gerard-darel-suede-blazer-fpv5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-jacket-fyzfp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-w-tags-fm1qq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-cashmere-blazer-fro0p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fmnjc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-cashmere-utility-jacket-fpval</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-mcqueen-vintage-2009-bolero-fmqs7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-shearling-jacket-fqapb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-evening-jacket-flxl2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-extreme-collection-striped-blazer-fo3t8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anne-klein-cape-fywjm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mackintosh-utility-jacket-fywjn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-tweed-pattern-evening-jacket-fyvum</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexis-printed-evening-jacket-foe28</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-jacket-fyvbp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fntzm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2000-blazer-fjhlo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2019-printed-blazer-fkemu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-fo0sw</t>
   </si>
   <si>
     <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-jacket-fyu1z</t>
@@ -9291,10 +8211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2978"/>
+  <dimension ref="A1:A2618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22389,1806 +21309,6 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="2619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2619" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="2620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2620" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="2621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2621" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2622" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2623" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="2624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2624" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2625" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="2626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2626" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="2627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2627" t="s">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="2628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2628" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="2629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2629" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="2630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2630" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="2631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2631" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="2632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2632" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="2633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2633" t="s">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="2634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2634" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="2635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2635" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="2636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2636" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="2637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2637" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="2638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2638" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="2639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2639" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="2640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2640" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="2641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2641" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="2642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2642" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="2643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2643" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="2644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2644" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2645" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2646" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2647" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="2648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2648" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="2649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2649" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="2650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2650" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="2651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2651" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2652" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2653" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2654" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2655" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2656" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2657" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="2658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2658" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="2659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2659" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="2660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2660" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="2661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2661" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="2662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2662" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="2663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2663" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="2664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2664" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="2665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2665" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="2666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2666" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="2667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2667" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="2668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2668" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="2669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2669" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="2670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2670" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="2671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2671" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="2672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2672" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="2673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2673" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="2674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2674" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="2675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2675" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="2676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2676" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="2677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2677" t="s">
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="2678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2678" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="2679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2679" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="2680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2680" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="2681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2681" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="2682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2682" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="2683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2683" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="2684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2684" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="2685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2685" t="s">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2686" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2687" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="2688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2688" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="2689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2689" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="2690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2690" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="2691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2691" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="2692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2692" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="2693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2693" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2694" t="s">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2695" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="2696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2696" t="s">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="2697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2697" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="2698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2698" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="2699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2699" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2700" t="s">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="2701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2701" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="2702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2702" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="2703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2703" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="2704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2704" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="2705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2705" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="2706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2706" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="2707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2707" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="2708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2708" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="2709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2709" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="2710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2710" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="2711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2711" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="2712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2712" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="2713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2713" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="2714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2714" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="2715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2715" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="2716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2716" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="2717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2717" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="2718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2718" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="2719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2719" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="2720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2720" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="2721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2721" t="s">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="2722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2722" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="2723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2723" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="2724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2724" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="2725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2725" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="2726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2726" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="2727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2727" t="s">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="2728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2728" t="s">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="2729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2729" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="2730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2730" t="s">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="2731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2731" t="s">
-        <v>2730</v>
-      </c>
-    </row>
-    <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2732" t="s">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="2733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2733" t="s">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="2734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2734" t="s">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2735" t="s">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2736" t="s">
-        <v>2735</v>
-      </c>
-    </row>
-    <row r="2737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2737" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2738" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2739" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2740" t="s">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="2741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2741" t="s">
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2742" t="s">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2743" t="s">
-        <v>2742</v>
-      </c>
-    </row>
-    <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2744" t="s">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="2745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2745" t="s">
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="2746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2746" t="s">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="2747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2747" t="s">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="2748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2748" t="s">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="2749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2749" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="2750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2750" t="s">
-        <v>2749</v>
-      </c>
-    </row>
-    <row r="2751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2751" t="s">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="2752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2752" t="s">
-        <v>2751</v>
-      </c>
-    </row>
-    <row r="2753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2753" t="s">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="2754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2754" t="s">
-        <v>2753</v>
-      </c>
-    </row>
-    <row r="2755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2755" t="s">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="2756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2756" t="s">
-        <v>2755</v>
-      </c>
-    </row>
-    <row r="2757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2757" t="s">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="2758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2758" t="s">
-        <v>2757</v>
-      </c>
-    </row>
-    <row r="2759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2759" t="s">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="2760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2760" t="s">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="2761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2761" t="s">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="2762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2762" t="s">
-        <v>2761</v>
-      </c>
-    </row>
-    <row r="2763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2763" t="s">
-        <v>2762</v>
-      </c>
-    </row>
-    <row r="2764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2764" t="s">
-        <v>2763</v>
-      </c>
-    </row>
-    <row r="2765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2765" t="s">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="2766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2766" t="s">
-        <v>2765</v>
-      </c>
-    </row>
-    <row r="2767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2767" t="s">
-        <v>2766</v>
-      </c>
-    </row>
-    <row r="2768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2768" t="s">
-        <v>2767</v>
-      </c>
-    </row>
-    <row r="2769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2769" t="s">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="2770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2770" t="s">
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="2771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2771" t="s">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="2772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2772" t="s">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="2773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2773" t="s">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="2774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2774" t="s">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="2775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2775" t="s">
-        <v>2774</v>
-      </c>
-    </row>
-    <row r="2776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2776" t="s">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2777" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2778" t="s">
-        <v>2777</v>
-      </c>
-    </row>
-    <row r="2779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2779" t="s">
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="2780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2780" t="s">
-        <v>2779</v>
-      </c>
-    </row>
-    <row r="2781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2781" t="s">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2782" t="s">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2783" t="s">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2784" t="s">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2785" t="s">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2786" t="s">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="2787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2787" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="2788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2788" t="s">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="2789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2789" t="s">
-        <v>2788</v>
-      </c>
-    </row>
-    <row r="2790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2790" t="s">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="2791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2791" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="2792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2792" t="s">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="2793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2793" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="2794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2794" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="2795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2795" t="s">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2796" t="s">
-        <v>2795</v>
-      </c>
-    </row>
-    <row r="2797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2797" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="2798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2798" t="s">
-        <v>2797</v>
-      </c>
-    </row>
-    <row r="2799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2799" t="s">
-        <v>2798</v>
-      </c>
-    </row>
-    <row r="2800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2800" t="s">
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="2801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2801" t="s">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="2802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2802" t="s">
-        <v>2801</v>
-      </c>
-    </row>
-    <row r="2803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2803" t="s">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="2804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2804" t="s">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="2805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2805" t="s">
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="2806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2806" t="s">
-        <v>2805</v>
-      </c>
-    </row>
-    <row r="2807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2807" t="s">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="2808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2808" t="s">
-        <v>2807</v>
-      </c>
-    </row>
-    <row r="2809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2809" t="s">
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="2810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2810" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="2811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2811" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="2812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2812" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="2813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2813" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="2814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2814" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="2815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2815" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="2816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2816" t="s">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="2817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2817" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="2818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2818" t="s">
-        <v>2817</v>
-      </c>
-    </row>
-    <row r="2819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2819" t="s">
-        <v>2818</v>
-      </c>
-    </row>
-    <row r="2820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2820" t="s">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="2821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2821" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="2822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2822" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="2823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2823" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="2824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2824" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="2825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2825" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="2826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2826" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="2827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2827" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="2828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2828" t="s">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="2829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2829" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="2830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2830" t="s">
-        <v>2829</v>
-      </c>
-    </row>
-    <row r="2831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2831" t="s">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="2832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2832" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="2833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2833" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="2834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2834" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="2835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2835" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="2836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2836" t="s">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="2837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2837" t="s">
-        <v>2836</v>
-      </c>
-    </row>
-    <row r="2838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2838" t="s">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="2839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2839" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="2840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2840" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="2841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2841" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="2842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2842" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="2843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2843" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="2844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2844" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="2845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2845" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="2846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2846" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="2847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2847" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2848" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="2849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2849" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2850" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2851" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2852" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="2853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2853" t="s">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="2854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2854" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="2855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2855" t="s">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="2856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2856" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="2857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2857" t="s">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="2858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2858" t="s">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="2859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2859" t="s">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="2860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2860" t="s">
-        <v>2859</v>
-      </c>
-    </row>
-    <row r="2861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2861" t="s">
-        <v>2860</v>
-      </c>
-    </row>
-    <row r="2862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2862" t="s">
-        <v>2861</v>
-      </c>
-    </row>
-    <row r="2863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2863" t="s">
-        <v>2862</v>
-      </c>
-    </row>
-    <row r="2864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2864" t="s">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="2865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2865" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="2866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2866" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="2867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2867" t="s">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="2868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2868" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="2869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2869" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="2870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2870" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="2871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2871" t="s">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="2872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2872" t="s">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="2873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2873" t="s">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="2874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2874" t="s">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="2875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2875" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="2876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2876" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="2877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2877" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="2878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2878" t="s">
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="2879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2879" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="2880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2880" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="2881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2881" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="2882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2882" t="s">
-        <v>2881</v>
-      </c>
-    </row>
-    <row r="2883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2883" t="s">
-        <v>2882</v>
-      </c>
-    </row>
-    <row r="2884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2884" t="s">
-        <v>2883</v>
-      </c>
-    </row>
-    <row r="2885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2885" t="s">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="2886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2886" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="2887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2887" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2888" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2889" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="2890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2890" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="2891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2891" t="s">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="2892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2892" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="2893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2893" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="2894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2894" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="2895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2895" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="2896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2896" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="2897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2897" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="2898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2898" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="2899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2899" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="2900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2900" t="s">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="2901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2901" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2902" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2903" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="2904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2904" t="s">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="2905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2905" t="s">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="2906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2906" t="s">
-        <v>2905</v>
-      </c>
-    </row>
-    <row r="2907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2907" t="s">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="2908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2908" t="s">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="2909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2909" t="s">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="2910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2910" t="s">
-        <v>2909</v>
-      </c>
-    </row>
-    <row r="2911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2911" t="s">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="2912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2912" t="s">
-        <v>2911</v>
-      </c>
-    </row>
-    <row r="2913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2913" t="s">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="2914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2914" t="s">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="2915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2915" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="2916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2916" t="s">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="2917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2917" t="s">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="2918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2918" t="s">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="2919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2919" t="s">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="2920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2920" t="s">
-        <v>2919</v>
-      </c>
-    </row>
-    <row r="2921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2921" t="s">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="2922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2922" t="s">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="2923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2923" t="s">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2924" t="s">
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2925" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="2926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2926" t="s">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="2927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2927" t="s">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="2928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2928" t="s">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="2929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2929" t="s">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="2930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2930" t="s">
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="2931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2931" t="s">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="2932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2932" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="2933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2933" t="s">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="2934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2934" t="s">
-        <v>2933</v>
-      </c>
-    </row>
-    <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2935" t="s">
-        <v>2934</v>
-      </c>
-    </row>
-    <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2936" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="2937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2937" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-    <row r="2938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2938" t="s">
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="2939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2939" t="s">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="2940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2940" t="s">
-        <v>2939</v>
-      </c>
-    </row>
-    <row r="2941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2941" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="2942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2942" t="s">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="2943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2943" t="s">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="2944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2944" t="s">
-        <v>2943</v>
-      </c>
-    </row>
-    <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2945" t="s">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2946" t="s">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2947" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2948" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="2949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2949" t="s">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="2950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2950" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="2951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2951" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="2952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2952" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="2953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2953" t="s">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="2954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2954" t="s">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="2955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2955" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="2956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2956" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="2957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2957" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="2958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2958" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="2959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2959" t="s">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="2960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2960" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="2961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2961" t="s">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="2962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2962" t="s">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="2963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2963" t="s">
-        <v>2962</v>
-      </c>
-    </row>
-    <row r="2964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2964" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="2965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2965" t="s">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="2966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2966" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="2967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2967" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="2968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2968" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="2969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2969" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2970" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2971" t="s">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2972" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="2973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2973" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="2974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2974" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="2975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2975" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="2976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2976" t="s">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="2977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2977" t="s">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2978" t="s">
-        <v>2977</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,78 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="2618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="2595">
   <si>
     <t>New column 0 Url</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-jacket-fyu1z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-blazer-fpii7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/valentino-sub-zero-couture-fur-jacket-flx48</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kenzo-plaid-print-blazer-fn0pq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-utility-jacket-w-tags-fytfi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fk9zg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-vest-fqoga</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-jacobs-colorblock-pattern-bomber-jacket-fv073</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-jacobs-jacket-fuyhc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maxima-utility-jacket-fpdam</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-silk-plaid-print-blazer-fyrws</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-down-jacket-fq5xr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-jacket-fyrj8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-faux-fur-jacket-fyr2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-blazer-fs0np</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carolina-herrera-tweed-pattern-evening-jacket-fyqrf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1998-evening-jacket-fm3us</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-bomber-jacket-fyqec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-x-bergdorf-goodman-cashmere-fur-jacket-fyoyk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brioni-striped-blazer-fdiza</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bode-jacket-fyoci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-striped-evening-jacket-fynw8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/unsigned-fur-jacket-fynsn</t>
   </si>
   <si>
     <t>https://www.therealreal.com/products/women/clothing/jackets/khaite-lambskin-bomber-jacket-fignl</t>
@@ -8211,10 +8142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2618"/>
+  <dimension ref="A1:A2595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21194,121 +21125,6 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2596" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2597" t="s">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="2598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2598" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2599" t="s">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2600" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2601" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2602" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="2603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2603" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="2604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2604" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="2605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2605" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="2606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2606" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="2607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2607" t="s">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="2608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2608" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="2609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2609" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="2610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2610" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2611" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2612" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="2613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2613" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="2614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2614" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="2615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2615" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="2616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2616" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="2617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2617" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="2618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2618" t="s">
-        <v>2617</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,3687 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1369">
   <si>
     <t>New column 0 Url</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/khaite-lambskin-bomber-jacket-fignl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-lambskin-biker-jacket-fwhis</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-blazer-w-tags-fwie3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-striped-blazer-fwisz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-virgin-wool-blazer-fwikg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pendleton-virgin-wool-blazer-fwhhl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pendleton-virgin-wool-plaid-print-evening-jacket-fwhf1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bob-mackie-utility-jacket-fwh5q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-houndstooth-print-blazer-fwbuv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marina-rinaldi-blazer-fwbnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/andrew-marc-leather-biker-jacket-w-tags-fwa24</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tom-ford-silk-blazer-fw68u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-printed-evening-jacket-fw602</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-silk-plaid-print-blazer-fw5ut</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-blazer-fw3gv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fw1pk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-faux-fur-jacket-w-tags-fw18y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-printed-evening-jacket-w-tags-fvy4m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/milly-tweed-pattern-evening-jacket-fvxj0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-silk-blazer-w-tags-fvvzm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-striped-evening-jacket-w-tags-fvm4x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-jacket-fvlbp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-blazer-fvvx9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-plaid-print-blazer-w-tags-fvugp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fvugh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-down-jacket-w-tags-fvu6d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-blazer-fvt30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fvrz4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fvrxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-virgin-wool-blazer-fvru3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-plaid-print-blazer-fvq6v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fvq3l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-fvp8f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marina-rinaldi-jacket-fvoto</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-blazer-fvo02</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-blazer-fvnzm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/agnona-virgin-wool-jacket-fvnth</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-fvmwt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/caroline-constas-blazer-fvlur</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-blazer-fvluh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-blazer-fvlir</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-silk-blazer-fvlga</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-2015-blazer-fvlan</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chiara-boni-striped-blazer-fvkxz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chiara-boni-striped-blazer-fvkxe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-plaid-print-blazer-fvktf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-salomon-lamb-leather-biker-jacket-w-tags-fvko0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-utility-jacket-fvklv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-printed-blazer-fvkjt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-blazer-fvkg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/genny-blazer-fvk6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fvjya</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-alpaca-evening-jacket-fvjw2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bob-mackie-blazer-fvjnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fvj9q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-virgin-wool-utility-jacket-fvidy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fv7v8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-kooples-blazer-fv7t8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-black-label-plaid-print-blazer-fr4tf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/49-winters-jacket-fwikm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fwii5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fur-animal-print-vest-fwig5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-tweed-pattern-evening-jacket-fwie5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rena-lange-printed-evening-jacket-fwi9f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-tweed-pattern-evening-jacket-fwi74</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/suno-plaid-print-faux-fur-jacket-fwhkg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-fur-jacket-fwgzt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pendleton-virgin-wool-blazer-fwgyh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/eskandar-jacket-fwgue</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-grenoble-st-valery-polka-dot-print-down-jacket-fwgqs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-evening-jacket-fwgp7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-evening-jacket-fwffj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stone-island-evening-jacket-fwf99</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fwf44</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/woolrich-evening-jacket-fwewy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-denim-jacket-fwew8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roland-mouret-biker-jacket-fwetg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-down-jacket-fwejw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emilio-pucci-printed-down-jacket-fwe97</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-grenoble-veillon-down-jacket-fwe55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-foulque-down-jacket-fwduh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-2015-evening-jacket-fwdud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fwdnp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/belstaff-biker-jacket-fwdac</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-2013-lamb-leather-biker-jacket-fwd1z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saks-fifth-avenue-evening-jacket-fwakl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/milly-evening-jacket-fwaa4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pendleton-plaid-print-vest-fwa5c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anne-fontaine-evening-jacket-fwa4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-denim-jacket-fw7hg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-printed-evening-jacket-fw6st</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-down-jacket-fw6mn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rokh-denim-jacket-fw6lw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rokh-denim-jacket-fw3kd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-fvzdy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-jacket-fvxj4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-denim-jacket-fvwzu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-merino-wool-down-jacket-fvwbz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-plaid-print-bomber-jacket-fvvp3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-down-jacket-fvuh7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-down-jacket-fvtsu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-bomber-jacket-fvtqx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-evening-jacket-fvtpd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/current-elliott-utility-jacket-fvsy8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-fire-ice-colorblock-pattern-vest-fvrve</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nsf-denim-jacket-fvrap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karen-millen-bomber-jacket-fvql0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-printed-vest-fvq1f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-graphic-print-utility-jacket-fvpqs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-vest-fvpic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-jacket-fvpgj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-denim-jacket-fvpds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-evening-jacket-fvosj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-jacket-fvnxb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fvnqp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-evening-jacket-fvnnd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-blazer-fvnkk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-evening-jacket-fvnds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-denim-jacket-fvmv6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/post-card-jacket-fvm45</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joseph-leather-evening-jacket-fvm0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-plaid-print-blazer-fvlnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-blazer-fvljh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbara-bui-floral-print-evening-jacket-fvldv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-jacket-fvldc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-2013-lamb-leather-biker-jacket-fvl9r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-by-marc-jacobs-lamb-leather-biker-jacket-fvl42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/obermeyer-biker-jacket-fvl30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-blazer-fvl1k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-fur-jacket-fvkzn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-leather-blazer-fvkuc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mother-faux-fur-jacket-fvksl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-striped-blazer-fvksi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-tweed-pattern-evening-jacket-fvkrf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-lamb-leather-evening-jacket-fvko5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dsquared-virgin-wool-blazer-fvkko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-fvkin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-salomon-lamb-fur-vest-fvkh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/givenchy-floral-print-bomber-jacket-fvkgl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-biker-jacket-fvkfh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-vest-fvkd8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-jacket-fvka8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-evening-jacket-fvk9y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fairchild-baldwin-leather-biker-jacket-fvk5x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fairchild-baldwin-biker-jacket-fvk42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fvk2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-printed-jacket-fvk2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-leather-evening-jacket-fvk1d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-evening-jacket-fvjwt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-s-jacket-fvjo5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sofia-cashmere-cashmere-cape-fvjnu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-jacket-fvjnl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-faux-fur-jacket-fvjng</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sonia-rykiel-utility-jacket-fvjk5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-lamb-leather-biker-jacket-fvjf1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-jacket-fvjet</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hilfiger-collection-graphic-print-bomber-jacket-fvjeg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tularosa-faux-fur-jacket-fvjdu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/descente-down-jacket-fvjdn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-down-jacket-fvjdf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-printed-evening-jacket-fvjc6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-tweed-pattern-evening-jacket-fvjc1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbara-bui-blazer-fvj5x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-leather-biker-jacket-fvied</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fvicv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-jacket-fvelw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-virgin-wool-blazer-fvaje</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-faux-fur-jacket-fux8o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-shearling-fur-jacket-fu52p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fu1mu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/john-galliano-vintage-2000-s-evening-jacket-ft00b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-sport-bomber-jacket-d9yag</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/doen-printed-evening-jacket-w-tags-fubl7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2005-blazer-w-tags-fsa7v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-down-jacket-fve5j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2010-tweed-pattern-evening-jacket-fkyfj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-mcqueen-vintage-2006-evening-jacket-fyn5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-black-label-lambskin-biker-jacket-fni9j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-blazer-fpedg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/current-elliott-denim-jacket-fylyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/l-agence-blazer-fpqu1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-silk-blazer-fp95l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-vest-fyksz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rena-lange-evening-jacket-foua7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-vest-fjcdj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-striped-evening-jacket-fry2d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sass-bide-printed-bolero-fn8yg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-blazer-fs2y9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-leather-biker-jacket-fpwpv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/colmar-performance-jacket-w-tags-fq1gl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-w-tags-fwd1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ami-alexandre-mattiussi-houndstooth-print-blazer-w-tags-fvn8k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-fvzhn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandro-blazer-fv9s1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-performance-jacket-w-tags-fuutz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fwtjx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-lamb-leather-biker-jacket-fwjn0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-iluric-utility-jacket-fwj6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-performance-jacket-fwh9e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-evening-jacket-fwcqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fwcpb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-leather-evening-jacket-fwcjo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-blazer-fwbv7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fwbu5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-evening-jacket-fwbkk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-vintage-2000-s-evening-jacket-fvwt9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-fvmgm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-printed-blazer-fvm2l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-jacket-fv820</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bally-lambskin-bomber-jacket-fv6gy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/unsigned-fur-jacket-fuuax</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/versace-floral-print-jacket-fus6u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-fire-ice-vest-fnwoh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-lamb-leather-biker-jacket-frokg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-blazer-fnwxf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-vest-fopg9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anett-rostel-evening-jacket-fn3ok</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/3-1-phillip-lim-lamb-leather-biker-jacket-fq8zh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/libertine-blazer-fvlg6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-blazer-fvd7t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-plaid-print-blazer-fv9j8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-evening-jacket-fut7u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-fvtbj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fvozq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/thom-browne-blazer-fvmhd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alaia-bolero-fvkxq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-paisley-print-blazer-fvaji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-animal-print-jacket-fv9mo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-tweed-pattern-down-jacket-fv6e2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/shrimps-faux-fur-jacket-fv61n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nanushka-jacket-fv19x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2005-evening-jacket-fryp0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dsquared-cape-fnxlt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-printed-blazer-fnpox</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fnkn5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fsve2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-gg-printed-blazer-w-tags-fj7rs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/studio-nicholson-lamb-leather-jacket-w-tags-fct8d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-virgin-wool-evening-jacket-fn3w8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fvlvq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-striped-blazer-fvkiw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-by-marc-jacobs-merino-wool-striped-jacket-fvhxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-plaid-print-blazer-fvcw3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/badgley-mischka-utility-jacket-w-tags-ftx8o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-vest-fw5t4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-jacket-fvz2o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ann-demeulemeester-jacket-fvqju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rena-lange-leather-biker-jacket-fvo92</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/norma-kamali-blazer-fviod</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/3-1-phillip-lim-tweed-pattern-evening-jacket-fvi3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-houndstooth-print-evening-jacket-fvgwi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anne-fontaine-jacket-fun1a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-wool-w-tags-c5f85</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-cashmere-blazer-fr5u8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-virgin-wool-striped-blazer-fv946</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alo-yoga-utility-jacket-fmn8h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-virgin-wool-striped-blazer-fk3mx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-couture-floral-print-evening-jacket-fozwh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-tweed-pattern-blazer-fqevq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/current-elliott-jacket-fqgup</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-lamb-leather-blazer-fq59s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-2002-tweed-pattern-blazer-fpyvz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-lambskin-blazer-w-tags-fvx40</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-floral-print-blazer-w-tags-fvy1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-floral-print-blazer-fvixu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/walter-baker-blazer-fv9ek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fvxvq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-leather-biker-jacket-fvxut</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vakko-bolero-fvx7h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-down-jacket-fvx4b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sonia-rykiel-jacket-fvuo8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apiece-apart-jacket-fvnq3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-s-tweed-pattern-evening-jacket-fvd6q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-printed-blazer-fvcv9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-jacket-fumv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jil-sander-vintage-2000-s-evening-jacket-fataj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/wood-wood-denim-jacket-ftrwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-blazer-ftrxl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-leather-biker-jacket-fqi5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jean-paul-gaultier-vintage-printed-vest-fm9av</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-lamb-leather-biker-jacket-fpbic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-plaid-print-faux-fur-jacket-fd8jr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helly-hansen-jacket-fh1hg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jil-sander-blazer-fvvdg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fvoet</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-jacket-fveyb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-virgin-wool-striped-blazer-fuqwo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karl-lagerfeld-vintage-1990-s-jacket-fupxf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-vest-fvocv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-evening-jacket-fvf9n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/heron-preston-bomber-jacket-fv7wy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-blazer-flmov</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-faux-fur-jacket-fxzod</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-faux-fur-jacket-fpldq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-2022-polka-dot-moon-jacket-fsrsb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-tweed-pattern-evening-jacket-fuzps</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-blazer-fuphy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-plaid-print-blazer-fudct</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loewe-2018-striped-blazer-ftbgx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1997-blazer-fsjfn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2012-paris-bombay-biker-jacket-frbkl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2007-evening-jacket-fnbtk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-colorblock-pattern-jacket-fvbct</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/reformation-blazer-fv1m5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-blazer-fv07e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/andrew-marc-leather-jacket-fuxr8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-leather-biker-jacket-fuuyl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-jeans-floral-print-jacket-fuum4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sacai-bomber-jacket-fuufg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mackage-down-jacket-fui8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-printed-jacket-fubni</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-vest-fu5op</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2011-tweed-pattern-evening-jacket-ftemu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2018-tweed-pattern-evening-jacket-ft3dz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-jacket-fstzf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2020-metier-s-d-art-collection-bolero-fs9y4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2005-fur-jacket-fs8vd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-bomber-jacket-fs16m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2022-tweed-pattern-jacket-frt6d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-faux-fur-jacket-fro5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-fqn7p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-denim-jacket-fqmyl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alaia-vintage-1980-s-jacket-fqdpi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2016-printed-blazer-fq4qz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-vintage-late-1990-s-early-2000-s-evening-jacket-fpqad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2008-denim-jacket-fpc45</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2014-paris-dallas-evening-jacket-foorz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-2020-shearling-fur-jacket-fnwyq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-fur-jacket-fd7kv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fk7wt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2016-utility-jacket-folp3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-goat-leather-biker-jacket-fnfxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/equipment-plaid-print-blazer-w-tags-fpvmr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2015-blazer-fe0nm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-fjsl0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-jacket-fq2y7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-blazer-fpf86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/d-g-virgin-wool-jacket-flvb9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-fm1ds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-blazer-w-tags-fuqsh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lela-rose-plaid-print-jacket-w-tags-ftlha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-printed-bomber-jacket-w-tags-fvg7f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canali-plaid-print-blazer-fv3rf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-striped-blazer-fuq6b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2018-blazer-fu84c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-jacket-ftlfa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1998-blazer-fso4e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fur-animal-print-fur-jacket-fvg8b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/d-g-jacket-fvdi9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-tweed-pattern-blazer-fvdh6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/a-p-c-bomber-jacket-fvcs6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fvbj9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-goat-leather-striped-vest-fv21x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chloe-2004-jacket-fv1lg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/haute-hippie-suede-vest-fuqvy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-jacket-fthgx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-prorsum-vintage-late-1990-s-early-2000-s-vest-fscq6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/valentino-vintage-1980-s-blazer-fgf87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-virgin-wool-houndstooth-print-vest-fn7ns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-2010-biker-jacket-fe760</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/peter-do-bolero-fj829</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fl5o0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-printed-blazer-fgogs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-faux-fur-jacket-fqvnl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-blazer-feoff</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-utility-jacket-fmkxl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-printed-blazer-fuasa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/l-agence-floral-print-blazer-w-tags-fu1zt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-blazer-fug25</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sonia-rykiel-blazer-fufs0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-virgin-wool-blazer-fu7zg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-virgin-wool-blazer-fu262</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/proenza-schouler-white-label-plaid-print-jacket-w-tags-ftz5n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-ftwmd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-ftwlv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/haute-hippie-colorblock-pattern-vest-ftcxz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2000-blazer-fquco</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roberto-cavalli-virgin-wool-blazer-focyw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-evening-jacket-fuxvd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kith-denim-jacket-fuo37</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-down-jacket-fumgn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/3-1-phillip-lim-denim-jacket-fullt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/raquel-allegra-jacket-fue4o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/leggiadro-blazer-fudpd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rains-utility-jacket-fu9og</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/proenza-schouler-lambskin-utility-jacket-fu93p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moma-printed-evening-jacket-fu6xr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gcds-faux-fur-jacket-fu6c3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fu66e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-floral-print-evening-jacket-fu5x4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-jacket-fu457</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fu37c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-fu0h8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fu0cy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-jacket-ftusp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-merino-wool-vest-ftu7n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-down-jacket-ftrza</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sofie-d-hoore-jacket-ftreq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-evening-jacket-ftpwb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-ftgy4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/baum-und-pferdgarten-plaid-print-jacket-fteyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veda-leather-utility-jacket-fta4l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-vest-ft1k7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-tweed-pattern-blazer-fsuz0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-vest-fsriz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/retrofete-tweed-pattern-evening-jacket-fsjm9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-plaid-print-jacket-fs5s5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-frusp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-virgin-wool-blazer-fqntt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/versace-jeans-vintage-1993-jacket-fo3xs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saks-potts-lamb-fur-fur-jacket-fisz4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/derek-lam-10-crosby-lamb-leather-denim-jacket-fi3wt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-leather-biker-jacket-fhomc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-evening-jacket-fl5q9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fnsdc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fmv6k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/b-yohji-yamamoto-evening-jacket-fo5xy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-x-bergdorf-goodman-cashmere-blazer-fplri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fkzkt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-plaid-print-utility-jacket-fpqya</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-plaid-print-jacket-fmfk4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gerard-darel-jacket-fv92q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-floral-print-evening-jacket-fuyig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/piazza-sempione-floral-print-blazer-fuuyo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-blazer-fuui5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-blazer-fuswv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fus5f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-utility-jacket-furo2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-funwi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-plaid-print-blazer-fukym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-evening-jacket-fu8gm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nicole-miller-blazer-ftv9e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/calvin-klein-collection-blazer-ftp87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-cashmere-bomber-jacket-frx8z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karen-millen-striped-biker-jacket-fv6xi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-utility-jacket-fv5mj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-down-jacket-fv2ha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-jacket-fv23q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-bomber-jacket-fv0p7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-evening-jacket-fv0fu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lela-rose-jacket-fuuib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nanushka-vest-futqs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-lamb-leather-faux-fur-jacket-futgh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pixie-market-faux-fur-jacket-fut98</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-utility-jacket-fupqd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-jacket-fulok</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-denim-jacket-fuijo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-plaid-print-jacket-fuczs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-virgin-wool-evening-jacket-fucwj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-animal-print-biker-jacket-fucka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mother-denim-jacket-fub0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-striped-jacket-fu5t9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/s-max-mara-utility-jacket-fu4ql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-jacket-fu1zy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jennifer-meyer-lamb-leather-biker-jacket-fu1jp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nili-lotan-utility-jacket-fu1jf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/atelier-delphine-jacket-ftujn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nili-lotan-jacket-ftoes</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/coach-1941-jacket-frzts</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-vintage-printed-bomber-jacket-frgwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-printed-utility-jacket-fn1b2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nili-lotan-virgin-wool-jacket-foed1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-blazer-firb9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-blazer-fjz0g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-evening-jacket-fghn2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-virgin-wool-blazer-fo1ox</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-s-blazer-flf12</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-tweed-pattern-evening-jacket-fs9gd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-minkoff-faux-fur-jacket-frmkq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-fur-jacket-fodg5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-blazer-fm1vn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-ftmk2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-ft97n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rta-denim-faux-fur-jacket-ft8r4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-lamb-fur-fur-jacket-ft0k4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-drkshdw-jacket-fsx2u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-tweed-pattern-cape-fsti3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-leather-vest-fqglm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2005-fur-jacket-fog6b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-jacket-fnb8b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vintage-unbranded-leather-denim-jacket-fomys</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-utility-jacket-fhd0g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bottega-veneta-silk-utility-jacket-fo9qs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-vest-fnqej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-leather-blazer-fmhe4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fl16x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/baum-und-pferdgarten-plaid-print-vest-ft1xp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fu1l0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sacai-x-nike-bomber-jacket-fto6u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-leather-biker-jacket-ftma5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/creatures-of-comfort-striped-jacket-ftd2k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-blazer-ft1rx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-denim-jacket-fswfs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/closed-virgin-wool-utility-jacket-fsnbh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dorothee-schumacher-bomber-jacket-fmyk4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-vest-fktof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sts-sail-to-sable-tweed-pattern-evening-jacket-w-tags-fwfnk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-vest-fil2v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-tweed-pattern-evening-jacket-fo0hd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-plaid-print-utility-jacket-f4ird</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-lamb-leather-biker-jacket-fl9g7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-fm5hx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carolina-herrera-blazer-frpg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ungaro-ter-evening-jacket-fp7z3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/piazza-sempione-jacket-fther</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-utility-jacket-ftek7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-lamb-leather-bomber-jacket-fqxr1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/reformation-lamb-leather-blazer-fa696</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-black-label-plaid-print-blazer-fpzat</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maggie-marilyn-fur-jacket-fcqvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-blazer-fkv1n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karl-lagerfeld-fox-fur-jacket-w-tags-fk5s7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-evening-jacket-fpqna</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-silk-bomber-jacket-fbmu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kate-spade-new-york-tweed-pattern-evening-jacket-ftgpd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/closed-utility-jacket-fsjq8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fs0e7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-utility-jacket-fswas</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alaia-bolero-fsobr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/thomas-wylde-lamb-leather-vest-fsmkg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fskvi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-tie-dye-print-faux-fur-jacket-fsjsr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-arrivals-lamb-leather-jacket-fsjiq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fs8fz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-lamb-leather-faux-fur-jacket-fs06x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saks-potts-faux-fur-jacket-fqlgw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-vest-fst1f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-mink-fur-jacket-fp07v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-plaid-print-blazer-fj5ro</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fptbd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-virgin-wool-evening-jacket-fmh72</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-tweed-pattern-evening-jacket-fi4es</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-fhkem</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/junya-watanabe-comme-des-garcons-vintage-2003-evening-jacket-fixsj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/3-1-phillip-lim-virgin-wool-blazer-w-tags-ft5kw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-tweed-pattern-evening-jacket-ftiqi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-w-tags-ftdy0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/khaite-blazer-ftaxn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maje-lamb-leather-biker-jacket-ft5bq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-blazer-ft3zy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-vest-w-tags-ft1lp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-jacket-fsxkq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2014-tweed-pattern-jacket-w-tags-fnjfa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-virgin-wool-blazer-fmta4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/cinq-a-sept-printed-blazer-fl86d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rosetta-getty-lamb-leather-biker-jacket-evfb3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-lambskin-biker-jacket-fg0iw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-w-tags-flqa5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etro-leather-vest-fk8zn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/calvin-klein-collection-leather-blazer-fmvpz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pearl-by-lela-rose-vest-ftlhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-blazer-ftjvd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veda-goat-leather-biker-jacket-fth4g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-down-jacket-fte1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ports-1961-cape-ft7og</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2021-printed-blazer-flfxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rene-lezard-blazer-fnro1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-vest-fjy7s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-silk-blazer-fsfsw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-camouflage-print-blazer-fs043</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/philosophy-di-lorenzo-serafini-blazer-fqvkm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2017-blazer-fl9kx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-merino-wool-cape-fsfl7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-jacket-fr6qo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-colorblock-pattern-faux-fur-jacket-fqtwa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2010-lambskin-jacket-fmxa2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2005-blazer-fmlh6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-goat-leather-blazer-fj5vj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helly-hansen-jacket-fdncp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maje-lamb-leather-biker-jacket-w-tags-fqhih</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2022-gabardine-jardin-d-hiver-bomber-jacket-fp5mm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-w-tags-fjg85</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-fnqnp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ramy-brook-faux-fur-jacket-fn3de</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roberto-cavalli-blazer-fk3th</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-jacket-fclm0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kjus-blazer-w-tags-fh0u2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-2000-s-fur-jacket-fhi8y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stand-studio-faux-fur-jacket-fl9eb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-leather-blazer-fsqgo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-faux-fur-jacket-fskz0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-jacket-fskop</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/givenchy-evening-jacket-fsgj2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-printed-denim-jacket-fsbdd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-lamb-leather-biker-jacket-fs00q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vintage-unbranded-mink-fur-jacket-frtk2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/l-k-bennett-tweed-pattern-evening-jacket-frtbw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maje-houndstooth-print-blazer-frp3s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-vest-froth</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-leather-biker-jacket-frost</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-down-jacket-frlgg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/natasha-zinko-utility-jacket-fr8b2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-jacket-fr7k2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1999-jacket-fm5q0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-printed-utility-jacket-fokn2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/plein-sud-blazer-fn2pd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-ft0th</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-fur-jacket-w-tags-ft0od</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-leather-blazer-fsw6o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-silk-blazer-fsqkg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-plaid-print-blazer-fs9ia</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-blazer-fs2xr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fsb62</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-cashmere-blazer-fs985</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-down-jacket-fs8f9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-lambskin-vest-fs0df</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-calf-leather-colorblock-pattern-denim-jacket-frz6l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rta-denim-denim-jacket-fry0r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-frxv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-fur-jacket-frxgv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-lambskin-utility-jacket-frwoz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-bomber-jacket-fmxef</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-jacket-fcskf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-plaid-print-blazer-foaj0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-virgin-wool-blazer-fezjj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-fur-jacket-w-tags-ft6k1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-striped-biker-jacket-fsp8z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-virgin-wool-striped-blazer-fskrq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-striped-blazer-fquzw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nina-mclemore-virgin-wool-striped-blazer-fouxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/autumn-cashmere-striped-vest-ftbfs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-evening-jacket-ft6ja</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dsquared-bomber-jacket-ft66t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-evening-jacket-fsjws</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-lamb-leather-blazer-fsjew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mes-demoiselles-paisley-print-evening-jacket-fs8iw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-jacket-fs4ee</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-jacket-frx6d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carhartt-utility-jacket-frn9u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-salomon-fur-jacket-fr2yl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-vintage-1980-s-fur-jacket-fr21v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-lamb-leather-evening-jacket-fqvv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-utility-jacket-foqau</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-leather-biker-jacket-fo3s2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/walter-baker-leather-biker-jacket-w-tags-fnvxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maison-margiela-blazer-fg9ef</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rochas-mohair-faux-fur-jacket-w-tags-fpoxx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-floral-print-blazer-fosw3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/versace-biker-jacket-frlc2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-calfskin-biker-jacket-fpor6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-leopard-anorak-faux-fur-jacket-fnesf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-utility-jacket-fcqqf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/walter-baker-jacket-fny76</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/proenza-schouler-jacket-fgget</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-vest-fikka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-blazer-frw26</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-evening-jacket-frqke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fqxey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-tweed-pattern-blazer-fqwst</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fqd1m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sezane-blazer-fq9xb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-plaid-print-cape-fr666</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/frame-lamb-leather-blazer-fps2f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veda-leather-blazer-fktj9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2015-paris-dubai-evening-jacket-finut</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/opening-ceremony-virgin-wool-tweed-pattern-blazer-fkrfu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/3-1-phillip-lim-utility-jacket-fp64w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-leather-jacket-fl8gb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/just-cavalli-evening-jacket-fqtjq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/valentino-vintage-1980-s-blazer-fov6c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/l-g-b-biker-jacket-frzj2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-faux-fur-jacket-fr2gk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-down-jacket-fqao9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/toteme-jacket-fdt8a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maje-faux-fur-jacket-fdi7x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mm6-maison-margiela-evening-jacket-fm1hb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-cheap-and-chic-evening-jacket-fko61</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-virgin-wool-blazer-frk87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-tweed-pattern-evening-jacket-fqf9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/j-mendel-fur-jacket-fruf8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandro-bomber-jacket-fpwij</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-bomber-jacket-fp442</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-evening-jacket-fc3rr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-vintage-late-1990-s-early-2000-s-blazer-fhao9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lth-jkt-leather-biker-jacket-fjp2w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2003-evening-jacket-fh50m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-patterned-blazer-fqkcj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maggie-marilyn-blazer-fqady</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-jacket-fr0v9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/frame-jacket-fqj8v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dries-van-noten-performance-jacket-fq4bd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fpwte</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-down-jacket-fpahc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-biker-jacket-fpae5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fomdb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/thierry-mugler-vintage-late-1980-s-early-1990-s-jacket-fo3v3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-virgin-wool-houndstooth-print-blazer-flcp2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-fn5kf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-vest-w-tags-fl77q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-down-jacket-flg3j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-cashmere-blazer-fm8vd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-virgin-wool-blazer-femnr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ugg-jacket-fmt1j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-tweed-pattern-blazer-frcw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-tweed-pattern-blazer-fr9ol</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stand-studio-faux-fur-jacket-fqh3o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nili-lotan-blazer-fqh12</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stefanel-plaid-print-blazer-fqfmx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-leather-biker-jacket-fofe4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-lamb-leather-biker-jacket-frbvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-utility-jacket-fqq89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-bomber-jacket-fq9gc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-jacket-f3atb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-printed-jacket-fm3s2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/attico-blazer-fior2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sezane-faux-fur-jacket-fpfpm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-faux-fur-jacket-fpedi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/givenchy-denim-jacket-fo7mk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-striped-blazer-f9laf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gerard-darel-tweed-pattern-evening-jacket-fhl9j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2020-tweed-pattern-jacket-djsks</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giambattista-valli-evening-jacket-ffe7x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-jacket-fibu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-vintage-2000-s-biker-jacket-faeeu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karl-lagerfeld-jacket-w-tags-fq6iq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-w-tags-fq744</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-jacket-foscs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fg3ic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-fire-ice-down-jacket-fjxoh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-printed-evening-jacket-fo5qv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fqdhh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-salomon-fur-jacket-fq5lq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ba-sh-leather-biker-jacket-fpxqi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-vest-fptjh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jocelyn-jacket-fpqp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-fur-jacket-fppzr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-evening-jacket-fp0ix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alo-yoga-jacket-fosns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/reformation-plaid-print-blazer-foqw5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mackage-plaid-print-down-jacket-fo37f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-blazer-fc12n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-virgin-wool-printed-blazer-fivik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-evening-jacket-fj8zx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/belstaff-utility-jacket-fdchb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-virgin-wool-blazer-fhrce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jean-paul-gaultier-vintage-1992-evening-jacket-f43fc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-1990-s-fur-jacket-f3auu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-blazer-fh1at</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-flp33</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fgtn8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zentner-down-jacket-fgtrr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-vest-faule</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-jacket-fk619</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/australia-luxe-collective-vest-fqda7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stand-studio-faux-fur-jacket-fqc8q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/baum-und-pferdgarten-denim-jacket-fpa1j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/boda-skins-lamb-leather-biker-jacket-fp48j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rta-denim-faux-fur-jacket-fp2np</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ivan-grundahl-blazer-fou2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/a-bathing-ape-x-disney-break-it-ralph-printed-bomber-jacket-fn3s1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-st-john-blazer-etrgk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-ghany-gilet-vest-w-tags-fewf3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-jacket-fhlen</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/just-cavalli-printed-blazer-fcds7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-vintage-late-1990-s-early-2000-s-jacket-fq7tw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-lambskin-biker-jacket-fo8cr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-leather-vest-fnw3h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/deitas-silk-cape-fnugo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fur-fur-jacket-facta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-lamb-leather-striped-evening-jacket-fo251</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pauline-trigere-vest-fjymv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-striped-blazer-fk4fp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-printed-evening-jacket-feurm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-performance-jacket-w-tags-fehl5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-fmkmi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-tweed-pattern-blazer-fqmwm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pendleton-virgin-wool-plaid-print-blazer-fptec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-blazer-fpg1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-faux-fur-jacket-ffdhj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2011-tweed-pattern-evening-jacket-f9ivl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/perfect-moment-houndstooth-print-down-jacket-f904t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-blazer-fq0d5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prabal-gurung-bomber-jacket-fq1ti</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pologeorgis-fox-fur-jacket-fpfnh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-evening-jacket-fgi36</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-blazer-fa13n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-tweed-pattern-blazer-fj9g1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-lambskin-bomber-jacket-fg57g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-evening-jacket-fia5g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-utility-jacket-w-tags-f9cde</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-lamb-leather-biker-jacket-ff4w7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-blazer-fom9i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/oscar-de-la-renta-striped-evening-jacket-foc32</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-fur-jacket-foadh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-jacket-fo4vk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2018-down-jacket-fo458</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-w-tags-fj4m4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-down-jacket-fj8f5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/edward-achour-evening-jacket-w-tags-fkc1r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/costume-national-blazer-fotvt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-plaid-print-blazer-foptj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-tweed-pattern-evening-jacket-fo01g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-blazer-fnghk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-signac-down-jacket-fp6x2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rena-lange-lamb-leather-blazer-fozl9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-denim-jacket-foyym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-jacket-fo3kk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bogner-printed-utility-jacket-fnz0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-camouflage-print-jacket-fnqf4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-printed-bomber-jacket-fnmsz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/boda-skins-lambskin-biker-jacket-fnm2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-lambskin-biker-jacket-fmq2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/off-white-c-o-virgil-abloh-denim-jacket-fml3k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-denim-jacket-fme5p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-mccall-faux-fur-jacket-fmayq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-down-jacket-fp3bx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-colorblock-pattern-bomber-jacket-w-tags-dcsad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-bomber-jacket-fdbz2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/khaite-suede-evening-jacket-flb21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-down-jacket-etoc0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-cashmere-printed-blazer-fachv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fp5om</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-blazer-fn3cn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-plaid-print-blazer-fmnup</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-vest-fozf4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-leather-bolero-fo8i3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adolfo-plaid-print-blazer-fo1mo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2004-jacket-fnuxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-leather-bomber-jacket-fsmlz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-utility-jacket-fit8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/victoria-beckham-blazer-fe3bt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-printed-denim-jacket-w-tags-fmh2d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alberta-ferretti-blazer-fo3u5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-blazer-fnwrh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/retrofete-jacket-fnpb2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-cashmere-jacket-fnbky</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-tweed-pattern-jacket-fn7do</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sprwmn-jacket-fnypt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-black-label-evening-jacket-fnuie</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/perfect-moment-down-jacket-fnrdv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-fnl9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/canada-goose-merino-wool-down-jacket-fna8g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chrome-hearts-jj-dean-mathematical-hermes-lined-biker-jacket-fmyiu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2002-evening-jacket-fl8ec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-lacroix-vintage-late-1990-s-early-2000-s-blazer-fl0cv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2020-printed-evening-jacket-fjvoo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2016-printed-blazer-fjoma</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-haute-couture-printed-blazer-fh5e9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-blazer-fh61n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vintage-unbranded-shearling-fur-jacket-fb8ay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-leather-animal-print-fur-jacket-fhbn1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-mcqueen-evening-jacket-fjb25</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-blazer-fnsf0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/y-project-denim-jacket-w-tags-fnb1x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vivienne-hu-floral-print-blazer-fn8t7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-evening-jacket-fon24</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-utility-jacket-fogkv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-silk-jacket-fof9w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/belle-fare-fur-jacket-fob2m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-tweed-pattern-evening-jacket-fo7b9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ted-baker-jacket-fo345</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hysteric-glamour-printed-denim-jacket-fnyw2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fnqya</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/a-w-a-k-e-mode-jacket-fnmzc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emilio-pucci-vintage-2000-s-vest-fm2oh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/revillon-vintage-late-1950-s-early-1960-s-cape-flg4e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-blazer-eofbw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-mink-plaid-print-fur-jacket-fjbbl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-blazer-fm38b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fn2d6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ermanno-scervino-evening-jacket-fmw5h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roland-mouret-evening-jacket-fmh36</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-acorus-down-jacket-fmd7n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-s-utility-jacket-fm52m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rains-performance-jacket-f6p2j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-bomber-jacket-ffs0b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2008-tweed-pattern-blazer-f8i6b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2022-printed-blazer-w-tags-fds89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-prorsum-virgin-wool-plaid-print-biker-jacket-f97o7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/l-agence-denim-jacket-w-tags-fk60x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bally-lamb-leather-biker-jacket-w-tags-fref1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carolina-herrera-silk-blazer-fk8ao</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sportmax-blazer-f9qaq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-caviar-evening-jacket-feo3q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-jeans-vintage-late-1980-s-early-1990-s-bomber-jacket-fr376</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-tweed-pattern-jacket-fdyez</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-utility-jacket-fmsii</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-vest-fkx8i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2020-down-jacket-fjddx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-vintage-2002-fur-jacket-fbfl8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emilio-pucci-printed-jacket-ffbq8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/khaite-down-jacket-fjkld</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2015-bady-down-jacket-fggbe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/materiel-blazer-w-tags-fe2om</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-punto-blazer-w-tags-fgyic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-virgin-wool-blazer-w-tags-fm0zq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rosie-assoulin-blazer-flae0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loewe-denim-jacket-flspo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moose-knuckles-down-jacket-fkb49</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-2017-denim-jacket-fdrb4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alexander-wang-evening-jacket-fqiw5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-silk-fur-jacket-ffcdd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-evening-jacket-fm9yi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-great-utility-jacket-fn09i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1995-jacket-fgafi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2003-evening-jacket-fg27w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/cedric-charlier-virgin-wool-evening-jacket-fjix7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/hermes-lambskin-vest-f90bf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/frame-denim-jacket-fi6h7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dries-van-noten-striped-jacket-fgg8p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-leather-biker-jacket-fbg7f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2012-evening-jacket-w-tags-fi7hg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2016-tweed-pattern-evening-jacket-fi0lf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/doen-utility-jacket-fdcls</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-evening-jacket-w-tags-fgzen</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-leather-biker-jacket-fgdek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-minkoff-fur-jacket-fg22f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-plaid-print-blazer-fi2hy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-virgin-wool-blazer-fm60e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-blazer-fm3pm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-frankie-shop-vest-fm7de</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2012-printed-evening-jacket-fjjtc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2009-paris-moscou-evening-jacket-fjd6p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1992-evening-jacket-fivtk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-vintage-2000-s-faux-fur-jacket-fhivo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-minkoff-animal-print-faux-fur-jacket-w-tags-fk7cy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-vintage-late-1990-s-early-2000-s-blazer-f99jm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-f8taj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-blazer-f6z11</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-plaid-print-blazer-w-tags-fcncq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2017-tweed-pattern-evening-jacket-f76au</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-zoe-evening-jacket-w-tags-f7xwv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/salvatore-ferragamo-jacket-w-tags-fm9d1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nanushka-plaid-print-jacket-fm3aq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2014-evening-jacket-fju7e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-vest-facqm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-virgin-wool-blazer-fm8s7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-lamb-leather-biker-jacket-fmcnp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/slate-stone-suede-jacket-fls1x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/duvetica-vest-flli6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kimberly-goldson-blazer-fl82m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/kobi-halperin-evening-jacket-fkjm0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maje-blazer-fff36</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-utility-jacket-fbls7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-silk-blazer-f8lly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandro-bomber-jacket-fiobv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/adrienne-landau-fur-jacket-fd16b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tory-burch-colorblock-pattern-evening-jacket-fb56l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tibi-striped-blazer-fmi76</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/arc-teryx-performance-jacket-fmx9e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-vintage-denim-jacket-fm5kw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-virgin-wool-houndstooth-print-blazer-fft0a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fpvtz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/nili-lotan-printed-evening-jacket-w-tags-f7xk8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-2016-bomber-jacket-ff7tg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-virgin-wool-blazer-fkydg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/blumarine-evening-jacket-flwqb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-fllpt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2013-down-jacket-fl9ma</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sacai-bomber-jacket-fl4ud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-jacket-fl4go</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2001-vest-fkt7w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-2014-armoise-down-jacket-fko39</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dries-van-noten-vest-fk42a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-printed-blazer-ffx76</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/loro-piana-leather-utility-jacket-ffss2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-plaid-print-faux-fur-jacket-w-tags-ezlhl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-jacket-fhxrw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-vintage-leather-biker-jacket-f406v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balenciaga-lamb-leather-biker-jacket-ffa8j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alessandra-rich-jacket-flgk0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-cashmere-blazer-feh9g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vince-blazer-flt6u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rosetta-getty-blazer-flqye</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-jacket-w-tags-flqo4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-brit-jacket-flq51</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/morgane-le-fay-jacket-fl5q7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-cashmere-striped-jacket-fhfae</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/maison-margiela-lamb-leather-vest-fl2ah</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-plaid-print-blazer-fkv28</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pologeorgis-faux-fur-jacket-flffi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alo-yoga-jacket-fla94</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/s-max-mara-virgin-wool-plaid-print-blazer-fl89n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emporio-armani-utility-jacket-fkxgs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandro-denim-jacket-fki75</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fisps</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/harvey-faircloth-fur-jacket-w-tags-fj6ew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-jacket-fdzpj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-virgin-wool-blazer-fflf1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-printed-blazer-flf2n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/herno-down-jacket-w-tags-flccm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-w-tags-fku94</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-jacket-flt7q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-printed-evening-jacket-flhe6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-shikine-down-jacket-fl7ne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-moi-leather-jacket-fl3ea</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/belstaff-bomber-jacket-fkwfv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-cheap-and-chic-vintage-2000-s-fur-jacket-fbhsa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/zadig-voltaire-blazer-fkdeg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karen-millen-leather-biker-jacket-fkmpx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dries-van-noten-printed-blazer-fjffm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-printed-bomber-jacket-fh1vh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roberto-cavalli-printed-faux-fur-jacket-fk866</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/blanc-noir-bomber-jacket-fjekn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/celine-evening-jacket-fh998</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-lamb-leather-biker-jacket-faty0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sportmax-blazer-fjzxw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/arc-teryx-down-jacket-fjr16</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-vintage-2007-cape-feyde</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-plaid-print-denim-jacket-f42oc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-printed-utility-jacket-ferv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/woolrich-colorblock-pattern-trucker-jacket-fgjo9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/off-white-c-o-virgil-abloh-2019-virgin-wool-blazer-w-tags-fcxco</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-frankie-shop-jacket-w-tags-fh9um</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-blazer-fjv0q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-lamb-leather-biker-jacket-fixpr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mackage-down-jacket-fih3m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fj98e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/haute-hippie-colorblock-pattern-blazer-fkaz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sam-down-jacket-fjm0y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fj535</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-bomber-jacket-fhl4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/michael-kors-virgin-wool-coat-fhwyj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/donna-karan-lambskin-jacket-fheti</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/smythe-printed-evening-jacket-fe03w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-jacket-f7e7e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-bolero-f8zjc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-striped-blazer-fhnov</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2002-evening-jacket-f9z01</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/khaite-denim-jacket-fcn7o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/paula-lishman-fur-jacket-fkuo9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-lamb-leather-biker-jacket-fklkp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-w-tags-cpcwj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marni-2021-shearling-fur-jacket-fg9zb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-fcni0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jet-set-down-jacket-fcvzb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-vest-fk0rv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandro-biker-jacket-fjzj2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alaia-vintage-1986-blazer-fei7t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/cinq-a-sept-blazer-fhxkk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rossignol-colorblock-pattern-coat-fi1ke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-jacket-fgebn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chloe-vintage-2002-jacket-f82d3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-prorsum-goat-leather-animal-print-jacket-ffw3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-utility-jacket-fjpyf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/cut25-by-yigal-azrouel-leather-biker-jacket-fiki5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-virgin-wool-jacket-fgzi1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ichi-antiquites-evening-jacket-f2fm4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-blazer-fjtbc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roller-rabbit-printed-evening-jacket-fi23t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/vintage-unbranded-mink-fur-jacket-fi3iq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/acne-studios-blazer-fbcuh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-leather-faux-fur-jacket-fb2ah</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-blazer-w-tags-fgm8f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dries-van-noten-striped-blazer-w-tags-fkg4k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/blumarine-shearling-fur-jacket-fk9co</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/giorgio-armani-blazer-fk98q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/etoile-isabel-marant-virgin-wool-striped-blazer-evlom</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/emilio-pucci-fur-jacket-fmoe3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/pallas-blazer-w-tags-fj1zk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/miu-miu-kid-mohair-blazer-w-tags-fhjfd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/casasola-virgin-wool-blazer-fii6q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fendi-blazer-fhopj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/thom-browne-2022-4-bar-blazer-fhbma</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/diane-von-furstenberg-blazer-fh66e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sablyn-silk-jacket-fglvv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-tweed-pattern-evening-jacket-fif8c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-performance-jacket-fi1m0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/lafayette-148-jacket-fhxrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-denim-jacket-fhvc4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-down-jacket-dfmtu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/iro-bomber-jacket-w-tags-f6mru</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-sport-jacket-ff2fg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-2016-lamb-leather-biker-jacket-fiqsw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-row-blazer-fjw7k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-bolero-fje2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-jacobs-jacket-fj50q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-calf-leather-vest-fibs1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-sport-denim-jacket-fhyhb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-fh8dz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chloe-mohair-plaid-print-utility-jacket-fgzbv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/dolce-gabbana-vintage-late-2000-s-early-2010-s-biker-jacket-fg2p9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/carhartt-denim-jacket-f89w7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ugg-colorblock-pattern-faux-fur-jacket-w-tags-ffr92</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2020-lambskin-blazer-w-tags-e9ezo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/muubaa-lamb-leather-biker-jacket-fhrko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ba-sh-jacket-ffr82</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-lamb-leather-biker-jacket-ffljq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/joie-leather-biker-jacket-fb120</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chloe-virgin-wool-printed-faux-fur-jacket-fghq3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/veronica-beard-plaid-print-blazer-fi2y1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/alice-olivia-coat-w-tags-fhrwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/mother-denim-jacket-fino5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-utility-jacket-f42f6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-london-blazer-fhqaa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rag-bone-blazer-fha05</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-down-jacket-fh32o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bob-mackie-floral-print-vest-fgl6n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-blazer-f8tvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-printed-utility-jacket-f8wdz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-black-label-utility-jacket-eymud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/balmain-striped-blazer-fhpx2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/valentino-vintage-plaid-print-evening-jacket-fhgw7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/faith-connexion-faux-fur-jacket-fhq0g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2019-silk-blazer-ffpfn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/the-north-face-performance-jacket-f5ssr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/altuzarra-blazer-fl2fw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-zoe-bomber-jacket-fc38q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-tweed-pattern-evening-jacket-ezj0l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saks-fifth-avenue-blazer-fffzo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rick-owens-evening-jacket-fgfpp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/karl-lagerfeld-evening-jacket-feip8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-vintage-2003-evening-jacket-f4ho7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/marc-jacobs-virgin-wool-houndstooth-print-bolero-fklox</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-blazer-fhely</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2010-tweed-pattern-jacket-fdu2z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/cynthia-rowley-denim-jacket-fbuw9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/bob-mackie-evening-jacket-fhdmu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/roberta-di-camerino-animal-print-vest-fgjau</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2004-jacket-fewdp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/allsaints-blazer-f76hs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ralph-lauren-black-label-leather-jacket-fbldi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-2021-striped-vest-w-tags-ey85d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-jacket-fbiit</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chloe-2018-printed-blazer-w-tags-fetje</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1998-blazer-fezum</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-ffx9t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-2002-evening-jacket-fcs8s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-printed-jacket-fcg3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rossignol-performance-jacket-f89dt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/max-mara-tweed-pattern-evening-jacket-f2u7v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-2018-tweed-pattern-faux-fur-jacket-f7yoi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-f1tjd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saks-fifth-avenue-jacket-fav12</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/gucci-floral-print-utility-jacket-ffmjj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/opening-ceremony-bomber-jacket-fbetz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sea-new-york-plaid-print-blazer-f9cvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/brunello-cucinelli-calf-leather-jacket-f4rgg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moschino-cheap-and-chic-vintage-1990-s-blazer-fgdap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-vest-fdfwg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-2000-striped-blazer-fc1kh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/tibi-colorblock-pattern-vest-f3hlm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-evening-jacket-w-tags-fbu7e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/saint-laurent-2017-blazer-w-tags-fghgl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-down-jacket-fgl9x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/moncler-jacket-fft8v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/givenchy-floral-print-evening-jacket-ffj9x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-cashmere-plaid-print-poncho-fjz7b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/escada-virgin-wool-striped-blazer-ff0rd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/st-john-collection-houndstooth-print-blazer-ffe63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/burberry-plaid-print-bomber-jacket-fer37</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/helmut-lang-lamb-leather-jacket-fecyk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/stella-mccartney-for-adidas-utility-jacket-fcuk7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/fjallraven-performance-jacket-fctht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rebecca-taylor-tweed-pattern-evening-jacket-cie3i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/libertine-printed-blazer-f7b22</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/chanel-vintage-1996-blazer-ewy7p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/barbour-plaid-print-utility-jacket-fh4rg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/parajumpers-down-jacket-ffvsg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/add-down-jacket-ffa0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/prada-sport-down-jacket-fasnd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-saint-laurent-rive-gauche-vintage-1988-blazer-fbhw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/yves-salomon-lamb-leather-faux-fur-jacket-fep46</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/akris-vest-fe9l1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/shrimps-printed-faux-fur-jacket-fe7o9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/patagonia-faux-fur-jacket-fdyib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ph5-striped-knee-length-dress-fwy5g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/for-love-lemons-crew-neck-mini-dress-fwwgq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/jovani-printed-mini-dress-w-tags-fww63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rebecca-taylor-silk-mini-dress-w-tags-fwv4d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rebecca-taylor-floral-print-knee-length-dress-w-tags-fwv1m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/emilia-wickstead-printed-midi-length-dress-w-tags-fwuvy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/amur-printed-mini-dress-fwur3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/for-love-lemons-floral-print-mini-dress-w-tags-fwupo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/lafayette-148-v-neck-knee-length-dress-w-tags-fwuo0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/badgley-mischka-square-neckline-knee-length-dress-fwu5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/halston-heritage-v-neck-midi-length-dress-w-tags-fwtct</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/gattinolli-couture-silk-long-dress-w-tags-fwtbw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/gabriela-hearst-silk-long-dress-w-tags-fwsvm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/norma-kamali-one-shoulder-long-dress-w-tags-fws4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/pendleton-scoop-neck-knee-length-dress-w-tags-fwqzc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/herve-leger-printed-mini-dress-w-tags-fwqvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/balmain-mock-neck-midi-length-dress-fwm2r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/herve-leger-printed-mini-dress-w-tags-fwqtr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/vera-wang-printed-mini-dress-w-tags-fwq21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/lanvin-silk-knee-length-dress-fwpur</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ann-mashburn-v-neck-long-dress-w-tags-fwp8d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/st-john-tweed-pattern-knee-length-dress-w-tags-fwp75</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/tory-burch-silk-knee-length-dress-fwp5w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/akris-punto-scoop-neck-knee-length-dress-w-tags-fwof2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-long-dress-w-tags-fwo9q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/milly-off-the-shoulder-midi-length-dress-fwniz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/nili-lotan-v-neck-mini-dress-fwngw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/selkie-square-neckline-mini-dress-w-tags-fwnf1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ted-baker-crew-neck-midi-length-dress-w-tags-fwmds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/the-row-bateau-neckline-long-dress-w-tags-fwlwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-fwlp2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/marc-by-marc-jacobs-scoop-neck-mini-dress-w-tags-fwknj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ted-baker-crew-neck-mini-dress-fwk4b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/alice-olivia-silk-mini-dress-w-tags-fwjs7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/reformation-printed-mini-dress-fwwzt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-zoe-printed-mini-dress-fwwwo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/fanm-mon-printed-mini-dress-fwwt3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/alice-olivia-floral-print-midi-length-dress-fwwsx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/isabel-marant-crew-neck-mini-dress-fwwsk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/reformation-polka-dot-print-long-dress-fwwoh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/cefinn-printed-knee-length-dress-fwwmc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/escada-virgin-wool-knee-length-dress-fwwlw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-crew-neck-mini-dress-fwwkr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-printed-mini-dress-fwwjc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/joie-goat-leather-mini-dress-fwwij</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/marc-jacobs-v-neck-knee-length-dress-fwwew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/lafayette-148-v-neck-midi-length-dress-fwwem</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/intermix-silk-mini-dress-fwwb3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ulla-johnson-floral-print-long-dress-fww8k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/stella-mccartney-bateau-neckline-knee-length-dress-fww8i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-v-neck-mini-dress-fww74</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/dolce-gabbana-square-neckline-midi-length-dress-fww6l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sandro-scoop-neck-mini-dress-fww40</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-mock-neck-long-dress-w-tags-fwiht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/cuyana-v-neck-midi-length-dress-w-tags-fwigh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/matteau-printed-mini-dress-w-tags-fwhp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/self-portrait-floral-print-long-dress-w-tags-fwh64</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/cleobella-mock-neck-mini-dress-fwgim</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/just-cavalli-printed-long-dress-w-tags-fwgbz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/tibi-silk-knee-length-dress-fwg5y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/tory-burch-square-neckline-knee-length-dress-fwvrc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/hatch-scoop-neck-midi-length-dress-fwvq4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/alice-olivia-floral-print-mini-dress-fwvin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/valentino-virgin-wool-mini-dress-fwvi6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/etoile-isabel-marant-crew-neck-mini-dress-fwvgl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-long-dress-fwvcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-scoop-neck-mini-dress-fwvak</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/diane-von-furstenberg-crew-neck-knee-length-dress-fwv7l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/versace-collection-crew-neck-knee-length-dress-fwv3b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/lela-rose-v-neck-knee-length-dress-fwuyb</t>
   </si>
   <si>
     <t>https://www.therealreal.com/products/women/clothing/dresses/vince-leather-mini-dress-fwunr</t>
@@ -8142,11 +4464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2595"/>
+  <dimension ref="A1:A1369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14995,6136 +11315,6 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1370" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1371" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1372" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1373" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1375" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1376" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1377" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1378" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1379" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1380" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1381" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1382" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1383" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1384" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1385" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1386" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1387" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1388" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1389" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1390" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1391" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1392" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1393" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1394" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1395" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1396" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1397" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1398" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1399" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1400" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1401" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1402" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1403" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1404" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1405" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1406" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1407" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1408" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1409" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1410" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1411" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1412" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1413" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1414" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1415" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1416" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1417" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1418" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1419" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1420" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1421" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1422" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1423" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1424" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1425" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1426" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1427" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1428" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1429" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1430" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1431" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1432" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1433" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1434" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1435" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1436" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1437" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1438" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1439" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1440" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1441" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1442" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1443" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1444" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1445" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1446" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1447" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1448" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1449" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1450" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1451" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1452" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1453" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1454" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1455" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1456" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1457" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1458" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1459" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1460" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1461" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1462" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1463" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1464" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1465" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1466" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1467" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1468" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1469" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1470" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1471" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1472" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1473" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1474" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1475" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1476" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1477" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1478" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1479" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1480" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1481" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1482" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1483" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1484" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1485" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1486" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1487" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1488" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1489" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1490" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1491" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1492" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1493" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1494" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1495" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1496" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1497" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1498" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1499" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1500" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1501" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1502" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1503" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1504" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1505" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1506" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1507" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1508" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1509" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1510" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1511" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1512" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1513" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1514" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1515" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1516" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1517" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1518" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1519" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1520" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1521" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1522" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1523" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1524" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1525" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1526" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1527" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1528" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1529" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1530" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1531" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1532" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1533" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1534" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1535" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1536" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1537" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1538" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1539" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1540" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1541" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1542" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1543" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1544" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1545" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1546" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1547" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1548" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1549" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1550" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1551" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1552" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1553" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1554" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1555" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1556" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1557" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1558" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1559" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1560" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1561" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1562" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1563" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1564" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1565" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1566" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1567" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1568" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1569" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1570" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1571" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1572" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1573" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1574" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1575" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1576" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1577" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1578" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1579" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1580" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1581" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1582" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1583" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1584" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1585" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1586" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1587" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1588" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1589" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1590" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1591" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1592" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1593" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1594" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1595" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1596" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1597" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1598" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1599" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1600" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1601" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1602" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1603" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1604" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1605" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1606" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1607" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1608" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1609" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1610" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1611" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1612" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1613" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1614" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1615" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1616" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1617" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1618" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1619" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1620" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1621" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1622" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1623" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1624" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1625" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1626" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1627" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1628" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1629" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1630" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1631" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1632" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1633" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1634" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1635" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1636" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1637" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1638" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1639" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1640" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1641" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1642" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1643" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1644" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1645" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1646" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1647" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1648" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1649" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1650" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1651" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1652" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1653" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1654" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1655" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1656" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1657" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1658" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1659" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1660" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1661" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1662" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1663" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1664" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1665" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1666" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1667" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1668" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1669" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1670" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1671" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1672" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1673" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1674" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1675" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1676" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1677" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1678" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1679" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1680" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1681" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1682" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1683" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1684" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1685" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1686" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1687" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1688" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1689" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1690" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1691" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1692" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1693" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1694" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1695" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1696" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1697" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1698" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1699" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1700" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1701" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1702" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1703" t="s">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1704" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1705" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1706" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1707" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1708" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1709" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1710" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1711" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1712" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1713" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1714" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1715" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1716" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1717" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1718" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1719" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1720" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1721" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1722" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1723" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1724" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1725" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1726" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1727" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1728" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1729" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1730" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1731" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1732" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1733" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1734" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1735" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1736" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1737" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1738" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1739" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1740" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1741" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1742" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1743" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1744" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1745" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1746" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1747" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1748" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1749" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1750" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1751" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1752" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1753" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1754" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1755" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1756" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1757" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1758" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1759" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1760" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1761" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1762" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1763" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1764" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1765" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1766" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1767" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1768" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1769" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1770" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1771" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1772" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1773" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1774" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1775" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1776" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1777" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1778" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1779" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1780" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1781" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1782" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1783" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1784" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1785" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1786" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1787" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1788" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1789" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1790" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1791" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1792" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1793" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1794" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1795" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1796" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1797" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1798" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1799" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1800" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1801" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1802" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1803" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1804" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1805" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1806" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1807" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1808" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1809" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1810" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1811" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1812" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1813" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1814" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1815" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1816" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1817" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1818" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1819" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1820" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1821" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1822" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1823" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1824" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1825" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1826" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1827" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1828" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1829" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1830" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1831" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1832" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1833" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1834" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1835" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1836" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1837" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1838" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1839" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1840" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1841" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1842" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1843" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1844" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1845" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1846" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1847" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1848" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1849" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1850" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1851" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1852" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1853" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1854" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1855" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1856" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1857" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1858" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1859" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1860" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1861" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1862" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1863" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1864" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1865" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1866" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1867" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1868" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1869" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1870" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1871" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1872" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1873" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1874" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1875" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1876" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1877" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1878" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1879" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1880" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1881" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1882" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1883" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1884" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1885" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1886" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1887" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1888" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1889" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1890" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1891" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1892" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1893" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1894" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1895" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1896" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1897" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1898" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1899" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1900" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1901" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1902" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1903" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1904" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1905" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1906" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1907" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1908" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1909" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1910" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1911" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1912" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1913" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1914" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1915" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1916" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1917" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1918" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1919" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1920" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1921" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1922" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1923" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1924" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1925" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1926" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1927" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1928" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1929" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1930" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1931" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1932" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1933" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1934" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1935" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1936" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1937" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1938" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1939" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1940" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1941" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1942" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1943" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1944" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1945" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1946" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1947" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1948" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1949" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1950" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1951" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1952" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1953" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1954" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1955" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1956" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1957" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1958" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1959" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1960" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1961" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1962" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1963" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1964" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1965" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1966" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1967" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1968" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1969" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1970" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1971" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1972" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1973" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1974" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1975" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1976" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1977" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1978" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1979" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1980" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1981" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1982" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1983" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1984" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1985" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1986" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1987" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1988" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1989" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1990" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1991" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1992" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1993" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1994" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1995" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1996" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1997" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1998" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1999" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2000" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2001" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2002" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2003" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2004" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2005" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2006" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2007" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2008" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2009" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2010" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2011" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2012" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2013" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2014" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2015" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2016" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2017" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2018" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2019" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2020" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2021" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2022" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2023" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2024" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2025" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2026" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2027" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="2028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2028" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2029" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2030" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2031" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2032" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2033" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2034" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2035" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2036" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2037" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2038" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2039" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2040" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2041" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="2042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2042" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="2043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2043" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="2044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2044" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="2045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2045" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2046" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2047" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="2048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2048" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="2049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2049" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="2050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2050" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="2051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2051" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2052" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="2053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2053" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2054" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="2055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2055" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="2056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2056" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="2057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2057" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="2058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2058" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2059" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2060" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2061" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2062" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2063" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2064" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2065" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2066" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2067" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2068" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2069" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="2070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2070" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="2071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2071" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="2072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2072" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="2073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2073" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="2074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2074" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="2075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2075" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="2076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2076" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="2077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2077" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="2078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2078" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="2079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2079" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2080" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2081" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2082" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2083" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2084" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2085" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="2086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2086" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="2087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2087" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="2088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2088" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="2089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2089" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="2090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2090" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="2091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2091" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="2092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2092" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="2093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2093" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="2094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2094" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="2095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2095" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="2096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2096" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="2097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2097" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="2098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2098" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="2099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2099" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="2100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2100" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="2101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2101" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="2102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2102" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2103" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2104" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2105" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="2106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2106" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2107" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2108" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="2109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2109" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="2110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2110" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="2111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2111" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="2112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2112" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="2113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2113" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="2114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2114" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2115" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="2116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2116" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="2117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2117" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="2118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2118" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="2119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2119" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="2120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2120" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="2121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2121" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="2122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2122" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="2123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2123" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="2124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2124" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2125" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="2126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2126" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="2127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2127" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2128" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="2129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2129" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="2130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2130" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="2131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2131" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2132" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2133" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="2134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2134" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="2135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2135" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="2136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2136" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="2137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2137" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="2138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2138" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="2139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2139" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="2140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2140" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="2141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2141" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="2142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2142" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="2143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2143" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="2144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2144" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="2145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2145" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="2146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2146" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="2147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2147" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="2148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2148" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="2149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2149" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2150" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="2151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2151" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2152" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2153" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="2154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2154" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="2155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2155" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2156" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="2157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2157" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="2158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2158" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="2159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2159" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="2160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2160" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2161" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="2162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2162" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="2163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2163" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="2164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2164" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="2165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2165" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="2166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2166" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="2167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2167" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="2168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2168" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="2169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2169" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="2170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2170" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="2171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2171" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="2172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2172" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2173" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="2174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2174" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="2175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2175" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="2176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2176" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2177" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2178" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2179" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="2180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2180" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2181" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="2182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2182" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="2183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2183" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="2184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2184" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2185" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="2186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2186" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="2187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2187" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="2188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2188" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="2189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2189" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="2190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2190" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="2191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2191" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="2192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2192" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="2193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2193" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="2194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2194" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="2195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2195" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="2196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2196" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="2197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2197" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="2198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2198" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="2199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2199" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="2200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2200" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="2201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2201" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="2202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2202" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="2203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2203" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="2204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2204" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="2205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2205" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="2206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2206" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="2207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2207" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="2208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2208" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="2209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2209" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="2210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2210" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="2211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2211" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="2212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2212" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="2213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2213" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="2214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2214" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="2215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2215" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2216" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="2217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2217" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="2218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2218" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="2219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2219" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="2220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2220" t="s">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="2221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2221" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="2222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2222" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2223" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2224" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="2225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2225" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="2226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2226" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="2227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2227" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="2228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2228" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="2229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2229" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2230" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="2231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2231" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="2232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2232" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="2233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2233" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="2234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2234" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="2235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2235" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="2236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2236" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="2237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2237" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2238" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="2239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2239" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="2240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2240" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2241" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2242" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2243" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="2244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2244" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="2245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2245" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2246" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2247" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2248" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2249" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2250" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2251" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2252" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2253" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2254" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2255" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2256" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="2257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2257" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="2258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2258" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="2259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2259" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2260" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2261" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2262" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2263" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2264" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2265" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2266" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2267" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2268" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2269" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="2270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2270" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2271" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2272" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2273" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2274" t="s">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2275" t="s">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="2276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2276" t="s">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2277" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="2278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2278" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2279" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2280" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2281" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2282" t="s">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2283" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2284" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2285" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2286" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="2287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2287" t="s">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="2288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2288" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2289" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2290" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2291" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2292" t="s">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="2293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2293" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="2294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2294" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="2295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2295" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2296" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="2297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2297" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="2298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2298" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2299" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2300" t="s">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="2301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2301" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2302" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2303" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2304" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2305" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2306" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2307" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2308" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2309" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2310" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2311" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2312" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="2313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2313" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2314" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2315" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2316" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2317" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2318" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="2319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2319" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="2320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2320" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="2321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2321" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2322" t="s">
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2323" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2324" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2325" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="2326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2326" t="s">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="2327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2327" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="2328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2328" t="s">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="2329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2329" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="2330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2330" t="s">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="2331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2331" t="s">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="2332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2332" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="2333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2333" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="2334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2334" t="s">
-        <v>2333</v>
-      </c>
-    </row>
-    <row r="2335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2335" t="s">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="2336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2336" t="s">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="2337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2337" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="2338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2338" t="s">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="2339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2339" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="2340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2340" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="2341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2341" t="s">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="2342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2342" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="2343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2343" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="2344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2344" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="2345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2345" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2346" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="2347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2347" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="2348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2348" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2349" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="2350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2350" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="2351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2351" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="2352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2352" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="2353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2353" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="2354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2354" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="2355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2355" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="2356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2356" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2357" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2358" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2359" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="2360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2360" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2361" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2362" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2363" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2364" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2365" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2366" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2367" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2368" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="2369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2369" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2370" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2371" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="2372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2372" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="2373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2373" t="s">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="2374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2374" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="2375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2375" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="2376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2376" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="2377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2377" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="2378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2378" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2379" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="2380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2380" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="2381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2381" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="2382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2382" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="2383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2383" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="2384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2384" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="2385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2385" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="2386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2386" t="s">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="2387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2387" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="2388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2388" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="2389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2389" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2390" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="2391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2391" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2392" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="2393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2393" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="2394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2394" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="2395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2395" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="2396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2396" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2397" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="2398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2398" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="2399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2399" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="2400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2400" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="2401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2401" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="2402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2402" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="2403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2403" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="2404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2404" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="2405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2405" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="2406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2406" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="2407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2407" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="2408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2408" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="2409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2409" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="2410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2410" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="2411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2411" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="2412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2412" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2413" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2414" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2415" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="2416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2416" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="2417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2417" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="2418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2418" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="2419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2419" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="2420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2420" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="2421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2421" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="2422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2422" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="2423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2423" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="2424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2424" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="2425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2425" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="2426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2426" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="2427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2427" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2428" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="2429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2429" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="2430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2430" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2431" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2432" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="2433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2433" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="2434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2434" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2435" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="2436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2436" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2437" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="2438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2438" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2439" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2440" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="2441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2441" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2442" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="2443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2443" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2444" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="2445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2445" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2446" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="2447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2447" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2448" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2449" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2450" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2451" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2452" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2453" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2454" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2455" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2456" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2457" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2458" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2459" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2460" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2461" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2462" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2463" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2464" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2465" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2466" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2467" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2468" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="2469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2469" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="2470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2470" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="2471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2471" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="2472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2472" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2473" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="2474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2474" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="2475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2475" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="2476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2476" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="2477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2477" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="2478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2478" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="2479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2479" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="2480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2480" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="2481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2481" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="2482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2482" t="s">
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="2483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2483" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="2484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2484" t="s">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="2485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2485" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2486" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2487" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2488" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="2489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2489" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2490" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2491" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2492" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="2493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2493" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2494" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2495" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2496" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2497" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="2498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2498" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2499" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2500" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="2501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2501" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="2502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2502" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2503" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="2504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2504" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="2505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2505" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="2506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2506" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="2507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2507" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="2508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2508" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="2509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2509" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="2510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2510" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="2511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2511" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="2512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2512" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="2513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2513" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="2514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2514" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="2515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2515" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="2516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2516" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="2517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2517" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="2518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2518" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="2519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2519" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="2520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2520" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="2521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2521" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="2522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2522" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="2523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2523" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="2524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2524" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="2525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2525" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="2526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2526" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="2527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2527" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="2528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2528" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="2529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2529" t="s">
-        <v>2528</v>
-      </c>
-    </row>
-    <row r="2530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2530" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="2531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2531" t="s">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="2532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2532" t="s">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="2533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2533" t="s">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="2534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2534" t="s">
-        <v>2533</v>
-      </c>
-    </row>
-    <row r="2535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2535" t="s">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="2536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2536" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="2537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2537" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="2538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2538" t="s">
-        <v>2537</v>
-      </c>
-    </row>
-    <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2539" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2540" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2541" t="s">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="2542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2542" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="2543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2543" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="2544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2544" t="s">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="2545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2545" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="2546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2546" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="2547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2547" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="2548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2548" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="2549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2549" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="2550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2550" t="s">
-        <v>2549</v>
-      </c>
-    </row>
-    <row r="2551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2551" t="s">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="2552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2552" t="s">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="2553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2553" t="s">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="2554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2554" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="2555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2555" t="s">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2556" t="s">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2557" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2558" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2559" t="s">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2560" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2561" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2562" t="s">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2563" t="s">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="2564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2564" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2565" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2566" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="2567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2567" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="2568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2568" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="2569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2569" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="2570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2570" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="2571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2571" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="2572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2572" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="2573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2573" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="2574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2574" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="2575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2575" t="s">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="2576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2576" t="s">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="2577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2577" t="s">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="2578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2578" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="2579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2579" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="2580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2580" t="s">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="2581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2581" t="s">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="2582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2582" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="2583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2583" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="2584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2584" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="2585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2585" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="2586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2586" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="2587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2587" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="2588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2588" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="2589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2589" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="2590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2590" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="2591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2591" t="s">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="2592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2592" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="2593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2593" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2594" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="2595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2595" t="s">
-        <v>2594</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>New column 0 Url</t>
   </si>
@@ -1525,282 +1525,6 @@
   </si>
   <si>
     <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-leather-cosmetic-bag-fwuqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/michael-kors-fur-pom-pom-fx0to</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/missoni-lamb-leather-winter-gloves-w-tags-fwmcm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/hermes-horn-hair-pick-fwegi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-vernis-heart-coin-purse-fvhkn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/valentino-suede-bag-strap-fx6lr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/greg-lauren-woven-knit-embroidered-beanie-fwy54</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/chanel-timeless-cc-o-key-holder-fvupu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/chanel-quilted-phone-case-fvusr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/tory-burch-leather-cosmetic-bag-fx1dm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/salvatore-ferragamo-woven-knit-winter-gloves-fwh1d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/prada-cotton-bucket-hat-fuu2d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/gucci-gg-printed-ear-pod-case-fw0a1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/balenciaga-leather-bag-accessory-fwhn0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/chanel-interlocking-cc-logo-square-eyeglasses-fvzyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-bag-strap-fwpdw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/prada-re-nylon-smartphone-case-ft233</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/burberry-square-eyeglasses-fxnhw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-cashmere-arm-warmers-fw24c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-vernis-heart-coin-purse-fvhfx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/chanel-sport-lanyard-fqrzg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/bill-blass-woven-fur-trim-winter-gloves-fwi8a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/chanel-2020-iphone-x-phone-case-fuvuw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/burberry-mini-pouch-fvomh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/fendi-wool-gloves-fwav5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hosiery/marine-serre-woven-moon-patterned-hosiery-fwlkh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-two-toned-beaded-bag-strap-fx8xj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-canvas-bag-strap-w-tags-fwuoo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/erdem-floral-embroidered-bucket-hat-w-tags-g1fh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-vintage-cosmetic-pouch-g1fn7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/fendi-fox-fur-cossak-fvf0c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/michael-kors-leather-gloves-g1j8z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/saint-laurent-leather-winter-gloves-g1j91</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/jennifer-behr-metal-headband-w-tags-fy6mx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/miu-miu-faux-pearl-and-crystal-embellished-headband-fy2r5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/gucci-headband-fyts6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/fendi-zucca-ff-wool-beanie-fyts2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/jennifer-behr-satin-headband-fysba</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/burberry-cashmere-ear-muffs-fy955</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-vela-cosmetic-pouch-fxt7s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/hermes-woven-papier-hat-g1liq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/ruslan-baginskiy-leather-newsboy-hat-g1mg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-vela-cosmetic-bag-fz2ed</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-vela-cosmetic-pouch-fz28i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-1974-zucca-nano-baguette-charm-fygh9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/chanel-cc-pearl-barrette-fxzke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-milo-alligator-touch-grigri-rodeo-tpm-bag-charm-fxj5u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-g1my3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/fendi-eyeglasses-w-tags-d1o5g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eugenia-kim-black-straw-bucket-hat-fi0ny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/gorski-puffer-bag-charm-fykal</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/hermes-canvas-newsboy-cap-fxfyp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/hermes-vintage-leather-gloves-fyf9t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/maison-michel-felt-fedora-fyba6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-louboutin-studded-accent-iphone-case-fymi8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/yves-saint-laurent-cosmetics-bag-fyoqg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/ugg-fur-accent-winter-earmuffs-fyjvt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/walborg-woven-cosmetic-pouch-fye5b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/gucci-satin-gloves-w-tags-fyfcq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/guanti-giglio-fiorentino-fur-trim-leather-gloves-fytk9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-fyc0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-hemp-beaded-logo-hat-fy6kw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-tessuto-cosmetic-bag-fxj4h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/tory-burch-knitted-mittens-w-tags-fyjd3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/bvlgari-cat-eye-eyeglasses-fywu5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/mischa-lampert-pom-pom-knit-hat-fyxxz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/tory-burch-embellished-knit-beanie-fysl9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/frame-cashmere-beanie-fyttp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/versace-leather-lanyard-fyquy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/tiffany-co-cat-eye-eyeglasses-fyjtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/bvlgari-cat-eye-eyeglasses-fyww6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-vintage-cosmetic-bag-fyoex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-merino-wool-beanie-fyoz4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/tiffany-co-wayfarer-eyeglasses-fyzkc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/dior-homme-square-eyeglasses-fz2cn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-bucket-hat-fytnb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/dolce-gabbana-headband-fytqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/prada-lambskin-winter-gloves-fyvl5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-cotton-newboy-cap-fyne4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/burberry-cosmetic-bag-fyu1c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/tom-ford-cosmetic-bag-fzdad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/mcm-nylon-cosmetic-bag-fz1ka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/tory-burch-cat-eye-eyeglasses-fywoa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/clyde-sherpa-fleece-brim-hat-fs4dz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/carolina-herrera-sequin-embellished-mask-ersfu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/lelet-ny-bow-hair-clip-f8t83</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/erdem-floral-print-bucket-hat-w-tags-ftq8l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eugenia-kim-red-wool-beret-fi16u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/jennifer-behr-marinelle-barrette-w-tags-eqgk1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/stella-mccartney-bird-iphone-case-dcihd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/bottega-veneta-bottega-veneta-braided-keychain-f930q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/moose-knuckles-wool-beanie-w-tags-f7vor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hosiery/wolford-animal-patterned-tights-ctw6z</t>
   </si>
 </sst>
 </file>
@@ -2139,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A594"/>
+  <dimension ref="A1:A502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,2966 +1878,2506 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>587</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>579</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>578</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>577</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>575</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>574</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>573</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>572</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>571</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>570</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>568</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>567</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>566</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>565</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>563</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>561</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>560</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>558</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>557</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>555</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>554</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>553</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>551</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>550</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>549</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>548</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>547</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>545</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>544</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>543</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>542</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>541</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>540</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>538</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>537</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>536</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>535</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>533</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>532</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>531</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>530</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>529</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>528</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>527</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>526</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>525</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>524</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>523</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>519</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>514</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>510</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>508</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>506</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>505</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>504</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>503</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>501</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>500</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>499</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>498</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>497</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>495</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>494</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>493</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>490</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>489</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>487</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>486</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>485</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>484</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>483</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>482</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>481</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>480</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>479</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>477</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>475</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>474</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>473</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>472</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>471</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>470</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>465</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>464</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>460</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>458</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>457</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>454</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>453</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>451</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>450</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>441</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>440</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>438</v>
+        <v>346</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>431</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>430</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>417</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>404</v>
+        <v>312</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>393</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>382</v>
+        <v>290</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>374</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>370</v>
+        <v>278</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>369</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>360</v>
+        <v>268</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>358</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>352</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>350</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>349</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>348</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>306</v>
+        <v>214</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>302</v>
+        <v>210</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,4713 +19,4758 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1584">
   <si>
     <t>New column 0 Url</t>
   </si>
   <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-leather-trimmed-nylon-tote-bag-g2ojq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-tote-bag-g2ojl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-leather-trimmed-nylon-tote-g2ojk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-metro-tote-bag-g2oji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-tote-g2ojj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-tote-bag-g2ojh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-tote-bag-g2nxk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-grand-shopping-tote-g2lih</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/vintage-canvas-trimmed-leather-tote-bag-g2jvy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-signature-sukey-tote-g2hh9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-navy-cabas-s-g2cxu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-large-bullskin-tote-g2car</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-calfskin-micro-luggage-tote-bag-g2aeo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-woven-embossed-leather-tote-fyel2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-bamboo-tote-fxzs9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-london-canvas-house-check-mini-tote-fz6bp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-raffia-leather-trimmed-tote-fymqn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-canapa-floral-tote-fyjsn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-stampata-tote-fyk6v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-patent-chocolate-bar-tote-fyinx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-bamboo-suede-tote-fyqkv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jeremy-scott-x-longchamp-le-pliage-telephone-space-tote-fz603</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/rag-bone-leather-trimmed-tote-bag-fyh2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-patch-tote-fyphf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-logo-tote-bag-fynmd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tassel-accented-tote-fymjl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-tote-fxj5n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-large-deauville-tote-fxji2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-leather-trimmed-gg-canvas-drawstring-tote-fxumt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-canvas-sukey-tote-fxmhk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-supreme-caleido-reversible-tote-fxi1p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-small-logo-canvas-tote-fxcyp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-denim-abbey-d-ring-tote-fxqch</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-canvas-sukey-tote-fxlsj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-tote-bag-fxbhx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-x-sarah-coleman-2021-ff-vertigo-shopping-tote-fx8dp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-pequin-2bag-tote-fxoae</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-mademoiselle-vintage-shopping-tote-fxfet</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-large-ligne-cambon-tote-fxb1y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-suede-diana-tote-bag-fy0po</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-pelham-tote-fy0kd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-leather-medium-soho-tote-fxztj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-gg-canvas-tote-fxzh5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/proenza-schouler-canvas-leather-trim-tote-fxug0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-pelham-tote-fxhm9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-patent-leather-soho-chain-bag-fxgq0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fxd0h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/sonia-rykiel-nylon-shoulder-bag-fxw94</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-nylon-tote-bag-fxv01</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-tote-bag-fyjk9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-saffiano-leather-trimmed-tote-fyg47</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-nylon-buckleigh-tote-fyard</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-bamboo-tote-fxtvd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-textured-leather-tote-fxsxa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-tote-bag-fyn7t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-tote-bag-fyhgs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-patent-leather-trimmed-tote-bag-fyhfe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/comme-des-garcons-shirt-pvc-tote-bag-fyggk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-textured-leather-tote-bag-fy9zw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-tote-bag-fxzzk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-leather-trimmed-zucca-tote-fy3jq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-canvas-small-tote-bag-fynk3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-pequin-shopping-tote-fx6d0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-techno-canvas-web-weekender-tote-fx4m5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-2022-small-symbole-triangolo-jacquard-tote-w-strap-fwyts</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-diamante-tote-fwuuq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-plus-sherry-line-web-tote-fwsow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-supreme-joy-tote-fws2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-soft-gg-supreme-diaper-bag-fw85d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-vernice-tote-fvqkk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-coated-canvas-tote-fx5fx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-web-tote-fwzqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-gg-supreme-bee-padlock-tote-fwy3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-crystal-joy-tote-fvb2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-mini-leather-trimmed-zucchino-tote-fwzms</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2021-large-zodiac-book-tote-fwt3e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-large-paris-moscou-shopping-in-moscou-tote-fwvqb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fwqoi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-timeless-cc-flap-tote-fwlup</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fwkxa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-cc-turnlock-tote-fwb20</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-quilted-tote-fw46x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-fwuxr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-sherry-line-web-tote-fwu15</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-denim-luxe-ligne-tote-fxgiy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-grand-shopping-tote-fxbvc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-python-drawstring-tote-fxbo8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-nappa-leather-drawstring-tote-fxpy1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-cut-out-leather-shopper-tote-fxpmq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-city-tote-fxnx2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-nappa-gaufre-tote-fxi6f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-tote-bag-fx7w3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-medium-saffiano-lux-double-zip-galleria-tote-fx6q2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-signature-scarlett-stud-tote-fx4tx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-quilted-monogram-icare-maxi-shopping-tote-fxtyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-trifold-tote-fxowx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-sac-de-jour-north-south-tote-fxk9c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-ponyhair-leather-tote-fxk0m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-large-embossed-monogram-niki-tote-fxhq0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-tote-bag-fxxor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-smooth-leather-mini-luggage-tote-fxktj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alaia-alaia-tote-bag-fxy4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-canvas-eclipse-tote-fxsyv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-lux-medium-double-zip-galleria-tote-fxqfp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-calf-hair-2jours-tote-fxokm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-medium-2jours-elite-tote-fxmee</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-soft-calf-large-tote-fxlz0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-nylon-monster-eyes-tote-fy6df</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-selleria-2bag-tote-fy3s1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-small-raffia-v-logo-tote-fxx2a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-quilted-leather-tote-bag-fye4a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alice-d-shearling-leather-trim-tote-fz6xs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-leather-tote-bag-fyz50</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-tote-bag-fyw92</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-leather-trimmed-tote-bag-fz1ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-canvas-le-pliage-tote-bag-fyz9h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-timeless-expandable-tote-fwjph</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-paris-new-york-denim-shopping-tote-fvss0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-shopping-tote-fueax</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-mm-fx3wp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vintage-tessuto-flower-tote-fv0wi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-neverfull-mm-frzq7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-canvas-logo-print-tote-fmnp3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-medium-cerf-tote-fx3zp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-outdoor-ligne-small-tote-fwzf1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-trimmed-monogrammed-tote-fxfnu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-embellished-zucca-roll-tote-fx8j8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-veau-papier-basket-tote-fx7vu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alexander-mcqueen-leather-tote-bag-fwwmy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-soufflot-mm-fxlxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-exotique-python-monogram-etoile-gm-tote-bag-fxjx2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-studded-tote-fxsxw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-medium-belt-tote-bag-fxsw4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-medium-2jours-tote-fxq4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-cabas-phantom-tote-w-belt-fxk7c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-small-du-jour-star-bag-fy686</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-studded-tote-fxsxo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-nylon-tote-bag-fylyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-nylon-tote-fylmq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/roller-rabbit-foldable-floral-tote-bag-w-tags-fyjb6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/roller-rabbit-foldable-floral-tote-bag-w-tags-fyjah</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/emporio-armani-leather-trimmed-tote-fyi4p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-x-pokemon-le-pliage-shopping-tote-fyg10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-x-disney-leather-tote-bag-fyipj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-canvas-tote-bag-fyhn3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/by-malene-birger-leather-trimmed-coated-canvas-tote-fyei9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/3-1-phillip-lim-leather-handle-bag-fynb8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-bag-fywr2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fywfj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-pm-fyq44</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/clare-v-leather-trimmed-tote-bag-fyn53</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-stresa-pm-fiyji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-soft-calf-tote-fusqo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-x-takashi-murakami-moca-neverfull-mm-fwxpl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-baby-sac-de-jour-tote-fwpm2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-graffiti-neverfull-gm-fvet0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-kittens-n-s-market-shopper-tote-fuhh4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-babylone-ftzom</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-ftfzq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vavin-gm-fmbb7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-straw-tote-fx4vk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-calfskin-mini-belt-bag-fwi09</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-quilted-tote-bag-fxdj3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-small-square-basket-tote-fx9hg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/comme-des-garcons-leather-tote-bag-fy2ym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-patent-leather-tote-bag-fy2ur</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-horsebit-tote-bag-fxzuu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-large-intrecciato-capri-tote-fxzlt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-zipper-tote-fxy9j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/delvaux-open-top-brilliant-bag-fxx0j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-medium-gg-canvas-tote-fxusy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-canvas-tote-bag-fyeg5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/sandy-liang-shearling-tote-bag-fycec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/clare-v-leather-tote-bag-fyjwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/india-hicks-canvas-tote-bag-fyioe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-fyep4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegetarian-leather-trimmed-straw-tote-bag-fy69d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-nylon-leather-trim-tote-fy4gm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-medium-leather-tote-fy3u0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-fylua</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-tassel-cabas-phantom-du4vs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-motocross-classic-work-bag-fwtj1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-2021-croc-embossed-neo-classic-city-shoulder-bag-fwflt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-python-leather-embossed-tote-fxaio</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-small-big-bag-w-strap-fwl88</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-timeless-soft-shopper-tote-fx7gw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-nylon-leather-trim-tote-fxpzi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jerome-dreyfuss-laser-cut-leather-tote-bag-fxmab</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-dome-tote-fxlhm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tumi-leather-trimmed-nylon-tote-bag-fxhlw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/vanessa-bruno-smooth-leather-tote-fxgmv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-quilted-leather-tote-bag-fxfre</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-bamboo-hip-tote-fxek6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-nylon-leather-tote-fy39y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/roberto-cavalli-leather-trimmed-printed-tote-fy38f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-embossed-large-alison-east-west-tote-fxxei</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-tote-bag-fxxbk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/narciso-rodriguez-leather-tote-bag-fxuzj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-small-pebbled-leather-tote-fxuj5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-rive-gauche-leather-muse-tote-fxu5u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saks-fifth-avenue-straw-pom-pom-embellished-tote-fxsyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-tote-fya6k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-chain-link-tote-fy5x1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-vegan-leather-tote-bag-fyeio</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fye64</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-leather-tote-bag-fx7ql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alaia-embossed-leather-tote-fx5c7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-grained-leather-tote-fwuci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/lanvin-chain-link-raffia-tote-fxsnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-lux-tote-fxis9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-cabas-rive-gauche-tote-fxqrw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-large-e-w-shopping-tote-fxpci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-tote-bag-fxxus</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-patent-leather-bow-tote-fxxku</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-nappa-intrecciato-shopping-tote-fxzvm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-vintage-marco-polo-tote-fv1dp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-gemeaux-fsjcd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-neverfull-mm-fmgwv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-prorsum-leather-trimmed-graphic-fabric-tote-fwamu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-leather-handle-bag-fwyzi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-banner-tote-fxcea</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-trimmed-tessuto-tote-fx8vi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-tote-fx84i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-midollino-canapa-tote-w-strap-fx4s8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-medium-roll-tote-fxgqd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-patent-leather-tote-fxuad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-rugiada-vintaga-shopper-tote-fxoix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-saint-jacques-gm-fxm1c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-leather-trimmed-tote-bag-fz1g7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-bag-fywl1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-patent-leather-tote-fypey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-medium-leather-belt-tote-fwz7t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-nappa-antik-tote-fwrvf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-hampstead-mm-fwqov</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-epi-madeleine-gm-fwhjh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-gaufre-buckle-tote-fw5r2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-small-cabas-phantom-w-belt-fxe92</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-sac-plat-fxh15</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vavin-gm-fxgkj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-chain-linked-tote-fylcj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-denim-tote-fyla3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-medium-shopping-bag-fyim7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-leather-trimmed-straw-tote-fvip9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-lux-large-double-zip-galleria-tote-fki21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-2020-nano-luggage-tote-fx3du</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-micro-luggage-tote-fwv70</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-big-bag-fwjbw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-clasp-cabas-vertical-tote-fwi5m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fyh42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dagne-dover-pebbled-leather-tote-fyfrv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/3-1-phillip-lim-oversized-leather-tote-fybuf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-leather-studded-tote-bag-fy4ok</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-2018-nano-luggage-w-strap-fv15g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-cabas-phantom-funnq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/devi-kroell-fold-away-tote-bag-fxx7y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-trevi-gm-tote-fxj2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-large-intrecciato-tote-bag-fxo89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-nylon-intrecciolusion-medium-reversible-tote-fxiki</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-nappa-intrecciato-capri-tote-fx9ej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-embossed-shopper-tote-fx7qp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-cesta-tote-fx6b0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alaia-leather-tote-fx4ln</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/versace-leather-tote-bag-fwrii</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nancy-gonzalez-crocodile-tote-bag-fwpkm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/neiman-marcus-leather-tote-fn6qc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-soana-sacoche-mm-fxdya</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dries-van-noten-large-floral-tote-bag-g26q8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-g26i6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-broderies-neverfull-mm-djodd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/allsaints-larch-canvas-tote-fzn76</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-jolicoeur-medium-tote-fzaxw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-o-ring-tote-fz1kv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-soft-gg-supreme-small-bees-tote-fz05q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-plus-monogram-tote-fyteb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-gg-plus-web-tote-fyt73</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-flowerland-roll-tote-fz0qu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-haymarket-leather-trimmed-tote-fza4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-coated-canvas-tote-bag-fz77i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-supreme-web-large-ophidia-tote-fyzoq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-pvc-horseferry-handle-bag-fzcx9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-coated-canvas-tote-bag-fz7af</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-vertical-macadam-tote-fyqpe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-horsebit-leather-handle-bag-fzfgc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-nylon-tote-fz55u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/opening-ceremony-pvc-colorblock-tote-w-tags-fz4sq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-tote-fzocf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-trimmed-canvas-tote-bag-fzb0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-nylon-tote-bag-fzay7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-gigantic-canvas-leather-trimmed-tote-fzmib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-rajah-tweed-tote-w-pouch-fy7n6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-signature-sukey-tote-fyo4u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-large-symbole-triangolo-jacquard-tote-fyl0n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-plus-tote-fyk8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-ff-raffia-tote-fyiyf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-leather-trimmed-mini-zucchino-tote-fxv80</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-gg-plus-web-tote-fyluw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-medium-jolicoeur-tote-fyid5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-gg-canvas-tote-fyhuf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-gg-canvas-jackie-tote-fyh1c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-crystal-dome-bag-fy7ji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-monogram-large-tote-fxy0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-diorissimo-tote-fyn5r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-nano-luggage-tote-fyoce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-small-coated-canvas-tote-fygbg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-luxe-ligne-tote-fxn5l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-cc-surpique-tote-fylpp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-grand-shopping-tote-fyi5c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-lax-square-quilt-tote-fygjq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-xl-grand-shopping-tote-fxz90</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-medium-so-light-tote-fxnwa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-britt-tote-fyxc5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-denim-web-mini-tote-fysz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-microguccissima-joy-tote-fypz9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-nylon-tote-fyglh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-soho-chain-tote-fyd80</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-nylon-bamboo-tote-fy8m6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-guccissima-sukey-tote-fy6ys</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-jackie-soft-tote-fz3f5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-supreme-blooms-reversible-tote-fyn42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-positano-scarf-tote-fzb55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-patent-leather-trimmed-tote-fz421</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-suede-handle-bag-fz35q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-pattern-leather-trimmed-tote-fzmik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-figheri-pm-fzhq1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/want-les-essentiels-leather-trimmed-knit-tote-bag-fzarq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-leather-embossed-tote-fzabv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-medium-leather-tote-fzaad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-horseferry-check-tote-bag-fz957</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dolce-gabbana-pvc-printed-tote-fz8y8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-caviar-medallion-tote-fyjad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fxw5m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-glace-calf-dome-tote-fyqxs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-ricamo-bauletto-fyei1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-cervo-gaufre-drawstring-tote-fye6v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/the-marc-jacobs-canvas-printed-tote-fz3mw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-wool-tote-bag-fz185</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-tartan-tote-bag-fz13s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-canapa-stampata-tote-fyxs4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-sac-de-jour-fyuvm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-perforated-de-jour-bag-fyyi6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-nylon-buckleigh-packable-tote-fzcpr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alexander-mcqueen-leather-tote-fzbrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-double-tote-fz6jf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alexander-mcqueen-leather-handle-bag-fz3eg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-mezzo-g039q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-patch-tote-bag-fzeti</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-denim-xl-coco-cabas-tote-fxebi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-caviar-timeless-tote-fxchu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-gaufre-tote-fyb3f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-convertible-tote-fxunl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vela-plaid-shopper-tote-fyhze</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-n-s-shopping-tote-fyc4a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-officier-chevaux-en-camouflage-beach-bag-fy54k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-pm-fxzxb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/escada-leather-tote-bag-fyih3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-micro-luggage-bag-fyi4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-bag-fyduz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-tote-bag-fz0n3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/akris-leather-tote-bag-fynh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-french-company-monogram-sac-plat-fz2vf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tournelle-mm-fyov4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-tote-bag-fyz4h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-soft-tote-fzcay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2020-large-oblique-embossed-book-tote-fy5nq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2021-medium-embossed-book-tote-fy5fq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-leather-peekaboo-bag-fy4nf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-leather-horsebit-print-tote-bag-fyhxd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-rockstud-chevron-tote-fxxcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/escada-suede-tote-bag-fynnr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-fymcr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-leather-trimmed-bistro-small-shopping-tote-fyiuj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-luco-fyhv0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-plein-soleil-cabas-tote-fy5ru</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-nylon-leather-trim-tote-fyt8m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/etro-leather-tote-bag-fynkp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-rockstud-tote-fz5e2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-mini-metro-tote-w-tags-fzoj3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fy42l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-papier-a4-zip-around-tote-fylww</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-type-xl-fzhdm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-gemeaux-fzfl4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-casual-nylon-tote-bag-fze0x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-plus-joy-tote-fzc8e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-mat-stockton-tote-g022b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bao-bao-issey-miyake-pvc-tote-bag-fzn12</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-saint-jacques-gm-fzhdx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-chef-tote-fyjlu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-bag-fz9qq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-imprime-joy-tote-fz9p4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-small-tote-fz82f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-marmont-matelasse-tote-fz6cv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-medium-tote-fz5h6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-patent-leather-tote-bag-fz4vo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-embossed-tote-bag-fz4cv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-maidstone-tote-bag-fzq3t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-bag-fzmtr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-shoulder-bag-fzlh5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-chain-link-leather-tote-fytgt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/reed-krakoff-leather-handle-bag-fymt2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-leather-tote-bag-fymim</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-mirabeau-gm-fylu9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nina-ricci-leather-tote-fzjxz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nancy-gonzalez-crocodile-tote-fzjwa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-hobo-bag-fzcuk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-bag-fzcn4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/cult-gaia-raffia-tote-bag-fzb5i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/henri-bendel-large-saffiano-leather-tote-fz9fy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-cervo-twin-pocket-tote-fz8gf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-strass-bon-bon-tote-fxjul</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-lockmeto-tote-bag-fylhx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-suede-tote-bag-fyjht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-2022-the-medium-bulb-tote-fyi3a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2019-monogram-mahina-hina-mm-w-pouch-fyd14</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/berluti-oversized-leather-tote-bag-fy9uf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-anagram-logo-tote-fy92u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-crafty-neverfull-mm-fyqtc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-pm-fyqlw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-patent-leather-trimmed-tote-bag-fyjsv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/palm-angels-acrylic-tote-bag-fyjj3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/carolina-herrera-patent-leather-tote-bag-fyjig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-shopping-fz7kz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-canvas-and-metallic-leather-tote-fz7dt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/carlos-falchi-leather-tote-bag-fz60n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-chain-link-tote-fz529</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/ted-baker-pvc-leather-trimmed-tote-fz3z5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-diorissimo-lovely-heart-tote-fzcxn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-lovely-tote-fzc7z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-saint-jacques-pm-fzvqc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-paddington-tote-fzpx8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-fascination-lockit-bag-fy3tq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-marco-polo-tote-fxqj1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-large-e-w-shopper-tote-fytwz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-large-mony-tote-fze06</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-leather-muse-tote-fz9rn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tiffany-co-lasercut-leather-tote-fz9cx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-embossed-leather-tote-fz98j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-gemeaux-g058y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marina-rinaldi-bicolor-leather-tote-fxsds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-calfskin-medium-belt-bag-fykgw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-chic-tote-fydyb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-studded-tote-bag-fyyp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-leather-tote-fz73m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-quilted-tote-fz4b5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-sac-plat-fz2p4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-2021-montone-quilted-tote-bag-fycac</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-rive-gauche-ponyhair-leather-trimmed-tote-fy6in</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-metallic-leather-tote-bag-fxu1n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-sac-shopping-48-fythn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-venus-tote-fyrly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-fyr98</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-fyo55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-gm-fymyr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tivoli-gm-fymn7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-raspail-pm-fylmo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-woven-roll-tote-ftqtc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-long-beach-mm-w-pouch-fyg6l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bao-bao-issey-miyake-prism-tote-fzr1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-2020-toile-criss-viking-herbag-zip-retourne-cabine-50-fxjwl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-shopping-tote-fzi7j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/long-champ-le-pliage-type-xl-fzhb0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fzav1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-saffiano-leather-tote-bag-fz9wo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-leather-le-pliage-tote-bag-fz7pc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-leather-tote-fz6pb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/carlos-falchi-python-tote-fz5fj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-gm-fy65p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-calfskin-tote-bag-fyuin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-tote-bag-fz4z4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/little-liffner-leather-tote-fz4wx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/neiman-marcus-metallic-leather-tote-fz46g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/daniella-ortiz-leather-handle-bag-fz3ix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-tote-bag-fyy3f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nada-sawaya-leather-lasercut-tote-fyxp8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-voltaire-tote-fyxhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valextra-leather-tote-fyxhr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-artois-mm-fyvl4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-geant-americas-cup-cube-bag-fys11</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-cabas-fyr3z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/lanvin-chain-link-metallic-tote-fyqso</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-small-intrecciato-capri-tote-fyh06</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-tall-coated-canvas-tote-fyg5e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/miu-miu-pleated-leather-tote-bag-fydun</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-leather-tote-bag-fydrb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegetarian-leather-tote-bag-fyc1a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-wilshire-pm-g05g0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-2020-mini-vertical-cabas-fvb3c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-large-triomphe-vertical-cabas-fxk4j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2021-large-velvet-embossed-book-tote-fxts8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-dior-palms-book-tote-fxu4b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-large-toile-de-jouy-zodiac-book-tote-fxu9s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-medium-mille-fleur-book-tote-fxxil</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-small-floral-embroidered-book-tote-fxxnu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-raffia-onthego-mm-fxlb8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-cabat-tote-fzhdg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-roses-neverfull-mm-fzwrw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-xl-cc-small-quilted-tote-g1tr8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-diamond-stitch-tote-bag-g1r66</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-timeless-soft-shopper-tote-g1r1f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2021-medium-deauville-shopping-tote-fw6f1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2021-destination-chenonceau-bowling-bag-fwdqy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2021-medium-chain-raffia-deauville-shopping-bag-fw7ej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-new-britt-tote-fwtuf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-denim-ophidia-tote-fwjmx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-small-tribeca-tote-fwc1b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-tote-bag-fxaci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-gg-canvas-small-buckle-tote-fww6m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-medium-graffiti-bazar-shopper-tote-fwlmw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-medium-zodiac-fantastico-book-tote-fwpi3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-tri-color-mini-luggage-tote-fvyt0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-small-zucca-chef-tote-fwio9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-sukey-tote-fwwpz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-vintage-woven-tote-fwqju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-bamboo-shopper-tote-fwn87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-patent-leather-shearling-soho-chain-shoulder-bag-fw6qe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-gg-denim-tote-fvoun</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-patent-leather-trim-tote-fxbgh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-rodeo-drive-tote-f5myi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vertical-shopping-tote-fwnfj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-tote-fwlxx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-large-saffiano-lux-galleria-tote-fvszb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-2021-rive-gauche-leather-shopping-tote-fwg5o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-baby-sac-de-jour-tote-fwe9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-york-buckle-tote-fwnw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-medium-cannage-lady-dior-fwc1m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-mini-luggage-tote-fvf5p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marni-beaver-tote-w-tags-fxbhm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-leather-trim-tote-fx9me</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-bamboo-handle-bag-fwwk3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-xs-striped-bazar-shopper-tote-fwszl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-2020-medium-panier-tote-fww2p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-fudbx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-zip-tote-fwaxp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-reverse-onthego-gm-fp4br</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-nylon-leather-trimmed-tote-fx2tg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-straw-patent-leather-tote-bag-fwvmg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hereu-canvas-tote-w-strap-fxmuh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-trimmed-tessuto-tote-bag-fwii9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-large-supple-sac-de-jour-tote-fwq67</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-chef-bag-fuijp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-w-tags-fx60u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-tote-fxbon</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-xl-cavier-grand-shopping-tote-fwo2a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/d-g-leather-trimmed-suede-tote-bag-fxa99</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/khaite-medium-puffy-amelia-tote-bag-fx7wn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fx7q0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-leather-tote-bag-fx2pm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nina-ricci-leather-tote-bag-fwsmb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-leather-trim-tote-bag-fwrla</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/ted-baker-leather-tote-bag-fwquw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/cynthia-rowley-leather-woven-tote-fx975</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/anya-hindmarch-stripped-canvas-tote-bag-fx7wq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/anti-socialsocial-club-tokyo-1997-tote-bag-fwz3r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/a-p-c-diane-stripe-shopping-tote-fwpqo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/cult-gaia-straw-tote-bag-fxe85</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/halston-leather-tote-bag-fx5xv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gerard-darel-leather-tote-fx549</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-shopping-tote-fwqmg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fwkye</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-large-saffiano-lux-tote-fwj9h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-large-darrington-python-tote-bag-fx8yj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-medium-jane-tote-fw4h8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-nylon-leather-trimmed-tote-fx2pw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-vintage-suede-diorissimo-tote-fwcvd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2020-camouflage-book-tote-fw2qu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-mini-luggage-tote-fvbjh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-fxbsa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-2016-small-coulisse-cabas-fv6w7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-medium-intrecciato-cabat-tote-w-pouch-fwm3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-vintage-braided-canvas-tote-fu3aa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/lancel-nylon-bucket-tote-fsnd6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fxbdr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-leather-tote-fxah2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-floral-tote-bag-fxa7a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-trimmed-nylon-tote-fxa76</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-suede-drawstring-tote-bag-fxa1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-floral-tote-bag-fx8pe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-large-nylon-le-pliage-tote-bag-fx3xg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nancy-gonzalez-embossed-leather-handle-bag-fwkpc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-hermes-vache-country-garden-party-36-fw79v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-for-adidas-nylon-tote-fudik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-vintage-braided-canvas-tote-fu3h9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-neverfull-mm-w-pouch-fouh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/epi-saint-jacques-shopping-gm-fwwxv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-small-leather-shopper-tote-bag-w-tags-bb1nm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-w-pouch-g1ptx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-large-marco-polo-tote-fxpdr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-plus-web-tote-fx1pr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-london-vintage-nova-check-mini-tote-fxnsk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-zodiac-book-tote-fx0bh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-canapa-stampata-tote-bag-fxgk2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-crystal-monogram-medium-princy-tote-fxf5f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-tote-bag-fxb81</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-medium-studded-pelham-tote-fwyjf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-libeccio-bamboo-bar-medium-tote-fwvg9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-medium-zodiac-fantastico-book-tote-fwpn2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-coated-canvas-handle-bag-fxe1e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-pequin-2bag-tote-fx2qq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2022-maxi-bowling-bag-fwfr0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-classic-timeless-tote-fx926</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-medium-leather-tote-fxt49</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/neiman-marcus-leather-trimmed-straw-tote-bag-fxepi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fxeh7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-medium-elephant-raffia-basket-bag-fx8cy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-noe-rive-gauche-n-s-tote-fx7ia</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-mm-fx47o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-medium-sac-de-jour-fwy56</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-noe-rive-gauche-n-s-tote-fx7jd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-mia-tote-fx0cz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-geometric-2jours-tote-fxfx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-woven-bamboo-tote-fxffs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-leather-tote-bag-fxeev</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-nylon-tote-bag-fxc8k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-canvas-tote-fxo43</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/clare-v-suede-leather-trim-tote-bag-fxkqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-papier-a5-tote-fx72y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-bomber-tote-fx2x3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-signature-hysteria-tote-fwzh9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-bag-fxden</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-kimono-pm-fx6qq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-clifton-tote-w-pouch-fx1x3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-vinyl-cannage-drawstring-tote-fxc9s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-fwgdt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-whipstitch-peekaboo-bag-fx3ip</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fxb3l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-studded-tessuto-etiquette-tote-fx3sg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-trimmed-coated-canvas-tote-fxgg2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-bag-fxdo2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-fxar7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-embossed-tote-fx3ua</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-nylon-tote-bag-w-tags-fxbqc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-smooth-leather-tote-fxwi0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-nylon-tote-bag-fxpkm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-shopping-tote-fxpde</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-trimmed-leather-tote-fxof9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-paris-cuba-shirt-bag-fx4h9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-fxel8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-fxeap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-leather-tote-bag-fxd2p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/paloma-picasso-canvas-tote-bag-fxcb3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-collection-large-raffia-tassel-tote-fxbom</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-bella-tote-fx8tk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/maiyet-leather-tote-fx5pe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-tote-fx5d0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-2022-feutre-picotin-lock-18-fwym3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-saint-louis-gm-w-pouch-fx7kq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-patent-leather-tote-fx6cq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-gm-fx435</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-onthego-gm-fwsma</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/escada-leather-tote-bag-fxamy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/j-w-anderson-fabric-tote-bag-fxmmx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-leather-tote-bag-fxmjs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-briefcase-s-fxhwk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fxcw7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nancy-gonzalez-raffia-tote-bag-fxbz1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-leather-tote-bag-fxbc3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-tote-bag-fx2n0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-mat-wilwood-fx0vi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-2021-raffia-basket-tote-fwx6r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-mahina-hina-mm-w-pouch-fwvz1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-sikkim-double-sens-36-fvndc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-sac-de-jour-tote-fx7dn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-embossed-reversible-east-west-shopper-tote-fx039</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-bag-fxcor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fxndx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saylor-faux-fur-tote-fxjlc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/a-p-c-canvas-tote-bag-fxg3v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-medium-intrecciato-roma-tote-fx3w5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/frye-leather-tote-bag-fxorz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-nylon-tote-bag-w-tags-fxbrn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-les-pliage-tote-bag-fxo8w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-vegan-leather-tote-bag-fxng7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-les-pliages-tote-bag-fxkht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-les-pliages-tote-bag-fxjo3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-tote-bag-fxjhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dagne-dover-wade-diaper-tote-fxg18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/neiman-marcus-straw-leather-trim-tote-fxb0e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fx9yw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-nylon-large-tote-g1mx7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-deco-canvas-tote-g1mic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/ugg-x-telfar-terry-cloth-suede-tote-bag-g1m3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-g1j3u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-tote-bag-g1hri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-shopping-g1hht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/brunello-cucinelli-leather-trimmed-pvc-tote-g1ggr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-canvas-web-tote-g1fk6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-bamboo-shopper-tote-g1fhi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-foldable-zucca-tote-g1euw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-patent-leather-shoulder-bag-g1eq9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-buckleigh-packable-tote-fxdav</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-eclipse-tote-fp1g4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-london-nova-check-tote-bag-fxoh4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-tote-bag-fxky3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/akris-leather-tote-bag-fxnoa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-supreme-abbey-tote-fxlp1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-trimmed-denim-tote-fxjna</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-diorissimo-street-chic-tote-fxn0c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-vintage-leather-trimmed-tote-fxmvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-surpique-bowler-bag-fww02</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-signature-medium-sukey-tote-fxj7g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-leather-tote-w-pouch-fxiwb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/by-malene-birger-leather-trimmed-suede-tote-fy3xt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-onthego-gm-fxhiu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-tattoo-hearts-medium-joy-tote-fxh7t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fy6kv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-embossed-check-leather-tote-fxn4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-double-pocket-tote-fxj1o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fxukb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-embossed-sac-de-jour-souple-fxhdc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-falabella-raffia-large-tote-fxexe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-cabas-porto-cervo-gm-fxelv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-whipstitch-petite-2jours-tote-fxja2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-trimmed-plastic-tote-fy3mm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-caviar-logo-tote-fx57o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-duilio-horsebit-tote-fxftu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-city-tote-fx6wz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-coated-canvas-tote-bag-fy4xv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-shopper-tote-fxz3e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-gm-fxqc2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-patent-leather-tote-fxsyp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-f-is-shopper-tote-fxo0l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-modele-depose-tote-fy3uw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-on-the-road-tote-fx70o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-leather-tote-bag-fy0am</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-canvas-printed-tote-fxxb0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/issey-miyake-patent-leather-tote-bag-fxuac</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-nylon-tote-fxu0k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-leather-flower-tote-fxs0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-leather-tote-bag-fxohh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-embossed-shoulder-tote-fxm5b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-leather-lady-lock-flap-tote-fxk6b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-canvas-small-pelham-tote-fxfy6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-falabella-tote-fxeeg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-marcie-tote-bag-fxdra</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-large-calfskin-muse-bag-em0r8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/moschino-jeans-canvas-leather-trim-tote-fxydi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/florabella-canvas-tote-bag-fxwcb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-thea-slouchy-chain-tote-fxvex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/diane-von-furstenberg-leather-tote-fxu30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-leather-tote-fy45b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-large-tote-fy0te</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/eric-javits-raffia-leather-trimmed-tote-fxtvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-falabella-tote-bag-fxsvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vintage-tessuto-shoulder-bag-fxhsp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-city-tote-fw956</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-joan-shopping-bag-fxhut</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-tote-fyb6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tiffany-co-leather-trimmed-suede-tote-bag-fxsu9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/akris-grained-leather-tote-bag-fxssv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alexander-mcqueen-pebbled-calfskin-skull-padlock-zip-around-tote-fxlly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-papier-a4-zip-around-tote-fxcf0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-small-shopping-tote-w-tags-fxvmr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-embossed-leather-tote-bag-fy7kb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-quilted-nylon-tote-bag-fy77w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/rachel-zoe-pvc-tote-bag-fy4iu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fxh72</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fxypb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-shopping-tote-fxwpm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/escada-sport-canvas-leather-trim-tote-fxvhm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-grained-leather-oversized-tote-bag-fxtv0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-pleated-leather-tote-bag-fxtqj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-patent-leather-tote-bag-fxthm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-plaiage-type-l-modele-depose-tote-fxta2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-tote-bag-fxswg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-medium-arco-tote-fxmrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-maxi-intrecciato-tote-w-pouch-fxapu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-bella-tote-esgj3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-2021-raffia-logo-tote-ein6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-louboutin-studded-leather-tote-bag-ezboe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-supreme-blooms-reversible-tote-etus1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-officier-troca-mm-erez1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-small-drawstring-pouch-fvxne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-denim-craft-tote-etty4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-canapa-signature-tote-exe7m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-baby-monogram-cabas-tote-einhq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-escape-tote-eocgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-x-sarah-coleman-ff-vertigo-shopping-tote-eyj2m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-crochet-sunshine-tote-er67p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-guccissima-twins-tote-bag-ehpby</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-sunshine-shopper-tote-fv1xa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-fold-tote-mm-f0nt0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-v-tote-mm-tote-bag-eklrl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-2020-horizontal-cabas-tote-ets7p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-horizontal-cabas-tote-eojw2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-medium-sunshine-shopper-tote-egiiq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-downtown-cabas-tote-esewk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-cabana-herbag-gm-ejvjy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-louboutin-leather-cabata-tote-bag-e4mfu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-canvas-woody-tote-eyvwh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-2019-small-anagram-tote-bag-ejdoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-lux-tote-eilvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-pvc-tote-bag-etyrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-perforated-cannage-dioriva-shopping-tote-eikw7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-xxs-everyday-tote-enotw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-louboutin-plastic-tote-etvx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-all-in-gm-fxw2x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-woody-tote-fzibe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fws5q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-gm-w-pouch-fxn4w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-leather-trimmed-zucchino-double-flap-tote-fwtna</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-patent-leather-bon-bon-tote-fueyh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-phantom-luggage-tote-fuv94</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-neverfull-mm-w-pouch-fweo2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-fx5gy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tiffany-co-suede-tote-bag-fx323</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fsz83</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-canvas-printed-tote-fvvyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-rive-gauche-cabas-tote-fvgy6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-2020-small-square-basket-tote-fw60z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-east-west-shopping-tote-fvi6b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-nylon-bamboo-tote-fx52x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-bag-fx2sh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-quilted-tote-fwy21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tom-ford-leather-tote-bag-fuzvz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-leather-trimmed-tote-fvgn4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-leather-trimmed-tote-fwt4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-tote-bag-fx28j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegetarian-suede-tote-bag-ft79v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tumi-leather-tote-bag-fuewa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-pm-fv9jt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-web-pop-tote-fthyz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mulberry-college-stripe-oversized-bayswater-tote-ft2jy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-saint-louis-pm-w-pouch-fuzja</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-maryanne-leather-tote-fvgfo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2020-medium-raffia-deauville-shopping-tote-fr3uk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegan-suede-tote-bag-fuotw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-shoulder-luggage-tote-fphyh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-tote-bag-fqziv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-classic-timeless-tote-ftifg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/maiyet-smooth-leather-tote-fryh0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-flandrin-folwt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/ralph-lauren-ponyhair-leather-trimmed-tote-fspnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-saint-louis-pm-w-pouch-ft9ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-garden-party-36-fqkhe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-small-bazar-tote-fpq30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-e01ne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alexander-mcqueen-small-skull-padlock-tote-fqgso</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-quilted-cc-straw-tote-ddcfq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-calfskin-everyday-xs-tote-fs2ql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-new-bubble-quilt-tote-de9lf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-abbey-d-ring-tote-bag-fsayh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-v-tote-mm-fu5pq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-inglese-fiammata-tote-fomog</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-leather-top-handle-tote-fqad9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-bazar-m-shopper-tote-fp8vh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-medium-bucket-bag-fnzxd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-nappa-new-look-tote-fpkyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegan-suede-tote-fq0lk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-reversible-liz-shopper-w-pouch-fppfi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-tote-bag-fpei5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-luggage-shoulder-tote-fl4fh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-cabas-chyc-leopard-print-ponyhair-bag-fl8ri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-trimmed-canvas-tote-fokfd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-paris-biarritz-small-tote-fnx4c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-canvas-cc-marshmellow-tote-fqgqp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-tote-bag-fmvd7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-grained-calfskin-luggage-phantom-tote-bag-fk225</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-horizontal-cabas-phantom-tote-fjxsr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/neiman-marcus-leather-snake-print-tote-bag-flm5r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-micro-calfskin-luggage-tote-bag-fk2w4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-summer-trunks-neverfull-mm-fiuat</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-leather-duffle-bag-fgxmb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-medium-monogram-niki-shopping-tote-fhco6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-nylon-tote-fl7m5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/versace-snakeskin-tote-bag-fosgf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-elvire-tote-bag-fhr81</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-saffiano-leather-tote-bag-fhgqg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-giant-monogram-on-the-go-by-the-pool-tote-bag-ff6xx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-medium-deauville-tote-fgakc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-thin-city-accordion-tote-fhunp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-leather-drawstring-tote-bag-ffypn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-o-ring-tote-bag-ffthe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-calfskin-big-bag-fjalc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-felt-big-bag-fj04n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-medium-abbey-tote-fdet0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-large-visetoa-shoulder-tote-fhall</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dolce-gabbana-animal-print-canvas-tote-bag-fbsxo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-nappa-gaufre-tote-ffwo6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2021-large-oblique-book-tote-fcun3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-small-suede-tote-bag-felvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-nylon-bamboo-tote-fady0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-leather-tote-fbpg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-falabella-chain-link-tote-fe4z9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2020-medium-book-tote-fb3ks</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fa6pq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-medium-eclipse-tote-fcx5w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-fbbdm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/proenza-schouler-pattern-print-tote-bag-f9rnz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-studded-deauville-tote-f8ro1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-nylon-tote-bag-f8adg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-phantom-luggage-tote-f7qg7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-quilted-large-printed-shopping-tote-f6lu3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-dialux-queen-tote-f75kg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tom-ford-leather-tote-bag-f7ldd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-sea-hit-tote-f7x23</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-bicolor-cabas-phantom-f75l8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-charm-medium-tote-bag-f3d1w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-buckle-tote-f5ybl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-denim-grand-shopping-tote-f674h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-selleria-medium-peekaboo-iconic-bag-f69xx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-patent-canvas-woven-nova-check-canterbury-f583v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-cervo-bandoliera-folding-tote-c55yi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-empreinte-onthego-mm-f4zb4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-h-fourre-tout-mm-f4ax0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-sac-de-jour-tote-f34md</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-frame-in-chain-tote-f3n34</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2021-large-deauville-tote-f26w7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-2021-clemence-cabasellier-46-f248t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-saleya-pm-f12fd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-tricolor-nano-luggage-tote-f18rl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-smooth-leather-tote-ezhdt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-felt-orb-tote-ex1jw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-large-saffiano-lux-tote-exkip</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-grand-shopping-tote-exv18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-giant-monogram-empreinte-onthego-mm-ex7lx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-sport-nylon-tote-bag-ewiy7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-etmj6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-pocket-shopper-tote-eupm5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/henri-bendel-solid-nylon-tote-bag-ev4cs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-abbey-d-ring-tote-eutky</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-onthego-tote-euuyi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-petite-shopping-tote-et7cu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-nylon-abbey-tote-ettu5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bembien-woven-tote-bag-eqz04</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-pvc-metallic-tote-bag-eqore</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-coated-canvas-tote-eln13</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-large-edith-tote-em9hb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-square-quilt-tote-ekjv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herbag-cabas-gm-enkj3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-rockstud-tote-bag-eobow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-classic-timeless-tote-e96c0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-web-tote-ef6o3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-coco-cabas-tote-egohe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-tote-eb42k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-small-supple-sac-de-jour-tote-dgbd4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-reversible-anjou-pm-w-pouch-d9xtv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-dblj6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tassel-tote-dd1ln</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-medium-2jours-elite-tote-bag-curhd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-reade-pm-b4pn3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-patent-leather-suede-tote-fzuva</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-cabas-ambre-gm-fz8en</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/anya-hindmarch-woven-leather-tote-fzk9m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-saint-jacques-pm-g0d81</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-coated-canvas-logo-printed-tote-fzxw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-w-pouch-fqvfs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-large-saffiano-lux-galleria-tote-fxl42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-mini-luggage-tote-fup55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-canvas-sukey-tote-fwyh9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-raffia-basket-tote-fxvy9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-maxi-intrecciato-arco-slouch-tote-fxne0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-2020-large-rive-gauche-tote-fflfd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/frye-leather-tote-bag-fxuy0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-trimmed-coated-canvas-tote-fwy31</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-unlimited-ligne-large-messenger-bag-fvwn1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-python-nano-luggage-tote-fvycr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-zucchino-small-tote-g0wzb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-vintage-mini-zucca-tote-fwahr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-monogram-coated-canvas-tote-w-tags-fwe1k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-fvo4n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-canvas-tote-fvi0z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-vegan-leather-shopping-tote-ftxe0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-falabella-metallic-tote-fui18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-reade-mm-fvn2x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/annabel-ingall-leather-tote-fup2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-tote-ftha0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/coach-1941-smooth-leather-tote-fqrx4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-nylon-printed-cc-tote-dw835</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-studded-deauville-shopping-tote-fljkf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-studded-tote-fm6dv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-2010-ponyhair-vertical-cabas-fmegs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tumi-embossed-leather-tote-fiy30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-damier-ebene-belmont-pm-w-pouch-fja6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/v-de-vinster-knotted-nylon-rope-bag-fj0xh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-ophidia-medium-raffia-tote-f8flm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-raffia-logo-tote-f11r9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-glace-calf-twin-pocket-tote-f12yc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-canapa-stampata-tote-w-strap-ex03m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-harper-tote-ewlwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-ew2bq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-tote-bag-dcjxo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-soft-gg-supreme-tote-bag-ehjxv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-nylon-tote-fyd3y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-tote-fybg4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-velours-w-gm-tote-fy57d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-chain-accent-vegan-suede-tote-bag-fy7c1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/annabel-ingall-pebbled-leather-tote-fyk1y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-leather-crossbody-bag-fyjfq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-type-s-fz5r6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-leather-tote-bag-fys82</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-nylon-buckleigh-packable-tote-fyunp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-shoulder-bag-funhj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-horsebit-punch-tote-fwk7a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-plus-web-medium-loop-tote-fvcit</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-laidback-crafty-dome-bag-fwflb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-large-neo-executive-shopping-tote-fwi9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-dialux-medium-britt-tote-fwneu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-cargo-pocket-tote-fwfq1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-gm-herbag-cabas-fvn8r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-embellished-tote-bag-fwonm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-trimmed-nylon-tote-fx05u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-side-zip-tote-fwnbv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-everyday-xs-tote-fwf1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-bag-fx1fu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-felt-luggage-phantom-tote-fsnb5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-medium-2020-selleria-ff-tote-fwcay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-leather-cabas-phantom-w-belt-fw2dx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tumi-nylon-tote-bag-fqxw3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-nylon-tote-fwotd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-cabas-toile-antigua-mm-fvdv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-small-big-bag-fug39</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-straw-tote-bag-fx0uu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-suede-tote-ft96f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bao-bao-issey-miyake-pvc-tote-bag-fk85e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/comme-des-garcons-plaid-canvas-tote-ff6d4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-caviar-quilted-flap-tote-dxr4o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-escale-onthego-gm-e0hkr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-by-the-pool-neverfull-mm-w-pouch-dsozr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-teddy-onthego-gm-dvk33</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-reverse-monogram-giant-onthego-mm-ds95y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-reverse-onthego-gm-tote-dni80</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-reverse-giant-onthego-gm-cmhrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-escale-neverfull-mm-w-pouch-dmfiu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-by-the-pool-neverfull-mm-w-pouch-axspk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-chevrons-valparaiso-mm-cjr8z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-fxkbw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-matelasse-leather-medium-tote-fwuqv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/monogram-mahina-beauborg-mm-hobo-fwztz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/faure-le-page-knit-leather-trim-tote-bag-fxhos</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dolce-gabbana-pvc-chain-link-tote-fx6gc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-soft-calf-shopper-tote-fx1ye</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-supreme-joy-tote-fww3p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-large-marcie-bag-fxqa7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-fx8t1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-small-shopping-tote-fx7f7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/aspinal-of-london-leather-tote-bag-fy4rn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-leather-tote-fx1h0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-selleria-medium-peekaboo-essentially-bag-fwrc3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-grained-leather-tote-fxmpm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/carolina-herrera-patent-leather-tote-bag-fxhig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-leather-embossed-tote-fx9ui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-vintage-macadam-tote-fvl2x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dolce-gabbana-leather-trimmed-printed-tote-fwdo1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-coco-cocoon-tote-fvl52</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-eclipse-tote-bag-fw1cr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/coach-1941-monogram-diaper-bag-fxnjq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-nappa-spectrum-tote-fwdh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-ella-mesh-market-tote-fxd8m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tumi-leather-trim-canvas-tote-bag-fwy93</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-fringe-n-w-shopping-tote-fwfh2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-vintage-zucchino-shopping-tote-fwphm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/reformation-straw-tote-bag-fxjv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-patent-leather-tote-fw6in</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-x-sarah-coleman-ff-vertigo-peekaboo-iseeu-bag-fvyg2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-2020-small-cabas-phantom-tote-w-belt-fwiuq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-mini-luggage-tote-fvl9k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fwdlr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-ombre-peekaboo-bag-fvzz8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-travel-ligne-tote-fvvao</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-coco-cocoon-tote-fvv2w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-leather-modele-depose-tote-fwdf9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-chain-link-tote-bag-fw8q1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-ponthieu-pm-fwsz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-glam-lock-rockstud-tote-fwcl4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/j-w-anderson-knitted-shopper-fvqu8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-nylon-check-tote-w-tags-clu1n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-onthego-gm-bievd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-petit-h-decoupe-basse-gm-skeleton-tote-ae5ke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-canvas-trimmed-bicolor-tote-fwz9e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fwxq2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-mini-gg-canvas-tote-bag-fwzi3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/rag-bone-tall-leather-tote-fwx4l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-terrycloth-beach-tote-set-fw95r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-leather-tote-bag-fwom6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vintage-frame-bag-fxb7p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-tote-bag-fx1qc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/pop-saint-barth-canvas-tote-bag-fwtqe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-medium-leather-tote-fxn5y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-reverse-giant-monogram-onthego-mm-fx659</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-monogram-chain-link-tote-fx5jh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-tote-fx5fk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-grand-shopping-tote-fw3j0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-nylon-tote-fynfl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/annabel-ingall-leather-tote-bag-fy45y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tom-ford-leather-tote-fx3j8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-patent-leather-tote-fwxkd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-st-louis-gm-fxoaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-leather-tote-bag-fx5kp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-leather-trim-tote-fx1o5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-medium-vela-shopping-tote-fww8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegetarian-suede-fringe-tote-fx1b3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-bella-tote-g0v9r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-large-sac-de-jour-g0v2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vitello-daino-cargo-tote-g0ua6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hereu-raffia-leather-trim-tote-bag-g0o99</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-rajah-tote-fvxr2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-medium-deauville-shopper-tote-fvl9y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-flora-shopper-tote-f8ly1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-signature-medium-sukey-tote-fvpua</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-camouflage-tote-fw3tz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-struzzo-canapa-tote-bag-fvprh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-zucca-ff-tote-fwkuu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/annabel-ingall-leather-tote-fxpho</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-fx9ey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-leather-tote-bag-fwumw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/porsche-design-leather-tote-bag-fwngc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/sensi-studio-raffia-tote-bag-fwn5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-leather-trimmed-nylon-le-pliage-tote-fxq6l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-studded-tote-fws8d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-studded-leather-tote-fwoxm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-handle-bag-fwnt0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/faithfull-the-brand-stripped-tote-bag-fwed6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-flandrin-tote-w-strap-fw35w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-wilshire-pm-fw1vg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/rachel-zoe-leather-tote-bag-w-tags-g0ffg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/rrl-co-canvas-tote-bag-ful0f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-bag-fuqhv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-gg-supreme-zip-tote-fw4mj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-quilted-cc-tote-ft2nn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-cc-fur-tote-fv8kg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-fwor1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-fv7p0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-gaufre-tote-fupw9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fwogm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-reversible-medium-visetos-tote-bag-e35gc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-tote-bag-fuq4j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-diorissimo-tote-fsjif</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-visetos-leather-trimmed-tote-fto7q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-pm-ftfuq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-venus-satchel-ftfnr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-papier-a4-zip-around-tote-fw019</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-vintage-caviar-petit-shopping-tote-fr5rj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/rebecca-minkoff-leather-trimmed-nylon-tote-bag-fwp4u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-saffiano-leather-tote-bag-fwncr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nili-lotan-canvas-tote-bag-fwmb1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-type-s-fwm5b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegan-suede-falabella-tote-fturn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/lanvin-leather-tote-bag-fqi61</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-saffiano-tote-bag-w-strap-fuz3r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/3-1-phillip-lim-leather-tote-bag-fup34</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-club-shopping-tote-fufte</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-masters-collection-fragonard-neverfull-mm-frka3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-2021-goyardine-reversible-anjou-gm-w-pouch-fosav</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-trimmed-canvas-tote-fwsjz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-coated-canvas-tote-bag-fwrqy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-leather-le-pliage-fwm6b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-small-canapa-logo-tote-fwb6n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-sliver-tote-bag-ftp9o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-pm-fw9ky</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-medium-woody-tote-fw2s8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-paraty-leather-tote-fua3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-pleated-metallic-leather-tote-ftxwl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-butterfly-embellished-leather-tote-ft2mt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-neon-green-tote-frjek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-printed-tote-fvu3y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-medium-houndstooth-book-tote-fv643</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-vltn-print-canvas-tote-fvglt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-patent-chocolate-bar-tote-fv3kw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-nylon-bamboo-tote-fwjgw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-supreme-joy-boston-bag-fuyyi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-bicolor-empreinte-petit-sac-plat-fuo6q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-east-west-reissue-tote-fweej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2020-medium-pearl-deauville-tote-fu5w3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-roses-neverfull-mm-fvi2u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-diorever-tote-fv0s0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-s-bazar-striped-shopper-tote-fvhr6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-grand-shopping-tote-fuo5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-canvas-timeless-tote-ftwon</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-mini-tote-bag-fx0ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/pinko-leather-trimmed-canvas-tote-bag-fwjk1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-leather-tote-bag-fvnpe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegetarian-patent-leather-perforated-tote-fvhj6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/smythson-leather-tote-bag-fvfeb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-microguccissima-nice-tote-fvctp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-leather-tote-w-tags-fvj5w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-type-m-tote-fx2u0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-tote-bag-fx1y3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/pinko-leather-trimmed-denim-tote-bag-fwk0v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-small-le-pliage-tote-fvq63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-trimmed-tote-bag-fvn6g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bally-suede-tote-bag-fvfm4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-tote-bag-fv9z5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-clemence-sikkim-double-sens-36-fuk01</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-fwzyh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-metallic-leather-tote-fvu10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fvsaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/wandler-leather-trimmed-tote-bag-fvnye</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/anybag-plastic-bag-tote-w-tags-aqqx2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-trimmed-tote-bag-fzu20</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-soho-chain-tote-fzp8w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-medium-abbey-tote-fvnxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-diamante-craft-tote-fut3f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-wool-tote-bag-fvqs2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-plus-web-tote-fvlb5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-caviar-grand-shopping-tote-fvozw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-small-straw-deauville-tote-fuwie</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-leather-trimmed-nylon-tote-fv7j7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dolce-gabbana-leather-lace-trimmed-tote-fvwk6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-plaid-leather-tote-fvzbx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marni-canvas-tote-fvx62</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-rockstud-leather-tote-bag-fvrj8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-cabas-phantom-tote-ft9an</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-rockstud-tote-fvj9m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/clare-v-net-tote-fvy2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-trimmed-marco-polo-tote-fvtpl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-lockme-tote-mm-fvgpr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-gg-signature-joy-tote-fuvbg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-cinghale-trimmed-canapa-tote-fv162</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-soft-calf-double-zip-galleria-bag-fus0f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-long-beach-mm-fv985</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-type-s-fw485</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-clemence-paris-bombay-37-fullj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-eclipse-tote-fwc96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-plus-joy-tote-fvygc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/etro-coated-canvas-leather-trimmed-tote-fvpjo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-faux-fur-xs-everyday-tote-fw5zd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-studded-pelham-tote-fvxve</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-eclipse-tote-bag-fw9qh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-medium-leather-tote-fwd7a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-zucca-roll-tote-fw9l4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-large-chameleon-tote-fw1ch</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-canvas-tote-fv6le</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-horizontal-cabas-fxe95</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/red-valentino-shearling-tote-bag-fw93s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-the-grind-color-block-leather-tote-fw7ax</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-fwwoa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-patent-leather-tote-bag-fwbhr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tumi-leather-tote-bag-fw4tx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-tote-bag-fwt6e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-charms-cabas-bag-fvyfk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-nappa-tote-fvxok</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-duplex-fx9so</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-leather-trimmed-tote-fwvo0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-eclipse-tote-fu29q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-buckle-tote-ftphj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-saffiano-leather-tote-bag-fstbt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fsomb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vernice-gaufre-tote-fqdpg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-nylon-heritage-tote-fnj9l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-printed-tote-fsrq9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/roller-rabbit-print-canvas-tote-bag-frfeo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-fsx9c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-leather-curved-tote-bag-fral5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-ft3ju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-suede-rajah-tote-fr2ys</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-2021-small-linen-rive-gauche-tote-fu608</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-calfskin-mini-luggage-tote-fsnua</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-coated-canvas-tote-bag-fsojs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-medium-sac-de-jour-souple-tote-fsw0w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-caviar-cc-tote-ftq6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2022-small-deauville-shopping-tote-fs4t7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-bamboo-shopper-tote-ftzzf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-nylon-2-way-bamboo-sling-bag-ftrmh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-imprime-joy-vertical-tote-ftidq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-monogrammed-logo-tote-ft00k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-snakeskin-trim-large-tote-fsqas</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/cynthia-rowley-leather-tote-bag-fsnzg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-quilted-patent-leather-tote-fsnu4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-re-play-tote-fs7k4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/sezane-canvas-tote-bag-fsp3x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-frbof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-medium-raffia-basket-bag-fvaij</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-fs8br</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-metallic-leather-trimmed-tote-bag-frx2t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-tri-fold-bag-fsshv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-bicolor-vertical-cabas-tote-frhpf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-small-wave-tote-ftm1n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/pamela-munson-straw-tote-bag-fs4ns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-medium-saffiano-leather-tote-fs1lf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-leather-tote-bag-fsndk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-sequin-embellished-tote-ftf17</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-shopping-tote-ft3dy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-leather-tote-fswjx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-pleated-tote-fswbm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fatto-a-mano-by-carlos-falchi-large-metallic-animal-print-tote-fs1cf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-medium-leather-trimmed-raffia-tote-fs0zu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-teddy-monogram-giant-onthego-gm-csr1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-cclox</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-pm-bg5ih</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-reverse-monogram-giant-onthego-gm-e9egx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-reverse-monogram-giant-onthego-dw4h3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-onthego-gm-dw24e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-mm-ckiws</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-chpf3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-mm-chnwk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-pm-chnhn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-cocj7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-bpqtt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-bg7hb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-garden-party-36-ckfv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-pm-ckebo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-mm-ckk88</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-cabas-cclal</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-bp0c8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-pm-blk78</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-pm-cgc46</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-ccqrb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-herline-cabas-pm-c6y55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-herline-cabas-mm-c6xy3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alice-olivia-canvas-leather-trimmed-tote-w-tags-ftghw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-gg-supreme-joy-tote-fudin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-large-eclipse-tote-fud55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nannacay-straw-tote-ftv7p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-fvx70</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-braided-handle-tote-fuck7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-canvas-lovely-heart-tote-ftkoq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-by-marc-jacobs-canvas-tote-bag-ftrs3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-plus-web-pocket-tote-fw5lh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-nylon-tote-fu4k2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-papier-a4-zip-around-tote-ftpya</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-vintage-medium-malice-tote-ftovy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-mini-bamboo-shopper-tote-fukx6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-chain-link-raffia-tote-ftpej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-ftpb3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-swing-tote-ftcl3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-plastic-leather-trimmed-tote-ftrwp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-nylon-le-pliage-tote-bag-ftpze</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-twist-tote-ftltz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-citadine-pm-ft612</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-vintage-embossed-tote-ft55n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-leather-tote-ful8a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/lambertson-truex-leather-tote-bag-fu17h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/senreve-leather-doctor-bag-ftb99</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/manolo-blahnik-smooth-leather-tote-ftxig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/victoria-beckham-textured-leather-liberty-tote-ftrkz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-burgundy-tote-bag-ftiue</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-large-flora-canvas-shopper-tote-fuo6m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-miss-pony-tote-fun2w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2022-19-shopping-bag-fu4s1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-medium-coco-cocoon-reversible-tote-futio</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-canvas-flora-tote-fuocu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-eclipse-tote-fumah</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-iccuc-reverse-embroidered-tote-fum0m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-large-denim-coco-allure-tote-ftv5b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-metal-trimmed-leather-tote-bag-fugld</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/reed-krakoff-leather-tote-fuvr9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-leather-tote-fuswy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-cervo-large-shopping-tote-fum0j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-piano-fvhp1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-flandrin-w-strap-fulaq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/the-row-park-tote-three-ftugv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nancy-gonzalez-leather-tote-bag-fu9sm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-patent-leather-tote-bag-fuegg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-suede-pelham-tote-fudgr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-leather-tote-fubuu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/want-les-essentiels-canvas-leather-trim-tote-fu602</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-medium-saffiano-leather-tote-fu4z7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-solid-leather-tote-fty0a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-st-jacques-shopping-gm-fvhdl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-medium-tote-fupxi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/want-les-essentiels-tote-bag-fup8a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fuo24</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-tessuto-shopping-tote-fumx1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-nylon-tote-bag-fum25</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-nylon-leather-trim-tote-bag-fud8d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-large-monogram-chevron-shopping-tote-fuspt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-tote-bag-fubz3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/akris-leather-shoulder-bag-fts1z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-xs-tool-2-0-tote-fuq0s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-papier-a4-zip-around-tote-fup1n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/sophie-hulme-solid-leather-tote-bag-w-tags-fubuf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-leather-heritage-tote-bag-furv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-pleated-leather-tote-fuh3u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-fudnf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-metallic-leather-tote-bag-fu331</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-metallic-leather-shoulder-bag-fts2g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-reverse-giant-onthego-mm-cs0jg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-reverse-monogram-giant-onthego-gm-ccobk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-pm-bpqwj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-mm-ckj0x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/hermes-toile-fourre-tout-mm-bg4mf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-cabas-bed6e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-neverfull-mm-eevgp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-neverfull-mm-dqpfp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-neverfull-mm-ca9le</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-mm-ckllm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-pm-blpk7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-herline-mm-bm15b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-pm-bg4ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-soho-chain-tote-fnyxf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-vintage-micro-gg-web-tote-fvhjh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-vintage-zucchino-leather-trimmed-tote-fvcuk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-2019-large-shopping-bag-w-tags-fujad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-city-calf-trimmed-tessuto-tote-fv2qc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/ulla-johnson-large-pattern-print-tote-bag-fuvtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-furht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-surene-mm-fveow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-small-phantom-cabas-w-tassels-fv2mx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-quilted-leather-tote-fv2nt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-fvio7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/rachel-zoe-leather-tote-bag-fvcfj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-trimmed-nylon-tote-fvc2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/ted-baker-patent-leather-tote-bag-fuov6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-trimmed-tote-bag-fukl6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/want-les-essentiels-canvas-tote-bag-fuuzs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-type-s-fvihc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-neverfull-mm-w-pouch-fvf00</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-two-way-tote-bag-w-strap-fv2mu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-leather-tote-bag-fugk3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-2020-large-e-w-shopping-tote-fu863</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/r-y-augousti-large-python-tote-fv7vc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-rive-gauche-leather-downtown-tote-fuy8l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/miu-miu-quilted-leather-tote-bag-fw3w7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fv9l6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fatto-a-mano-by-carlos-falchi-large-leather-tote-fv6m1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-leather-le-pliage-cuir-fuz55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marcell-von-berlin-la-jacquard-tote-fkanx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fsbs3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-small-gg-denim-tote-fu5pu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-denim-tote-fu5f9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-gg-plus-joy-tote-ftz75</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-web-princy-tote-frgl5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/fendi-leopard-jacquard-shopper-tote-ftwpz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-denim-tote-fulsb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-denim-bucket-tote-fu3uz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-marwari-silky-pop-tote-ftn6d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/emilio-pucci-leather-trimmed-canvas-tote-fsons</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-spring-in-the-city-neverfull-mm-w-pouch-fr1zt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-modern-chain-tote-frhyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-small-bicolor-vertical-cabas-tote-fro30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-bay-neverfull-mm-fbbnl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-saffiano-cuir-open-promenade-tote-fs0pi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-leather-tote-bag-ft37g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/india-hicks-quilted-tote-ftsae</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-leather-tote-bag-fsedl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-vintage-embroidered-mini-tote-fse18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-leather-medium-downtown-tote-bag-frq8s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-medium-saffiano-cuir-double-tote-frq2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-mini-luggage-tote-fstj3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bottega-veneta-intrecciato-leather-tote-fsid7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/yves-saint-laurent-rive-gauche-leather-tote-bag-fsbf5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nancy-gonzalez-embossed-tote-bag-fs9wp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mcm-leather-studded-tote-fqsb0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-negonda-garden-party-36-fpkt8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-ev9u0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-bq663</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-onthego-mm-e92b4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-chp9o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-messenger-bh5o0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hermes-fourre-tout-pm-b4wif</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-fourre-tout-pm-bg4g6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-pm-cgnuh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-herline-mm-ccmxt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-toile-officier-negonda-garden-party-36-ccby6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-fourre-tout-pm-bpr06</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/hermes-herline-cabas-mm-b9c2a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-rockstud-tote-bag-fxt1l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-monogram-large-bucket-tote-fjxr6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-linea-totem-tote-fuuqt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-multi-colored-nova-check-tote-fu7p9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tiffany-co-leather-tote-ftrs6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-pelham-medium-guccissima-bag-fua51</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tumi-nylon-printed-tote-fuzv6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/emilio-pucci-canvas-tote-bag-ftvl6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-leather-tote-fuox8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-fuggg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-ribot-horse-heads-buckle-tote-fufp0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-coccodrillo-galleria-medium-double-zip-tote-fu5h0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-bazar-s-shopper-tote-ftvi9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/dolce-gabbana-leather-miss-sicily-tote-bag-fuj3q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-medium-vitello-daino-tote-fuful</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-nylon-tote-fuzj1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/salvatore-ferragamo-snake-embossed-tote-bag-fuwph</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-black-quilted-tote-bag-fuu2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-leather-tote-fur0p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-michael-kors-saffiano-leather-tote-fupav</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/proenza-schouler-leather-tassel-accented-tote-fup6l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/givenchy-large-pvc-tote-bag-fummv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-guccissima-abbey-tote-bag-fuluu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/neiman-marcus-leather-tote-bag-fuvu4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-metallic-falabella-tote-fuuvk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-medium-struzzo-ostrich-double-zip-galleria-tote-fug3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-canvas-tote-ftug9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/reed-krakoff-oversized-smooth-leather-tote-fukwp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jil-sander-suede-tote-fuz75</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-large-leather-tote-fuuve</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/loewe-vintage-leather-tote-furam</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-trimmed-coated-canvas-tote-fukvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-ftgib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-web-jolicoeur-tote-fsh0d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-trophy-tote-ftf4d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-bucket-tote-ft2xl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-canvas-tote-bag-frp1e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-motocross-classic-raffia-panier-tote-l-frpti</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-quilted-cc-tote-frrha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-perforated-cc-patent-tote-frmem</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-leather-deauville-tote-frfun</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-ftg5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-raffia-city-calf-paradigme-tote-ftmg6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-scamosciato-city-calf-tote-froar</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/balenciaga-motocross-giant-21-city-bag-fra8s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-medium-stitched-city-calf-double-zip-tote-fqwme</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/the-row-leather-tote-bag-frqfw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chanel-ligne-cambon-tote-frqjq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-quilted-nylon-tote-bag-fujxt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-leather-tote-bag-ftr7q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-tote-ftqoj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/khaite-smooth-leather-medium-lotus-tote-ftnwt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-signature-punch-tote-fsh5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kate-spade-new-york-leather-tote-bag-fryir</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/alexander-wang-leather-suede-tote-frq23</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/judith-leiber-leather-embroidered-tote-w-pouch-fs2dw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/furla-large-leather-trimmed-tote-fs0vp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-double-chain-tote-frpww</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-villette-tote-fpj2u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-leather-tote-bag-fsjza</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-n-s-shopping-tote-fre5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/saint-laurent-medium-monogram-niki-shopping-tote-frdds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-patent-leather-rockstud-double-handle-tote-bag-frnue</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/michael-kors-saffiano-leather-tote-bag-fr0sh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-medium-phantom-luggage-tote-fqgyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-leather-tote-bag-fspvk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-nappa-intrecciato-large-convertible-tote-frmqt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-leather-tote-bag-fttew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-medium-intrecciato-roma-tote-fsefr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/carlos-falchi-embossed-leather-tote-bag-fsblk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-vegetarian-tote-bag-fs8t9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jimmy-choo-leather-shoulder-bag-frq24</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-straw-chain-link-tote-fqy5r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/max-mara-canvas-tote-bag-w-tags-fojaq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-denim-neverfull-mm-fs9ht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-louboutin-leather-tote-bag-fsmfd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-nylon-web-tote-ftvaq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-scarlett-tote-ftu2w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-canvas-o-ring-tote-ftq10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-gg-lurex-heart-bit-charm-tote-ftjia</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-fttke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-fur-pelham-tote-fttu4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/paloma-picasso-check-print-patent-leather-trim-tote-fu7y0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/max-mara-leather-tote-bag-ftto8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-ftvp0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-leather-tote-bag-ftjc5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-canapa-grommet-tote-fslql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-london-denim-leather-trimmed-tote-fus4t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/nancy-gonzalez-python-tote-bag-ful2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/freda-salvador-canvas-floral-print-fuazo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kule-canvas-tote-bag-fu0cl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-pattern-leather-trimmed-tote-ftvqc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/kule-canvas-tote-bag-ftsuq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-damier-azur-neverfull-gm-ft201</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-cervo-twin-pocket-tote-fuu8j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tory-burch-canvas-patent-leather-trimmed-tote-ftfnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-python-leather-baylee-tote-fth88</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-damier-ebene-hampstead-gm-ftgjq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/valentino-leather-shoulder-bag-fudt2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/celine-small-cabas-phantom-w-belt-ft9bt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/prada-large-struzzo-double-zip-galleria-tote-fu74e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-louboutin-leather-tote-bag-fuyit</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-le-pliage-tote-fulo1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/ramy-brook-suede-tote-bag-fugtp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/stella-mccartney-crinkle-falabella-tote-bag-fud8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mansur-gavriel-medium-saffiano-bucket-bag-ftzy1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-hysteria-tote-ftwhi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/longchamp-tote-bag-ftree</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-tote-bag-ftpmz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/mz-wallace-nylon-tote-fto10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/gucci-medium-bamboo-shopper-tote-fthqi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/burberry-prorsum-suede-fringe-bucket-tote-fulfp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/carlos-falchi-python-trimmed-tote-ftuig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/goyard-goyardine-artois-pm-fthjg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-embossed-leather-tote-w-tags-ftoq5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/tod-s-leather-tote-fup07</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-embossed-cyndi-tote-fumvc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/jerome-dreyfuss-leather-shoulder-bag-fuhu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/bottega-veneta-intrecciato-double-flap-tote-ftpzd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/marc-jacobs-leather-handle-bag-fukq3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/chloe-leather-tote-bag-fu3jx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/frye-leather-tote-bag-ftr7w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/see-by-chloe-leather-tote-bag-ftgrc</t>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fx90p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-flwjc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-dzcpv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-knee-length-dress-fvc1q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-g09a3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-virgin-wool-houndstooth-print-cape-g0uxm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-denim-jacket-fz1js</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-graphic-print-blazer-g09xx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-houndstooth-print-peacoat-g0vkd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-g0fc1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-mock-neck-mini-dress-g0ns8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-knee-length-dress-g0n5z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-licensed-plaid-print-blazer-g0env</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-printed-knee-length-skirt-g0ck8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fynl8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-jacket-fynhz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-g0jw6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fynkc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-crop-top-fyobf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-bow-accents-sneakers-g0asl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-oblique-jacquard-canvas-slingback-sandals-fzucb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lingerie-robe-fyqh9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-slides-g0qxn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-combat-boots-g081m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-lasercut-accents-pumps-g04hf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-fzyvg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-floral-print-robe-g06jq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-pumps-g0r5a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-crystal-embellishments-slides-g0l9c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-g0twk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-slingback-pumps-g0qb1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-g0prf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-g0ks3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-g11s2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-lambskin-beret-g0x00</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-whipstitch-trim-pumps-g1cqa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-bow-accents-slingback-pumps-g0u7q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-lasercut-accents-d-orsay-pumps-fykgg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-robe-de-chambre-robe-fzpvq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2006-sweater-fz1kt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-ballet-flats-g03t1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fzrge</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-diorquake-wide-belt-fzisj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-vintage-suede-slingback-sandals-fypie</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2000-sweater-fz7oc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fzk6d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-d-orsay-pumps-fzwqe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fzsjk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-velvet-embroidered-accent-d-orsay-pumps-fzqsn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-t-strap-sandals-fykep</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-1-visor-fz8ug</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fzgcx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fzd7x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-g07mn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyyvo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fzk9i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-g35ll</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-mini-dress-ddir3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2018-wide-leg-pants-flpso</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1999-sweater-g2vnr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-mini-dress-fzbym</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-colorblock-pattern-blazer-fzev1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-virgin-wool-bomber-jacket-w-tags-fyrjn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-utility-jacket-fvxk1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-fyurj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-mini-dress-fvtx9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-evening-jacket-fw8zi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-knee-length-dress-fysa6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fp4d3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2011-haute-couture-evening-jacket-fwnj6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-canvas-sneakers-fz50z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fz3g5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fzuae</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2015-scoop-neck-top-fzh16</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-crop-top-fw3te</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-printed-slingback-flats-fyujf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-genesis-rubber-rain-boots-fytxt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-id-chunky-sneakers-fz748</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-printed-sneakers-fz3eh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-fzlvc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-printed-riding-boots-fz95c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-crystal-embellishments-slingback-pumps-fzbbq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-fur-trim-boots-fvxmb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-floral-print-lace-trim-embellishment-lounge-set-fwcal</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fyjzn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-bow-accents-slingback-pumps-fykq0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-floral-print-slingback-pumps-fz59w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-patent-leather-slingback-pumps-fz153</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-slingback-pumps-fyvc0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-t-strap-sandals-fyzjq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-canvas-sneakers-fz5bs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-rubber-slides-fy65r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-player-sneakers-fy9u0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-fw25s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-gladiator-sandals-fxf21</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-fyq8y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-wander-sneakers-fytsf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fyj69</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2020-saddle-card-holder-trifold-wallet-fynmz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-2022-medium-oblique-book-tote-fz0py</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-diorissimo-double-saddle-bowler-bag-fyogz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cannage-pattern-square-sunglasses-fyukm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-pumps-fz1gi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-bow-accents-slingback-pumps-fz5zo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-slingback-pumps-fz3jy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-printed-bandana-w-tags-fxv9h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-canvas-bag-strap-fwb30</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-oblique-mini-saddle-bag-fyaoq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-studded-d-fence-saddle-bag-fydsq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-stars-sneakers-w-tags-fyq4i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-canvas-slingback-pumps-fzdpl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diortechnologic-aviator-sunglasses-fyrw7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diormania-oversize-sunglasses-fyt3d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-patent-panarea-tote-fyuyp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-logo-charms-boston-bag-fyvdq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-honeycomb-crossbody-fz5am</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/christian-dior-honeycomb-clutch-fz50j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-patent-leather-trifold-wallet-fyafw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-pouch-fylme</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-lady-dior-fybi3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-2021-large-bobby-flap-fybd1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-diorissimo-romantique-saddle-bag-fya46</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leopard-print-ponyhair-saddle-bag-fydrg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/christian-dior-leather-pouch-fz0cr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-crunkled-metallic-medium-diorama-bag-fyvko</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-vintage-patent-leather-trifold-wallet-fyair</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-cannage-pattern-trifold-wallet-fworq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2021-medium-mizza-saddle-bag-fxz7s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-g2qe0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-long-sleeve-tunic-g2ppq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-mesh-accents-knee-length-skirt-fqxtl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2021-midi-length-skirt-fvx7u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-tweed-pattern-knee-length-dress-g0bzz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-g00h4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2017-blazer-g0fn0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-mini-dress-fzqco</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-fzq89</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-houndstooth-print-blazer-fzul9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2022-printed-denim-jacket-fzv32</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2001-evening-jacket-fxv4r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2001-biker-jacket-fx7tb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-blazer-fy3j7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-top-fyndq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fzd1u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-canvas-boots-fzif8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-floral-print-rain-boots-fzlht</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-chelsea-boots-g02zd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-combat-boots-fzpu2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-bolero-fzn26</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-sandals-g0afn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-whipstitch-trim-boots-g0inl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-striped-skirt-suit-fyo2s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-late-1980-s-early-1990-s-sweater-fxwlb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-printed-slides-fz5h9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-cd1-chunky-sneakers-fzzji</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-lace-up-boots-fzgt2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-striped-v-neck-sweater-w-tags-g0ado</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-scoop-neck-short-sleeve-t-shirt-g09qf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slingback-sandals-fzx18</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-g0u67</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fztaa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-pumps-fzt09</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-ocean-raffia-gladiator-sandals-fzt6c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fztlu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-riding-boots-g04q0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1980-s-sweater-fzel9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fz9ff</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-wide-canvas-waist-belt-fyqav</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-g0ii0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/christian-dior-ombre-medium-lady-dior-bag-fz630</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-mini-diorissimo-saddle-pochette-fyutt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fzdxc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-g04u2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1998-sweater-fyndb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2001-sweater-fyncx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-fzrwe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fzk1d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-lady-dior-g01pp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2007-cannage-rendezvous-wallet-on-chain-wallet-fyul7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-studded-newsboy-cap-fyrnc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsorealise-aviator-sunglasses-fyut8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-crystal-brim-beanie-fyjow</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-ultra-matte-saddle-wallet-fynfy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-flat-belt-pouch-fz1e0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsideral2-round-sunglasses-fyvzh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorchromic-aviator-sunglasses-fyunw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2020-small-oblique-bobby-bag-fz0gz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fz44d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-honeycomb-duffle-bag-fzb3k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-honeycomb-tote-fza4u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fzr3a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fzgs6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2022-leather-compact-wallet-fzeun</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-micro-cannage-30-montaigne-gusseted-card-holder-cannage-pattern-wallet-fzdqh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-women-s-blackjack-visor-fzazx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/christian-dior-bag-strap-fz1ly</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-diorissimo-coin-purse-leather-wallet-fyy8g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fyxli</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fywu0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-suede-jeans-pocket-handle-bag-fz25n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leather-saddle-bag-fyri1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-vintage-square-sunglasses-e7i08</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-g2juf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-g2f21</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2019-printed-tunic-frbhk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-colorblock-pattern-mules-g2cjs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leather-flap-bag-g2cht</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-silk-printed-coat-fyqna</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2017-jacket-fyozw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2016-virgin-wool-blazer-fyoqc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-knee-length-dress-fypav</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-floral-print-button-up-top-fwkgk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fvq5x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fvwub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fvsv0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2019-midi-length-skirt-fwab8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fsb0d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-top-fv9pd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-long-sleeve-top-fy67j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-printed-boots-fxxv2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-crop-top-fvxkh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-virgin-wool-knee-length-skirt-fywb9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-printed-mary-jane-flats-fz0ss</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-canvas-printed-snow-boots-fz4x5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vintage-cannage-pattern-sneakers-fylf0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fv0k0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fvqb7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fyfp8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fywnn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-b23-sneakers-fyg25</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-rain-boots-fwr8r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-shoulder-strap-fsbnc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-oblique-silk-bandeau-w-tags-fwg2m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-boston-bag-fxl94</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-small-diorissimo-boston-bag-fxdx8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-three-quarter-sleeve-button-up-top-fy56q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-printed-slingback-flats-fz4ds</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-flowers-frame-bag-fwa1s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-wool-pumps-fz0eo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyzsf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-top-fwl5y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fuwa5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fj4o7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-oblique-canvas-wallet-fx2u1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-2021-caro-waist-bag-fx4fa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-plaid-print-pajamas-fyb8o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2013-lady-dior-compact-wallet-wallet-fw0kd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-so-real-round-sunglasses-fr52g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-embroidered-diorissimo-bowler-bag-fwvis</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-slim-pouch-fx4mx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-velvet-diortravel-vanity-case-fx3is</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-denim-lady-dior-fwz5o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/christian-dior-vintage-small-lady-dior-hobo-bag-fxos6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-zip-pouch-patent-leather-wallet-fwqx7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-gradient-sunglasses-fw0n4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-small-lady-dior-my-abc-dior-bag-fwu07</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-f6kni</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-rabbit-felt-hat-fcrpf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-fringe-trim-accent-riding-boots-foyop</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2021-printed-sweater-ey8hm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2018-blazer-fl0jh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-g26h5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-2012-coat-fuojz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-evening-jacket-fyxpa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fz3j2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-cape-fz110</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-fur-coat-fyu4s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-graphic-print-crew-neck-sweater-fz6q5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-colorblock-pattern-slides-fzc2t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-printed-espadrilles-fzana</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-printed-slingback-flats-fzdod</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fzckx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-printed-sneakers-fzjeb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-python-animal-print-flats-fzgih</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fzfjk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-cutout-accent-ballet-flats-fzlq9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2022-mini-shorts-w-tags-g0evs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-turtleneck-sweater-fzwvy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fzkjx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-top-fyo7w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-colorblock-pattern-espadrilles-g028y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-sock-sneakers-fzvw3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slides-fzx1v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-nano-oblique-saddle-pouch-fyy94</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-diorissimo-duffle-bag-fyokh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-t-shirt-fyohm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fxv83</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-honeycomb-travel-fzase</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fy32z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-skinny-leather-waist-belt-fxruq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fxhwt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/christian-dior-mongolian-lamb-leather-backpack-fy4oe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-metal-beaded-accents-chain-link-belt-fxu6k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fxn8h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/christian-dior-vintage-cannage-medium-soft-hobo-fywg9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-fxnd7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-canvas-bag-strap-fxxmg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-leather-wallet-fxntn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-vintage-mini-lizard-handle-bag-fyduw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-e7h43</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-straight-leg-pants-w-tags-g22kr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-g1xtb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-micro-lady-dior-w-strap-fyh86</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slides-fs20r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-v-neck-short-sleeve-crop-top-ftas1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fl3xz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-quilted-leather-phone-case-g1rd3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-ftr3g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-mini-dress-fovnj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-knee-length-dress-fy2qh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fy6zz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2000-mini-dress-fwkyb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2018-patchwork-blazer-fwvza</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-ftoyl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2016-mini-skirt-fxlfo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fx6qy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-mini-shorts-fy4xe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fw5h8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2004-straight-leg-jeans-fvqmc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-lace-up-boots-fy7dh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-lace-up-boots-fryed</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-foz47</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-fyi85</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-lace-pattern-sandals-leather-d-orsay-pumps-fy4bd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-dior-id-sneakers-fworh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-leather-belt-fye2f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-houndstooth-print-scarf-wool-scarf-fy5i3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-diorissimo-voyageur-leather-continental-wallet-fyhus</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-oblique-jacquard-bucket-hat-fy7fz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fx00p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fyb2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fyfgu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fy99j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-micro-lady-dior-bag-fwgn9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fvubf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-defile-leather-pumps-fqmw8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fpo37</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-late-1980-s-early-1990-s-le-connaisseur-wool-lined-trench-coat-fkf84</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-sneakers-fu4uq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-plaid-print-slingback-pumps-fxyzl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-silk-knee-length-skirt-fyfp6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-striped-midi-length-skirt-fyfq0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-printed-sock-boots-fyit6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-sneakers-fyapb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-plaid-print-sneakers-fy8ih</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-scoop-neck-sweater-fy9sa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2014-mini-shorts-fyfr4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-diorissimo-pattern-rubber-rain-boots-fy3zu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-tie-neck-sleeveless-button-up-top-fy7x5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-belt-bag-fx2ag</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-street-chic-diorissimo-pochette-fwzig</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-bucket-hat-fytnb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-hemp-beaded-logo-hat-fy6kw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-g1my3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-silk-flat-front-shorts-fsevr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2014-knee-length-dress-fo0yk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2017-goat-leather-jacket-fvz5x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-nylon-slingback-pumps-w-tags-fyo9t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-printed-slingback-pumps-fpx2k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-sneakers-g1fwl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-fl09z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fk72u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2020-mini-dress-g1ec4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2014-silk-tunic-fmnfq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-knee-length-dress-fyx05</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-knee-length-dress-fyvz8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2021-long-skirt-fyoen</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-mini-dress-fyjss</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2019-midi-length-skirt-fyrjk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fw1fz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2019-knee-length-skirt-fyt87</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-nylon-printed-t-strap-sandals-fyv9b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-braided-accents-t-strap-sandals-fyw78</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-studded-accents-sandals-fyvke</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-whipstitch-trim-slingback-sandals-fyoyl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-sneakers-fysy1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2016-turtleneck-sweater-fyolo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-virgin-wool-printed-blouse-fyoec</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-pleated-accents-skirt-suit-fcbp6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2013-virgin-wool-sweater-fyp5e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-printed-crew-neck-sweater-fyr5z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-canvas-bag-strap-w-tags-fwuoo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-dior-spice-suede-gladiator-sandals-fytu7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-pumps-fyug7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-gladiator-sandals-fyvio</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyupq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-bag-strap-fwpdw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-leather-cosmetic-bag-fwuqw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-chapeaux-corduroy-hat-fw4m7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-mini-dress-fxh91</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-top-fvz7t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2001-t-shirt-ep926</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-printed-sweater-fysyw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-animal-print-button-up-top-fx6zn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-mink-fur-hat-fy0r9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-diorissimo-girly-waist-bag-etuop</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fv88j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-g1akt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-graphic-print-t-shirt-g1akj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-striped-bodysuit-ft9zc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2009-jacket-fo0yt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-mirrored-sunglasses-fp2bm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-fwtui</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fqtab</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-mini-dress-fyxo9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fywhu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-striped-crop-top-fyy7c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fyzxs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-mini-dress-fz063</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2021-bateau-neckline-crop-top-fyv3t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-top-fyoeh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2005-t-shirt-fysfu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-crystal-embellishments-chelsea-boots-fz3wh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-striped-sweater-fywtx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-fz5j5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-three-quarter-sleeve-crop-top-fz2kw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-graphic-print-t-shirt-fyxm8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-top-fytp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-suede-riding-boots-fz47c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-oblique-shoulder-bag-strap-fxnz5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-diorissimo-street-chic-tote-fz0n5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slides-fz3zy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-logo-shoulder-bag-strap-fxnpq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-houndstooth-mini-book-tote-w-tags-fxpvf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-leather-moto-boots-g19ex</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-vintage-2004-wallet-fuvtl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-lace-up-boots-fv2zf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-vest-w-tags-fwmvf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-printed-blazer-fvpqv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-ftrik</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2021-graphic-print-t-shirt-fxd0u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2001-sweater-ftrhw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-beaded-accents-slides-fpkd1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-tweed-slingback-pumps-fnjw9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-grosgrain-trim-mules-fl000</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vibe-chunky-sneakers-fpa4i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-sweater-fva52</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lingerie-robe-fq4ze</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-cannage-pattern-leather-slides-fnmj0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fxu0d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-oblique-mini-book-tote-fwpbh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-waist-bag-fwema</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-crystal-embellishments-pumps-fwe9y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fuvxv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-studded-accents-mules-fxjyo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-slingback-pumps-fpx9p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-denim-pocket-tote-fwdw9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-lambskin-cannage-medium-granville-tote-fwjrg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fvwt1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-freeway-sneakers-ftalv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fjpyt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-slingback-pumps-fngjo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2013-cashmere-sweater-for2p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2018-wide-leg-jeans-ffj03</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tie-dye-print-denim-jacket-fxg2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2004-jacket-fum9p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fxypd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-dio-r-evolution-printed-slides-fxrja</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fut9i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2015-virgin-wool-top-fxm4m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2009-scoop-neck-crop-top-fxgo0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-reversible-logo-bucket-hat-w-tags-fy4vt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-lace-satin-sandals-fxybh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-houndstooth-30-montaigne-sneakers-fwujz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fylyr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-faded-denim-sneakers-fwqwa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-fum9w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2012-striped-sweater-fxlje</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-gladiator-sandals-fy34j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fxhek</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-oblique-saddle-bag-fxaqq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-mini-ombre-lizard-lady-dior-bag-w-strap-fx8w8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-slingback-sandals-fyl1h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fxsmb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyofy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-fur-trim-boots-f8ekw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fm2ne</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-loungewear-robe-fvb3r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-moto-boots-w-tags-fyaof</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-oblique-walk-n-dior-sneakers-fxvlm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-nylon-sock-boots-fxv7d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-slingback-pumps-fy9h9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lace-up-boots-fy7a5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-slides-fy8ny</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fy871</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-snakeskin-animal-print-pumps-fy08e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fyb76</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slingback-sandals-fp4be</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-oblique-studded-bag-strap-fwlol</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-jacquard-canvas-pouch-fwitr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-oblique-jacquard-pumps-fya55</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-crystal-embellishments-slingback-pumps-fy3h9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-ponyhair-baudrier-saddle-bag-ftwmx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorclub-1-visor-fwjio</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-ultramatte-saddle-waist-bag-fwhcj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-small-patent-cannage-lady-dior-tote-fvylo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-x-anselm-reyle-camouflage-tote-fvta2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-macro-houndstooth-medium-book-tote-fvt10</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-small-book-tote-fv1ob</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-1947-montaigne-saddle-pochette-fwqay</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-j-adior-wallet-on-chain-fwfta</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxj8p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2020-mini-shorts-fw9mi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-knee-length-shorts-fxh85</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-animal-print-button-up-top-fwvyy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2021-midi-length-skirt-fup7f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-lamb-leather-crop-top-w-tags-fq0or</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-square-neckline-crop-top-frok6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-mini-1-cannage-pattern-sunglasses-fm7vs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-striped-crew-neck-sweater-fvopm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-g0wup</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fokl4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-mini-dress-fyj7s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-denim-jacket-fyn6r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-embroidered-accent-midi-length-skirt-fymmg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fyqv1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-striped-v-neck-sweater-fyok5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-printed-blouse-fyfff</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-long-sleeve-button-up-top-fyv6h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-sock-boots-fyr6n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lasercut-accents-combat-boots-fyant</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fwz06</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fy8rt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2003-sweater-w-tags-fvz20</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-embroidered-accent-nightgown-fy8h1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slingback-sandals-fykzp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-vintage-suede-pumps-fypwq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-embroidered-military-cap-fxvfi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lace-trim-embellishment-nightgown-fy8hu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-diorissimo-pochette-fwpbs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-floral-print-slingback-pumps-fytk0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-v-neck-blouse-fvz6t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-frjr9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-peep-toe-pumps-cannage-pattern-pumps-fy3d6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-solid-leather-cosmetic-bag-fxav9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-diorissimo-shoulder-bag-fwpts</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-2021-dior-chic-wool-bucket-hat-fxuzk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-mini-camo-saddle-bag-fwttk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-cannage-new-lock-chain-bag-fwtip</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-g0w7m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-furc9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-mohair-blazer-w-tags-fqjel</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/christian-dior-vintage-2000-s-bikini-fv53r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-striped-skirt-suit-g0m8k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-mini-dress-fvxpr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2022-long-dress-fw1v8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-knee-length-dress-fvq0y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fwj63</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-bateau-neckline-mini-dress-fvv7y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-midi-length-dress-fx4ll</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-denim-jacket-fvnkf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-midi-length-dress-fwno3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-printed-tunic-fw4cs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2012-knee-length-skirt-fvmd0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-plaid-print-blazer-fkpxh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2014-mini-dress-fvatj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-ftsax</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2019-toile-de-jouy-jacket-fuxga</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-knee-length-dress-fvlmo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-cashmere-coat-fvr45</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-printed-cape-filyu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-pumps-fvznl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-gladiator-sandals-fxipo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2018-knee-length-skirt-fxchj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2016-sleeveless-button-up-top-fv96o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fuj19</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-striped-crew-neck-crop-top-fx6ih</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fx464</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-athletic-sneakers-fw11i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-fttdh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-gang-wool-slingback-pumps-fxf1u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2019-straight-leg-jeans-fw6e1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-straight-leg-pants-fw454</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2014-printed-blouse-fvnpk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-loafers-fxhse</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-tassel-accents-espadrilles-fxcl8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2009-off-the-shoulder-top-foivt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-high-rise-straight-leg-jeans-fw6gu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-tie-dye-print-slingback-pumps-fxf7z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-satin-animal-print-slingback-flats-fxdxj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fxbft</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-sandals-fxm50</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fx61k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-embroidered-houndstooth-bucket-hat-fwf11</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-floral-print-espadrilles-fxflp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-long-sleeve-button-up-top-fuz79</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-surf-chick-saddle-bag-fk63n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fxd1a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-animal-print-espadrilles-fximi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-scoop-neck-short-sleeve-t-shirt-fw71g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-sandals-fxks3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fxdh8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-crystal-embellishments-pumps-fxj0m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-pantsuit-ftkuh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-d-orsay-pumps-fwwr8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-straw-sun-hat-fw5y8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorissimo-bucket-hat-fwbe6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-club-1-visor-ft4jh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2020-small-bobby-bag-fw0ty</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/christian-dior-wool-neck-band-fvv1o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-vintage-chapeaux-hat-frbpl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-saddle-wallet-on-chain-fvm4j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-oblique-dioraddict-flap-bag-fu5g4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/christian-dior-compact-mirror-keychain-fr7bi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-30-montaigne-2-in-1-pouch-fqlml</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-knee-length-dress-g0lc4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fta5p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fr9rq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-f7l1v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2013-crew-neck-top-fvv1b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-floral-print-lounge-set-foyvp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-bow-accents-midi-length-skirt-fqxtn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2022-silk-button-up-top-ftz8q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-rubber-slides-fj3e9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2021-striped-sweater-w-tags-fqikc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-dvbx6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-1980-s-coat-fvur8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fy06l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-fy05r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fxudj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxlep</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fvqxy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-printed-vest-fxw9p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-long-sleeve-sweatshirt-fwkms</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-lace-pattern-mock-neck-top-fxzc6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fw5gb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-late-1980-s-early-1990-s-evening-jacket-fx238</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fxmoa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-studded-accents-gladiator-sandals-fxscn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-v-neck-sleeveless-blouse-fwcqb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-square-neckline-crop-top-fvaxm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-d-major-canvas-rain-boots-fxx4f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fxudw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-chelsea-boots-fxt6r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-animal-print-moto-boots-fxkzu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-button-up-top-fy4w1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-flats-fxrs0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2014-knee-length-skirt-fr6qk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-d-major-canvas-moto-boots-fxybs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-suede-riding-boots-fxs8o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-fwtnm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-tunic-fy8gc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-fxkh9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-slingback-flats-fxjix</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fy49s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-cannage-pattern-patent-leather-slingback-sandals-fy32y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-studded-accents-sandals-fxyd0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-sandals-fxqo1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-printed-nightgown-fx9z6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-t-strap-pumps-fy6ub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fy6js</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-vintage-diorissimo-pattern-slides-fxn12</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-naughtily-d-suede-lace-up-boots-fxpg3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-sandals-fxzw4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-rubber-flip-flops-fxszv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-suit-fve0h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-embroidered-saddle-pochette-fwfnv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-skinny-leg-pants-fy4bz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-three-quarter-sleeve-blouse-fy5d5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fxo2o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-pumps-fxz0o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fxybj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fxkpc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-snakeskin-pumps-fxbyn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fxs07</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-fox-fur-beret-fwqn3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-micro-cannage-diorama-wallet-on-chain-fwekx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-micro-cannage-baby-diorama-chain-wallet-fwefa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-fpvzt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2018-long-dress-g0en0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lace-trim-embellishment-nightgown-flrml</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-striped-blazer-fx2sr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fsuxl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-printed-evening-jacket-fwrhi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-denim-jacket-fwwbj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-tie-dye-print-midi-length-skirt-fwmuk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-silk-midi-length-skirt-w-tags-fwmwj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-late-1990-s-early-2000-s-top-ftp2s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-colorblock-pattern-pumps-fw65p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fvzyv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-beaded-accents-sandals-fltds</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-sleeveless-top-w-tags-fwtxi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-whipstitch-trim-boots-fw8kl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-silk-pumps-fw1i6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vibe-chunky-sneakers-fwbwc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-folk-espadrille-sneakers-fw8qt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-scalloped-accent-gladiator-sandals-fw1am</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-braided-accents-sandals-fvzge</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-braided-accents-sandals-fujpo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-silk-wide-leg-pants-fwmwz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-espadrilles-fwphz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-bow-accents-pumps-fw21i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fw18d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-dioract-canvas-slingback-sandals-fw0tz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-ponyhair-striped-pumps-fvzgt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-bow-accents-slingback-pumps-formr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-printed-slingback-pumps-fw1e8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-granville-canvas-espadrilles-fvyc3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-honeycomb-boston-bag-fw8t2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fvie7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-j-adior-mosaic-dio-r-evolution-bag-fl60i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-printed-slingback-pumps-fw7bd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-sequin-embellishments-pumps-fw710</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-slingback-pumps-fvwxp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fw1is</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fseda</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-slingback-pumps-fvzqw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-cannage-pattern-satin-pumps-fvz3w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fvx6x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-saddle-belt-bag-fsl2e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-medium-oblique-book-tote-ftp70</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-w-tags-fskkg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-frxay</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-garland-crystal-embellishments-slingback-pumps-ftxjq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-cutout-accent-slingback-sandals-fbysy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-combat-boots-fixqz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-virgin-wool-blazer-fxhn0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-fxkxr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2004-jacket-fum7j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2005-blouse-fu9n8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxhvo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1980-s-top-fwapc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-plaid-print-long-sleeve-blouse-fxs48</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-embroidered-accent-knee-length-skirt-fwux7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fw5tj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fws8i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2020-cashmere-sweater-fxckd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-studded-accents-pumps-fwldy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-virgin-wool-skirt-suit-fvp9p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-flats-fxih1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fxcvg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-slides-fx3l2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-embroidered-accent-pajamas-fwxyc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slides-fxc83</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fwkss</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fw6a6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fvv2j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-button-up-top-fxaut</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fx6j5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-nightgown-fwyv1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fwxwv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/christian-dior-nylon-technical-toile-de-jouy-small-diortravel-backpack-fuj2p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-rain-boots-fwook</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-printed-slingback-pumps-fwe4q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-blouse-fw9za</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diordirection-oversize-sunglasses-w-tags-fwkbq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-inspired-cat-eye-sunglasses-fw6iq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-fvzzc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-turtleneck-sweater-fxi61</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fxeeb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-robe-fx232</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-cannage-miss-dior-wallet-on-chain-fvetz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fwb14</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diormonsieur2-aviator-sunglasses-fvzsv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-street-chic-columbus-bag-fv5sp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slides-w-tags-fovr5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-player-sneakers-fu6ar</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-visor-fuiq0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-fh7n0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-late-1980-s-early-1990-s-biker-jacket-ftyvn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slides-fuuqg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-ft4j7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-high-rise-wide-leg-jeans-fq3l8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-velvet-studded-accents-pumps-fsina</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-espadrilles-fgsxr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-graphic-print-t-shirt-fdw3k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fnedn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2019-straight-leg-pants-fl0h8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-diorissimo-studded-shoulder-strap-fchqf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wide-leg-pants-f5naa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-f9wwa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-floral-print-mules-fd1hb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-lambswool-coat-f8l14</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-combat-boots-f0x4p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-monsieur-robe-f2xxg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-eulzz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vintage-diorissimo-pattern-sneakers-f08ou</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-striped-lace-trim-embellishment-nightgown-ejdla</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-chelsea-boots-eqdpo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/christian-dior-vintage-2000-s-bikini-elpma</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2002-wide-leg-pants-elrdy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-velvet-colorblock-pattern-mules-eji7o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-saddle-iphone-case-w-card-holder-ek9eh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-d-connect-neoprene-sandals-egegz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-ebqsv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-striped-sleeveless-button-up-top-ebzvb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-ea64e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-top-e954c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-e82ub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-crystal-embellishments-t-strap-sandals-e2df5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-paisley-print-blouse-e22dn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsoreal-aviator-sunglasses-e3mv4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-the-suit-blazer-dtr64</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-dvn4i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-metal-fabric-bag-accessorie-w-tags-dr7ah</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-reflected-p-sunglasses-1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-knee-length-dress-drifo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2008-sweater-dpu68</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-reflected-aviator-sunglasses-ds6rw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-dqzh4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-embroidered-accent-robe-donnm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-printed-vest-dkynq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1996-bodysuit-dk3ht</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-dehwj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-d9sz4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-d9wc5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1999-blazer-d9u4g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-dccvj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-d964d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-da933</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-d4w7h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1980-s-nightgown-ctap3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2007-denim-jacket-cslhj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2000-s-evening-jacket-cqe3i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-cnm26</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-wool-evening-jacket-cho2l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1999-evening-jacket-cfklr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-2010-slub-silk-peacoat-c984j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-cfwjf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-embroidered-accent-pajamas-cbuz6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-late-1980-s-early-1990-s-vest-c8uca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-c383v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-lace-pattern-scoop-neck-top-bpaqm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-w-tags-bkqf5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-evening-jacket-bbbi8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-vintage-suede-pumps-asl8y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2019-wool-evening-jacket-ai90l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-printed-v-neck-sweater-aftim</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-lovely-diorissimo-charm-tote-a3rhw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-91qub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-vintage-2002-coin-pouch-fyac2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fx2yv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fy9wb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-v1u-visor-fnl96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-peacoat-fiqaw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-cutout-accent-pumps-f955r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nylon-colorblock-pattern-slingback-flats-f9jaz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-eubud</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-scoop-neck-three-quarter-sleeve-blouse-epoqh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-studded-accents-sandals-ejswj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vintage-diorissimo-pattern-sneakers-fzwu1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-turtleneck-sweater-dflts</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-1950-s-vintage-christian-dior-barrett-frbwk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-solar-sneakers-fvmik</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2019-graphic-print-sweater-fvnek</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-silk-printed-pajamas-fvqr7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-scoop-neck-sweater-fvoqy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-sweatshirt-fvgwx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-ballet-flats-fun0a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-colorblock-pattern-espadrilles-fw1o1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-2020-ultra-matte-saddle-wallet-on-chain-fvjpy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-naughtily-d-suede-lace-up-boots-fqv1h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2020-medium-toile-de-jouy-book-tote-fvmx0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2021-medium-zodiac-embroidered-book-tote-fuweb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-toile-de-jouy-book-tote-fvsev</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-leather-cannage-pattern-iphone-case-w-chain-frovt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/christian-dior-leather-gloves-fufb0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-knee-length-dress-fuwhq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-printed-canvas-bucket-hat-fweug</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-fncx6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-ftey5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-d-club-leather-slides-fix3t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2020-midi-length-skirt-fwkt6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-mini-dress-fwm7s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-graphic-print-t-shirt-fwkap</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-lamb-leather-skinny-leg-pants-fvqte</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-scoop-neck-sweater-fwm5z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2019-crew-neck-sweater-fv6eg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-leather-trimmed-flap-bag-fv02f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-pajamas-fjrsi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-foq73</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-fvc6u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2015-vest-fv32b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-square-neckline-blouse-fvaqv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-small-diorissimo-tote-fssg0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/satchels/christian-dior-python-trimmed-my-dior-cream-raffia-frame-bag-fv9b7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-lingerie-knee-length-skirt-fvoue</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-fvf26</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2017-cashmere-sweater-ft9nv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-vintage-diorissimo-travel-tote-ft4ei</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-leather-newsboy-hat-fvbup</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-evening-jacket-ftc0u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-snakeskin-studded-accents-pumps-fus8t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-mini-dress-fsqv3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-faux-fur-coat-fuwdi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-printed-mini-shorts-fvhx6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fvih1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fy66h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-mock-neck-mini-dress-fy5ee</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fk17c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-plaid-print-faux-fur-coat-fu5ct</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2009-jacket-funk1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-dior-vest-fnxxq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-virgin-wool-blazer-fsz8q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1991-evening-jacket-fmkz8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fu1ab</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-addict-sneakers-fuq1m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-2-0-sock-sneakers-fu0w7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-sequin-embellishments-sneakers-furxp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/christian-dior-christian-dior-leather-gloves-ftjte</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/christian-dior-2021-embroidered-d-bubble-bucket-bag-ftofm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fueml</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2013-2014-skinny-leg-pants-fmtbu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg94a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-2020-micro-lady-dior-bag-w-tags-fqfqb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-fur-coat-fsmjy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-fvhfg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-crocodile-animal-print-slingback-sandals-fuoy0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-ponyhair-animal-print-pumps-fug19</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-whipstitch-trim-espadrilles-fupcl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-printed-straw-blend-hat-fuq1f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fv8ev</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fv222</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fv0u5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-robe-ftygg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-shield-tinted-sunglasses-fuhm3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-cannage-lady-dior-phone-holder-bag-ftqr4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-polka-dot-print-pumps-fuu6z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-futso</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxldw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-fu3u6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-coat-ft2wr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fryvw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-graphic-print-slides-fsewi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-oblique-jacquard-canvas-bag-strap-fbqac</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-leather-trim-embellishment-pumps-frjoz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-diorissimo-girly-waist-bag-fr257</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-fsih9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-mules-fopzo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fuhxb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-utility-jacket-fulgv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-blazer-fu1fh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-licensed-v-neck-sweater-fulqy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-bow-accents-pumps-ftn4x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-ftaqr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-pouch-ftg5p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-leather-cosmetic-bag-ft1lt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorglisten3-cat-eye-sunglasses-fsruj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-vintage-suede-sandals-folqx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2013-straight-leg-pants-fx2k3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-medium-miss-dior-shoulder-eut3k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fwwbf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-top-fol64</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-seperates-knee-length-skirt-ft9va</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-s-top-foa2h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-long-sleeve-button-up-top-ftchb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2017-wide-leg-pants-ft3jz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-snakeskin-floral-print-slingback-sandals-fu6uu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fu071</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-leopard-print-beret-fu12h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-shield-mirrored-sunglasses-fu0uo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-d-bubble-bucket-bag-fl9hr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-j-adior-bow-accents-mary-jane-flats-fqj7r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-mini-dress-fu6mx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fu5xy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-midi-length-dress-fu2x9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2001-button-up-top-frj8x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-leather-quilted-iphone-case-fp0lh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-medium-microcannage-diorama-bag-fttty</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-frhx3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2016-three-quarter-sleeve-button-up-top-frf99</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fr963</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-gradient-sunglasses-fs5dm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-woven-bucket-hat-fr5fi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire1xs-square-sunglasses-frt9y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fr6bc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2003-top-fg4e4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-studded-accents-loafers-fm74i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fqjvl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-club-1-visor-fsudr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fthmi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-2021-micro-lady-dior-w-strap-fr5ab</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-large-diorama-flap-bag-fqoju</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-crew-neck-sweater-foib8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-mini-dress-ftbkd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2019-straight-leg-jeans-ftdld</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-whipstitch-trim-boots-ft1fl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-printed-slingback-pumps-ft4i3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-mini-dress-foi5u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lasercut-accents-chelsea-boots-fkvc4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2022-chez-moi-blouse-button-up-top-f869k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fthy6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-button-up-top-frvla</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fr9f4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-woven-bucket-hat-fr6ag</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/christian-dior-nylon-malice-hobo-frltx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fr5go</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-frbeo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-silk-top-fn0gv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-f8j2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-evening-jacket-fncvm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-poeme-canvas-flats-fm849</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2021-crew-neck-sweater-fqrbt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorabstract-wayfarer-sunglasses-fsgf0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-crystal-embellishments-wedge-sneakers-fq4z6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2014-knee-length-skirt-fpoub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-beaded-accents-nightgown-w-tags-fhz9d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fhkel</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-slingback-pumps-foqmi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-evening-jacket-frlzc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fslfr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-graphic-print-crew-neck-t-shirt-frb7y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-foa2a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-canvas-printed-sneakers-frnq9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fqod4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fskn4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-nylon-floral-cosmetic-bag-fsk0g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-silk-printed-scarf-fm32n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fngxy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fq6a1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-whipstitch-trim-pumps-fqega</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-printed-slides-fsq2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-vintage-diorissimo-beret-fo97c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-knee-length-dress-fstec</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fspsc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-fsu63</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-t-strap-sandals-fqn06</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-crew-neck-sweater-fspoi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fqla8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-fur-coat-fk74g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-leather-trim-embellishment-pumps-fihek</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2019-straight-leg-jeans-fhpha</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-animal-print-lace-up-boots-frl3r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-gladiator-sandals-fs0ej</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fr4zt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-2-0-sock-sneakers-fpupp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-animal-print-slingback-flats-fqocu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-frxdu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-crystal-embellishments-pumps-frhe6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire-1-square-sunglasses-fpelu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fqj4v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-lace-up-boots-frtql</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-oblique-jacquard-combat-boots-frg8a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-d-orsay-pumps-fs122</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fqkb2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-stellaire-2-oversize-sunglasses-fqkh8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-printed-espadrilles-flaf8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-knee-length-dress-fkw2f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fn7ri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fmt2s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2011-knee-length-dress-fniim</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-trench-coat-fn11f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-mini-skirt-fmeo4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-lace-trim-embellishment-knee-length-skirt-fp5ld</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-pleated-accents-nightgown-fnpgg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-separates-sweater-flz7o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-set-fp020</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2022-knee-length-skirt-w-tags-fmjr6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-cd-de-christian-dior-robes-du-doir-jacket-fohnr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-knee-length-dress-fsi8b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-camouflage-print-crew-neck-sweatshirt-fqnk1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-crop-top-fpk86</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-fov6v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1980-s-sweater-fpnyy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-printed-robe-fr7ts</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-frk4c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-medium-patent-le-trente-shoulder-bag-fp47e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-flsyt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-graphic-print-crew-neck-t-shirt-fo3kn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-velvet-printed-boots-fntrc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-fmnqq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fp664</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-honeycomb-boston-bag-fntvw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fkvct</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-houndstooth-print-knee-length-skirt-fq710</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fpuoj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-belt-bag-foq2g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1980-s-lounge-set-ff40f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fg9g7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-floral-print-sequin-embellishments-pumps-fjcui</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fnjik</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-flt4e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-knee-length-dress-fg6q2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-diorissimo-pattern-canvas-sandals-fnkwh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-suede-boots-fnpdi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-pumps-fp5dv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsoreal-round-sunglasses-foxw8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2016-straight-leg-pants-fmckb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fiz74</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leather-street-chic-columbus-bag-fjhhc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-evening-jacket-fkklv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2009-striped-top-fog58</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-scoop-neck-top-fpu8l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-lizard-studded-accents-sandals-fpd93</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-colorblock-pattern-boots-fndti</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-pumps-fpmxc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fjtq4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fnr1x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-patterned-knee-length-dress-fpobd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-short-sleeve-button-up-top-flhkb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-colorblock-pattern-oxfords-fpq85</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fkm3u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsorealpop-aviator-sunglasses-fnygy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fo7b2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-felqk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-printed-evening-jacket-fp8ia</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fq75m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-ruffle-embellishment-knee-length-skirt-fm85q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fovpn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-silk-mini-shorts-fq4az</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-pumps-fq7cu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-honeycomb-shoulder-bag-fq77s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-vintage-diorissimo-trotter-fanny-pack-fszoe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-foejt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-high-rise-wide-leg-jeans-fmppm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-dior-id-sneakers-fjwhs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2010-floral-print-sweater-fotlg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fnbrk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-vintage-skinny-leg-jeans-fku4k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-neoprene-pumps-fl8r6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-vintage-cannage-pattern-pumps-fmyee</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fnlo7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-dior-j-adior-studded-flap-bag-fm9yt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-large-cannage-lady-dior-bag-fm9j5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-royaume-d-amour-medium-lady-d-lite-bag-flpri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-d-trick-brogue-spectator-bag-fiqij</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-verydior1n-wayfarer-sunglasses-fmv7m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-floral-print-grosgrain-trim-robe-flp77</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-flip-flops-fsozs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fh53j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-dioralps-book-tote-faldn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-boots-fpgxe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1980-s-crop-top-foa36</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-western-boots-foajh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-1-visor-fozoi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-mizza-saddle-bag-fo0m0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-petites-t-shirt-fnqtk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-large-lady-dior-bag-fna0q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-polka-dot-print-evening-jacket-fo0w2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-blazer-flndp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-silk-blazer-cjn65</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2010-v-neck-sweater-fnj5q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-trotter-boston-bag-fogsq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-separates-crew-neck-sweater-fndby</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-2012-silk-pajamas-flhsp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-slingback-pumps-fo6l7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-lady-dior-shoulder-tote-fn6w7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-ombre-python-medium-lady-dior-bag-dapv4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-cutout-accent-sandals-fe0gf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wide-leg-pants-fmcbp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fodz6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-printed-pumps-fmauf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-feqvx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2007-silk-top-fhd7s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-tie-dye-print-robe-fmqso</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2020-medium-oblique-book-tote-fna9c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fnwui</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-camel-hair-peacoat-fepju</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-evening-jacket-fn1g1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-fn1qo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-mirrored-sunglasses-fl2r5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-denim-cannage-large-lady-dior-tote-fngkl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-slingback-pumps-fra8n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fr52d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-halterneck-sleeveless-tunic-fg3z8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fmrv3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-skinny-leg-pants-fl7ng</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-f26zq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2011-knee-length-dress-flo94</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-button-up-top-fltyu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-nylon-cannage-mini-bag-fkt4b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2002-blazer-fgexo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-j-adior-slingback-canvas-slingback-flats-fd6zz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fnczb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-printed-boots-fn5j7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorissime-aviator-sunglasses-fjwu6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fh1vr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fmycj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-late-1980-s-early-1990-s-blouse-fl6n5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-floral-print-crew-neck-sweater-fmznv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-animal-print-blouse-flr5j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-mini-dress-fdy7f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-2018-virgin-wool-faux-fur-coat-fkzbo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2015-knee-length-dress-fm55t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-floral-print-blazer-flnty</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-lasercut-accents-riding-boots-fksqu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2003-jacket-bh5f7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-pleated-accents-midi-length-skirt-fl7k9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fkqca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fnyxc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-printed-denim-jacket-fmey2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fmerp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-cashmere-midi-length-dress-fmuc6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-knee-length-shorts-fmjpv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-suede-feather-trim-slingback-flats-fldb4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-lasercut-accents-wedge-sneakers-fl339</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-fmmjh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2022-silk-button-up-top-fca2w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-2006-pantsuit-fkq8c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-studded-accents-t-strap-pumps-fegxc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-street-chic-columbus-bag-fcbvl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-mini-skirt-fm5j8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-jacket-flmvu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fn2zo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-sandals-fnbyw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-animal-print-pumps-fms30</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-nylon-slingback-sandals-fmuoe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-j-adior-sun-visor-fmrzv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-mini-dress-fpmc0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2015-knee-length-dress-fkelm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-flimj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-flg8p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-flged</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-flgb0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-fkc96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-silk-straight-leg-pants-flez6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-top-fje71</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fkqj9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-trotter-boston-bag-flho2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-animal-print-t-strap-pumps-fkkai</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-d-orsay-pumps-fkzxo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-plaid-print-knee-length-dress-fj9dj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-striped-evening-jacket-fducg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2017-mini-dress-fgmof</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2002-sweater-fguvv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2001-jacket-fb4ai</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fm13f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2019-straight-leg-pants-flnys</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-mesh-accents-lace-up-boots-fmh84</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fls4v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-beaded-accents-slingback-pumps-fm0zi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fm4sd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cowl-neck-sweater-fmxhh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-printed-boots-fmlo5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wide-leg-pants-fm4us</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-printed-espadrilles-fm9tt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2011-knee-length-dress-fpigq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-long-dress-f6lyq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-printed-jacket-fl381</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-knee-length-dress-fl3it</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fht1a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-t-shirt-fkmeu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-fklji</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-fik7k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-lace-pattern-pumps-fkpmx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1980-s-robe-fgwtp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-vintage-leather-loafers-fjyka</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-feadx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2011-straight-leg-pants-femsi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-blazer-fizjy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-mini-dress-fl8cg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-vest-fje18</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-flwre</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1980-s-top-fk019</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2007-knee-length-skirt-flrtp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fikgf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-floral-print-crew-neck-sweater-flkf6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-flhoa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1999-crop-top-fk1ty</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2016-mini-shorts-fl8u4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-mini-shorts-fkq0p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-floral-slingback-canvas-slingback-pumps-flb8j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-flohy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fg8l8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fhqs3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fiys8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-fkdxk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fkddy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-mid-rise-wide-leg-jeans-fkjqr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/christian-dior-2019-bottoms-fh24w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2017-straight-leg-jeans-fdlow</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-micro-cannage-medium-diorama-flap-bag-fjks1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-christian-dior-xs-phone-case-fli2k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-fl66s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fjf7b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-jacket-f5iyk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-trench-coat-fo7o3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fek96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2017-straight-leg-jeans-fdlgv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-paisley-print-long-dress-f8qsz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1991-cape-fg4xl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-robe-fggsz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-floral-print-slingback-pumps-feijy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2019-embroidered-book-tote-ficaz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-1998-coat-fi90x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fg72y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fdw0b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-striped-sandals-f6ehp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-f5trv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fjbwp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-flats-fkxxy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1990-s-robe-fjxrz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fdg0c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2016-printed-blouse-fddkv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-fepil</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-f9cfm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-fjn4v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fjn3z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-mini-dress-fja2a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2016-cashmere-sweater-fih6r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/christian-dior-oblique-backpack-fhwd4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-plaid-print-skirt-suit-f8kz5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fjdgk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-f6ak4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fc3u6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fg5sf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fg6g7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-ballet-flats-fjz9z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-mania-1-wayfarer-sunglasses-fis74</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/christian-dior-silver-tone-cigar-cutter-fju5v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-fj9it</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fj2ce</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-soelectric-oversize-sunglasses-fiqx0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorama-2-round-sunglasses-fiqun</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1980-s-sweater-fc2jy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-2000-s-peacoat-fblvs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-long-sleeve-button-up-top-fmpap</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-printed-mini-shorts-fdsep</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fdpdv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1998-skirt-suit-fdnxu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-colorblock-pattern-slides-fgndg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-vintage-wide-leg-jeans-fbewt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-j-adior-it-tassel-accents-flats-fjtjy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-striped-scarf-fhtqw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-fj7tk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2015-virgin-wool-sweater-fisat</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-mules-fie4i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-open-front-sweater-fhzhu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-remove-aviator-sunglasses-fhmvc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-niki-de-saint-phalle-large-lady-dior-bag-ficwe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-blazer-f5sr7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-houndstooth-print-mini-shorts-f89xc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-leather-blazer-fkcla</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-1996-parka-fdo2e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fggxi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-fil9r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-fgwje</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-evening-jacket-fh7a2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-jacket-fh7ni</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fi9ei</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-studded-accents-slides-fizbi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2002-sweater-fgeyv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-mid-rise-straight-leg-jeans-fggti</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-embroidered-accent-riding-boots-fjw0j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2022-j-adior-athens-sweater-fhb9n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-ffu2d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-findn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fipkh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-mock-neck-sweater-fjuxp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-gambler-dice-bowler-bag-fjix0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2014-mini-dress-fhuxw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-printed-knee-length-skirt-fh1zr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-ffbsi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lace-up-boots-fhih8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-mules-fi2r9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fcbk3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg7t6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg761</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-fgan1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg7m4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg7ho</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg6z0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2019-oblique-denim-book-tote-ffzmz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-knee-length-dress-fga8k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nylon-slingback-flats-fjlad</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fi2rq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-ponyhair-animal-print-oxfords-fhp88</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fg98n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg92d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-fg8vr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8dk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8ad</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8ya</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8tc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fg8mn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-mini-jacquard-top-handle-bag-fipgv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg823</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2021-mizza-saddle-bag-fi5ce</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-lady-dior-bag-fgy98</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-blazer-fd2bc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-plaid-print-mini-dress-fh6e5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgbh6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-t-shirt-fc4sl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgai6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-gradient-sunglasses-fhtzk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgbb3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg9sd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-cat-eye-eyeglasses-fgbfa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg9q3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fhihf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgboy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fgbmy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg9xd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fdyzf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-lace-pattern-crop-top-fh5ov</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-top-fi2zl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-beaded-accents-pajamas-fhz5x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fhzpv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fierp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-leather-crossbody-bag-fhq3h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sock-sock-sneakers-f8oym</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-graphic-print-crew-neck-sweater-fl416</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-long-dress-feg6g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-2004-knit-hat-fh724</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fbw9h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-moto-boots-fgnce</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fkt88</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fesxd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-floral-print-crystal-embellishments-loafer-sneakers-fhj91</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-club-1-visor-fggp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-mirrored-sunglasses-fh7cg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fhzw1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fhzs2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2018-mini-shorts-fiaai</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fglw8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-ballet-flats-fbhv0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fe5vs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fbefl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-f4uqd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-midi-length-dress-ffrri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-houndstooth-print-blazer-fg5p2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-chelsea-boots-fhnfh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-western-boots-fhlif</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-printed-beaded-accents-boots-fhj1m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-pret-a-porter-mock-neck-sweatshirt-ff1qj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fhj4g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-tweed-pattern-knee-length-skirt-f6tph</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-fer8y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-f7eoz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2017-mini-dress-fc8op</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-w-tags-ffito</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-fg3dp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/christian-dior-v-neck-romper-ffbnx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-evening-jacket-fbhf4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-nightgown-f2eez</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-feuen</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-mini-dress-fgjcr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-silk-midi-length-skirt-fgg4o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-animal-print-boots-fhrnd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2007-sweater-ffz59</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-printed-sweater-fbiju</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2003-t-shirt-ff1ck</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slingback-pumps-fgi8s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fh0ur</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fdtsw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-ff1os</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fczly</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-mirrored-sunglasses-fecq2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-mini-lady-dior-bag-fegyz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-perforated-cannage-dioriva-shopping-tote-fa6mi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-f5df2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2021-mini-shorts-w-tags-dp5ha</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2014-mock-neck-sweater-f5jin</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-leather-trim-embellishment-boots-fh2p8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-plaid-print-combat-boots-fgxyy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-printed-ballet-flats-fgu6r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fg056</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-pumps-ff56f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-ffr4n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-cashmere-snood-fevqo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fg5dn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-small-lucky-badges-lady-dior-bag-w-strap-ff0cx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-f7p5c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2022-striped-sweater-fekdg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-leather-trim-embellishment-d-orsay-pumps-fdrp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-dior-id-sneakers-feda9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-sleeveless-button-up-top-feurf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-reflected-aviator-sunglasses-fduat</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire-sunglasses-cs8kg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-lady-d-lite-bag-fdnjp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-diorider-leather-combat-boots-f7458</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-lambswool-trench-coat-ff17r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-ffemz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fdzxa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-ff1w8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-ffoxd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fffrj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-canvas-cosmetic-bag-ffbh6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-w-tags-fcjgw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorpromesse3-oversize-sunglasses-fe8vk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-suede-newspaper-cap-fduri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-ff42u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fdyfp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsoreal-round-sunglasses-feqba</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-polka-dot-print-knee-length-dress-f8ofp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2018-knee-length-skirt-fdfet</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-striped-crew-neck-crop-top-fco17</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-short-sleeve-t-shirt-f8ils</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-striped-top-fde6u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2010-skinny-leg-pants-fcocn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-straight-leg-pants-fcdqe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fcclu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-lasercut-accents-slides-fcd2o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fcanr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nicely-d-leather-espadrilles-f3gow</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fdzvf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-animal-print-knee-length-skirt-fdomo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fdyjo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2017-skinny-leg-pants-ff1r2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-l-etoile-t-shirt-ff7o9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-crystal-embellishments-moto-boots-fevqq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-graphic-print-crew-neck-t-shirt-fesat</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-fept7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-crystal-embellishments-pumps-fe9pw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-microcannage-lady-dior-bag-fdowe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2012-cashmere-sweater-fbeo2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-virgin-wool-blazer-f4zsf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-crew-neck-t-shirt-fi8cg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-embossed-leather-slingback-sandals-f7wx7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-long-dress-f6974</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2021-wide-leg-jeans-feg58</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-nylon-printed-sneakers-fevy9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-wheel-of-fortune-motherpeace-tarot-dio-r-evolution-flap-bag-fcs3e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-sweet-d-printed-slingback-pumps-f77xf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-f5isp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fdhzs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fdjib</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-diorquake-fur-mules-eui9z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-cashmere-sweater-evs35</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-blazer-fe05x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fbpee</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fem0o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-new-id-patent-leather-slides-fegcp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorclub1-sun-visor-fe92o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2007-fur-jacket-fcc8d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fbejs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-pumps-fc8xq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorama-mini-cat-eye-sunglasses-f99w8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-kaliedscope-d-connect-chunky-sneakers-fc91t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fdpto</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-leather-trim-embellishment-boots-fd9rf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-fcz5r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-cashmere-short-sleeve-polo-f01zy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wool-wide-leg-pants-f8kju</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-midi-length-dress-fbu4v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-f7qw7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-cannage-mini-lady-dior-bag-fal5k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fd53s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fcu1d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fc8we</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-diorissimo-rasta-saddle-belt-bag-fgb3b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-mini-dress-fbpix</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-sweatshirt-fb8ql</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2001-sweater-fan1z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-colorblock-pattern-slingback-sandals-faxgz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2000-sweater-fb068</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-sock-boots-fbw4a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-animal-print-espadrilles-fahoy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-evening-jacket-fbxug</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-silk-top-fc8kq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-cutout-accent-sandals-fbrbe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-short-sleeve-button-up-top-w-tags-fc90w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-nightgown-fbei0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-mules-fd17j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-d-light-denim-bag-fal6t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-leather-trimmed-tote-fbpn8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-slides-f9frt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-knee-length-dress-f01af</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-colorblock-pattern-turtleneck-top-f7a3r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-ffrzv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-long-dress-ffjm1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-mini-dress-f28zi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-bateau-neckline-knee-length-dress-ew0e2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fasxo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fa2zf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-paisley-leather-shoulder-bag-b060n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-f96fy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-lamb-leather-straight-leg-pants-ffh3p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fbsi0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-mini-dress-w-tags-fboqj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lingerie-robe-fahh6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-printed-mini-shorts-fbmx0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-beaded-mini-saddle-bag-f9uzd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2020-long-dress-f98vo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-animal-print-t-strap-sandals-fa5gk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-animal-print-sandals-f9fjm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-faux-fur-miss-dior-hat-f6w96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-long-dress-f5fwc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2015-mini-dress-fa0tn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-faenh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-floral-print-slides-fanjf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-whipstitch-trim-slingback-sandals-fajw0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-cd-de-christian-dior-robes-du-soir-long-dress-f9zcj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-striped-knee-length-dress-feler</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-f84jr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slides-fbi7q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-f2hm3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-s-top-fa96f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fbeo7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fbkuf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-vest-f9gf2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-f8cfb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2021-mini-shorts-f9859</t>
   </si>
 </sst>
 </file>
@@ -5064,7 +5109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1569"/>
+  <dimension ref="A1:A1584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12915,6 +12960,81 @@
         <v>1568</v>
       </c>
     </row>
+    <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>1583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,4379 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1433">
   <si>
     <t>New column 0 Url</t>
   </si>
   <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fx90p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-flwjc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-dzcpv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-knee-length-dress-fvc1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-g09a3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-virgin-wool-houndstooth-print-cape-g0uxm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-denim-jacket-fz1js</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-graphic-print-blazer-g09xx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-houndstooth-print-peacoat-g0vkd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-g0fc1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-mock-neck-mini-dress-g0ns8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-knee-length-dress-g0n5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-licensed-plaid-print-blazer-g0env</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-printed-knee-length-skirt-g0ck8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fynl8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-jacket-fynhz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-g0jw6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fynkc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-crop-top-fyobf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-bow-accents-sneakers-g0asl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-oblique-jacquard-canvas-slingback-sandals-fzucb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lingerie-robe-fyqh9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-slides-g0qxn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-combat-boots-g081m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-lasercut-accents-pumps-g04hf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-fzyvg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-floral-print-robe-g06jq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-pumps-g0r5a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-crystal-embellishments-slides-g0l9c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-g0twk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-slingback-pumps-g0qb1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-g0prf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-g0ks3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-g11s2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-lambskin-beret-g0x00</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-whipstitch-trim-pumps-g1cqa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-bow-accents-slingback-pumps-g0u7q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-lasercut-accents-d-orsay-pumps-fykgg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-robe-de-chambre-robe-fzpvq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2006-sweater-fz1kt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-ballet-flats-g03t1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fzrge</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-diorquake-wide-belt-fzisj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-vintage-suede-slingback-sandals-fypie</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2000-sweater-fz7oc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fzk6d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-d-orsay-pumps-fzwqe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fzsjk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-velvet-embroidered-accent-d-orsay-pumps-fzqsn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-t-strap-sandals-fykep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-1-visor-fz8ug</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fzgcx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fzd7x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-g07mn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyyvo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fzk9i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-g35ll</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-mini-dress-ddir3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2018-wide-leg-pants-flpso</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1999-sweater-g2vnr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-mini-dress-fzbym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-colorblock-pattern-blazer-fzev1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-virgin-wool-bomber-jacket-w-tags-fyrjn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-utility-jacket-fvxk1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-fyurj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-mini-dress-fvtx9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-evening-jacket-fw8zi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-knee-length-dress-fysa6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fp4d3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2011-haute-couture-evening-jacket-fwnj6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-canvas-sneakers-fz50z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fz3g5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fzuae</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2015-scoop-neck-top-fzh16</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-crop-top-fw3te</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-printed-slingback-flats-fyujf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-genesis-rubber-rain-boots-fytxt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-id-chunky-sneakers-fz748</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-printed-sneakers-fz3eh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-fzlvc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-printed-riding-boots-fz95c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-crystal-embellishments-slingback-pumps-fzbbq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-fur-trim-boots-fvxmb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-floral-print-lace-trim-embellishment-lounge-set-fwcal</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fyjzn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-bow-accents-slingback-pumps-fykq0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-floral-print-slingback-pumps-fz59w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-patent-leather-slingback-pumps-fz153</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-slingback-pumps-fyvc0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-t-strap-sandals-fyzjq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-canvas-sneakers-fz5bs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-rubber-slides-fy65r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-player-sneakers-fy9u0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-fw25s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-gladiator-sandals-fxf21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-fyq8y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-wander-sneakers-fytsf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fyj69</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2020-saddle-card-holder-trifold-wallet-fynmz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-2022-medium-oblique-book-tote-fz0py</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-diorissimo-double-saddle-bowler-bag-fyogz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cannage-pattern-square-sunglasses-fyukm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-pumps-fz1gi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-bow-accents-slingback-pumps-fz5zo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-slingback-pumps-fz3jy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-printed-bandana-w-tags-fxv9h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-canvas-bag-strap-fwb30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-oblique-mini-saddle-bag-fyaoq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-studded-d-fence-saddle-bag-fydsq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-stars-sneakers-w-tags-fyq4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-canvas-slingback-pumps-fzdpl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diortechnologic-aviator-sunglasses-fyrw7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diormania-oversize-sunglasses-fyt3d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-patent-panarea-tote-fyuyp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-logo-charms-boston-bag-fyvdq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-honeycomb-crossbody-fz5am</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/christian-dior-honeycomb-clutch-fz50j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-patent-leather-trifold-wallet-fyafw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-pouch-fylme</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-lady-dior-fybi3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-2021-large-bobby-flap-fybd1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-diorissimo-romantique-saddle-bag-fya46</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leopard-print-ponyhair-saddle-bag-fydrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/christian-dior-leather-pouch-fz0cr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-crunkled-metallic-medium-diorama-bag-fyvko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-vintage-patent-leather-trifold-wallet-fyair</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-cannage-pattern-trifold-wallet-fworq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2021-medium-mizza-saddle-bag-fxz7s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-g2qe0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-long-sleeve-tunic-g2ppq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-mesh-accents-knee-length-skirt-fqxtl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2021-midi-length-skirt-fvx7u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-tweed-pattern-knee-length-dress-g0bzz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-g00h4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2017-blazer-g0fn0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-mini-dress-fzqco</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-fzq89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-houndstooth-print-blazer-fzul9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2022-printed-denim-jacket-fzv32</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2001-evening-jacket-fxv4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2001-biker-jacket-fx7tb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-blazer-fy3j7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-top-fyndq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fzd1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-canvas-boots-fzif8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-floral-print-rain-boots-fzlht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-chelsea-boots-g02zd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-combat-boots-fzpu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-bolero-fzn26</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-sandals-g0afn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-whipstitch-trim-boots-g0inl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-striped-skirt-suit-fyo2s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-late-1980-s-early-1990-s-sweater-fxwlb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-printed-slides-fz5h9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-cd1-chunky-sneakers-fzzji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-lace-up-boots-fzgt2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-striped-v-neck-sweater-w-tags-g0ado</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-scoop-neck-short-sleeve-t-shirt-g09qf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slingback-sandals-fzx18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-g0u67</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fztaa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-pumps-fzt09</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-ocean-raffia-gladiator-sandals-fzt6c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fztlu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-riding-boots-g04q0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1980-s-sweater-fzel9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fz9ff</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-wide-canvas-waist-belt-fyqav</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-g0ii0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/christian-dior-ombre-medium-lady-dior-bag-fz630</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-mini-diorissimo-saddle-pochette-fyutt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fzdxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-g04u2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1998-sweater-fyndb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2001-sweater-fyncx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-fzrwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fzk1d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-lady-dior-g01pp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2007-cannage-rendezvous-wallet-on-chain-wallet-fyul7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-studded-newsboy-cap-fyrnc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsorealise-aviator-sunglasses-fyut8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-crystal-brim-beanie-fyjow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-ultra-matte-saddle-wallet-fynfy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-flat-belt-pouch-fz1e0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsideral2-round-sunglasses-fyvzh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorchromic-aviator-sunglasses-fyunw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2020-small-oblique-bobby-bag-fz0gz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fz44d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-honeycomb-duffle-bag-fzb3k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-honeycomb-tote-fza4u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fzr3a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fzgs6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2022-leather-compact-wallet-fzeun</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-micro-cannage-30-montaigne-gusseted-card-holder-cannage-pattern-wallet-fzdqh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-women-s-blackjack-visor-fzazx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/christian-dior-bag-strap-fz1ly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-diorissimo-coin-purse-leather-wallet-fyy8g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fyxli</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fywu0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-suede-jeans-pocket-handle-bag-fz25n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leather-saddle-bag-fyri1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-vintage-square-sunglasses-e7i08</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-g2juf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-g2f21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2019-printed-tunic-frbhk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-colorblock-pattern-mules-g2cjs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leather-flap-bag-g2cht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-silk-printed-coat-fyqna</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2017-jacket-fyozw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2016-virgin-wool-blazer-fyoqc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-knee-length-dress-fypav</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-floral-print-button-up-top-fwkgk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fvq5x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fvwub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fvsv0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2019-midi-length-skirt-fwab8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fsb0d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-top-fv9pd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-long-sleeve-top-fy67j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-printed-boots-fxxv2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-crop-top-fvxkh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-virgin-wool-knee-length-skirt-fywb9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-printed-mary-jane-flats-fz0ss</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-canvas-printed-snow-boots-fz4x5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vintage-cannage-pattern-sneakers-fylf0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fv0k0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fvqb7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fyfp8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fywnn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-b23-sneakers-fyg25</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-rain-boots-fwr8r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-shoulder-strap-fsbnc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-oblique-silk-bandeau-w-tags-fwg2m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-boston-bag-fxl94</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-small-diorissimo-boston-bag-fxdx8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-three-quarter-sleeve-button-up-top-fy56q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-printed-slingback-flats-fz4ds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-flowers-frame-bag-fwa1s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-wool-pumps-fz0eo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyzsf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-top-fwl5y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fuwa5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fj4o7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-oblique-canvas-wallet-fx2u1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-2021-caro-waist-bag-fx4fa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-plaid-print-pajamas-fyb8o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2013-lady-dior-compact-wallet-wallet-fw0kd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-so-real-round-sunglasses-fr52g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-embroidered-diorissimo-bowler-bag-fwvis</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-slim-pouch-fx4mx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-velvet-diortravel-vanity-case-fx3is</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-denim-lady-dior-fwz5o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/christian-dior-vintage-small-lady-dior-hobo-bag-fxos6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-zip-pouch-patent-leather-wallet-fwqx7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-gradient-sunglasses-fw0n4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-small-lady-dior-my-abc-dior-bag-fwu07</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-f6kni</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-rabbit-felt-hat-fcrpf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-fringe-trim-accent-riding-boots-foyop</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2021-printed-sweater-ey8hm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2018-blazer-fl0jh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-g26h5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-2012-coat-fuojz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-evening-jacket-fyxpa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fz3j2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-cape-fz110</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-fur-coat-fyu4s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-graphic-print-crew-neck-sweater-fz6q5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-colorblock-pattern-slides-fzc2t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-printed-espadrilles-fzana</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-printed-slingback-flats-fzdod</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fzckx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-printed-sneakers-fzjeb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-python-animal-print-flats-fzgih</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fzfjk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-cutout-accent-ballet-flats-fzlq9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2022-mini-shorts-w-tags-g0evs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-turtleneck-sweater-fzwvy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fzkjx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-top-fyo7w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-colorblock-pattern-espadrilles-g028y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-sock-sneakers-fzvw3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slides-fzx1v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-nano-oblique-saddle-pouch-fyy94</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-diorissimo-duffle-bag-fyokh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-t-shirt-fyohm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fxv83</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-honeycomb-travel-fzase</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fy32z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-skinny-leather-waist-belt-fxruq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fxhwt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/christian-dior-mongolian-lamb-leather-backpack-fy4oe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-metal-beaded-accents-chain-link-belt-fxu6k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fxn8h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/christian-dior-vintage-cannage-medium-soft-hobo-fywg9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-fxnd7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-canvas-bag-strap-fxxmg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-leather-wallet-fxntn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-vintage-mini-lizard-handle-bag-fyduw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-e7h43</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-straight-leg-pants-w-tags-g22kr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-g1xtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-micro-lady-dior-w-strap-fyh86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slides-fs20r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-v-neck-short-sleeve-crop-top-ftas1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fl3xz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-quilted-leather-phone-case-g1rd3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-ftr3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-mini-dress-fovnj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-knee-length-dress-fy2qh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fy6zz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2000-mini-dress-fwkyb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2018-patchwork-blazer-fwvza</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-ftoyl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2016-mini-skirt-fxlfo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fx6qy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-mini-shorts-fy4xe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fw5h8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2004-straight-leg-jeans-fvqmc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-lace-up-boots-fy7dh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-lace-up-boots-fryed</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-foz47</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-fyi85</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-lace-pattern-sandals-leather-d-orsay-pumps-fy4bd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-dior-id-sneakers-fworh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/christian-dior-leather-belt-fye2f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-houndstooth-print-scarf-wool-scarf-fy5i3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-diorissimo-voyageur-leather-continental-wallet-fyhus</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-oblique-jacquard-bucket-hat-fy7fz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fx00p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fyb2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fyfgu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fy99j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-micro-lady-dior-bag-fwgn9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fvubf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-defile-leather-pumps-fqmw8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fpo37</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-late-1980-s-early-1990-s-le-connaisseur-wool-lined-trench-coat-fkf84</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-sneakers-fu4uq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-plaid-print-slingback-pumps-fxyzl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-silk-knee-length-skirt-fyfp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-striped-midi-length-skirt-fyfq0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-printed-sock-boots-fyit6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-sneakers-fyapb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-plaid-print-sneakers-fy8ih</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-scoop-neck-sweater-fy9sa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2014-mini-shorts-fyfr4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-diorissimo-pattern-rubber-rain-boots-fy3zu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-tie-neck-sleeveless-button-up-top-fy7x5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-belt-bag-fx2ag</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-street-chic-diorissimo-pochette-fwzig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-bucket-hat-fytnb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-hemp-beaded-logo-hat-fy6kw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-g1my3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-silk-flat-front-shorts-fsevr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2014-knee-length-dress-fo0yk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2017-goat-leather-jacket-fvz5x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-nylon-slingback-pumps-w-tags-fyo9t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-printed-slingback-pumps-fpx2k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-sneakers-g1fwl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-fl09z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fk72u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2020-mini-dress-g1ec4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2014-silk-tunic-fmnfq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-knee-length-dress-fyx05</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-knee-length-dress-fyvz8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2021-long-skirt-fyoen</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-mini-dress-fyjss</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2019-midi-length-skirt-fyrjk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fw1fz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2019-knee-length-skirt-fyt87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-nylon-printed-t-strap-sandals-fyv9b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-braided-accents-t-strap-sandals-fyw78</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-studded-accents-sandals-fyvke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-whipstitch-trim-slingback-sandals-fyoyl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-sneakers-fysy1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2016-turtleneck-sweater-fyolo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-virgin-wool-printed-blouse-fyoec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-pleated-accents-skirt-suit-fcbp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2013-virgin-wool-sweater-fyp5e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-printed-crew-neck-sweater-fyr5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-canvas-bag-strap-w-tags-fwuoo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-dior-spice-suede-gladiator-sandals-fytu7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-pumps-fyug7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-gladiator-sandals-fyvio</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyupq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-bag-strap-fwpdw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-leather-cosmetic-bag-fwuqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-chapeaux-corduroy-hat-fw4m7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-mini-dress-fxh91</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2002-top-fvz7t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2001-t-shirt-ep926</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-printed-sweater-fysyw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-animal-print-button-up-top-fx6zn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-mink-fur-hat-fy0r9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-diorissimo-girly-waist-bag-etuop</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fv88j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-g1akt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-graphic-print-t-shirt-g1akj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-striped-bodysuit-ft9zc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2009-jacket-fo0yt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-mirrored-sunglasses-fp2bm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-fwtui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fqtab</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-mini-dress-fyxo9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fywhu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-striped-crop-top-fyy7c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fyzxs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-mini-dress-fz063</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2021-bateau-neckline-crop-top-fyv3t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-top-fyoeh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2005-t-shirt-fysfu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-crystal-embellishments-chelsea-boots-fz3wh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-striped-sweater-fywtx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-fz5j5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-three-quarter-sleeve-crop-top-fz2kw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-graphic-print-t-shirt-fyxm8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-top-fytp5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-suede-riding-boots-fz47c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-oblique-shoulder-bag-strap-fxnz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-diorissimo-street-chic-tote-fz0n5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slides-fz3zy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-logo-shoulder-bag-strap-fxnpq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-houndstooth-mini-book-tote-w-tags-fxpvf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-leather-moto-boots-g19ex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-vintage-2004-wallet-fuvtl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-lace-up-boots-fv2zf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-vest-w-tags-fwmvf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-printed-blazer-fvpqv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-ftrik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2021-graphic-print-t-shirt-fxd0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2001-sweater-ftrhw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-beaded-accents-slides-fpkd1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-tweed-slingback-pumps-fnjw9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-grosgrain-trim-mules-fl000</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vibe-chunky-sneakers-fpa4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-sweater-fva52</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lingerie-robe-fq4ze</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-cannage-pattern-leather-slides-fnmj0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fxu0d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-oblique-mini-book-tote-fwpbh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-waist-bag-fwema</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-crystal-embellishments-pumps-fwe9y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fuvxv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-studded-accents-mules-fxjyo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-slingback-pumps-fpx9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-denim-pocket-tote-fwdw9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-lambskin-cannage-medium-granville-tote-fwjrg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fvwt1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-freeway-sneakers-ftalv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fjpyt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-slingback-pumps-fngjo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2013-cashmere-sweater-for2p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2018-wide-leg-jeans-ffj03</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tie-dye-print-denim-jacket-fxg2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2004-jacket-fum9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fxypd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-dio-r-evolution-printed-slides-fxrja</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fut9i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2015-virgin-wool-top-fxm4m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2009-scoop-neck-crop-top-fxgo0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-reversible-logo-bucket-hat-w-tags-fy4vt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-lace-satin-sandals-fxybh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-houndstooth-30-montaigne-sneakers-fwujz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fylyr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-faded-denim-sneakers-fwqwa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-fum9w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2012-striped-sweater-fxlje</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-gladiator-sandals-fy34j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fxhek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-oblique-saddle-bag-fxaqq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-mini-ombre-lizard-lady-dior-bag-w-strap-fx8w8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-slingback-sandals-fyl1h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fxsmb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fyofy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-fur-trim-boots-f8ekw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fm2ne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-loungewear-robe-fvb3r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-moto-boots-w-tags-fyaof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-oblique-walk-n-dior-sneakers-fxvlm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-nylon-sock-boots-fxv7d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-slingback-pumps-fy9h9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lace-up-boots-fy7a5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-slides-fy8ny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fy871</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-snakeskin-animal-print-pumps-fy08e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fyb76</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slingback-sandals-fp4be</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-oblique-studded-bag-strap-fwlol</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-jacquard-canvas-pouch-fwitr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-oblique-jacquard-pumps-fya55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-crystal-embellishments-slingback-pumps-fy3h9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-ponyhair-baudrier-saddle-bag-ftwmx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorclub-1-visor-fwjio</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-ultramatte-saddle-waist-bag-fwhcj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-small-patent-cannage-lady-dior-tote-fvylo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-x-anselm-reyle-camouflage-tote-fvta2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-macro-houndstooth-medium-book-tote-fvt10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2022-small-book-tote-fv1ob</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-1947-montaigne-saddle-pochette-fwqay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-j-adior-wallet-on-chain-fwfta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxj8p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2020-mini-shorts-fw9mi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-knee-length-shorts-fxh85</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-animal-print-button-up-top-fwvyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2021-midi-length-skirt-fup7f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-lamb-leather-crop-top-w-tags-fq0or</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-square-neckline-crop-top-frok6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-mini-1-cannage-pattern-sunglasses-fm7vs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-striped-crew-neck-sweater-fvopm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-g0wup</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fokl4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-mini-dress-fyj7s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-denim-jacket-fyn6r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-embroidered-accent-midi-length-skirt-fymmg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fyqv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-striped-v-neck-sweater-fyok5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-printed-blouse-fyfff</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-long-sleeve-button-up-top-fyv6h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-sock-boots-fyr6n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lasercut-accents-combat-boots-fyant</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fwz06</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fy8rt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2003-sweater-w-tags-fvz20</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-embroidered-accent-nightgown-fy8h1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-slingback-sandals-fykzp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-vintage-suede-pumps-fypwq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-embroidered-military-cap-fxvfi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lace-trim-embellishment-nightgown-fy8hu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-diorissimo-pochette-fwpbs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-floral-print-slingback-pumps-fytk0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-v-neck-blouse-fvz6t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-frjr9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-peep-toe-pumps-cannage-pattern-pumps-fy3d6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-solid-leather-cosmetic-bag-fxav9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-diorissimo-shoulder-bag-fwpts</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-2021-dior-chic-wool-bucket-hat-fxuzk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-mini-camo-saddle-bag-fwttk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-cannage-new-lock-chain-bag-fwtip</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-g0w7m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-furc9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-mohair-blazer-w-tags-fqjel</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/swimwear/christian-dior-vintage-2000-s-bikini-fv53r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-striped-skirt-suit-g0m8k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-mini-dress-fvxpr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2022-long-dress-fw1v8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-knee-length-dress-fvq0y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fwj63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-bateau-neckline-mini-dress-fvv7y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-midi-length-dress-fx4ll</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-denim-jacket-fvnkf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-midi-length-dress-fwno3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-printed-tunic-fw4cs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2012-knee-length-skirt-fvmd0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-plaid-print-blazer-fkpxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2014-mini-dress-fvatj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-ftsax</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2019-toile-de-jouy-jacket-fuxga</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-knee-length-dress-fvlmo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-cashmere-coat-fvr45</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-printed-cape-filyu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-pumps-fvznl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-gladiator-sandals-fxipo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2018-knee-length-skirt-fxchj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2016-sleeveless-button-up-top-fv96o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fuj19</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-striped-crew-neck-crop-top-fx6ih</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fx464</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-athletic-sneakers-fw11i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-fttdh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-gang-wool-slingback-pumps-fxf1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2019-straight-leg-jeans-fw6e1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-straight-leg-pants-fw454</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2014-printed-blouse-fvnpk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-loafers-fxhse</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-tassel-accents-espadrilles-fxcl8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2009-off-the-shoulder-top-foivt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-high-rise-straight-leg-jeans-fw6gu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-tie-dye-print-slingback-pumps-fxf7z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-satin-animal-print-slingback-flats-fxdxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fxbft</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-sandals-fxm50</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fx61k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-embroidered-houndstooth-bucket-hat-fwf11</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-floral-print-espadrilles-fxflp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-long-sleeve-button-up-top-fuz79</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-surf-chick-saddle-bag-fk63n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fxd1a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-animal-print-espadrilles-fximi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-scoop-neck-short-sleeve-t-shirt-fw71g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-sandals-fxks3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fxdh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-crystal-embellishments-pumps-fxj0m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-pantsuit-ftkuh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-d-orsay-pumps-fwwr8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-straw-sun-hat-fw5y8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorissimo-bucket-hat-fwbe6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-club-1-visor-ft4jh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2020-small-bobby-bag-fw0ty</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/christian-dior-wool-neck-band-fvv1o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-vintage-chapeaux-hat-frbpl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-saddle-wallet-on-chain-fvm4j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-oblique-dioraddict-flap-bag-fu5g4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/christian-dior-compact-mirror-keychain-fr7bi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-30-montaigne-2-in-1-pouch-fqlml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-knee-length-dress-g0lc4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fta5p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fr9rq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-f7l1v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2013-crew-neck-top-fvv1b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-floral-print-lounge-set-foyvp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-bow-accents-midi-length-skirt-fqxtn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2022-silk-button-up-top-ftz8q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-rubber-slides-fj3e9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2021-striped-sweater-w-tags-fqikc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-dvbx6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-1980-s-coat-fvur8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fy06l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vest-fy05r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fxudj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxlep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fvqxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-printed-vest-fxw9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-long-sleeve-sweatshirt-fwkms</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-lace-pattern-mock-neck-top-fxzc6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fw5gb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-late-1980-s-early-1990-s-evening-jacket-fx238</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fxmoa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-studded-accents-gladiator-sandals-fxscn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-v-neck-sleeveless-blouse-fwcqb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-square-neckline-crop-top-fvaxm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-d-major-canvas-rain-boots-fxx4f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fxudw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-chelsea-boots-fxt6r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-animal-print-moto-boots-fxkzu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-button-up-top-fy4w1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-flats-fxrs0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2014-knee-length-skirt-fr6qk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-d-major-canvas-moto-boots-fxybs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-suede-riding-boots-fxs8o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-fwtnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-tunic-fy8gc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-fxkh9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-slingback-flats-fxjix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fy49s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-cannage-pattern-patent-leather-slingback-sandals-fy32y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-studded-accents-sandals-fxyd0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-sandals-fxqo1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-printed-nightgown-fx9z6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-t-strap-pumps-fy6ub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fy6js</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-vintage-diorissimo-pattern-slides-fxn12</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-naughtily-d-suede-lace-up-boots-fxpg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-sandals-fxzw4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-rubber-flip-flops-fxszv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-suit-fve0h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-embroidered-saddle-pochette-fwfnv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-skinny-leg-pants-fy4bz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-three-quarter-sleeve-blouse-fy5d5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fxo2o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-pumps-fxz0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fxybj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fxkpc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-snakeskin-pumps-fxbyn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fxs07</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-fox-fur-beret-fwqn3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-micro-cannage-diorama-wallet-on-chain-fwekx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-micro-cannage-baby-diorama-chain-wallet-fwefa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-fpvzt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2018-long-dress-g0en0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lace-trim-embellishment-nightgown-flrml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-striped-blazer-fx2sr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fsuxl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-printed-evening-jacket-fwrhi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-denim-jacket-fwwbj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-tie-dye-print-midi-length-skirt-fwmuk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-silk-midi-length-skirt-w-tags-fwmwj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-late-1990-s-early-2000-s-top-ftp2s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-colorblock-pattern-pumps-fw65p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fvzyv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-beaded-accents-sandals-fltds</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-sleeveless-top-w-tags-fwtxi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-whipstitch-trim-boots-fw8kl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-silk-pumps-fw1i6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vibe-chunky-sneakers-fwbwc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-folk-espadrille-sneakers-fw8qt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-scalloped-accent-gladiator-sandals-fw1am</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-braided-accents-sandals-fvzge</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-braided-accents-sandals-fujpo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-silk-wide-leg-pants-fwmwz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-espadrilles-fwphz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-bow-accents-pumps-fw21i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fw18d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-dioract-canvas-slingback-sandals-fw0tz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-ponyhair-striped-pumps-fvzgt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-bow-accents-slingback-pumps-formr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-printed-slingback-pumps-fw1e8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-granville-canvas-espadrilles-fvyc3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-honeycomb-boston-bag-fw8t2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fvie7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-j-adior-mosaic-dio-r-evolution-bag-fl60i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-printed-slingback-pumps-fw7bd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-sequin-embellishments-pumps-fw710</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-slingback-pumps-fvwxp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fw1is</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fseda</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-slingback-pumps-fvzqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-cannage-pattern-satin-pumps-fvz3w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fvx6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-saddle-belt-bag-fsl2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-medium-oblique-book-tote-ftp70</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-w-tags-fskkg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-boots-frxay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-garland-crystal-embellishments-slingback-pumps-ftxjq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-cutout-accent-slingback-sandals-fbysy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-combat-boots-fixqz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-virgin-wool-blazer-fxhn0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-fxkxr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2004-jacket-fum7j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2005-blouse-fu9n8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxhvo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1980-s-top-fwapc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-plaid-print-long-sleeve-blouse-fxs48</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-embroidered-accent-knee-length-skirt-fwux7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fw5tj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fws8i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2020-cashmere-sweater-fxckd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-studded-accents-pumps-fwldy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-virgin-wool-skirt-suit-fvp9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-flats-fxih1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fxcvg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-slides-fx3l2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-embroidered-accent-pajamas-fwxyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slides-fxc83</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fwkss</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fw6a6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fvv2j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-button-up-top-fxaut</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fx6j5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-nightgown-fwyv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fwxwv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/christian-dior-nylon-technical-toile-de-jouy-small-diortravel-backpack-fuj2p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-rubber-rain-boots-fwook</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-printed-slingback-pumps-fwe4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-blouse-fw9za</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diordirection-oversize-sunglasses-w-tags-fwkbq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-inspired-cat-eye-sunglasses-fw6iq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-fvzzc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-turtleneck-sweater-fxi61</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-suit-fxeeb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-robe-fx232</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-cannage-miss-dior-wallet-on-chain-fvetz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fwb14</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diormonsieur2-aviator-sunglasses-fvzsv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-street-chic-columbus-bag-fv5sp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slides-w-tags-fovr5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-player-sneakers-fu6ar</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-visor-fuiq0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-fh7n0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-late-1980-s-early-1990-s-biker-jacket-ftyvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slides-fuuqg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-ft4j7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-high-rise-wide-leg-jeans-fq3l8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-velvet-studded-accents-pumps-fsina</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-espadrilles-fgsxr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-graphic-print-t-shirt-fdw3k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fnedn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2019-straight-leg-pants-fl0h8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-diorissimo-studded-shoulder-strap-fchqf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wide-leg-pants-f5naa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-f9wwa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-floral-print-mules-fd1hb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-lambswool-coat-f8l14</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-combat-boots-f0x4p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-monsieur-robe-f2xxg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-eulzz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vintage-diorissimo-pattern-sneakers-f08ou</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-striped-lace-trim-embellishment-nightgown-ejdla</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-chelsea-boots-eqdpo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/swimwear/christian-dior-vintage-2000-s-bikini-elpma</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2002-wide-leg-pants-elrdy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-velvet-colorblock-pattern-mules-eji7o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-saddle-iphone-case-w-card-holder-ek9eh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-d-connect-neoprene-sandals-egegz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-ebqsv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-striped-sleeveless-button-up-top-ebzvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-ea64e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-top-e954c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-e82ub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-printed-crystal-embellishments-t-strap-sandals-e2df5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-paisley-print-blouse-e22dn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsoreal-aviator-sunglasses-e3mv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-the-suit-blazer-dtr64</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-dvn4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-metal-fabric-bag-accessorie-w-tags-dr7ah</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-reflected-p-sunglasses-1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-knee-length-dress-drifo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2008-sweater-dpu68</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-reflected-aviator-sunglasses-ds6rw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-dqzh4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-embroidered-accent-robe-donnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-printed-vest-dkynq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1996-bodysuit-dk3ht</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-dehwj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-d9sz4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-d9wc5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1999-blazer-d9u4g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-dccvj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-d964d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-da933</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-d4w7h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1980-s-nightgown-ctap3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2007-denim-jacket-cslhj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2000-s-evening-jacket-cqe3i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-cnm26</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-wool-evening-jacket-cho2l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1999-evening-jacket-cfklr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-2010-slub-silk-peacoat-c984j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-cfwjf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-embroidered-accent-pajamas-cbuz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-late-1980-s-early-1990-s-vest-c8uca</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-c383v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-lace-pattern-scoop-neck-top-bpaqm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-w-tags-bkqf5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-evening-jacket-bbbi8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-vintage-suede-pumps-asl8y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2019-wool-evening-jacket-ai90l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-printed-v-neck-sweater-aftim</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-lovely-diorissimo-charm-tote-a3rhw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-91qub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-vintage-2002-coin-pouch-fyac2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fx2yv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fy9wb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-v1u-visor-fnl96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-peacoat-fiqaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-cutout-accent-pumps-f955r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nylon-colorblock-pattern-slingback-flats-f9jaz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-eubud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-scoop-neck-three-quarter-sleeve-blouse-epoqh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-studded-accents-sandals-ejswj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-vintage-diorissimo-pattern-sneakers-fzwu1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-turtleneck-sweater-dflts</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-1950-s-vintage-christian-dior-barrett-frbwk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-solar-sneakers-fvmik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2019-graphic-print-sweater-fvnek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-silk-printed-pajamas-fvqr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-scoop-neck-sweater-fvoqy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-sweatshirt-fvgwx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-ballet-flats-fun0a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-colorblock-pattern-espadrilles-fw1o1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-2020-ultra-matte-saddle-wallet-on-chain-fvjpy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-naughtily-d-suede-lace-up-boots-fqv1h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2020-medium-toile-de-jouy-book-tote-fvmx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2021-medium-zodiac-embroidered-book-tote-fuweb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-toile-de-jouy-book-tote-fvsev</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-leather-cannage-pattern-iphone-case-w-chain-frovt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/christian-dior-leather-gloves-fufb0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-knee-length-dress-fuwhq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-printed-canvas-bucket-hat-fweug</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-fncx6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-ftey5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-d-club-leather-slides-fix3t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2020-midi-length-skirt-fwkt6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-mini-dress-fwm7s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-graphic-print-t-shirt-fwkap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-lamb-leather-skinny-leg-pants-fvqte</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-scoop-neck-sweater-fwm5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2019-crew-neck-sweater-fv6eg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-leather-trimmed-flap-bag-fv02f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-pajamas-fjrsi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-foq73</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-fvc6u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2015-vest-fv32b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-square-neckline-blouse-fvaqv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-small-diorissimo-tote-fssg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/satchels/christian-dior-python-trimmed-my-dior-cream-raffia-frame-bag-fv9b7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-lingerie-knee-length-skirt-fvoue</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-fvf26</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2017-cashmere-sweater-ft9nv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-vintage-diorissimo-travel-tote-ft4ei</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-leather-newsboy-hat-fvbup</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-evening-jacket-ftc0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-snakeskin-studded-accents-pumps-fus8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-mini-dress-fsqv3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-faux-fur-coat-fuwdi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-printed-mini-shorts-fvhx6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fvih1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fy66h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-mock-neck-mini-dress-fy5ee</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fk17c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-plaid-print-faux-fur-coat-fu5ct</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2009-jacket-funk1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-dior-vest-fnxxq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-virgin-wool-blazer-fsz8q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1991-evening-jacket-fmkz8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fu1ab</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-addict-sneakers-fuq1m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-2-0-sock-sneakers-fu0w7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-sequin-embellishments-sneakers-furxp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/christian-dior-christian-dior-leather-gloves-ftjte</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/christian-dior-2021-embroidered-d-bubble-bucket-bag-ftofm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fueml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2013-2014-skinny-leg-pants-fmtbu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg94a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-2020-micro-lady-dior-bag-w-tags-fqfqb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-fur-coat-fsmjy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-fvhfg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-crocodile-animal-print-slingback-sandals-fuoy0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-ponyhair-animal-print-pumps-fug19</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-whipstitch-trim-espadrilles-fupcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-printed-straw-blend-hat-fuq1f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fv8ev</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fv222</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fv0u5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-robe-ftygg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-shield-tinted-sunglasses-fuhm3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-cannage-lady-dior-phone-holder-bag-ftqr4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-polka-dot-print-pumps-fuu6z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-futso</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fxldw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-fu3u6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-coat-ft2wr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fryvw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-graphic-print-slides-fsewi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-oblique-jacquard-canvas-bag-strap-fbqac</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-leather-trim-embellishment-pumps-frjoz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-diorissimo-girly-waist-bag-fr257</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-fsih9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-mules-fopzo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fuhxb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-utility-jacket-fulgv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-blazer-fu1fh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-licensed-v-neck-sweater-fulqy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-bow-accents-pumps-ftn4x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-ftaqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-pouch-ftg5p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-leather-cosmetic-bag-ft1lt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorglisten3-cat-eye-sunglasses-fsruj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-vintage-suede-sandals-folqx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2013-straight-leg-pants-fx2k3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-medium-miss-dior-shoulder-eut3k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fwwbf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-top-fol64</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-seperates-knee-length-skirt-ft9va</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-s-top-foa2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-long-sleeve-button-up-top-ftchb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2017-wide-leg-pants-ft3jz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-snakeskin-floral-print-slingback-sandals-fu6uu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fu071</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-leopard-print-beret-fu12h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-shield-mirrored-sunglasses-fu0uo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-d-bubble-bucket-bag-fl9hr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-j-adior-bow-accents-mary-jane-flats-fqj7r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-mini-dress-fu6mx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fu5xy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-midi-length-dress-fu2x9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2001-button-up-top-frj8x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-leather-quilted-iphone-case-fp0lh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-medium-microcannage-diorama-bag-fttty</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-frhx3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2016-three-quarter-sleeve-button-up-top-frf99</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fr963</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-gradient-sunglasses-fs5dm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-woven-bucket-hat-fr5fi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire1xs-square-sunglasses-frt9y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fr6bc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2003-top-fg4e4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-studded-accents-loafers-fm74i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-fqjvl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-club-1-visor-fsudr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fthmi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-2021-micro-lady-dior-w-strap-fr5ab</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-large-diorama-flap-bag-fqoju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-crew-neck-sweater-foib8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-mini-dress-ftbkd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2019-straight-leg-jeans-ftdld</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-whipstitch-trim-boots-ft1fl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-printed-slingback-pumps-ft4i3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-mini-dress-foi5u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lasercut-accents-chelsea-boots-fkvc4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2022-chez-moi-blouse-button-up-top-f869k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fthy6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2007-button-up-top-frvla</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fr9f4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-woven-bucket-hat-fr6ag</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/christian-dior-nylon-malice-hobo-frltx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fr5go</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-frbeo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-silk-top-fn0gv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-f8j2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-evening-jacket-fncvm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-poeme-canvas-flats-fm849</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2021-crew-neck-sweater-fqrbt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorabstract-wayfarer-sunglasses-fsgf0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-crystal-embellishments-wedge-sneakers-fq4z6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2014-knee-length-skirt-fpoub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-beaded-accents-nightgown-w-tags-fhz9d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fhkel</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-slingback-pumps-foqmi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-evening-jacket-frlzc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fslfr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-graphic-print-crew-neck-t-shirt-frb7y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-foa2a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-canvas-printed-sneakers-frnq9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fqod4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fskn4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-nylon-floral-cosmetic-bag-fsk0g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-silk-printed-scarf-fm32n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fngxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fq6a1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-whipstitch-trim-pumps-fqega</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-printed-slides-fsq2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-vintage-diorissimo-beret-fo97c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-knee-length-dress-fstec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fspsc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-fsu63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-t-strap-sandals-fqn06</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-crew-neck-sweater-fspoi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fqla8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-fur-coat-fk74g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-leather-trim-embellishment-pumps-fihek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2019-straight-leg-jeans-fhpha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-animal-print-lace-up-boots-frl3r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-gladiator-sandals-fs0ej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fr4zt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-2-0-sock-sneakers-fpupp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-animal-print-slingback-flats-fqocu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-frxdu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-crystal-embellishments-pumps-frhe6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire-1-square-sunglasses-fpelu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fqj4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-lace-up-boots-frtql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-oblique-jacquard-combat-boots-frg8a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-d-orsay-pumps-fs122</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fqkb2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-stellaire-2-oversize-sunglasses-fqkh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-printed-espadrilles-flaf8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-knee-length-dress-fkw2f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fn7ri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fmt2s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2011-knee-length-dress-fniim</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-trench-coat-fn11f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-mini-skirt-fmeo4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-lace-trim-embellishment-knee-length-skirt-fp5ld</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-pleated-accents-nightgown-fnpgg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-separates-sweater-flz7o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-skirt-set-fp020</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2022-knee-length-skirt-w-tags-fmjr6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-cd-de-christian-dior-robes-du-doir-jacket-fohnr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-knee-length-dress-fsi8b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-camouflage-print-crew-neck-sweatshirt-fqnk1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-crop-top-fpk86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-fov6v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1980-s-sweater-fpnyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-printed-robe-fr7ts</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-frk4c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-medium-patent-le-trente-shoulder-bag-fp47e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-flsyt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-graphic-print-crew-neck-t-shirt-fo3kn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-velvet-printed-boots-fntrc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-fmnqq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fp664</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/christian-dior-honeycomb-boston-bag-fntvw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fkvct</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-houndstooth-print-knee-length-skirt-fq710</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fpuoj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-oblique-saddle-belt-bag-foq2g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1980-s-lounge-set-ff40f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fg9g7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-floral-print-sequin-embellishments-pumps-fjcui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fnjik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-flt4e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-knee-length-dress-fg6q2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-diorissimo-pattern-canvas-sandals-fnkwh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-cannage-pattern-suede-boots-fnpdi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-bow-accents-pumps-fp5dv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsoreal-round-sunglasses-foxw8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2016-straight-leg-pants-fmckb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fiz74</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-leather-street-chic-columbus-bag-fjhhc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-evening-jacket-fkklv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2009-striped-top-fog58</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-scoop-neck-top-fpu8l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-lizard-studded-accents-sandals-fpd93</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-colorblock-pattern-boots-fndti</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-pumps-fpmxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fjtq4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fnr1x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-patterned-knee-length-dress-fpobd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-short-sleeve-button-up-top-flhkb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-colorblock-pattern-oxfords-fpq85</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fkm3u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsorealpop-aviator-sunglasses-fnygy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fo7b2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-felqk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-printed-evening-jacket-fp8ia</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fq75m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-ruffle-embellishment-knee-length-skirt-fm85q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fovpn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-silk-mini-shorts-fq4az</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-canvas-pumps-fq7cu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-honeycomb-shoulder-bag-fq77s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/christian-dior-vintage-diorissimo-trotter-fanny-pack-fszoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-foejt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-high-rise-wide-leg-jeans-fmppm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-dior-id-sneakers-fjwhs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2010-floral-print-sweater-fotlg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fnbrk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-vintage-skinny-leg-jeans-fku4k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-neoprene-pumps-fl8r6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-vintage-cannage-pattern-pumps-fmyee</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fnlo7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-dior-j-adior-studded-flap-bag-fm9yt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-large-cannage-lady-dior-bag-fm9j5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-royaume-d-amour-medium-lady-d-lite-bag-flpri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-vintage-d-trick-brogue-spectator-bag-fiqij</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-verydior1n-wayfarer-sunglasses-fmv7m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-floral-print-grosgrain-trim-robe-flp77</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-flip-flops-fsozs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fh53j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-dioralps-book-tote-faldn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-boots-fpgxe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1980-s-crop-top-foa36</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-western-boots-foajh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-dior-club-1-visor-fozoi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-mizza-saddle-bag-fo0m0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-petites-t-shirt-fnqtk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-large-lady-dior-bag-fna0q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-polka-dot-print-evening-jacket-fo0w2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-tweed-pattern-blazer-flndp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-silk-blazer-cjn65</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2010-v-neck-sweater-fnj5q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-trotter-boston-bag-fogsq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-separates-crew-neck-sweater-fndby</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-2012-silk-pajamas-flhsp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-slingback-pumps-fo6l7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-lady-dior-shoulder-tote-fn6w7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-ombre-python-medium-lady-dior-bag-dapv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-cutout-accent-sandals-fe0gf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wide-leg-pants-fmcbp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fodz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-printed-pumps-fmauf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-feqvx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2007-silk-top-fhd7s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-tie-dye-print-robe-fmqso</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2020-medium-oblique-book-tote-fna9c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fnwui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-camel-hair-peacoat-fepju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-evening-jacket-fn1g1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-fn1qo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-mirrored-sunglasses-fl2r5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-denim-cannage-large-lady-dior-tote-fngkl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-slingback-pumps-fra8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fr52d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-halterneck-sleeveless-tunic-fg3z8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fmrv3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-skinny-leg-pants-fl7ng</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-f26zq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2011-knee-length-dress-flo94</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-short-sleeve-button-up-top-fltyu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-nylon-cannage-mini-bag-fkt4b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2002-blazer-fgexo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-j-adior-slingback-canvas-slingback-flats-fd6zz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fnczb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-printed-boots-fn5j7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorissime-aviator-sunglasses-fjwu6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fh1vr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fmycj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-late-1980-s-early-1990-s-blouse-fl6n5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-floral-print-crew-neck-sweater-fmznv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-animal-print-blouse-flr5j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-mini-dress-fdy7f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-2018-virgin-wool-faux-fur-coat-fkzbo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2015-knee-length-dress-fm55t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-floral-print-blazer-flnty</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-lasercut-accents-riding-boots-fksqu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2003-jacket-bh5f7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-pleated-accents-midi-length-skirt-fl7k9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fkqca</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fnyxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-printed-denim-jacket-fmey2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fmerp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-cashmere-midi-length-dress-fmuc6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-knee-length-shorts-fmjpv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-suede-feather-trim-slingback-flats-fldb4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-leather-lasercut-accents-wedge-sneakers-fl339</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-fmmjh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2022-silk-button-up-top-fca2w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-2006-pantsuit-fkq8c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-studded-accents-t-strap-pumps-fegxc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-street-chic-columbus-bag-fcbvl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-mini-skirt-fm5j8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1980-s-jacket-flmvu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fn2zo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-sandals-fnbyw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-animal-print-pumps-fms30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-nylon-slingback-sandals-fmuoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-j-adior-sun-visor-fmrzv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-mini-dress-fpmc0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2015-knee-length-dress-fkelm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-flimj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-faux-fur-coat-flg8p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-flged</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-flgb0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-fkc96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-silk-straight-leg-pants-flez6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-top-fje71</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fkqj9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-diorissimo-trotter-boston-bag-flho2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-animal-print-t-strap-pumps-fkkai</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-d-orsay-pumps-fkzxo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-plaid-print-knee-length-dress-fj9dj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-striped-evening-jacket-fducg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2017-mini-dress-fgmof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2002-sweater-fguvv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2001-jacket-fb4ai</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fm13f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2019-straight-leg-pants-flnys</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-mesh-accents-lace-up-boots-fmh84</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-fls4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-beaded-accents-slingback-pumps-fm0zi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fm4sd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cowl-neck-sweater-fmxhh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-printed-boots-fmlo5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wide-leg-pants-fm4us</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-canvas-printed-espadrilles-fm9tt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2011-knee-length-dress-fpigq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-long-dress-f6lyq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-printed-jacket-fl381</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-knee-length-dress-fl3it</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fht1a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-t-shirt-fkmeu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-fklji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2005-sweater-fik7k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-lace-pattern-pumps-fkpmx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1980-s-robe-fgwtp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-vintage-leather-loafers-fjyka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-feadx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2011-straight-leg-pants-femsi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-blazer-fizjy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-mini-dress-fl8cg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-vest-fje18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-flwre</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1980-s-top-fk019</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2007-knee-length-skirt-flrtp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fikgf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-floral-print-crew-neck-sweater-flkf6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-boots-flhoa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-1999-crop-top-fk1ty</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2016-mini-shorts-fl8u4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-mini-shorts-fkq0p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-j-adior-floral-slingback-canvas-slingback-pumps-flb8j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-flohy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fg8l8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fhqs3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fiys8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-crew-neck-sweater-fkdxk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fkddy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-mid-rise-wide-leg-jeans-fkjqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/swimwear/christian-dior-2019-bottoms-fh24w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2017-straight-leg-jeans-fdlow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-micro-cannage-medium-diorama-flap-bag-fjks1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-christian-dior-xs-phone-case-fli2k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-fl66s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-fjf7b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-jacket-f5iyk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-trench-coat-fo7o3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fek96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2017-straight-leg-jeans-fdlgv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-paisley-print-long-dress-f8qsz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-1991-cape-fg4xl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-robe-fggsz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-floral-print-slingback-pumps-feijy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2019-embroidered-book-tote-ficaz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-1998-coat-fi90x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fg72y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fdw0b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-striped-sandals-f6ehp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-f5trv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-long-dress-fjbwp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-patent-leather-flats-fkxxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-1990-s-robe-fjxrz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-fdg0c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2016-printed-blouse-fddkv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-fepil</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-mini-dress-f9cfm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-fjn4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fjn3z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2012-mini-dress-fja2a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2016-cashmere-sweater-fih6r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/christian-dior-oblique-backpack-fhwd4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-plaid-print-skirt-suit-f8kz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-sandals-fjdgk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-f6ak4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fc3u6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fg5sf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fg6g7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-ballet-flats-fjz9z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-mania-1-wayfarer-sunglasses-fis74</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/christian-dior-silver-tone-cigar-cutter-fju5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-fj9it</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fj2ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-soelectric-oversize-sunglasses-fiqx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorama-2-round-sunglasses-fiqun</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-1980-s-sweater-fc2jy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-2000-s-peacoat-fblvs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-long-sleeve-button-up-top-fmpap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-printed-mini-shorts-fdsep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2004-top-fdpdv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1998-skirt-suit-fdnxu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-colorblock-pattern-slides-fgndg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-vintage-wide-leg-jeans-fbewt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-j-adior-it-tassel-accents-flats-fjtjy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-striped-scarf-fhtqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-fj7tk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2015-virgin-wool-sweater-fisat</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-mules-fie4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-open-front-sweater-fhzhu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-remove-aviator-sunglasses-fhmvc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-niki-de-saint-phalle-large-lady-dior-bag-ficwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2021-blazer-f5sr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-houndstooth-print-mini-shorts-f89xc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-leather-blazer-fkcla</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-vintage-1996-parka-fdo2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-midi-length-dress-fggxi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-plaid-print-blazer-fil9r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-fgwje</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-evening-jacket-fh7a2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-silk-jacket-fh7ni</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-mini-dress-fi9ei</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-studded-accents-slides-fizbi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2002-sweater-fgeyv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-mid-rise-straight-leg-jeans-fggti</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-embroidered-accent-riding-boots-fjw0j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2022-j-adior-athens-sweater-fhb9n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-straight-leg-pants-ffu2d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-findn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fipkh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-mock-neck-sweater-fjuxp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-vintage-gambler-dice-bowler-bag-fjix0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2014-mini-dress-fhuxw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-printed-knee-length-skirt-fh1zr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-ffbsi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-lace-up-boots-fhih8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-mules-fi2r9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fcbk3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg7t6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg761</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-large-oblique-book-tote-fgan1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg7m4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg7ho</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg6z0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-2019-oblique-denim-book-tote-ffzmz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-crew-neck-knee-length-dress-fga8k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nylon-slingback-flats-fjlad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fi2rq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-ponyhair-animal-print-oxfords-fhp88</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fg98n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg92d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-tinted-sunglasses-fg8vr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8dk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8ad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8ya</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg8tc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fg8mn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-mini-jacquard-top-handle-bag-fipgv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fg823</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-2021-mizza-saddle-bag-fi5ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-large-lady-dior-bag-fgy98</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2006-blazer-fd2bc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-plaid-print-mini-dress-fh6e5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgbh6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2006-t-shirt-fc4sl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgai6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-gradient-sunglasses-fhtzk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgbb3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg9sd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-cat-eye-eyeglasses-fgbfa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg9q3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fhihf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-oversize-eyeglasses-fgboy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fgbmy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-fg9xd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fdyzf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-lace-pattern-crop-top-fh5ov</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-top-fi2zl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-beaded-accents-pajamas-fhz5x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fhzpv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fierp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-leather-crossbody-bag-fhq3h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sock-sock-sneakers-f8oym</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-graphic-print-crew-neck-sweater-fl416</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-v-neck-long-dress-feg6g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-2004-knit-hat-fh724</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fbw9h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-moto-boots-fgnce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fkt88</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fesxd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-floral-print-crystal-embellishments-loafer-sneakers-fhj91</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-club-1-visor-fggp5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-mirrored-sunglasses-fh7cg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fhzw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-floral-print-knee-length-skirt-fhzs2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2018-mini-shorts-fiaai</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fglw8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-leather-ballet-flats-fbhv0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-fe5vs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fbefl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-blazer-f4uqd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-midi-length-dress-ffrri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-houndstooth-print-blazer-fg5p2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-chelsea-boots-fhnfh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-western-boots-fhlif</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-printed-beaded-accents-boots-fhj1m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-pret-a-porter-mock-neck-sweatshirt-ff1qj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fhj4g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-tweed-pattern-knee-length-skirt-f6tph</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-fer8y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-f7eoz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2017-mini-dress-fc8op</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-w-tags-ffito</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-trench-coat-fg3dp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/christian-dior-v-neck-romper-ffbnx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-evening-jacket-fbhf4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-nightgown-f2eez</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-vintage-knee-length-dress-feuen</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-silk-mini-dress-fgjcr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-silk-midi-length-skirt-fgg4o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-animal-print-boots-fhrnd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2007-sweater-ffz59</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-printed-sweater-fbiju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2003-t-shirt-ff1ck</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slingback-pumps-fgi8s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fh0ur</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-fdtsw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-fusion-sneakers-ff1os</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-walk-n-dior-sneakers-fczly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-mirrored-sunglasses-fecq2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-mini-lady-dior-bag-fegyz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-perforated-cannage-dioriva-shopping-tote-fa6mi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-printed-mini-dress-f5df2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2021-mini-shorts-w-tags-dp5ha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2014-mock-neck-sweater-f5jin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-leather-trim-embellishment-boots-fh2p8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-plaid-print-combat-boots-fgxyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-printed-ballet-flats-fgu6r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fg056</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-printed-pumps-ff56f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-ffr4n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-cashmere-snood-fevqo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fg5dn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-small-lucky-badges-lady-dior-bag-w-strap-ff0cx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-jacket-f7p5c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2022-striped-sweater-fekdg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-leather-trim-embellishment-d-orsay-pumps-fdrp5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-dior-id-sneakers-feda9</t>
-  </si>
-  <si>
     <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-sleeveless-button-up-top-feurf</t>
   </si>
   <si>
@@ -4771,6 +403,3921 @@
   </si>
   <si>
     <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2021-mini-shorts-f9859</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-lamb-leather-printed-biker-jacket-fysub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-combat-boots-g1l5b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-printed-ballet-flats-g1iqj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-straight-leg-pants-g0uwb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-lv-monogram-sock-boots-g1jga</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-graphic-print-combat-boots-g18j9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-combat-boots-g17cz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-boots-g1dhn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-30mm-lv-initiales-lv-monogram-belt-w-tags-fzis1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-wedge-sneakers-g1dcp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-grand-froid-wool-snood-g03zi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-epi-leather-monte-carlo-jewelry-case-fzy54</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-metallic-timeless-cashmere-stole-fzimf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-empreinte-leather-emilie-wallet-fzjn6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-so-shine-lv-monogram-shawl-fzz5v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2018-damier-azur-pattern-belt-fzx62</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-denim-lv-monogram-scarf-fz88f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-denim-silk-scarf-fyodz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-vernis-bedford-fymxj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-30-fxy0o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-brazza-wallet-g0qsc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-lv-monogram-koala-wallet-g0o8f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-sarah-wallet-g0h3j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-wallet-fzwcj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1991-elise-wallet-fzle9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-card-holder-fzl3s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-lv-monogram-french-purse-fzjpn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-clemence-wallet-fz9x8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-jeanne-wallet-fz8jx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-felicie-fzmof</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-papillon-26-fzm48</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2020-mini-25mm-belt-fzzrn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-damier-azur-pattern-wallet-g0nmx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2001-epi-leather-wallet-g0dyk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-blanca-sunglasses-g0aaw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-cashmere-lv-monogram-scarf-fzyxo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-la-grande-bellezza-oversize-sunglasses-fzwgy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-my-fair-lady-sunglasses-fzv41</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-vernis-patent-leather-zippy-wallet-g0upa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-azur-pattern-continental-wallet-fzwvp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-monogram-vernis-sunset-boulevard-clutch-g196j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-alexandra-wallet-g0qgt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-zippy-coin-purse-g0ple</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-conspiration-pilote-damier-ebene-pattern-sunglasses-g09ho</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-soupcon-square-sunglasses-g00fy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-lv-monogram-sarah-wallet-fzy7n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-cosmetic-pouch-summer-trunks-fzy30</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-pumps-g1em7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-french-purse-g0qay</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-wallet-g0dvw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1994-international-wallet-g0auk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-45-fz89k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fxp6x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-fxdb3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-giant-monogram-onthego-mm-fv6yz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-turenne-mm-fuyw1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-soufflot-mm-fpvn6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-french-purse-fzlaz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fzhrm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-empreinte-montsouris-nm-fyclo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-empreinte-giant-multi-pochette-accessoires-fevuq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-petite-mon-coeur-heart-on-chain-fu0rq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2022-monogram-empreinte-neonoe-mm-fzf1b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-25-fxw7y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-reykjavik-wool-scarf-fzu9r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-16mm-adjustable-shoulder-strap-fzsdh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2000-lv-monogram-bifold-wallet-fzlk3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fzxsr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-wild-animal-bag-strap-fzvbt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-2015-scarf-fzup1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-my-lv-chain-pilot-sunglasses-fzuc3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-the-party-aviator-aviator-sunglasses-fzn7w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-vernis-patent-leather-wallet-fzlpq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-vernis-patent-leather-coin-pouch-fzllb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-2022-ahead-beanie-fziu3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-lv-pont-9-soft-pm-fyn9f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-vuittamins-coussin-pochette-fy2yl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-satellite-70-g3j6t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-x-richard-prince-pulp-weekender-pm-fza35</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2019-flip-up-sunglasses-fzxil</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-columbus-g3gve</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-empreinte-speedy-25-bandouliere-g3geb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-keepall-bandouliere-55-g3ga5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2001-sarah-wallet-g3fnm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mahina-babylone-chain-bb-g3fap</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-multi-pochette-accessoires-g3b5y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-zippy-wallet-g39zf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-slingback-sandals-fzyd5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-slingback-sandals-fzyf4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-lambskin-fur-jacket-fx96g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-2018-bomber-jacket-fw9c0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-knee-length-dress-fx2m5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-2019-mini-dress-fw1bp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-trench-coat-fxcfe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-cashmere-mini-skirt-w-tags-fw3jq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-silk-mini-skirt-fwepv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/louis-vuitton-2021-printed-romper-w-tags-fvpp6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/louis-vuitton-2020-wide-leg-jeans-fw991</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-since-1954-dragonne-dauphine-key-holder-fyjx7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-leather-continental-wallet-fw1a4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-geant-acrobate-fz1rv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2005-wallet-fyl8d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-emilie-wallet-fyf61</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-lv-monogram-compact-zippe-wallet-fxr1i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-flandrin-tote-g05qp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-ribera-mm-g04xx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tournelle-pm-w-strap-g04gr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-reverse-pochette-metis-fzy6s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-fzw0p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-vintage-monogram-jeune-fille-fzog3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-hl-fzo6v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-papillon-30-fzde2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-keyholder-fqj50</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-porte-tresor-international-wallet-fyr3f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-multicolor-insolence-bag-charm-fxmca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-multicolore-etui-mirror-fxm7m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-lussac-tote-fzozr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-passy-pm-fzg3f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-mini-lin-neverfull-mm-g01sx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2023-monogram-denim-neverfull-mm-w-tags-fvu0q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-grand-palais-mm-ftw5d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-maida-hobo-fltv6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-monogram-vernis-zippy-wallet-fygfl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-damier-stripes-2022-stole-fyc6d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-saint-jacques-shopping-fz8m8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-double-v-compact-wallet-fyp2r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-key-holder-fynv3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-speedy-30-fzgvq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-speedy-40-fzgnu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-vernis-rosewood-fzd7m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-ambre-neo-cabas-mm-fvf0i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkfq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkfa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkes</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkef</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzke6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkdw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vernis-monogram-alma-bb-w-strap-fzosz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-empreinte-monogram-pochette-metis-w-tags-fzoob</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-epi-sarvanga-fzz06</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-vernis-sobe-clutch-fzqbo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2004-epi-leather-wallet-fxmlk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-reykjavik-cashmere-scarf-fxmkz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-lv-capucines-bag-charm-and-key-holder-fxknd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-zippy-wallet-fw1fn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-saint-jacques-pm-fzgam</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-2014-scarf-fm2aw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-vernis-alma-bb-g0acj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-2021-raffia-capucines-mm-w-strap-ewb5d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-tressage-city-steamer-mm-eq5b4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-2021-by-the-pool-toiletry-pouch-26-w-tags-ecxor</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-onthego-gm-ew4dj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/louis-vuitton-mid-rise-straight-leg-jeans-fztui</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-boite-flacons-vanity-trunk-eq3ll</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-mahina-hina-mm-w-pouch-eqm00</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-empreinte-spring-in-the-city-onthego-mm-elfoz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-mahina-bella-galet-bucket-bag-w-pouch-evr6g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-giant-crafty-onthego-gm-f73fd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-on-my-side-tote-eromm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-capucines-mm-er415</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-coussin-bb-ewqok</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-mahina-bella-bucket-bag-w-pouch-enyi7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-printed-midi-length-dress-fnf9l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-gm-fwna3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-reverse-monogram-pochette-metis-g3751</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-printed-slingback-sandals-g0rdh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-printed-slingback-sandals-g0rc7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-damier-ebene-pattern-calf-hair-slingback-sandals-g06b5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-bow-accents-espadrilles-g18ml</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-cutout-accent-t-strap-sandals-g0j42</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-runaway-lv-monogram-boots-g0lfr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-printed-western-boots-g0bg9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-sneakers-g0573</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-sneakers-g0nx0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-sneakers-g0rsl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-sneakers-g09eo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-loafers-g0r29</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-mini-dress-w-tags-fy43m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-printed-mini-skirt-fygyx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-lamb-leather-mini-skirt-fysxz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-lambskin-biker-jacket-fyipg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/louis-vuitton-2021-monogram-game-on-silk-pajamas-fzdv2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-striped-sweater-fxzuo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-skinny-leg-pants-fz8r5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-skinny-leg-pants-fxt2t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-2020-turtleneck-sweater-w-tags-fxdrr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-long-sleeve-polo-fyltr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-graphic-print-crew-neck-sweatshirt-fz9tl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-chunky-sneakers-g03qx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-sandals-g0k8y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-riding-boots-g01p6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-28-g0spt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-23-g0r71</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-french-purse-g0hz0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-lv-monogram-compact-zippe-wallet-g0gx1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-lv-monogram-bifold-wallet-g0b69</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1998-card-case-fzdhv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-tresor-wallet-fzdf3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2001-lv-monogram-compact-wallet-fzd8x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1997-compact-wallet-fzczg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2007-french-purse-fzc52</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2000-french-purse-fzbzw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-elise-wallet-fzbuz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-1997-lv-monogram-french-purse-fzblq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1999-french-purse-fzbhy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-vintage-monogram-small-ring-agenda-cover-fz345</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-sarah-wallet-fyttb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-sarah-wallet-fytq1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-sarah-wallet-fyrw9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-fynml</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-sequin-embellishments-slingback-pumps-g0tr6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2013-damier-ebene-alma-pm-fy9fq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-my-fair-lady-oversize-sunglasses-fzgaz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-coated-canvas-continental-wallet-fz5v7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-15-g0jo4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-damier-azur-pattern-clemence-wallet-fzain</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-empreinte-leather-metis-wallet-fysg5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-2019-monogram-denim-round-coin-pouch-fz5z7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2022-moon-sunglasses-fya2x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-coated-canvas-elise-wallet-fz95z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-porte-billets-compact-wallet-fz91f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-elise-wallet-fz8oj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-french-company-monogram-triangular-luggage-tag-fyyjj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-reverse-key-holder-and-bag-charm-fyy7d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-19-fyu8s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-compact-zippe-wallet-fyos6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkkm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkke</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkjz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkix</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkii</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkgy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkgk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkgh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkg5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-mahina-leather-amelia-wallet-fyt62</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-vernis-patent-leather-sarah-wallet-fyt2i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-printed-scarf-fynwg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-shine-wool-scarf-fisfq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-patent-leather-flats-fvt89</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-printed-mini-dress-fzahq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-silk-knee-length-dress-fylw7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-mini-skirt-fytc9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-pool-pillow-slide-lv-monogram-slides-fyy3x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-monogram-idylle-pattern-rubber-rain-boots-fz5j9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-nylon-boots-fz262</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-leather-leather-trim-embellishment-ballet-flats-fyjkm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-lv-monogram-loafers-fyj0r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-monogram-idylle-pattern-canvas-pumps-fz092</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-scoop-neck-sweater-fz2bm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fyud2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-pumps-fzbqu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-lv-monogram-bow-accents-pumps-fz92v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-pumps-fz58s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-suede-tassel-accents-pumps-fym8n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-ballet-flats-fz4db</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-midi-length-dress-fxt70</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-jacket-fwqtw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-plaid-print-crew-neck-sweater-fw3z8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-boots-fr9vl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-superstition-logomania-2018-shawl-fxrwr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-jungle-neverfull-mm-fyhrn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-printed-slingback-pumps-fyzvt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-wide-leg-pants-fyn2l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-multicolore-monogram-pattern-trifold-wallet-fw984</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-key-holder-fy8b1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-2021-damier-azur-illustre-hollywood-drive-xmas-bag-charm-and-key-holder-fxbvg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-chain-35-mm-monogram-eclipse-waist-belt-fxkzt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2005-vintage-globe-shopper-cabas-gm-fyelg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-flore-chain-wallet-fyqzx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fz3zh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-delightful-gm-fyz2l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-giant-reverse-double-zip-pochette-fytzo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-sac-plat-fytih</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-papillon-26-fytd8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-pochette-accessoires-fyq3z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-reporter-pm-fyns5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-saumur-mm-fymux</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/louis-vuitton-sweatpants-fzjhc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-ebene-pattern-zippy-wallet-fy8jc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-elise-wallet-fy8g1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1990-wallet-fy8en</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-sunglasses-case-gm-fy408</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-lv-monogram-emilie-wallet-fxywc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-game-on-toiletry-pouch-26-fxrc4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-neverfull-pouch-fxgka</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-2020-game-on-cosmetic-pouch-fwuew</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-victorine-wallet-fwpk4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-damier-ebene-key-pouch-fwlyc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-viennois-wallet-fw07y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-lv-monogram-trifold-wallet-fvr90</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-sarah-wallet-fvp5p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-sarah-wallet-fvnb5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-reykjavik-cashmere-scarf-fvi2c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-3-watch-travel-case-fv3eo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fyfkn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-2010-monogram-artsy-gm-fyej1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-papillon-trunk-w-strap-fye2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-2018-monogram-summer-trunks-neverfull-pouch-fydjj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-2019-monogram-pochette-trunk-verticale-fydh0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2015-monogram-pochette-metis-fycwj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2018-lv-monogram-checkbook-holder-fplrp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-vintage-2004-pumps-ft14t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-fwmr0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-azur-4-key-ring-holder-fwgm5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-ebene-melville-fuz33</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-damier-ebene-olav-pm-fuqyl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-game-on-speedy-bandouliere-30-fuo67</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-sac-plat-emimx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-2020-since-1854-bag-strap-fxvlw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/technology/louis-vuitton-monogram-louise-phone-holder-fxm17</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-epi-leather-key-holder-fyl0a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/technology/louis-vuitton-monogram-watch-battery-charger-cover-fykzr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-vavin-mm-fyt02</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-new-wave-bumbag-fykhz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-mahina-babylone-pm-fyj89</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-mm-fyhp1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-wallet-fyklt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-trifold-wallet-fykgm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-inclusion-speedy-bag-charm-fwopi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-damier-azur-pattern-zippy-compact-wallet-fwiyq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-leather-mylockme-compact-wallet-fw8gg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-graphite-pattern-key-holder-fvukd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-confidential-silk-scarf-fxjq8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-azur-astropill-keychain-fxcci</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-coussin-pm-w-strap-fycfx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-2005-vintage-taiga-kendall-gm-fy9vr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2001-vintage-epi-saint-jacques-pm-fy9hy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-patent-leather-wallet-fy50w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-empreinte-boite-chapeau-souple-mm-fygz6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-lymington-fys4a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-fyp3r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-damier-azur-speedy-25-fyoqv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-lymington-fyn5x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-confidential-printed-bandeau-silk-scarf-fvict</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-rock-n-roses-floral-print-scarf-fvi6c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-monogram-vernis-rossmore-wallet-fp624</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-damier-azur-delightful-mm-fyjg1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-mahina-hina-mm-w-pouch-fyj1h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2021-monogram-empreinte-coussin-pm-fyhhi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2002-vintage-monogram-vernis-reade-pm-fycyi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-gina-square-sunglasses-fyk66</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-patent-leather-pumps-fz3bk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-french-company-weekend-bag-fyqi3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-canvas-wallet-fy6a1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-wallet-fy0wy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-ebene-key-pouch-fxp0u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-damier-ebene-greenwich-gm-fylcp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-damier-ebene-musette-tango-fyjt1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-reverse-night-lights-twist-chain-wallet-fyi32</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pochette-accessoires-fyi10</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-graceful-pm-fyhm4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-epi-speedy-25-femvh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-capucines-mm-evs31</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-wallet-fx64s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-zippy-wallet-fwsl7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1997-french-purse-fw8zy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-monogram-trousse-toilette-28-fw17a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-vachetta-adjustable-shoulder-strap-fvyxj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-2020-monogram-graceful-mm-fyfw4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage/louis-vuitton-monogram-keepall-60-fxudx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-fvt1l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-passy-gm-fyqp6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-petit-damier-beanie-fy4ca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-desmayo-cat-eye-sunglasses-fy48l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-mm-fykfc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2022-monogram-vernis-pochette-felicie-valentine-fyjyz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-2020-monogram-escale-neverfull-pouch-fyjm2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-taurillon-bandouliere-shoulder-strap-fy0eo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-monogram-vernis-wallet-fxna4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-2022-scarf-fxmr2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-palladium-lock-key-set-fxe25</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-v-tote-bb-fyixb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-crafty-boite-chapeau-souple-pm-fyhuo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-coussin-bb-w-strap-fyebv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fwlin</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1999-key-holder-fw1bo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-epi-toiletry-15-pouch-fvqgu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-fx1tr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/monogram-keepall-45-fwx4o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-vernis-patent-leather-louise-wallet-fuktp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-brass-lock-key-set-fu1li</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pochette-accessoires-fl7wa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-monogram-pattern-shawl-epk5g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/louis-vuitton-fur-trim-skirt-set-g2rk5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-cannes-vanity-case-g2ppj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-damier-azur-neverfull-gm-tote-w-pouch-g2pne</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-utility-jacket-w-tags-fl1b3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2018-lv-monogram-clemence-wallet-fuh7l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-short-sleeve-polo-frn90</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-combat-boots-fxuqv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-printed-combat-boots-g036z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-rubber-rain-boots-g04ic</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-sock-boots-g0itv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-floral-print-sock-boots-g0dy0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-chunky-sneakers-fzg8g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-nylon-printed-combat-boots-fzbyd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-animal-print-flip-flops-g01zw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-combat-boots-fzcu5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-satin-sandals-fz9il</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-wedge-sneakers-fzyqq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-embroidered-accent-sandals-g0a00</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2021-damier-ebene-40mm-lv-initiales-belt-fyuc6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-card-holder-fyuu7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-colorblock-pattern-sneakers-fzhgs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-multicolore-monogram-pattern-zippy-wallet-fyhs7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-cluny-g026h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-empreinte-monogram-giant-by-the-pool-neonoe-bb-fztxu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-satin-crystal-embellishments-pumps-g0609</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-azur-key-holder-fyl0i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-azur-pattern-coated-canvas-trifold-wallet-fykdz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-damier-azur-pattern-rosalie-coin-purse-fybta</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-soffi-fyuv4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-lv-monogram-emilie-wallet-fzigk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-zippy-compact-wallet-fziav</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fzi70</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1996-pochette-porte-monnaie-fzfwp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-lv-monogram-sarah-wallet-fzfat</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-ebene-pattern-sarah-wallet-fzdn9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-late-1980-s-early-1990-s-elise-wallet-fzbkx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1996-wallet-fzb4o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1989-checkbook-holder-fzb0v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1987-checkbook-holder-fzauw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2005-compact-zippe-wallet-fz6we</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fz6d7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fz68l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fz5rr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1997-wallet-fz3oh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1999-elise-wallet-fz32y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-trevi-pm-g0cnc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-g0310</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fzy5h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-late-1980-s-early-1990-s-elise-wallet-fz0yl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-late-1980-s-early-1990-s-elise-wallet-fz0hw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2014-cat-eye-sunglasses-fyt4l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-bifold-wallet-fynlt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-lv-monogram-coated-canvas-key-holder-fykzw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-leopard-marquise-square-sunglasses-fykfi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-wallet-fykf4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-wallet-fyk4g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1992-checkbook-holder-fydw5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-lv-monogram-marie-rose-wallet-fy2t2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-lv-monogram-key-holder-fxmp7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-alma-mm-fzekj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-evora-mm-fzb4v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fza5h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-ellipse-pm-fza1w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-excursion-shoe-bag-fz9dd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-croissant-gm-fz8pb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-fz53d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-eecentri-cite-fz4x3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-ebene-melville-waist-bag-fz46k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-reverse-monogram-mini-palm-springs-fz3ns</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-35-fz3bi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fz2j3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-bow-accents-sandals-fzgwh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-dl7l4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-epi-leather-sarah-wallet-fzidm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-epi-leather-zippy-organizer-wallet-fzd82</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-idylle-pattern-zippy-wallet-fzi32</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2005-international-wallet-fzhq4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-cotton-aerogram-cap-fykii</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-bifold-wallet-fz6js</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2004-epi-leather-wallet-fz2uq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-lv-monogram-sarah-wallet-fzg54</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-fzypw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-josephine-pm-g04h1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-wilshire-pm-g046d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-miroir-speedy-35-fzyhh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fykl8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-monogram-essential-cap-fykgp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-lv-monogram-amelia-wallet-fyjxx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-lv-monogram-pouch-fyje4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-felicie-strap-go-coin-pouch-fyh21</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-wallet-fykjv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-pochette-accessoires-nm-fz8v1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-city-steamer-mm-fzhef</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolor-speedy-30-fze45</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-azur-pattern-elise-wallet-fykaq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-vintage-sol-lewitt-undertow-silk-scarf-vintage-scarf-fyezq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-damier-azur-pattern-alexandra-wallet-fy3h6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-vernis-zippy-wallet-fy38s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-empreinte-montaigne-mm-fyytf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-pm-fzw5v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-fzv5f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-azur-pattern-zippy-wallet-fytwi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2021-leather-wallet-fylyp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-continental-wallet-fykic</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-fz2rw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-porte-monnaie-tresor-wallet-fz9ns</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-tresor-wallet-fz9h0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-satin-mesh-accents-d-orsay-pumps-g0ivr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pochette-twin-g06qf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-sac-souple-g02pd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-sarah-wallet-fy0fj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2009-phoenix-ceinture-belt-fyy2m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-tresor-wallet-fz9d5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2000-ceinture-belt-fyxaz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-obsession-round-sunglasses-fyu87</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-patent-leather-wallet-fyrc9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-international-wallet-fypco</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2014-obsession-gm-sunglasses-fyo3z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-fze4p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-epi-gobelins-fz9d1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-damier-ebene-sarria-horizontal-fz6x1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-speedy-30-fz6gw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-slim-purse-fyjky</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-round-coin-purse-fyjcf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-french-purse-fygaq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-vernis-patent-leather-french-purse-fzeeo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-segur-mm-g0bl2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-porte-billets-compact-wallet-fz6ps</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fztb5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-fzlrc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-city-steamer-pm-fzyyb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-fzwro</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-sac-d-epaule-fzwex</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-monogram-vernis-french-purse-fz1qc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-vernis-mahina-surya-xl-fzum7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-epi-leather-card-holder-fyw5b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-twist-wallet-fyumy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-zippy-compact-wallet-fytmc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-freesia-oversize-sunglasses-fynt2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-empreinte-mazarine-pm-fzags</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-monogram-vernis-wallet-fyk7m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-monogram-vernis-zippy-wallet-fyhzg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-lv-monogram-zippy-wallet-fyhou</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-josephine-wallet-fycf5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-2021-monogram-empreinte-micro-pochette-metis-fz8n3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fxvks</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-pillow-speedy-bandouliere-25-fyvc3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-speedy-25-g0ual</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-ombre-handle-bag-g09mw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-rayures-alma-bb-g077u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-passy-gm-g04ov</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-epi-pochette-accessoires-24-fyy08</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/epi-soufflot-fzz7f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-saint-tropez-g0a5r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-g09fp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-soufflot-g063m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-bellevue-pm-g058x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-g01uv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-compact-wallet-g2p4x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-multicolore-speedy-30-g2ke7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-floral-print-espadrilles-g2jhb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-rabbit-fur-accent-silk-shawl-lv-monogram-shawl-g2ijl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-adjustable-shoulder-strap-fttx9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palm-springs-mini-g2d05</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-colorblock-pattern-knee-length-dress-fz9qj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-striped-knee-length-skirt-fyoib</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-silk-printed-top-fyhpy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-silk-printed-top-fxz9i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-monogram-escale-striped-striped-sweater-fxypy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-graphic-print-scoop-neck-top-fzf09</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-printed-slides-fz0pb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-frontrow-sneakers-fytcl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-chunky-sneakers-fyhil</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-mini-skirt-fyog0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-sneakers-fygu2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-winterbreak-suede-mules-fy4oq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-vintage-lv-monogram-slides-fyyrx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-pop-archlight-chunky-sneakers-fw916</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-archlight-chunky-chunky-sneakers-fxnv2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-30mm-lv-initials-lv-monogram-belt-kit-fwlor</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-lv-initiales-damier-azur-pattern-belt-fwlst</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-damier-ebene-dorsoduro-fx5h2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-sock-sock-sneakers-fykq2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-mini-dress-fov7i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-ruffle-embellishment-knee-length-skirt-fg45a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-giant-jungle-wool-scarf-wool-scarf-fvhwt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fyvtp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-sac-mary-kate-48h-fyq0e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-paillettes-speedy-30-fxbx0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-monogram-vernis-zippy-coin-purse-ffs4u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-damier-azur-pattern-clemence-wallet-ffpwb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-monogram-vernis-zippy-wallet-ffkmm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-damier-ebene-pattern-zippy-wallet-fvqxp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-tresor-wallet-fvpq4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-ellipse-pm-fzfgy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fzdtb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-fzdog</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fzchj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fzbmk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-fza9n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fz6hd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-fz5k2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fytj2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fytew</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-30-fy2va</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-55-fxr8t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fxqi1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fxpyc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-x-azzedine-alaia-monogram-leopard-alma-fxp11</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fxo4e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-shearling-floral-print-sandals-w-tags-fyw75</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-key-holder-fsz96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-etui-cigarette-case-fhb4q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-damier-ebene-etui-cigarette-case-fhb0p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-lv-monogram-sarah-wallet-fftvi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-elise-wallet-fft6i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-tresor-wallet-ffsex</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-key-holder-ffsb6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-checkbook-holder-ffn4l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-marelle-waist-bag-fxkg3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-macassar-audio-case-fxgvk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-noenoe-mm-fxdjr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2022-monogram-nano-speedy-bandouliere-w-strap-fxbyt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-ebene-clapton-fxb42</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-vintage-monogram-bucket-27-fx2zd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alize-24-heures-fx0zi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fwxum</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fwvuf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fwv9k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fwb7y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-animal-print-t-strap-sandals-fykny</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1988-checkbook-holder-fbd78</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-ebene-pattern-continental-wallet-fb5pl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-leger-business-55-fvg00</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-roses-pochette-accessoires-fvcj0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-loop-hobo-fv699</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-graceful-pm-fv5vb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-damier-ebene-riverside-fuhi4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-bb-w-strap-ftqz5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palm-springs-mini-backpack-fs126</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-x-fornasetti-2021-monogram-cameo-alma-pm-fr4mg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-pegase-55-fqsmq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-french-company-monogram-keepall-60-fpsu2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-flip-flops-fxddy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-flip-flops-fxdc7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-shine-scarf-lv-monogram-shawl-fwle4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-murakami-luggage-tag-fw8rc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-pattern-empreinte-leather-emilie-wallet-fvekp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-multicolore-monogram-pattern-wallet-fwyyt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-mahina-hobo-l-fxore</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-empreinte-bastille-mm-fxkgo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fhdy4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fhcdr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fhcd4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-porte-tresor-international-wallet-fvuol</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-multicolore-monogram-pattern-insolite-wallet-fv6a3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-grenelle-pm-fxcaj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-alma-pm-fxnuy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2001-wallet-fbg9n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-french-purse-ffsqr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2007-french-purse-ffsnq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-vernis-french-purse-ffsjm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-monogram-vernis-card-case-ffrxb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-2019-patterned-pareo-ffoog</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-vernis-patent-leather-sarah-wallet-ffnlh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-lv-monogram-sarah-wallet-ffn0z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-geant-pionnier-backpack-fuzit</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-fleur-de-lys-capucines-pm-fsmc9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-epi-leather-zippy-wallet-fw1cs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2001-compact-wallet-fmsu0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2000-elastique-wallet-ffrbi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-gm-fx440</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noctambule-fzcs3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2018-monogram-empreinte-blanche-mm-w-strap-frdlx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-macassar-city-steamer-xxl-fxf48</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage/louis-vuitton-monogram-keepall-50-fxxxy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-continental-wallet-ftqdw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palm-springs-mini-fxhnw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-mm-fxg4k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-50-fxe63</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-wallet-fodqg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2008-brazza-wallet-ffpss</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-papillon-26-fx54y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-theda-pm-fwu32</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-gaia-hobo-fwrbq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-florentine-fw9e4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neo-fw5ha</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-55-fw3td</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-chain-it-pm-fpsxx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louisd-vintage-monogram-speedy-hl-w-strap-fxy20</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-palladium-lock-key-set-fvqkx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-pochette-felicie-insert-fvka1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-ostrich-capucines-bb-fxjb4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-lock-key-set-fpp96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-epi-mechanical-flowers-bandouliere-shoulder-strap-fll3s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-taiga-etui-glasses-case-fhcvb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-wallet-fhb3n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-silk-shawl-ffp70</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-lv-monogram-continental-wallet-fbfzn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-lv-monogram-wallet-fbfxh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/monogram-multicolore-speedy-30-fw5tn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-suhali-l-aimable-fuv59</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-vernis-monogram-lexington-bag-fudql</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-vintage-epi-petit-noe-bucket-bag-fs12g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-fxza9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-fxcxq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/onthego-tote-spring-in-the-city-pm-fxyk7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1990-pouch-fl3h3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-mahina-solar-pm-g26il</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-python-flower-tote-fwvtd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-wallet-fm50s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-knee-length-skirt-fzg80</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-square-neckline-three-quarter-sleeve-top-fzpi6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-polka-dot-print-crew-neck-blouse-fzjhf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-floral-print-mini-shorts-fzjfx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-crew-neck-sweater-fz8dl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-suede-printed-sneakers-fziqo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-slouch-boots-fzwkz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-printed-slides-fzq69</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-monogram-idylle-pattern-canvas-sneakers-fzgkd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-straight-leg-pants-fzivc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-printed-long-sleeve-button-up-top-fzhhg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-cashmere-v-neck-sweater-fzi1q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fzdi2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-ceinture-multicolore-monogram-pattern-belt-fxgvx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-monogram-suede-sneakers-fz4yu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-patent-leather-printed-sneakers-fyz6i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-canvas-printed-espadrille-sneakers-fzxy6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-sneakers-fzk5d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-colorblock-pattern-slingback-sandals-fzzzw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-vintage-denim-belt-fxiwp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-v-neck-long-sleeve-tunic-fzjre</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-animal-print-oxfords-fzvtl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-patent-leather-loafers-fz7el</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-patent-leather-loafers-fz5ny</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-printed-espadrilles-fz36s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-knit-mohair-beanie-fxg49</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-mahina-hobo-xl-fyiea</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-23-fzh2j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-28-fzgwu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-28-fzgmz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-vintage-mini-belt-fxizt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-damier-ebene-pattern-wallet-fxjvy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-joey-wallet-fxjqx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-lv-monogram-wallet-fxi0w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-lv-monogram-coin-pouch-fxekh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-duo-belt-bag-fyv7u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-x-takashi-murakami-monogram-cerises-cherry-bucket-bag-fyq81</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-nano-noe-fyj7c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-sirius-45-fyj4q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-damier-ebene-marais-fyip5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-leopard-polly-fyg15</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alize-2-poches-w-strap-fy6ce</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-florentine-fy2tb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-colorblock-pattern-t-strap-sandals-fzbv0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-lv-monogram-pumps-fz0gc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-leather-luggage-tag-fxmdq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-oversize-gradient-sunglasses-fxl23</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-2018-scarf-fxktn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-luggage-tag-fxjml</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-canvas-wallet-fxh3o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-graphite-josh-backpack-fyi1o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-monogram-pattern-coin-pouch-fxgha</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-1994-vintage-epi-noe-pm-fydsl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-marignan-fz0b9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-fyqzp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-gm-fymur</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-mahina-xl-hobo-fylz4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-zephyr-55-fyl8n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-mini-pochette-accessories-fy53m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-lv-prism-bag-charm-w-tags-fx91u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-vernis-zippy-wallet-fxlo4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-logo-hair-cubes-fxk3o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-safari-flight-bag-fz5wd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-bifold-wallet-fxg1l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/monogram-montsouris-mm-fznaf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-fz54z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-fzxl6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-45-fx2sf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2021-fornasetti-architettura-noe-mm-b9wvq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-long-sleeve-button-up-top-g1bpe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-bateau-neckline-midi-length-dress-fy5v9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-2020-monogram-game-on-knit-polo-polo-fw6ck</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-vintage-monogram-partition-fw4fa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-new-wave-bumbag-fwk0m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-lasercut-accents-riding-boots-fnwo6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-empreinte-vavin-bb-fu77n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-pont-neuf-mm-ftvx7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-combat-boots-fvton</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-2021-convertible-coussin-belt-bag-capev</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-mini-skirt-fsi2h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alize-3-poches-fsfgd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-reverse-monogram-giant-onthego-mm-fsnsc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-beaubourg-fqfyy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-gm-cd7aq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-hampstead-pm-ar6ix</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2018-epi-twist-tote-absvw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tahitienne-cabas-gm-fs6tw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-lv-monogram-canvas-slingback-pumps-fpc59</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-55-c3pr7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-taurillon-volta-bag-98trg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-cartouchiere-ftto7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-bo4ig</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-boite-flacons-vanity-trunk-blyp9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-empreinte-mini-pont-neuf-7d7le</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-denim-neo-cabby-mm-abz68</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-damier-ebene-trevi-pm-dktom</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-french-company-monogram-stratos-55-dhhb4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-printed-snow-boots-f9nfn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-printed-combat-boots-fq7on</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-denim-loop-fmybs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fjxv1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-bandouliere-50-9ljzw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-87e5z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-98y6k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-81o86</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-discovery-backpack-bag-charm-bb2nc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-sock-boots-fkilu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-neonoe-bb-firga</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-logo-hair-cubes-f5498</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-f7bh3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-bcsth</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-bb50g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-b3c8l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-printed-bandeau-au31k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-ombre-tote-ax8d4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-cuir-obsession-lockit-east-west-bag-a3ym8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-b5bji</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-b5e9p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-40-b5480</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-b2rg7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-ax8bb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-velours-w-bb-4-5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-suhali-lockit-pm-c3qwv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-1996-leather-wristlet-bf6cx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-pm-ba2cf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-wilshire-pm-b2rdo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-metis-f38fb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-vernis-spring-street-f3ie9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-monogram-pattern-leather-slides-f41xh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2022-spring-in-the-city-empreinte-speedy-bandouliere-20-f30dv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-marie-bag-b9d0h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-pm-f12xq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-compact-zippe-wallet-f04ro</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-city-steamer-mm-exj73</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-continental-wallet-ez095</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-batignolles-cffp9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-leather-louise-chain-mm-b1cch</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-epi-keepall-45-ex47a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-cashmere-stripe-lightweight-sweater-8x6ko</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-eucji</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-stratos-eptig</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bhxuy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bgkdx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vavin-gm-b4z09</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-marignan-bag-epxbk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-alligator-trimmed-monogram-trompe-l-oeil-l-ingenieux-ei3y1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-cashmere-animal-print-sweater-eil1p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-epi-leather-wallet-ebw1i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-empreinte-leather-continental-wallet-dwl36</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-epi-speedy-30-8y60g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-pm-87n7i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-carryall-bag-e4gn5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-suede-combat-boots-981hh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-neverfull-mm-w-pouch-bz1jp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-epi-small-ring-agenda-cover-c36hl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-dq8l7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-crafty-speedy-bandouliere-25-b7ehe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-bandouliere-60-9cy4z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-dpbcc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-ckgno</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palms-springs-mini-backpack-a97ej</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-trevi-pm-d9por</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-cxy8l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-cxy5a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bewxk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcl21</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-twist-gm-cd7pf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-alma-pm-cbxcu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-griet-tote-bfnu7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-alma-gm-9z45n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-bxqez</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bysrp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-zippy-wallet-bhdxz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-danula-pm-bhym6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-bgfi4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-b4vt0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-leather-wallet-bh2zc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-cabas-porto-cervo-gm-bic95</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-monogram-pattern-continental-wallet-bbtb9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-30-bhqwi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-flowergram-printed-scarf-bgk3p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-bgbst</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-wallet-bfvnr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-speedy-bandouliere-30-baom4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2000-bifold-wallet-bgf1i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-gm-bekca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bf5me</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-bdisv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bcmaw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-beu1f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-bifold-wallet-bfvnh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-roxbury-drive-w-strap-bfy1d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-bifold-wallet-bfvna</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-card-holder-bfvls</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bc5rr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-bdtjp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-beu1a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bexq2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-betxa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-betvd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bf3so</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bexyy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-patent-leather-french-purse-bfcey</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bf5mj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bf3b0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2004-monogram-pattern-key-holder-bdyj4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-belnt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-monogram-mini-lin-pattern-porte-tresor-international-wallet-bekob</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bemoi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-damier-ebene-pattern-tresor-wallet-bez40</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-wallet-beiwq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-bf0a1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-bedbr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-leather-compact-wallet-begn5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alzer-80-a5yu6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bd48c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bcuye</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bd552</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-deauville-bd1va</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-btjyl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bv7pe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-pm-bvxgd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-bvbfe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-vintage-french-company-monogram-shoulder-bag-bozd0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-bifold-wallet-bv7ef</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-metis-hobo-brsey</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-marly-bb-bpht9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-alma-pm-bsws9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-ellipse-backpack-btneu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolor-alma-pm-bpa4n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-hudson-pm-bp306</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2021-monogram-fall-in-love-sac-couer-bag-brv81</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-hampstead-mm-brkab</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bs9ak</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-leather-continental-wallet-bmdq7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-vintage-monogram-denim-baggy-gm-bozy1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bp3fd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-montaigne-mm-bptr1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-mini-pochette-accessoires-bpv1j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-leather-bifold-wallet-bopzy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bomhj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bnnpk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bnwfi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-marly-mm-bpbjg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-straight-leg-pants-bmva6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-pvc-zippy-wallet-bm5jk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-electric-alma-gm-bnaap</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-ribera-mm-bmh8d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-card-holder-bm7fe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-multicolore-alma-mm-bndyf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-suhali-le-talentueux-bag-bns9b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-empreinte-speedy-25-bqsxj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-monogram-vernis-card-holder-bkypk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-bl4fo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-blnwb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-blp4f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-damier-ebene-neverfull-pouch-bllu2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-bkrtf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-alma-pm-bm1ub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-bljhs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bld2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-bkym8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-curieuse-wallet-bkytg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-since-1854-petit-sac-plat-bj42d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-bkzhg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-bandouliere-50-bkzkv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-bky93</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bkn1d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bkmwv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bkhiy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-gm-bim3w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-compact-wallet-bisqm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bctqy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-silk-printed-top-be07c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcslr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bcrsy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcr6n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcl0a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcc6y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bc63o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-mezzo-bb680</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bb460</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bb13n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-bc0fo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-bazuo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bcm23</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bcmm5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-baqna</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bc1bk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-40-bcvum</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-af03f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-aem4q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aek1g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-ae8mg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-af7m8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aeot5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aeos0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aem0s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aem01</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-gm-aht1g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-pattern-coated-canvas-continental-wallet-a1x7x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aanr3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aano1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aan7e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aa2zo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-a9v55</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-deauville-a9tgm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-aa8kh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-a9zgp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2018-lv-monogram-zippy-wallet-aa4hz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-pm-aa32n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-a9jyf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-wallet-a8kg7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-my-lv-heritage-monogram-speedy-35-a5sd2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-30-a68qf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-a3q92</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-vernis-monogram-shoulder-bag-a3mod</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-2019-straight-leg-pants-a6gyr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-9ypk2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-9ype1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-international-wallet-9w44o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-9z7ty</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-9z9cp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-vintage-epi-soufflot-9ym1t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-9mdfa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-lambswool-striped-scarf-9d922</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vernis-bellevue-gm-9av73</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-continental-wallet-95ga4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-vintage-epi-petit-noe-94wgr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-94x63</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vernis-brea-mm-914it</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-8uc6y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-printed-skinny-leg-pants-w-tags-8vnsf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-monogram-etui-cigarette-case-8s21x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-continental-wallet-8bx5i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-striped-mini-dress-8n869</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-small-ring-agenda-cover-8mocf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-85iby</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-papillon-30-8fuwz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-petit-bucket-bag-8ak51</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-87dva</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-84lj5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-speedy-25-7oigy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-40-7ow9e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-empreinte-citadine-pm-7ne8i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-sarah-wallet-5o1hv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-2017-city-steamer-pocket-pm-5qldx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-suede-havane-stamped-trunk-gm-PNWNwWrUOyw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-2015-taurillon-tournon-hobo-1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-noe-pm-fzn3d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-cabas-alto-tote-bag-fs6jh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-silk-knee-length-dress-fs6t0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-monogram-sac-shopping-48-fqkwu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-new-wave-bumbag-fs6n9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-pm-fs6nm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-stresa-pm-ajdyo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-speedy-35-919ms</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-scarf-ays7z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-55-998kd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-vintage-monogram-pochette-accessoires-843yx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-pochette-accessoires-acj8u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-new-wave-chain-mm-bcj8u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-garment-bag-b0fsz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-93xka</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-montaigne-mm-aqywd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-monogram-pattern-compact-wallet-al3ig</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-30-b4xgc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-vernis-christie-gm-as287</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-denim-neo-cabby-mm-ah3dg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-illustre-monogram-bag-charm-aztbh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-continental-wallet-ay4ra</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-b5441</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-stanton-tote-bag-bhfch</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-rosewood-avenue-bgnvo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-bfjfu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-pm-axwra</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-tribeca-mini-apv3s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-antheia-hobo-pm-aeb2p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-mahina-xs-bag-905pc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-2020-lv-monogram-combat-boots-azq9g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-speedy-30-bfdcx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-felicie-my-lv-world-tour-cross-body-bbhod</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-monogram-alma-bb-a5gki</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2019-reverse-monogram-giant-onthego-gm-w-tags-9eka4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-gm-b0r1t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-saleya-pm-bdzr2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-b78bk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-epi-leather-belt-b2y09</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-malesherbes-handle-bag-9wcxg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2018-epi-twist-bucket-bag-8p3oz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-galliera-pm-bgxm0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-silk-mini-skirt-w-tags-ansza</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-triana-bag-a7jew</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-musette-tango-at2fp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-vintage-monogram-looping-gm-bgz6i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-riviera-beauty-case-ay83w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-vintage-monogram-nil-bag-aqvp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-damier-ebene-pattern-wallet-bgid6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-canvas-b1c6c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-eclipse-backpack-bag-charm-au8zc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-empreinte-fascinate-pm-9jb29</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bhnp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-bicolor-noe-pm-bd61t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-mahina-leather-solar-gm-bek3u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1988-pochette-porte-monnaie-begh3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-b2x8s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-be1ij</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-neverfull-pouch-bbgr4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-colorline-bag-charm-keyholder-ay2k3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-b4phy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-monogram-giant-printed-coat-fvdbg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-2022-signature-hooded-wrap-trench-coat-w-tags-fvkbn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-sock-boots-fwci6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-skinny-leg-pants-fvcr7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-mini-sac-hl-fviv3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fu9zh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fu6ri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-ftrr3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fti9v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fthsg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-ftgo1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fqptz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fqkhg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-archlight-sock-sneakers-fvxj9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-verni-4-ring-key-holder-fs4mo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-mini-palm-springs-fvzwg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alzer-65-fvq8x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/monogram-keepall-45-fw4qy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-multicolore-mini-speedy-hl-fw0mh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-stretch-archlight-sock-sneakers-sock-sneakers-fobt8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-printed-mules-fkczz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-printed-mini-dress-fvldp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-knee-length-skirt-fv8kh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-silk-mini-skirt-fou4x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-bow-accents-slides-cte0t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-mm-fsm6u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-mahina-muria-frh64</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-duffle-bag-ft2sm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-duffle-bucket-bag-ft5g8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-2004-vintage-pochette-florentine-frwic</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fmvwc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-reverse-giant-monogram-onthego-tote-bag-f41ek</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-mink-bubble-v-bag-charm-fuey1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-malletage-flower-bag-charm-fueqw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tahitienne-cabas-pm-f04tz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-gm-fsg77</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-23-fu365</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-into-the-flower-bag-charm-fvch5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-reflect-dragonne-bag-charm-key-holder-fukyu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-silk-mini-shorts-fp8eg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-laureate-desert-lv-monogram-combat-boots-frq2r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-city-steamer-xxl-ftnvq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-ebene-clapton-backpack-ftmx5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-ft38s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-mohair-monogram-glitter-sunset-beanie-fucff</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-mm-fus5r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-ftpri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-metis-dmmqa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-reverse-monogram-pochette-metis-dh7yl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2016-explorer-sunglasses-asvhy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alzer-anglais-80-aql03</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aqckl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-pallas-bb-8fyuq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-sullivan-horizontal-pm-ar81x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-ar882</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aqn98</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-deauville-bag-aprri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-clemence-wallet-amads</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-2020-monogram-mink-fur-sleep-mask-w-tags-amm96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-agkpm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-pochette-felicie-insert-am23i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-alj3z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-jasmin-bag-all28</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-monogram-pattern-tresor-wallet-ak9i1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-monogram-pattern-porte-monnaie-tresor-wallet-ak8aw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-ak86a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-ah2mn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2001-monogram-pattern-tresor-wallet-ak9wi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-noe-bag-akao3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-epi-leather-sarah-wallet-akh6n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-speedy-30-ak7kz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-ajmtj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-capucines-wallet-agcsm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-agfv1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-agb9c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aghgq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-afy1u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-afxgt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-afxg8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-afp4i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-cf6cv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-cao1o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-damier-ebene-trevi-pm-bzeji</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-berkeley-bag-cf5yl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-ebene-geronimos-waist-bag-c8b7i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-brass-lock-key-set-bm6at</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-multicolore-speedy-30-cgpny</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-multicolore-monogram-alma-mm-bme8m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-damier-azur-pochette-felicie-c7224</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bll33</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-multicolore-monogram-keepall-45-cfspd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-speedy-30-c3jj6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-damier-ebene-neverfull-pochette-c64sb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-montsouris-backpack-gm-bnqix</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-mock-neck-knee-length-dress-fplmt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-vernis-cosmetic-pouch-flfld</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-pvc-chunky-sneakers-fzsyc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fqmd9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-petit-bucket-fpt8g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-sac-chien-50-pet-carrier-fmmgy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-suhali-le-talentueux-fqcly</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-damier-ebene-highbury-hobo-f0glb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-mohair-monogram-glitter-sunset-beanie-fuck8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-cobalt-coated-canvas-pocket-organizer-fmdp1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-colorblock-pattern-chunky-sneakers-fths0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-monogram-leather-sneakers-ftlrs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-monogram-leather-sneakers-fucu1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-ftlgc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-florentine-xs-ftl3n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-boite-train-case-vanity-trunk-ftkpk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-summer-trunk-neverfull-mm-ftcu6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-shadow-tote-bag-w-pouch-ftb6e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-party-bumbag-bracelet-fnv72</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-empreinte-montsouris-nm-backpack-fs2u5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-studded-accents-sneakers-fqyzm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-tuileries-hobo-bag-fpxoj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-montsouris-mm-fpo0x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-v-mm-fou17</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-leonor-foly4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-electric-epi-pegase-55-fotv0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-sherwood-pm-fm0yi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-flwi9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-vintage-epi-mandara-mm-bag-fpllu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fw3bz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-lace-up-boots-frpdv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-bandouliere-bag-strap-fs948</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fw1oz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-mm-fq6yq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pallas-shopper-fqu6x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-city-steamer-ew-fqe0b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-since-1854-neverfull-mm-w-pouch-fqhiw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-monogram-hair-cubes-ficme</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-key-holder-fvsxj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-baby-cashmere-scoop-neck-top-fqcg0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-cashmere-scoop-neck-top-fqc8o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-long-sleeve-button-up-top-fml6i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-d-orsay-pumps-ft07w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-neverfull-mm-w-pouch-frzxg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-twist-mm-frkb7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-surene-mm-frqew</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-fr9jl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-zoom-with-friends-sac-plat-fqv55</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-cherry-blossom-pochette-accessoires-fqnki</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fqa9a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fizrh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-empreinte-speedy-bandouliere-20-frcfv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-masters-collection-manet-neverfull-mm-frjey</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-vachetta-luggage-tag-fqe0u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-menilmontant-mm-fpruv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-mezzo-eo1zh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-ejrhi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-efngh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-stresa-pm-e92t4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-fetish-lockit-voyage-e812v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-e6828</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-55-e65a2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-musette-salsa-pm-e2pvz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-legere-55-dv6ko</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-damier-ebene-pegase-55-d98w2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-curdy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-45-cur9l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-calfskin-sc-bag-mm-dvcd0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-combat-boots-ftnxn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-printed-combat-boots-ftf5i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-satin-crystal-embellishments-pumps-ft3vf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-monogram-trousse-toiletry-19-fqrg3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-damier-ebene-ravello-pm-fspw3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-holiday-2022-paris-place-vendome-monogram-mini-pochette-fsj28</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-frzhw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fr3i8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-damier-azur-summer-trunks-neonoe-fta4w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-on-my-side-mm-w-strap-fs8ce</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-fascination-lockit-bag-fs5zg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-lockme-bucket-bag-fsssu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-louis-vuitton-damier-ebene-neverfull-mm-fsrfz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-wallet-flcfl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-wide-leg-pants-fi6j7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-lv-monogram-shearling-slingback-sandals-fqmz5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-empreinte-monogram-giant-by-the-pool-neonoe-bb-fs2yq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-idylle-neverfull-mm-fte5v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-pm-fop7g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-vernis-lafayette-street-coin-purse-bracelet-fnqwb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-55-e621f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-daily-multi-pocket-30mm-belt-e0lif</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-monogram-luco-tote-dw3ru</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-garment-cover-dk021</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-deb8z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-damier-ebene-soho-backpack-db0gd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-carryall-40-d8j3k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-montsouris-mm-cs8uo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-pm-covb4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-bagatelle-e1qau</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-twist-mm-eli8i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pvc-pallas-chain-dvuxs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-striped-mock-neck-polo-ftxd9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-taiga-rainbow-steamer-pm-ft92f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-ftpig</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-ftf1t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-damier-ebene-marais-ft7vk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-colorblock-pattern-sneakers-fqyqo</t>
   </si>
 </sst>
 </file>
@@ -5109,7 +4656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1584"/>
+  <dimension ref="A1:A1433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12280,761 +11827,6 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1434" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1435" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1436" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1437" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1438" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1439" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1440" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1441" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1442" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1443" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1444" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1445" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1446" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1447" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1448" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1449" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1450" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1451" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1452" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1453" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1454" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1455" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1456" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1457" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1458" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1459" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1460" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1461" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1462" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1463" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1464" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1465" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1466" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1467" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1468" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1469" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1470" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1471" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1472" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1473" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1474" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1475" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1476" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1477" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1478" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1479" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1480" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1481" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1482" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1483" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1484" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1485" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1486" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1487" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1488" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1489" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1490" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1491" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1492" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1493" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1494" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1495" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1496" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1497" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1498" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1499" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1500" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1501" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1502" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1503" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1504" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1505" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1506" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1507" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1508" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1509" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1510" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1511" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1512" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1513" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1514" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1515" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1516" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1517" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1518" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1519" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1520" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1521" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1522" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1523" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1524" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1525" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1526" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1527" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1528" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1529" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1530" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1531" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1532" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1533" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1534" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1535" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1536" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1537" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1538" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1539" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1540" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1541" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1542" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1543" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1544" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1545" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1546" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1547" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1548" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1549" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1550" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1551" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1552" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1553" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1554" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1555" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1556" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1557" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1558" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1559" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1560" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1561" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1562" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1563" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1564" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1565" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1566" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1567" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1568" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1569" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1570" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1571" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1572" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1573" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1574" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1575" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1576" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1577" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1578" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1579" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1580" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1581" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1582" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1583" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1584" t="s">
-        <v>1583</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,4305 +19,4125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1373">
   <si>
     <t>New column 0 Url</t>
   </si>
   <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-sleeveless-button-up-top-feurf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-reflected-aviator-sunglasses-fduat</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire-sunglasses-cs8kg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-lady-d-lite-bag-fdnjp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-diorider-leather-combat-boots-f7458</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-lambswool-trench-coat-ff17r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-ffemz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fdzxa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-v-neck-sweater-ff1w8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-ffoxd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-graphic-print-sweater-fffrj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-canvas-cosmetic-bag-ffbh6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-vintage-wide-leg-pants-w-tags-fcjgw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorpromesse3-oversize-sunglasses-fe8vk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-suede-newspaper-cap-fduri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-ff42u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-pumps-fdyfp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorsoreal-round-sunglasses-feqba</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-polka-dot-print-knee-length-dress-f8ofp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-2018-knee-length-skirt-fdfet</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-striped-crew-neck-crop-top-fco17</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-crew-neck-short-sleeve-t-shirt-f8ils</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2017-striped-top-fde6u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2010-skinny-leg-pants-fcocn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-virgin-wool-straight-leg-pants-fcdqe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-printed-slides-fcclu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-lasercut-accents-slides-fcd2o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fcanr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-nicely-d-leather-espadrilles-f3gow</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-fdzvf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-animal-print-knee-length-skirt-fdomo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-fdyjo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-2017-skinny-leg-pants-ff1r2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2020-l-etoile-t-shirt-ff7o9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-leather-crystal-embellishments-moto-boots-fevqq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-graphic-print-crew-neck-t-shirt-fesat</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-straight-leg-pants-fept7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-satin-crystal-embellishments-pumps-fe9pw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-medium-microcannage-lady-dior-bag-fdowe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-2012-cashmere-sweater-fbeo2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-virgin-wool-blazer-f4zsf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-silk-crew-neck-t-shirt-fi8cg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-embossed-leather-slingback-sandals-f7wx7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2013-long-dress-f6974</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/christian-dior-2021-wide-leg-jeans-feg58</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-nylon-printed-sneakers-fevy9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-wheel-of-fortune-motherpeace-tarot-dio-r-evolution-flap-bag-fcs3e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-sweet-d-printed-slingback-pumps-f77xf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-virgin-wool-knee-length-dress-f5isp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fdhzs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-fdjib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/christian-dior-diorquake-fur-mules-eui9z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-cashmere-sweater-evs35</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2013-blazer-fe05x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-fbpee</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-slingback-sandals-fem0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-new-id-patent-leather-slides-fegcp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorclub1-sun-visor-fe92o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-2007-fur-jacket-fcc8d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-d-connect-chunky-sneakers-fbejs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-patent-leather-printed-pumps-fc8xq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorama-mini-cat-eye-sunglasses-f99w8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/christian-dior-kaliedscope-d-connect-chunky-sneakers-fc91t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fdpto</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-suede-leather-trim-embellishment-boots-fd9rf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-fcz5r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-cashmere-short-sleeve-polo-f01zy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-wool-wide-leg-pants-f8kju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-midi-length-dress-fbu4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/christian-dior-vintage-1980-s-skirt-set-f7qw7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/christian-dior-cannage-mini-lady-dior-bag-fal5k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-gradient-sunglasses-fd53s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fcu1d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fc8we</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/christian-dior-diorissimo-rasta-saddle-belt-bag-fgb3b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-scoop-neck-mini-dress-fbpix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-crew-neck-sweatshirt-fb8ql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2001-sweater-fan1z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-patent-leather-colorblock-pattern-slingback-sandals-faxgz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-vintage-2000-sweater-fb068</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/christian-dior-patent-leather-sock-boots-fbw4a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-canvas-animal-print-espadrilles-fahoy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-vintage-the-suit-evening-jacket-fbxug</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-2018-silk-top-fc8kq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-cutout-accent-sandals-fbrbe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-printed-short-sleeve-button-up-top-w-tags-fc90w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-nightgown-fbei0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-mules-fd17j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-d-light-denim-bag-fal6t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/christian-dior-leather-trimmed-tote-fbpn8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-suede-slides-f9frt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-square-neckline-knee-length-dress-f01af</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-colorblock-pattern-turtleneck-top-f7a3r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-lace-trim-embellishment-nightgown-ffrzv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2016-long-dress-ffjm1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2019-mini-dress-f28zi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-bateau-neckline-knee-length-dress-ew0e2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fasxo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/christian-dior-cashmere-plaid-print-sweater-fa2zf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/christian-dior-paisley-leather-shoulder-bag-b060n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-f96fy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/christian-dior-lamb-leather-straight-leg-pants-ffh3p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-evening-jacket-fbsi0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-mini-dress-w-tags-fboqj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/christian-dior-vintage-lingerie-robe-fahh6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-printed-mini-shorts-fbmx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/christian-dior-beaded-mini-saddle-bag-f9uzd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2020-long-dress-f98vo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-satin-animal-print-t-strap-sandals-fa5gk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-animal-print-sandals-f9fjm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-faux-fur-miss-dior-hat-f6w96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2021-long-dress-f5fwc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-2015-mini-dress-fa0tn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-knee-length-skirt-faenh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-leather-floral-print-slides-fanjf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-whipstitch-trim-slingback-sandals-fajw0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-cd-de-christian-dior-robes-du-soir-long-dress-f9zcj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christian-dior-striped-knee-length-dress-feler</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/christian-dior-vintage-knee-length-skirt-f84jr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/christian-dior-slides-fbi7q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-blazer-f2hm3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/christian-dior-vintage-2000-s-top-fa96f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-leather-pumps-fbeo7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/christian-dior-suede-pumps-fbkuf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/christian-dior-2020-vest-f9gf2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/christian-dior-coat-f8cfb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/christian-dior-2021-mini-shorts-f9859</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-lamb-leather-printed-biker-jacket-fysub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-combat-boots-g1l5b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-printed-ballet-flats-g1iqj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-straight-leg-pants-g0uwb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-lv-monogram-sock-boots-g1jga</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-graphic-print-combat-boots-g18j9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-combat-boots-g17cz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-boots-g1dhn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-30mm-lv-initiales-lv-monogram-belt-w-tags-fzis1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-wedge-sneakers-g1dcp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-grand-froid-wool-snood-g03zi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-epi-leather-monte-carlo-jewelry-case-fzy54</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-metallic-timeless-cashmere-stole-fzimf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-empreinte-leather-emilie-wallet-fzjn6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-so-shine-lv-monogram-shawl-fzz5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2018-damier-azur-pattern-belt-fzx62</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-denim-lv-monogram-scarf-fz88f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-denim-silk-scarf-fyodz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-vernis-bedford-fymxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-30-fxy0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-brazza-wallet-g0qsc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-lv-monogram-koala-wallet-g0o8f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-sarah-wallet-g0h3j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-wallet-fzwcj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1991-elise-wallet-fzle9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-card-holder-fzl3s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-lv-monogram-french-purse-fzjpn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-clemence-wallet-fz9x8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-jeanne-wallet-fz8jx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-felicie-fzmof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-papillon-26-fzm48</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2020-mini-25mm-belt-fzzrn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-damier-azur-pattern-wallet-g0nmx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2001-epi-leather-wallet-g0dyk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-blanca-sunglasses-g0aaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-cashmere-lv-monogram-scarf-fzyxo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-la-grande-bellezza-oversize-sunglasses-fzwgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-my-fair-lady-sunglasses-fzv41</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-vernis-patent-leather-zippy-wallet-g0upa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-azur-pattern-continental-wallet-fzwvp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-monogram-vernis-sunset-boulevard-clutch-g196j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-alexandra-wallet-g0qgt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-zippy-coin-purse-g0ple</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-conspiration-pilote-damier-ebene-pattern-sunglasses-g09ho</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-soupcon-square-sunglasses-g00fy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-lv-monogram-sarah-wallet-fzy7n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-cosmetic-pouch-summer-trunks-fzy30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-pumps-g1em7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-french-purse-g0qay</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-wallet-g0dvw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1994-international-wallet-g0auk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-45-fz89k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fxp6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-fxdb3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-giant-monogram-onthego-mm-fv6yz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-turenne-mm-fuyw1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-soufflot-mm-fpvn6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-french-purse-fzlaz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fzhrm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-empreinte-montsouris-nm-fyclo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-empreinte-giant-multi-pochette-accessoires-fevuq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-petite-mon-coeur-heart-on-chain-fu0rq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2022-monogram-empreinte-neonoe-mm-fzf1b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-25-fxw7y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-reykjavik-wool-scarf-fzu9r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-16mm-adjustable-shoulder-strap-fzsdh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2000-lv-monogram-bifold-wallet-fzlk3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fzxsr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-wild-animal-bag-strap-fzvbt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-2015-scarf-fzup1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2021-my-lv-chain-pilot-sunglasses-fzuc3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-the-party-aviator-aviator-sunglasses-fzn7w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-vernis-patent-leather-wallet-fzlpq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-vernis-patent-leather-coin-pouch-fzllb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-2022-ahead-beanie-fziu3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-lv-pont-9-soft-pm-fyn9f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-vuittamins-coussin-pochette-fy2yl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-satellite-70-g3j6t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-x-richard-prince-pulp-weekender-pm-fza35</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2019-flip-up-sunglasses-fzxil</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-columbus-g3gve</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-empreinte-speedy-25-bandouliere-g3geb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-keepall-bandouliere-55-g3ga5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2001-sarah-wallet-g3fnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mahina-babylone-chain-bb-g3fap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-multi-pochette-accessoires-g3b5y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-zippy-wallet-g39zf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-slingback-sandals-fzyd5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-slingback-sandals-fzyf4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-lambskin-fur-jacket-fx96g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-2018-bomber-jacket-fw9c0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-knee-length-dress-fx2m5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-2019-mini-dress-fw1bp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-trench-coat-fxcfe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-cashmere-mini-skirt-w-tags-fw3jq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-silk-mini-skirt-fwepv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/louis-vuitton-2021-printed-romper-w-tags-fvpp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/louis-vuitton-2020-wide-leg-jeans-fw991</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-since-1954-dragonne-dauphine-key-holder-fyjx7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-leather-continental-wallet-fw1a4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-geant-acrobate-fz1rv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2005-wallet-fyl8d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-emilie-wallet-fyf61</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-lv-monogram-compact-zippe-wallet-fxr1i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-flandrin-tote-g05qp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-ribera-mm-g04xx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tournelle-pm-w-strap-g04gr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-reverse-pochette-metis-fzy6s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-gm-fzw0p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-vintage-monogram-jeune-fille-fzog3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-hl-fzo6v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-papillon-30-fzde2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-keyholder-fqj50</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-porte-tresor-international-wallet-fyr3f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-multicolor-insolence-bag-charm-fxmca</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-multicolore-etui-mirror-fxm7m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-lussac-tote-fzozr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-passy-pm-fzg3f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-mini-lin-neverfull-mm-g01sx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2023-monogram-denim-neverfull-mm-w-tags-fvu0q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-grand-palais-mm-ftw5d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-maida-hobo-fltv6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-monogram-vernis-zippy-wallet-fygfl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-damier-stripes-2022-stole-fyc6d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-saint-jacques-shopping-fz8m8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-double-v-compact-wallet-fyp2r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-key-holder-fynv3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-speedy-30-fzgvq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-speedy-40-fzgnu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-vernis-rosewood-fzd7m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-ambre-neo-cabas-mm-fvf0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkfq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkfa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkes</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkef</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzke6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkdw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vernis-monogram-alma-bb-w-strap-fzosz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-empreinte-monogram-pochette-metis-w-tags-fzoob</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-epi-sarvanga-fzz06</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-vernis-sobe-clutch-fzqbo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2004-epi-leather-wallet-fxmlk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-reykjavik-cashmere-scarf-fxmkz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-lv-capucines-bag-charm-and-key-holder-fxknd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-zippy-wallet-fw1fn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-saint-jacques-pm-fzgam</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-2014-scarf-fm2aw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-vernis-alma-bb-g0acj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-2021-raffia-capucines-mm-w-strap-ewb5d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-tressage-city-steamer-mm-eq5b4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-2021-by-the-pool-toiletry-pouch-26-w-tags-ecxor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-onthego-gm-ew4dj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/louis-vuitton-mid-rise-straight-leg-jeans-fztui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-boite-flacons-vanity-trunk-eq3ll</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-mahina-hina-mm-w-pouch-eqm00</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-giant-empreinte-spring-in-the-city-onthego-mm-elfoz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-mahina-bella-galet-bucket-bag-w-pouch-evr6g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-giant-crafty-onthego-gm-f73fd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-on-my-side-tote-eromm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-capucines-mm-er415</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-coussin-bb-ewqok</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-mahina-bella-bucket-bag-w-pouch-enyi7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-printed-midi-length-dress-fnf9l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-gm-fwna3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-reverse-monogram-pochette-metis-g3751</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-printed-slingback-sandals-g0rdh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-printed-slingback-sandals-g0rc7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-damier-ebene-pattern-calf-hair-slingback-sandals-g06b5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-bow-accents-espadrilles-g18ml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-cutout-accent-t-strap-sandals-g0j42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-runaway-lv-monogram-boots-g0lfr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-printed-western-boots-g0bg9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-sneakers-g0573</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-sneakers-g0nx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-sneakers-g0rsl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-sneakers-g09eo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-loafers-g0r29</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-mini-dress-w-tags-fy43m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-printed-mini-skirt-fygyx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-lamb-leather-mini-skirt-fysxz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-lambskin-biker-jacket-fyipg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/louis-vuitton-2021-monogram-game-on-silk-pajamas-fzdv2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-striped-sweater-fxzuo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-skinny-leg-pants-fz8r5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-skinny-leg-pants-fxt2t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-2020-turtleneck-sweater-w-tags-fxdrr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-long-sleeve-polo-fyltr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-graphic-print-crew-neck-sweatshirt-fz9tl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-chunky-sneakers-g03qx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-sandals-g0k8y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-riding-boots-g01p6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-28-g0spt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-23-g0r71</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-french-purse-g0hz0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-lv-monogram-compact-zippe-wallet-g0gx1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-lv-monogram-bifold-wallet-g0b69</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1998-card-case-fzdhv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-tresor-wallet-fzdf3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2001-lv-monogram-compact-wallet-fzd8x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1997-compact-wallet-fzczg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2007-french-purse-fzc52</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2000-french-purse-fzbzw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-elise-wallet-fzbuz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-1997-lv-monogram-french-purse-fzblq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1999-french-purse-fzbhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-vintage-monogram-small-ring-agenda-cover-fz345</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-sarah-wallet-fyttb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-sarah-wallet-fytq1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-sarah-wallet-fyrw9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-fynml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-sequin-embellishments-slingback-pumps-g0tr6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2013-damier-ebene-alma-pm-fy9fq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-my-fair-lady-oversize-sunglasses-fzgaz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-coated-canvas-continental-wallet-fz5v7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-15-g0jo4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-damier-azur-pattern-clemence-wallet-fzain</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-empreinte-leather-metis-wallet-fysg5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-2019-monogram-denim-round-coin-pouch-fz5z7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2022-moon-sunglasses-fya2x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-coated-canvas-elise-wallet-fz95z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-porte-billets-compact-wallet-fz91f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-elise-wallet-fz8oj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-french-company-monogram-triangular-luggage-tag-fyyjj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-reverse-key-holder-and-bag-charm-fyy7d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-19-fyu8s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-compact-zippe-wallet-fyos6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkkm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkjz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkii</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkgk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkgh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fzkg5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-mahina-leather-amelia-wallet-fyt62</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-vernis-patent-leather-sarah-wallet-fyt2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-printed-scarf-fynwg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-shine-wool-scarf-fisfq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-patent-leather-flats-fvt89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-printed-mini-dress-fzahq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-silk-knee-length-dress-fylw7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-mini-skirt-fytc9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-pool-pillow-slide-lv-monogram-slides-fyy3x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-monogram-idylle-pattern-rubber-rain-boots-fz5j9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-nylon-boots-fz262</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-leather-leather-trim-embellishment-ballet-flats-fyjkm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-lv-monogram-loafers-fyj0r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-monogram-idylle-pattern-canvas-pumps-fz092</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-scoop-neck-sweater-fz2bm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fyud2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-pumps-fzbqu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-lv-monogram-bow-accents-pumps-fz92v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-pumps-fz58s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-suede-tassel-accents-pumps-fym8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-ballet-flats-fz4db</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-midi-length-dress-fxt70</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-jacket-fwqtw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-plaid-print-crew-neck-sweater-fw3z8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-boots-fr9vl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-superstition-logomania-2018-shawl-fxrwr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-jungle-neverfull-mm-fyhrn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-printed-slingback-pumps-fyzvt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-wide-leg-pants-fyn2l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-multicolore-monogram-pattern-trifold-wallet-fw984</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-key-holder-fy8b1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-2021-damier-azur-illustre-hollywood-drive-xmas-bag-charm-and-key-holder-fxbvg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-chain-35-mm-monogram-eclipse-waist-belt-fxkzt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2005-vintage-globe-shopper-cabas-gm-fyelg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-flore-chain-wallet-fyqzx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fz3zh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-delightful-gm-fyz2l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-giant-reverse-double-zip-pochette-fytzo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-sac-plat-fytih</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-papillon-26-fytd8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-pochette-accessoires-fyq3z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-reporter-pm-fyns5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-saumur-mm-fymux</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/louis-vuitton-sweatpants-fzjhc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-ebene-pattern-zippy-wallet-fy8jc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-elise-wallet-fy8g1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1990-wallet-fy8en</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-sunglasses-case-gm-fy408</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-lv-monogram-emilie-wallet-fxywc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-game-on-toiletry-pouch-26-fxrc4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-neverfull-pouch-fxgka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-2020-game-on-cosmetic-pouch-fwuew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-victorine-wallet-fwpk4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-damier-ebene-key-pouch-fwlyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-viennois-wallet-fw07y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-lv-monogram-trifold-wallet-fvr90</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-sarah-wallet-fvp5p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-sarah-wallet-fvnb5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-reykjavik-cashmere-scarf-fvi2c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-3-watch-travel-case-fv3eo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fyfkn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-2010-monogram-artsy-gm-fyej1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-papillon-trunk-w-strap-fye2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-2018-monogram-summer-trunks-neverfull-pouch-fydjj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-2019-monogram-pochette-trunk-verticale-fydh0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2015-monogram-pochette-metis-fycwj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2018-lv-monogram-checkbook-holder-fplrp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-vintage-2004-pumps-ft14t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-fwmr0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-azur-4-key-ring-holder-fwgm5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-ebene-melville-fuz33</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-damier-ebene-olav-pm-fuqyl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-game-on-speedy-bandouliere-30-fuo67</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-sac-plat-emimx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-2020-since-1854-bag-strap-fxvlw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/louis-vuitton-monogram-louise-phone-holder-fxm17</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-epi-leather-key-holder-fyl0a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/louis-vuitton-monogram-watch-battery-charger-cover-fykzr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-vavin-mm-fyt02</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-new-wave-bumbag-fykhz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-mahina-babylone-pm-fyj89</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-mm-fyhp1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-wallet-fyklt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-trifold-wallet-fykgm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-inclusion-speedy-bag-charm-fwopi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-damier-azur-pattern-zippy-compact-wallet-fwiyq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-leather-mylockme-compact-wallet-fw8gg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-graphite-pattern-key-holder-fvukd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-confidential-silk-scarf-fxjq8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-azur-astropill-keychain-fxcci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-coussin-pm-w-strap-fycfx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-2005-vintage-taiga-kendall-gm-fy9vr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2001-vintage-epi-saint-jacques-pm-fy9hy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-patent-leather-wallet-fy50w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-empreinte-boite-chapeau-souple-mm-fygz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-lymington-fys4a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-fyp3r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-damier-azur-speedy-25-fyoqv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-lymington-fyn5x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-confidential-printed-bandeau-silk-scarf-fvict</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-rock-n-roses-floral-print-scarf-fvi6c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-monogram-vernis-rossmore-wallet-fp624</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-damier-azur-delightful-mm-fyjg1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-mahina-hina-mm-w-pouch-fyj1h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2021-monogram-empreinte-coussin-pm-fyhhi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2002-vintage-monogram-vernis-reade-pm-fycyi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-gina-square-sunglasses-fyk66</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-patent-leather-pumps-fz3bk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-french-company-weekend-bag-fyqi3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-canvas-wallet-fy6a1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-wallet-fy0wy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-ebene-key-pouch-fxp0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-damier-ebene-greenwich-gm-fylcp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-damier-ebene-musette-tango-fyjt1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-reverse-night-lights-twist-chain-wallet-fyi32</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pochette-accessoires-fyi10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-graceful-pm-fyhm4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-epi-speedy-25-femvh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-capucines-mm-evs31</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-wallet-fx64s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-zippy-wallet-fwsl7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1997-french-purse-fw8zy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-monogram-trousse-toilette-28-fw17a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-vachetta-adjustable-shoulder-strap-fvyxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-2020-monogram-graceful-mm-fyfw4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage/louis-vuitton-monogram-keepall-60-fxudx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-fvt1l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-passy-gm-fyqp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-petit-damier-beanie-fy4ca</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-desmayo-cat-eye-sunglasses-fy48l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-mm-fykfc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2022-monogram-vernis-pochette-felicie-valentine-fyjyz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-2020-monogram-escale-neverfull-pouch-fyjm2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-taurillon-bandouliere-shoulder-strap-fy0eo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-monogram-vernis-wallet-fxna4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-2022-scarf-fxmr2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-palladium-lock-key-set-fxe25</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-v-tote-bb-fyixb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-crafty-boite-chapeau-souple-pm-fyhuo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-coussin-bb-w-strap-fyebv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-brass-lock-key-set-fwlin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1999-key-holder-fw1bo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-epi-toiletry-15-pouch-fvqgu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-fx1tr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/monogram-keepall-45-fwx4o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-vernis-patent-leather-louise-wallet-fuktp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-brass-lock-key-set-fu1li</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pochette-accessoires-fl7wa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-monogram-pattern-shawl-epk5g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/louis-vuitton-fur-trim-skirt-set-g2rk5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-cannes-vanity-case-g2ppj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-damier-azur-neverfull-gm-tote-w-pouch-g2pne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/louis-vuitton-utility-jacket-w-tags-fl1b3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2018-lv-monogram-clemence-wallet-fuh7l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-short-sleeve-polo-frn90</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-combat-boots-fxuqv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-printed-combat-boots-g036z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-rubber-rain-boots-g04ic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-sock-boots-g0itv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-floral-print-sock-boots-g0dy0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-chunky-sneakers-fzg8g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-nylon-printed-combat-boots-fzbyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-animal-print-flip-flops-g01zw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-combat-boots-fzcu5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-satin-sandals-fz9il</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-wedge-sneakers-fzyqq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-embroidered-accent-sandals-g0a00</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2021-damier-ebene-40mm-lv-initiales-belt-fyuc6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-card-holder-fyuu7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-colorblock-pattern-sneakers-fzhgs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-multicolore-monogram-pattern-zippy-wallet-fyhs7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-cluny-g026h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-empreinte-monogram-giant-by-the-pool-neonoe-bb-fztxu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-satin-crystal-embellishments-pumps-g0609</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-azur-key-holder-fyl0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-azur-pattern-coated-canvas-trifold-wallet-fykdz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-damier-azur-pattern-rosalie-coin-purse-fybta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-soffi-fyuv4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-lv-monogram-emilie-wallet-fzigk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-zippy-compact-wallet-fziav</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fzi70</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1996-pochette-porte-monnaie-fzfwp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-lv-monogram-sarah-wallet-fzfat</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-ebene-pattern-sarah-wallet-fzdn9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-late-1980-s-early-1990-s-elise-wallet-fzbkx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1996-wallet-fzb4o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1989-checkbook-holder-fzb0v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1987-checkbook-holder-fzauw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2005-compact-zippe-wallet-fz6we</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fz6d7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fz68l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-lv-monogram-elise-wallet-fz5rr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1997-wallet-fz3oh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1999-elise-wallet-fz32y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-trevi-pm-g0cnc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-g0310</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fzy5h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-late-1980-s-early-1990-s-elise-wallet-fz0yl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-late-1980-s-early-1990-s-elise-wallet-fz0hw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2014-cat-eye-sunglasses-fyt4l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-bifold-wallet-fynlt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-lv-monogram-coated-canvas-key-holder-fykzw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-leopard-marquise-square-sunglasses-fykfi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-wallet-fykf4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-wallet-fyk4g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1992-checkbook-holder-fydw5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-lv-monogram-marie-rose-wallet-fy2t2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-lv-monogram-key-holder-fxmp7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-alma-mm-fzekj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-evora-mm-fzb4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fza5h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-ellipse-pm-fza1w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-excursion-shoe-bag-fz9dd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-croissant-gm-fz8pb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-fz53d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-eecentri-cite-fz4x3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-ebene-melville-waist-bag-fz46k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-reverse-monogram-mini-palm-springs-fz3ns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-35-fz3bi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fz2j3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-bow-accents-sandals-fzgwh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-dl7l4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-epi-leather-sarah-wallet-fzidm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-epi-leather-zippy-organizer-wallet-fzd82</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-idylle-pattern-zippy-wallet-fzi32</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2005-international-wallet-fzhq4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-cotton-aerogram-cap-fykii</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-bifold-wallet-fz6js</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2004-epi-leather-wallet-fz2uq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-lv-monogram-sarah-wallet-fzg54</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-fzypw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-josephine-pm-g04h1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-wilshire-pm-g046d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-miroir-speedy-35-fzyhh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fykl8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-monogram-essential-cap-fykgp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-lv-monogram-amelia-wallet-fyjxx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-lv-monogram-pouch-fyje4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-felicie-strap-go-coin-pouch-fyh21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-wallet-fykjv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-pochette-accessoires-nm-fz8v1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-city-steamer-mm-fzhef</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolor-speedy-30-fze45</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-azur-pattern-elise-wallet-fykaq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-vintage-sol-lewitt-undertow-silk-scarf-vintage-scarf-fyezq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-damier-azur-pattern-alexandra-wallet-fy3h6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-vernis-zippy-wallet-fy38s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-empreinte-montaigne-mm-fyytf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-pm-fzw5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-fzv5f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-azur-pattern-zippy-wallet-fytwi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2021-leather-wallet-fylyp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-continental-wallet-fykic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-fz2rw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-porte-monnaie-tresor-wallet-fz9ns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-tresor-wallet-fz9h0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-satin-mesh-accents-d-orsay-pumps-g0ivr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pochette-twin-g06qf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-sac-souple-g02pd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-sarah-wallet-fy0fj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2009-phoenix-ceinture-belt-fyy2m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-tresor-wallet-fz9d5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2000-ceinture-belt-fyxaz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-obsession-round-sunglasses-fyu87</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-patent-leather-wallet-fyrc9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-international-wallet-fypco</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2014-obsession-gm-sunglasses-fyo3z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-fze4p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-epi-gobelins-fz9d1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-damier-ebene-sarria-horizontal-fz6x1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-speedy-30-fz6gw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-slim-purse-fyjky</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-round-coin-purse-fyjcf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-french-purse-fygaq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-vernis-patent-leather-french-purse-fzeeo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-segur-mm-g0bl2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-porte-billets-compact-wallet-fz6ps</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fztb5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-fzlrc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-city-steamer-pm-fzyyb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-fzwro</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-sac-d-epaule-fzwex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2007-monogram-vernis-french-purse-fz1qc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-vernis-mahina-surya-xl-fzum7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-epi-leather-card-holder-fyw5b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-twist-wallet-fyumy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-zippy-compact-wallet-fytmc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-freesia-oversize-sunglasses-fynt2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-empreinte-mazarine-pm-fzags</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-monogram-vernis-wallet-fyk7m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-monogram-vernis-zippy-wallet-fyhzg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2019-lv-monogram-zippy-wallet-fyhou</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-josephine-wallet-fycf5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-2021-monogram-empreinte-micro-pochette-metis-fz8n3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-fxvks</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-pillow-speedy-bandouliere-25-fyvc3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-speedy-25-g0ual</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-ombre-handle-bag-g09mw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-rayures-alma-bb-g077u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-passy-gm-g04ov</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-epi-pochette-accessoires-24-fyy08</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/epi-soufflot-fzz7f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-epi-saint-tropez-g0a5r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-g09fp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-soufflot-g063m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-bellevue-pm-g058x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-epi-soufflot-pouch-g01uv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-compact-wallet-g2p4x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-multicolore-speedy-30-g2ke7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-floral-print-espadrilles-g2jhb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-rabbit-fur-accent-silk-shawl-lv-monogram-shawl-g2ijl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-adjustable-shoulder-strap-fttx9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palm-springs-mini-g2d05</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-colorblock-pattern-knee-length-dress-fz9qj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-striped-knee-length-skirt-fyoib</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-silk-printed-top-fyhpy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-silk-printed-top-fxz9i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-monogram-escale-striped-striped-sweater-fxypy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-graphic-print-scoop-neck-top-fzf09</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-canvas-printed-slides-fz0pb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-frontrow-sneakers-fytcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-chunky-sneakers-fyhil</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-mini-skirt-fyog0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-sneakers-fygu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-winterbreak-suede-mules-fy4oq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-vintage-lv-monogram-slides-fyyrx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-pop-archlight-chunky-sneakers-fw916</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-archlight-chunky-chunky-sneakers-fxnv2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-30mm-lv-initials-lv-monogram-belt-kit-fwlor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-lv-initiales-damier-azur-pattern-belt-fwlst</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-damier-ebene-dorsoduro-fx5h2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-sock-sock-sneakers-fykq2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-crew-neck-mini-dress-fov7i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-ruffle-embellishment-knee-length-skirt-fg45a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-giant-jungle-wool-scarf-wool-scarf-fvhwt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fyvtp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-sac-mary-kate-48h-fyq0e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-paillettes-speedy-30-fxbx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-monogram-vernis-zippy-coin-purse-ffs4u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-damier-azur-pattern-clemence-wallet-ffpwb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-monogram-vernis-zippy-wallet-ffkmm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-damier-ebene-pattern-zippy-wallet-fvqxp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-tresor-wallet-fvpq4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-ellipse-pm-fzfgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fzdtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-fzdog</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fzchj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fzbmk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-fza9n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fz6hd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-fz5k2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fytj2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fytew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-30-fy2va</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-55-fxr8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fxqi1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fxpyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-x-azzedine-alaia-monogram-leopard-alma-fxp11</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-fxo4e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-shearling-floral-print-sandals-w-tags-fyw75</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-key-holder-fsz96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-etui-cigarette-case-fhb4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-damier-ebene-etui-cigarette-case-fhb0p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-lv-monogram-sarah-wallet-fftvi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-elise-wallet-fft6i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-damier-ebene-pattern-tresor-wallet-ffsex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-lv-monogram-key-holder-ffsb6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1995-checkbook-holder-ffn4l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-marelle-waist-bag-fxkg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-macassar-audio-case-fxgvk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-noenoe-mm-fxdjr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2022-monogram-nano-speedy-bandouliere-w-strap-fxbyt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-ebene-clapton-fxb42</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-vintage-monogram-bucket-27-fx2zd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alize-24-heures-fx0zi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fwxum</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fwvuf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fwv9k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fwb7y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-animal-print-t-strap-sandals-fykny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1988-checkbook-holder-fbd78</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-damier-ebene-pattern-continental-wallet-fb5pl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-leger-business-55-fvg00</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-roses-pochette-accessoires-fvcj0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-loop-hobo-fv699</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-graceful-pm-fv5vb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-damier-ebene-riverside-fuhi4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-bb-w-strap-ftqz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palm-springs-mini-backpack-fs126</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-x-fornasetti-2021-monogram-cameo-alma-pm-fr4mg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-pegase-55-fqsmq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-french-company-monogram-keepall-60-fpsu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-flip-flops-fxddy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-flip-flops-fxdc7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-shine-scarf-lv-monogram-shawl-fwle4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-murakami-luggage-tag-fw8rc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-pattern-empreinte-leather-emilie-wallet-fvekp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-multicolore-monogram-pattern-wallet-fwyyt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-mahina-hobo-l-fxore</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-empreinte-bastille-mm-fxkgo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fhdy4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fhcdr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-fhcd4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-porte-tresor-international-wallet-fvuol</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2012-multicolore-monogram-pattern-insolite-wallet-fv6a3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-grenelle-pm-fxcaj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-alma-pm-fxnuy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2001-wallet-fbg9n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2003-french-purse-ffsqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2007-french-purse-ffsnq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-vernis-french-purse-ffsjm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-monogram-vernis-card-case-ffrxb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-2019-patterned-pareo-ffoog</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-vernis-patent-leather-sarah-wallet-ffnlh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-lv-monogram-sarah-wallet-ffn0z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-geant-pionnier-backpack-fuzit</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-fleur-de-lys-capucines-pm-fsmc9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-epi-leather-zippy-wallet-fw1cs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2001-compact-wallet-fmsu0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2000-elastique-wallet-ffrbi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-gm-fx440</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noctambule-fzcs3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2018-monogram-empreinte-blanche-mm-w-strap-frdlx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-macassar-city-steamer-xxl-fxf48</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage/louis-vuitton-monogram-keepall-50-fxxxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-continental-wallet-ftqdw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palm-springs-mini-fxhnw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-mm-fxg4k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-50-fxe63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-wallet-fodqg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2008-brazza-wallet-ffpss</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-papillon-26-fx54y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-theda-pm-fwu32</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-gaia-hobo-fwrbq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-florentine-fw9e4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neo-fw5ha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-55-fw3td</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-chain-it-pm-fpsxx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louisd-vintage-monogram-speedy-hl-w-strap-fxy20</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-palladium-lock-key-set-fvqkx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-pochette-felicie-insert-fvka1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-ostrich-capucines-bb-fxjb4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-lock-key-set-fpp96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-epi-mechanical-flowers-bandouliere-shoulder-strap-fll3s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-taiga-etui-glasses-case-fhcvb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-wallet-fhb3n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-silk-shawl-ffp70</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-lv-monogram-continental-wallet-fbfzn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2013-lv-monogram-wallet-fbfxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/monogram-multicolore-speedy-30-fw5tn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-suhali-l-aimable-fuv59</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-vernis-monogram-lexington-bag-fudql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-vintage-epi-petit-noe-bucket-bag-fs12g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-fxza9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-fxcxq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/onthego-tote-spring-in-the-city-pm-fxyk7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1990-pouch-fl3h3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-mahina-solar-pm-g26il</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-python-flower-tote-fwvtd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-wallet-fm50s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-knee-length-skirt-fzg80</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-square-neckline-three-quarter-sleeve-top-fzpi6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-polka-dot-print-crew-neck-blouse-fzjhf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-floral-print-mini-shorts-fzjfx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-crew-neck-sweater-fz8dl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-suede-printed-sneakers-fziqo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-slouch-boots-fzwkz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-printed-slides-fzq69</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-monogram-idylle-pattern-canvas-sneakers-fzgkd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-straight-leg-pants-fzivc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-printed-long-sleeve-button-up-top-fzhhg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-cashmere-v-neck-sweater-fzi1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fzdi2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-ceinture-multicolore-monogram-pattern-belt-fxgvx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-monogram-suede-sneakers-fz4yu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-patent-leather-printed-sneakers-fyz6i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-canvas-printed-espadrille-sneakers-fzxy6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-printed-sneakers-fzk5d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-colorblock-pattern-slingback-sandals-fzzzw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-vintage-denim-belt-fxiwp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-v-neck-long-sleeve-tunic-fzjre</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-suede-animal-print-oxfords-fzvtl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-patent-leather-loafers-fz7el</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/louis-vuitton-patent-leather-loafers-fz5ny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-patent-leather-printed-espadrilles-fz36s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-knit-mohair-beanie-fxg49</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-mahina-hobo-xl-fyiea</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-23-fzh2j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-28-fzgwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-28-fzgmz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-vintage-mini-belt-fxizt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-damier-ebene-pattern-wallet-fxjvy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-joey-wallet-fxjqx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2015-lv-monogram-wallet-fxi0w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-lv-monogram-coin-pouch-fxekh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-duo-belt-bag-fyv7u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-x-takashi-murakami-monogram-cerises-cherry-bucket-bag-fyq81</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-nano-noe-fyj7c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-sirius-45-fyj4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-damier-ebene-marais-fyip5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-leopard-polly-fyg15</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alize-2-poches-w-strap-fy6ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-florentine-fy2tb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-colorblock-pattern-t-strap-sandals-fzbv0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-lv-monogram-pumps-fz0gc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-leather-luggage-tag-fxmdq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-oversize-gradient-sunglasses-fxl23</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-2018-scarf-fxktn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-luggage-tag-fxjml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-canvas-wallet-fxh3o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-graphite-josh-backpack-fyi1o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-monogram-pattern-coin-pouch-fxgha</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-1994-vintage-epi-noe-pm-fydsl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-marignan-fz0b9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-fyqzp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-gm-fymur</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-mahina-xl-hobo-fylz4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-zephyr-55-fyl8n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-mini-pochette-accessories-fy53m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-lv-prism-bag-charm-w-tags-fx91u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-monogram-vernis-zippy-wallet-fxlo4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-logo-hair-cubes-fxk3o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-safari-flight-bag-fz5wd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-bifold-wallet-fxg1l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/monogram-montsouris-mm-fznaf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-fz54z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-fzxl6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-45-fx2sf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2021-fornasetti-architettura-noe-mm-b9wvq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-long-sleeve-button-up-top-g1bpe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-bateau-neckline-midi-length-dress-fy5v9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-2020-monogram-game-on-knit-polo-polo-fw6ck</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-vintage-monogram-partition-fw4fa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-new-wave-bumbag-fwk0m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-lasercut-accents-riding-boots-fnwo6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-empreinte-vavin-bb-fu77n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-empreinte-pont-neuf-mm-ftvx7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-combat-boots-fvton</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-2021-convertible-coussin-belt-bag-capev</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-mini-skirt-fsi2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alize-3-poches-fsfgd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-reverse-monogram-giant-onthego-mm-fsnsc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-beaubourg-fqfyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-gm-cd7aq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-hampstead-pm-ar6ix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2018-epi-twist-tote-absvw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tahitienne-cabas-gm-fs6tw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-lv-monogram-canvas-slingback-pumps-fpc59</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-55-c3pr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-taurillon-volta-bag-98trg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-cartouchiere-ftto7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-bo4ig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-boite-flacons-vanity-trunk-blyp9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-empreinte-mini-pont-neuf-7d7le</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-denim-neo-cabby-mm-abz68</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-damier-ebene-trevi-pm-dktom</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-french-company-monogram-stratos-55-dhhb4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-printed-snow-boots-f9nfn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-printed-combat-boots-fq7on</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-denim-loop-fmybs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fjxv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-bandouliere-50-9ljzw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-87e5z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-98y6k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-81o86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-discovery-backpack-bag-charm-bb2nc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-leather-sock-boots-fkilu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-neonoe-bb-firga</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-logo-hair-cubes-f5498</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-f7bh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-bcsth</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-bb50g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-b3c8l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-printed-bandeau-au31k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-epi-ombre-tote-ax8d4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-cuir-obsession-lockit-east-west-bag-a3ym8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-b5bji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-b5e9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-40-b5480</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-b2rg7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-ax8bb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-velours-w-bb-4-5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-suhali-lockit-pm-c3qwv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-1996-leather-wristlet-bf6cx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-pm-ba2cf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-wilshire-pm-b2rdo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-metis-f38fb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-vernis-spring-street-f3ie9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-monogram-pattern-leather-slides-f41xh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2022-spring-in-the-city-empreinte-speedy-bandouliere-20-f30dv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-marie-bag-b9d0h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-pm-f12xq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-compact-zippe-wallet-f04ro</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-taurillon-city-steamer-mm-exj73</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-continental-wallet-ez095</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-batignolles-cffp9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-leather-louise-chain-mm-b1cch</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-epi-keepall-45-ex47a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-cashmere-stripe-lightweight-sweater-8x6ko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-eucji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-stratos-eptig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bhxuy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bgkdx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vavin-gm-b4z09</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-monogram-marignan-bag-epxbk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-alligator-trimmed-monogram-trompe-l-oeil-l-ingenieux-ei3y1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/louis-vuitton-cashmere-animal-print-sweater-eil1p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-epi-leather-wallet-ebw1i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-empreinte-leather-continental-wallet-dwl36</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-epi-speedy-30-8y60g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-alma-pm-87n7i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-carryall-bag-e4gn5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-suede-combat-boots-981hh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-neverfull-mm-w-pouch-bz1jp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-epi-small-ring-agenda-cover-c36hl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-dq8l7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-crafty-speedy-bandouliere-25-b7ehe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-bandouliere-60-9cy4z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-dpbcc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-40-ckgno</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-palms-springs-mini-backpack-a97ej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-trevi-pm-d9por</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-cxy8l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-cxy5a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bewxk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcl21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-twist-gm-cd7pf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-alma-pm-cbxcu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-griet-tote-bfnu7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-alma-gm-9z45n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-bxqez</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bysrp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-zippy-wallet-bhdxz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-danula-pm-bhym6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-bgfi4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-b4vt0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2016-leather-wallet-bh2zc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-cabas-porto-cervo-gm-bic95</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2010-monogram-pattern-continental-wallet-bbtb9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-30-bhqwi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-flowergram-printed-scarf-bgk3p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-bgbst</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-wallet-bfvnr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-speedy-bandouliere-30-baom4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2000-bifold-wallet-bgf1i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-gm-bekca</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bf5me</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-bdisv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bcmaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-beu1f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-bifold-wallet-bfvnh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-roxbury-drive-w-strap-bfy1d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-bifold-wallet-bfvna</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-leather-card-holder-bfvls</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bc5rr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-bdtjp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-beu1a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bexq2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-betxa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-betvd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bf3so</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bexyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-vernis-patent-leather-french-purse-bfcey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bf5mj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bf3b0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2004-monogram-pattern-key-holder-bdyj4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-belnt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-monogram-mini-lin-pattern-porte-tresor-international-wallet-bekob</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bemoi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-damier-ebene-pattern-tresor-wallet-bez40</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-wallet-beiwq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-bf0a1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-bedbr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-leather-compact-wallet-begn5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alzer-80-a5yu6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bd48c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bcuye</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bd552</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-deauville-bd1va</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-btjyl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bv7pe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-pm-bvxgd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-bvbfe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-vintage-french-company-monogram-shoulder-bag-bozd0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2002-bifold-wallet-bv7ef</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-metis-hobo-brsey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-marly-bb-bpht9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-alma-pm-bsws9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-ellipse-backpack-btneu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolor-alma-pm-bpa4n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-hudson-pm-bp306</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-2021-monogram-fall-in-love-sac-couer-bag-brv81</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-hampstead-mm-brkab</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bs9ak</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2017-leather-continental-wallet-bmdq7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-vintage-monogram-denim-baggy-gm-bozy1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bp3fd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-montaigne-mm-bptr1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-mini-pochette-accessoires-bpv1j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2011-leather-bifold-wallet-bopzy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bomhj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bnnpk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bnwfi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-marly-mm-bpbjg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-straight-leg-pants-bmva6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-pvc-zippy-wallet-bm5jk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-electric-alma-gm-bnaap</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-ribera-mm-bmh8d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-ebene-pattern-coated-canvas-card-holder-bm7fe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-multicolore-alma-mm-bndyf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-suhali-le-talentueux-bag-bns9b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-empreinte-speedy-25-bqsxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2009-monogram-vernis-card-holder-bkypk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-bl4fo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-blnwb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-blp4f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-damier-ebene-neverfull-pouch-bllu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-bkrtf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-monogram-alma-pm-bm1ub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-bljhs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bld2b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-wallet-bkym8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-curieuse-wallet-bkytg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-since-1854-petit-sac-plat-bj42d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-bkzhg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-bandouliere-50-bkzkv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-bky93</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bkn1d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bkmwv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bkhiy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-gm-bim3w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-compact-wallet-bisqm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bctqy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-silk-printed-top-be07c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcslr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-bcrsy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcr6n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcl0a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bcc6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bc63o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-mezzo-bb680</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bb460</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bb13n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-bc0fo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-bazuo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bcm23</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-bcmm5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-baqna</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bc1bk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-40-bcvum</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-af03f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-aem4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aek1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-ae8mg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-af7m8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aeot5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aeos0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aem0s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aem01</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-gm-aht1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-monogram-pattern-coated-canvas-continental-wallet-a1x7x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aanr3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aano1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aan7e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aa2zo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-a9v55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-deauville-a9tgm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-aa8kh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-a9zgp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2018-lv-monogram-zippy-wallet-aa4hz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-pm-aa32n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-a9jyf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-leather-wallet-a8kg7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-my-lv-heritage-monogram-speedy-35-a5sd2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-azur-speedy-30-a68qf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-a3q92</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-vernis-monogram-shoulder-bag-a3mod</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-2019-straight-leg-pants-a6gyr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-9ypk2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-9ype1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-international-wallet-9w44o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-9z7ty</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-9z9cp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-vintage-epi-soufflot-9ym1t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-9mdfa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-lambswool-striped-scarf-9d922</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vernis-bellevue-gm-9av73</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-leather-continental-wallet-95ga4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-vintage-epi-petit-noe-94wgr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-94x63</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vernis-brea-mm-914it</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-8uc6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-printed-skinny-leg-pants-w-tags-8vnsf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-monogram-etui-cigarette-case-8s21x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-continental-wallet-8bx5i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-striped-mini-dress-8n869</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-small-ring-agenda-cover-8mocf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-85iby</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-papillon-30-8fuwz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-petit-bucket-bag-8ak51</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-87dva</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-84lj5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-speedy-25-7oigy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-40-7ow9e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-empreinte-citadine-pm-7ne8i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-epi-sarah-wallet-5o1hv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/satchels/louis-vuitton-2017-city-steamer-pocket-pm-5qldx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-suede-havane-stamped-trunk-gm-PNWNwWrUOyw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-2015-taurillon-tournon-hobo-1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-noe-pm-fzn3d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-cabas-alto-tote-bag-fs6jh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-silk-knee-length-dress-fs6t0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-monogram-sac-shopping-48-fqkwu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-new-wave-bumbag-fs6n9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-pm-fs6nm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-stresa-pm-ajdyo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-speedy-35-919ms</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-silk-scarf-ays7z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-55-998kd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-vintage-monogram-pochette-accessoires-843yx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-pochette-accessoires-acj8u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-new-wave-chain-mm-bcj8u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-garment-bag-b0fsz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-35-93xka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-montaigne-mm-aqywd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2005-monogram-pattern-compact-wallet-al3ig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-bandouliere-30-b4xgc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-vernis-christie-gm-as287</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-denim-neo-cabby-mm-ah3dg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-illustre-monogram-bag-charm-aztbh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-continental-wallet-ay4ra</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-b5441</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-vernis-stanton-tote-bag-bhfch</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-rosewood-avenue-bgnvo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-bfjfu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-pont-neuf-pm-axwra</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-tribeca-mini-apv3s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-antheia-hobo-pm-aeb2p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-mahina-xs-bag-905pc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-2020-lv-monogram-combat-boots-azq9g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-speedy-30-bfdcx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-felicie-my-lv-world-tour-cross-body-bbhod</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-2020-monogram-alma-bb-a5gki</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2019-reverse-monogram-giant-onthego-gm-w-tags-9eka4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-gm-b0r1t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-saleya-pm-bdzr2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-25-b78bk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-epi-leather-belt-b2y09</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-malesherbes-handle-bag-9wcxg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-2018-epi-twist-bucket-bag-8p3oz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-galliera-pm-bgxm0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-silk-mini-skirt-w-tags-ansza</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-triana-bag-a7jew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-musette-tango-at2fp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-vintage-monogram-looping-gm-bgz6i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-riviera-beauty-case-ay83w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-vintage-monogram-nil-bag-aqvp5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-damier-ebene-pattern-wallet-bgid6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-canvas-b1c6c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-eclipse-backpack-bag-charm-au8zc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-empreinte-fascinate-pm-9jb29</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-25-bhnp5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-bicolor-noe-pm-bd61t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-mahina-leather-solar-gm-bek3u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-1988-pochette-porte-monnaie-begh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-b2x8s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-be1ij</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-neverfull-pouch-bbgr4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-colorline-bag-charm-keyholder-ay2k3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-b4phy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-monogram-giant-printed-coat-fvdbg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/louis-vuitton-2022-signature-hooded-wrap-trench-coat-w-tags-fvkbn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-sock-boots-fwci6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-skinny-leg-pants-fvcr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-mini-sac-hl-fviv3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fu9zh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fu6ri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-ftrr3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fti9v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fthsg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-ftgo1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-fqptz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-50-fqkhg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-archlight-sock-sneakers-fvxj9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-verni-4-ring-key-holder-fs4mo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-mini-palm-springs-fvzwg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alzer-65-fvq8x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/monogram-keepall-45-fw4qy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-multicolore-mini-speedy-hl-fw0mh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-stretch-archlight-sock-sneakers-sock-sneakers-fobt8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-printed-mules-fkczz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-printed-mini-dress-fvldp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-knee-length-skirt-fv8kh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/louis-vuitton-silk-mini-skirt-fou4x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-leather-bow-accents-slides-cte0t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-mm-fsm6u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-mahina-muria-frh64</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-duffle-bag-ft2sm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-duffle-bucket-bag-ft5g8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-2004-vintage-pochette-florentine-frwic</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-monogram-montsouris-mm-fmvwc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-reverse-giant-monogram-onthego-tote-bag-f41ek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-mink-bubble-v-bag-charm-fuey1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-malletage-flower-bag-charm-fueqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-tahitienne-cabas-pm-f04tz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-epi-noe-gm-fsg77</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-trousse-toilette-23-fu365</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-into-the-flower-bag-charm-fvch5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-reflect-dragonne-bag-charm-key-holder-fukyu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-silk-mini-shorts-fp8eg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-laureate-desert-lv-monogram-combat-boots-frq2r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-city-steamer-xxl-ftnvq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-damier-ebene-clapton-backpack-ftmx5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-ft38s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-mohair-monogram-glitter-sunset-beanie-fucff</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-artsy-mm-fus5r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-ftpri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-monogram-pochette-metis-dmmqa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-reverse-monogram-pochette-metis-dh7yl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-2016-explorer-sunglasses-asvhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-alzer-anglais-80-aql03</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-aqckl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-pallas-bb-8fyuq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-sullivan-horizontal-pm-ar81x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-reade-pm-ar882</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aqn98</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-deauville-bag-aprri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-clemence-wallet-amads</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-2020-monogram-mink-fur-sleep-mask-w-tags-amm96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-agkpm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-pochette-felicie-insert-am23i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-alj3z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-epi-jasmin-bag-all28</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2002-monogram-pattern-tresor-wallet-ak9i1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2008-monogram-pattern-porte-monnaie-tresor-wallet-ak8aw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-deauville-bag-ak86a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-vernis-brea-mm-ah2mn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2001-monogram-pattern-tresor-wallet-ak9wi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-noe-bag-akao3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-2014-epi-leather-sarah-wallet-akh6n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-mini-lin-speedy-30-ak7kz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-ajmtj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-empreinte-leather-capucines-wallet-agcsm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-neonoe-mm-agfv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-agb9c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-alma-pm-aghgq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-35-afy1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-afxgt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-speedy-30-afxg8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-alma-pm-afp4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-cf6cv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-cao1o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-damier-ebene-trevi-pm-bzeji</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-damier-ebene-berkeley-bag-cf5yl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-damier-ebene-geronimos-waist-bag-c8b7i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-brass-lock-key-set-bm6at</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-vintage-monogram-multicolore-speedy-30-cgpny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-multicolore-monogram-alma-mm-bme8m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/louis-vuitton-damier-azur-pochette-felicie-c7224</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-speedy-30-bll33</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-multicolore-monogram-keepall-45-cfspd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/louis-vuitton-monogram-multicolore-speedy-30-c3jj6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/clutches/louis-vuitton-damier-ebene-neverfull-pochette-c64sb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-montsouris-backpack-gm-bnqix</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/louis-vuitton-mock-neck-knee-length-dress-fplmt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-vernis-cosmetic-pouch-flfld</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-pvc-chunky-sneakers-fzsyc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fqmd9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-monogram-petit-bucket-fpt8g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-sac-chien-50-pet-carrier-fmmgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-suhali-le-talentueux-fqcly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-damier-ebene-highbury-hobo-f0glb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-mohair-monogram-glitter-sunset-beanie-fuck8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-damier-cobalt-coated-canvas-pocket-organizer-fmdp1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-colorblock-pattern-chunky-sneakers-fths0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-monogram-leather-sneakers-ftlrs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-lv-monogram-leather-sneakers-fucu1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-ftlgc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-pochette-florentine-xs-ftl3n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-boite-train-case-vanity-trunk-ftkpk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-summer-trunk-neverfull-mm-ftcu6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-shadow-tote-bag-w-pouch-ftb6e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-party-bumbag-bracelet-fnv72</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-empreinte-montsouris-nm-backpack-fs2u5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-printed-studded-accents-sneakers-fqyzm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-tuileries-hobo-bag-fpxoj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-montsouris-mm-fpo0x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-v-mm-fou17</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-leonor-foly4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-electric-epi-pegase-55-fotv0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-vernis-sherwood-pm-fm0yi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/louis-vuitton-monogram-empreinte-artsy-mm-flwi9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/louis-vuitton-vintage-epi-mandara-mm-bag-fpllu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/louis-vuitton-mini-shorts-fw3bz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-suede-lace-up-boots-frpdv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-bandouliere-bag-strap-fs948</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fw1oz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-azur-neverfull-mm-fq6yq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pallas-shopper-fqu6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-city-steamer-ew-fqe0b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-since-1854-neverfull-mm-w-pouch-fqhiw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-monogram-hair-cubes-ficme</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-key-holder-fvsxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-baby-cashmere-scoop-neck-top-fqcg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-cashmere-scoop-neck-top-fqc8o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-long-sleeve-button-up-top-fml6i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-leather-d-orsay-pumps-ft07w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2021-monogram-giant-by-the-pool-neverfull-mm-w-pouch-frzxg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-twist-mm-frkb7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-surene-mm-frqew</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-fr9jl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-zoom-with-friends-sac-plat-fqv55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-cherry-blossom-pochette-accessoires-fqnki</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fqa9a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-fizrh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-empreinte-speedy-bandouliere-20-frcfv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-masters-collection-manet-neverfull-mm-frjey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-vachetta-luggage-tag-fqe0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-menilmontant-mm-fpruv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-cabas-mezzo-eo1zh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-ejrhi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-60-efngh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-stresa-pm-e92t4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-fetish-lockit-voyage-e812v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-e6828</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-bandouliere-55-e65a2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-musette-salsa-pm-e2pvz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-pegase-legere-55-dv6ko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-damier-ebene-pegase-55-d98w2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-50-curdy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-45-cur9l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-calfskin-sc-bag-mm-dvcd0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-patent-leather-combat-boots-ftnxn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/louis-vuitton-printed-combat-boots-ftf5i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/louis-vuitton-satin-crystal-embellishments-pumps-ft3vf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-monogram-trousse-toiletry-19-fqrg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-damier-ebene-ravello-pm-fspw3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-holiday-2022-paris-place-vendome-monogram-mini-pochette-fsj28</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-frzhw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-45-fr3i8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-damier-azur-summer-trunks-neonoe-fta4w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-2020-monogram-on-my-side-mm-w-strap-fs8ce</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-fascination-lockit-bag-fs5zg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-lockme-bucket-bag-fsssu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-louis-vuitton-damier-ebene-neverfull-mm-fsrfz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-lv-monogram-coated-canvas-wallet-flcfl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/louis-vuitton-wide-leg-pants-fi6j7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/louis-vuitton-lv-monogram-shearling-slingback-sandals-fqmz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-empreinte-monogram-giant-by-the-pool-neonoe-bb-fs2yq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-idylle-neverfull-mm-fte5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-pm-fop7g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/mini-bags/louis-vuitton-monogram-vernis-lafayette-street-coin-purse-bracelet-fnqwb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-keepall-55-e621f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/waist-bags/louis-vuitton-monogram-daily-multi-pocket-30mm-belt-e0lif</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-vintage-monogram-luco-tote-dw3ru</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-garment-cover-dk021</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-neverfull-mm-deb8z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-damier-ebene-soho-backpack-db0gd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-vintage-monogram-carryall-40-d8j3k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/backpacks/louis-vuitton-vintage-monogram-montsouris-mm-cs8uo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-monogram-palermo-pm-covb4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-empreinte-bagatelle-e1qau</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-epi-twist-mm-eli8i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/louis-vuitton-monogram-pvc-pallas-chain-dvuxs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/louis-vuitton-striped-mock-neck-polo-ftxd9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-taiga-rainbow-steamer-pm-ft92f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/louis-vuitton-damier-ebene-neverfull-mm-ftpig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/luggage-and-travel/louis-vuitton-monogram-keepall-55-ftf1t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/louis-vuitton-damier-ebene-marais-ft7vk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sneakers/louis-vuitton-leather-colorblock-pattern-sneakers-fqyqo</t>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-midi-length-dress-g10qk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-midi-length-dress-g04oi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-long-dress-g07yd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-g05ig</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-g07j2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-plaid-print-midi-length-dress-w-tags-g04xl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-mock-neck-mini-dress-g0ych</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g1320</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-tie-dye-print-mini-dress-g12hn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-mini-dress-g10yg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-scoop-neck-mini-dress-g12v4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g12sl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/aje-printed-mini-dress-g0so0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/dodo-bar-or-polka-dot-print-v-neck-blouse-g15lu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-plaid-print-crew-neck-blouse-g1440</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sleeper-crew-neck-midi-length-dress-g15nx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-mini-dress-fzun6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-fzvfg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-mini-dress-g04ao</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-mock-neck-mini-dress-g033n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-long-dress-fztpd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-long-dress-g043s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-long-dress-g02lk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-v-neck-mini-dress-fzyec</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-v-neck-long-dress-g05bz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/assembly-plaid-print-mock-neck-top-g11jg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-polka-dot-print-mini-dress-g150l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sleeper-square-neckline-long-dress-g13zw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-w-tags-g13io</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-lamb-leather-utility-jacket-g13ci</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/stine-goya-polka-dot-print-long-dress-g14ep</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-mini-dress-g13nv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/sandy-liang-faux-fur-jacket-g0m81</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-g0a6a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/sandy-liang-printed-faux-fur-jacket-w-tags-g0z0t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/dion-lee-v-neck-long-dress-g0z9p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-cowl-neck-long-dress-g10sf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/sandy-liang-faux-fur-jacket-w-tags-g0z2g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-striped-v-neck-crop-top-g141q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-tie-dye-print-mini-skirt-w-tags-g12wo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/miaou-printed-mini-skirt-g14dd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-printed-mock-neck-blouse-g14dc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/rotate-birger-christensen-coat-g04dc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/the-vampire-s-wife-silk-long-dress-g00t8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-long-dress-w-tags-g05w5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christopher-esber-silk-long-dress-g04fw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/lemaire-tie-dye-print-cowl-neck-blouse-g0x0y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/nanushka-midi-length-skirt-w-tags-g12a2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-g11ye</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-crew-neck-short-sleeve-blouse-g11nx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-silk-long-skirt-g12d2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/adam-selman-sport-floral-print-skinny-leg-pants-g133j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-bateau-neckline-mini-dress-g12wa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-printed-crew-neck-blouse-g160n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-striped-crew-neck-sweater-g15f8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-v-neck-top-w-tags-g03lv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cedric-charlier-virgin-wool-knee-length-dress-g0gul</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-floral-print-knee-length-skirt-g0a1v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-silk-v-neck-top-g06di</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g12qs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/doen-printed-mini-shorts-w-tags-g12a4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/dodo-bar-or-printed-romper-g13a0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-tie-neck-short-sleeve-blouse-g12j6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/fleur-du-mal-v-neck-sleeveless-bodysuit-g17u4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-raw-edge-trim-mini-skirt-w-tags-g04vp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-silk-long-skirt-g06x9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-tie-dye-print-mini-skirt-w-tags-g02sm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/stine-goya-printed-crew-neck-blouse-w-tags-g00fg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/gabriela-hearst-midi-length-skirt-g0oxa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/hellessy-alpaca-printed-blouse-g0nsi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-scoop-neck-sleeveless-top-w-tags-g07md</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-v-neck-long-dress-g0qui</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-cashmere-striped-sweater-g116t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-bateau-neckline-blouse-w-tags-g05rt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-striped-sweater-g0ara</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-striped-sweater-g0aqb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/acler-long-skirt-g11zv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/farm-rio-floral-print-bottoms-w-tags-g136d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/r13-plaid-print-short-sleeve-tunic-g13sv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-v-neck-sweater-g17my</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/r13-printed-crew-neck-sweater-g1514</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-turtleneck-sweater-g17jj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-silk-printed-button-up-top-fzyz3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-wide-leg-pants-g11ui</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/pangaia-crew-neck-long-sleeve-sweatshirt-g14vu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/loq-leather-animal-print-boots-g19ca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/stine-goya-plaid-print-straight-leg-pants-fzvdz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/anine-bing-patent-leather-chain-link-accents-western-boots-fzrv1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-g0xgy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-striped-plunge-neckline-crop-top-g12mv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-high-rise-straight-leg-jeans-w-tags-g124n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-skinny-leg-jeans-g11zw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-lupita-embossed-leather-slides-g166k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-crochet-trim-mini-skirt-fzw5e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-embroidered-accent-mini-skirt-g04yp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rosetta-getty-long-sleeve-button-up-top-g0u8t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/petar-petrov-cashmere-cowl-neck-sweater-g0oqm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/simon-miller-three-quarter-sleeve-button-up-top-g11sd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-mid-rise-straight-leg-jeans-g11rc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-animal-print-wide-leg-pants-g1105</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-g0xo2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/galvan-halterneck-jumpsuit-g0v6a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-high-rise-straight-leg-jeans-w-tags-g123n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/jacquemus-wide-leg-pants-g0013</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-eyelet-trim-midi-length-skirt-fzyud</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-printed-crew-neck-blouse-w-tags-fzyn0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/loveshackfancy-tie-dye-print-square-neckline-romper-g049a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/gabriela-hearst-scoop-neck-sweater-g0p1j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-frankie-shop-v-neck-sweater-g0kgt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/peter-do-long-sleeve-button-up-top-g0wgh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/by-malene-birger-straight-leg-pants-g06qu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/the-elder-statesman-cashmere-mini-shorts-g04ro</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/farm-rio-floral-print-ruffle-embellishment-top-w-tags-g1382</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/r13-graphic-print-crew-neck-t-shirt-g15n5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-v-neck-sweater-w-tags-g12tb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/jacquemus-high-rise-wide-leg-jeans-g13am</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-lupita-patent-leather-slides-g164c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/farm-rio-crew-neck-jumpsuit-g123a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-v-neck-short-sleeve-bodysuit-g11l2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/sea-new-york-crew-neck-sweater-g123e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/hereu-shearling-whipstitch-trim-moccasins-fzvxd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-lamb-leather-mini-skirt-w-tags-fzz6y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/staud-beaded-shoulder-bag-g0url</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/jacquemus-leather-mules-fztlj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-square-neckline-three-quarter-sleeve-crop-top-g081s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/loveshackfancy-eyelet-trim-skirt-set-fzwjv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rotate-birger-christensen-lace-pattern-wide-leg-pants-g01jm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-off-the-shoulder-three-quarter-sleeve-blouse-g00jr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/r13-graphic-print-jumpsuit-fzwp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/jacquemus-printed-scarf-fybtx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/rachel-comey-patent-leather-mules-g03ka</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-leather-colorblock-pattern-chelsea-boots-fznvx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/wandler-leather-slides-fzur8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/krewe-wayfarer-tinted-sunglasses-fztep</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-lovesome-oversize-sunglasses-fztd0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/by-far-embossed-leather-printed-shoulder-bag-g0n0o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-absente-wayfarer-sunglasses-fzhxk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/albus-lumen-shawl-fzguq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/by-far-small-pebbled-leather-hobo-g0nh4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/rejina-pyo-leather-crocodile-bucket-bag-g0kx5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/elleme-shearling-teddy-caramel-g0kik</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-medium-oxblood-shopping-bag-g0m6f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/come-back-as-a-flower-oatmeal-sweatpants-8uj4n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/khaite-printed-knee-length-dress-fzm9h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-w-tags-fzry5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-v-neck-mini-dress-g17yq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/rokh-parka-fwh2t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/ganni-faux-fur-coat-fzueg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/rachel-comey-coat-fzn0r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/lauren-manoogian-baby-alpaca-midi-length-dress-fyn0t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/marine-serre-2019-white-line-bodysuit-w-tags-fyjn6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/by-far-patent-leather-boots-fzur2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-slides-g0gr7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/alexandre-vauthier-suede-d-orsay-pumps-ek6zd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/gabriela-hearst-leather-pumps-fsd9b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/wandler-leather-boots-g3jx0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-silk-long-dress-g3jwg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-striped-v-neck-sweater-fuha4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/dion-lee-plaid-print-v-neck-top-fonaa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-midi-length-dress-g1l4x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-printed-mini-dress-w-tags-g1isz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-midi-length-dress-g1p7q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/r13-floral-print-mini-dress-g1f5m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-g1kor</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/apiece-apart-scoop-neck-mini-dress-g1em6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-paisley-print-mini-dress-g1hp1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-animal-print-mini-dress-g1602</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/olivia-von-halle-silk-long-dress-w-tags-g0dtp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/gabriela-hearst-off-the-shoulder-midi-length-dress-g18yh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-animal-print-long-dress-g184y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-printed-knee-length-dress-g17w0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-mini-dress-g0hsh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-w-tags-g0g18</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-printed-long-dress-g0fba</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-midi-length-dress-g0dpx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/aya-muse-bateau-neckline-midi-length-dress-g0bpq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-v-neck-mini-dress-g16bx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-mini-dress-w-tags-g1dab</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-striped-long-dress-g1hpc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-mini-dress-g1l69</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sandy-liang-plaid-print-midi-length-dress-g1inq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-g1lr3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-plaid-print-mini-dress-g04sq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-mini-dress-w-tags-g19g6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rokh-tie-neck-long-dress-w-tags-g16mk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-midi-length-dress-g1fvz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-g1egn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-plaid-print-long-dress-w-tags-g18mx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-g18l0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-square-neckline-mini-dress-w-tags-g17vu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-animal-print-long-dress-g1da2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-square-neckline-mini-dress-g1igk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g1iea</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-plaid-print-faux-fur-jacket-g0c1y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-g0f39</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-mini-dress-g0bub</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-long-dress-g17xg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-mock-neck-midi-length-dress-g0e1p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-silk-paisley-print-crop-top-g1i0u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-blazer-g0cm2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-plaid-print-mock-neck-blouse-g0ilh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-crew-neck-mini-dress-g18vx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-silk-mini-dress-g1h8f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-colorblock-pattern-strapless-crop-top-g1khp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-blazer-g0cp9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-g19s5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alice-mccall-patterned-mini-dress-g18cu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-long-dress-g1btx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/nanushka-mini-skirt-g1hzk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-long-dress-g0dc5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/nanushka-bow-accents-mini-skirt-g1fps</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-g1ol2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-floral-print-crew-neck-top-w-tags-g0c5x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-crew-neck-long-sleeve-sweatshirt-g1d6i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-silk-printed-blouse-g1i7n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/isa-arfen-wide-leg-pants-g1nyg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-printed-crew-neck-top-w-tags-g0bux</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/rhode-printed-mini-skirt-w-tags-g0b96</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-g0iwl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-floral-print-long-skirt-g0fi7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-lamb-leather-v-neck-crop-top-g1bli</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-colorblock-pattern-scoop-neck-sweater-g1mcq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/rhode-printed-mini-skirt-w-tags-g0bee</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-v-neck-short-sleeve-crop-top-g0b27</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-off-the-shoulder-short-sleeve-crop-top-g0xsl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-animal-print-midi-length-skirt-g0ivx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/sea-new-york-pleated-accents-midi-length-skirt-g17oc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-crew-neck-crop-top-w-tags-g1ct2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-scoop-neck-crop-top-w-tags-g1b7f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/sea-new-york-striped-square-neckline-sweater-g1brl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/sea-new-york-midi-length-skirt-g1er1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-silk-crew-neck-blouse-g0h1x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/bassike-scoop-neck-midi-length-dress-g0gvw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-low-rise-skinny-leg-jeans-g17rc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-crew-neck-short-sleeve-crop-top-g18kt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-scoop-neck-crop-top-w-tags-g1cua</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-silk-mini-skirt-g1m3w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-colorblock-pattern-mock-neck-sweater-g0cw7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/r13-floral-print-crew-neck-sweater-g0cbz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/staud-patent-leather-chelsea-boots-w-tags-g0q16</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-mock-neck-long-sleeve-top-g1dk2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-raw-edge-trim-mini-skirt-g1kem</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christopher-esber-crew-neck-sweater-w-tags-g1qq8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-printed-long-sleeve-tunic-g1mgl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-striped-scoop-neck-sweater-g1mea</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/rosetta-getty-leather-boots-g0bkf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-crew-neck-sleeveless-crop-top-g0f23</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/doen-mini-shorts-g1kkm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-crew-neck-crop-top-g1wuz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-crew-neck-long-sleeve-sweatshirt-g0g1w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/wandler-leather-slides-g12t2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-mock-neck-long-sleeve-sweatshirt-g1ejs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/rosetta-getty-snakeskin-animal-print-riding-boots-g1qba</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-crew-neck-short-sleeve-top-g1dnm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-v-neck-short-sleeve-crop-top-g1gvb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/by-malene-birger-open-front-sweater-g1e5p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-striped-crew-neck-sweater-g1dxu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-long-sleeve-button-up-top-g1mg0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/r13-skinny-leg-pants-g0h8r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/live-the-process-v-neck-long-sleeve-top-g0ff4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/gabriela-hearst-cashmere-tie-dye-print-sweater-g17ch</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-crew-neck-sweater-g1fim</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-baby-alpaca-bateau-neckline-sweater-g1dhx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-crew-neck-short-sleeve-top-g1cx2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-g1gku</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-rubber-rain-boots-g1hwc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-bateau-neckline-long-sleeve-sweatshirt-g1atz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-skinny-leg-jeans-g0c7w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-mock-neck-blouse-g0co4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/the-frankie-shop-sweatpants-g0yrj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/bassike-straight-leg-pants-g0dsw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/wandler-leather-slides-g0xur</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-bateau-neckline-sweater-g1lh7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-suede-western-boots-g0v7m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/little-liffner-wide-leather-waist-belt-g0nn6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/assembly-patterned-knit-beanie-g0kuh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-wide-leg-pants-g1hw1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-mock-neck-long-sleeve-crop-top-g1wqr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-v-neck-sweater-g1w9c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-rubber-rain-boots-g05k5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/krewe-cat-eye-gradient-sunglasses-g0hf8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-straight-leg-pants-g1gji</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-crew-neck-long-sleeve-sweatshirt-g1b0x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rixo-silk-floral-print-crop-top-g1gr2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-square-neckline-three-quarter-sleeve-crop-top-g1o1m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/ganni-belt-g0riy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/r13-bateau-neckline-sweater-w-tags-g1b4y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/dion-lee-one-shoulder-short-sleeve-top-g181w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/hellessy-one-shoulder-short-sleeve-blouse-g17sc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/cult-gaia-merino-wool-crew-neck-sweater-g1d9c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/pangaia-cowl-neck-long-sleeve-sweatshirt-g1k9u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-tie-dye-print-sweater-w-tags-g0e3h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-graphic-print-sweater-g1gpg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-printed-plunge-neckline-blouse-g0c29</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-v-neck-blouse-g0ir4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-long-sleeve-blouse-g06q4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/batsheva-cotton-dad-hat-fzupz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/batsheva-cotton-dad-hat-fzuns</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/staud-patent-leather-handle-bag-fzhh1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/staud-embossed-leather-handle-bag-fz6hi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/jacquemus-wool-bucket-hat-g0ach</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/cult-gaia-luna-acrylic-crossbody-bag-fvbjq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/staud-leather-moon-bag-w-tags-fz5x8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/staud-leather-bucket-bag-fz81u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/ganni-cotton-logo-baseball-cap-g0sos</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/adam-selman-cat-eye-mirrored-sunglasses-g0o3k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/jacquemus-cotton-bucket-hat-fzuv8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/by-far-mini-leather-handle-bag-fzlwy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-vegan-leather-shopping-tote-fzhcu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/shrimps-plastic-handle-bag-fz9g5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/simon-miller-suede-handle-bag-fz77b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/waist-bags/senreve-convertible-leather-waist-bag-fyrtm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-ftt6q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-long-dress-g3iv7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/markarian-printed-mini-dress-w-tags-g3iat</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/the-frankie-shop-blazer-w-tags-fsfj0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-fyjob</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/r13-skinny-leg-pants-fmzhz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/r13-straight-leg-pants-g3h6w</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-strapless-knee-length-dress-fvq0e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-silk-crew-neck-sweater-g3fs9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/rachel-comey-leather-whipstitch-trim-mules-g3fs8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/gabriela-hearst-wide-leg-pants-fyih9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-plaid-print-midi-length-dress-g3ews</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-printed-midi-length-dress-g3ema</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/jacquemus-raw-edge-printed-bucket-hat-w-tags-w-tags-g3elm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-g3ek4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/wandler-high-rise-straight-leg-jeans-g3ehj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-long-dress-fvk47</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/galvan-mock-neck-long-dress-w-tags-g3e6z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-midi-length-dress-w-tags-g3e2o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-plaid-print-v-neck-sweater-fvhdd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/anine-bing-skinny-leg-pants-fvzji</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-paisley-print-mini-dress-g3dkh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/simon-miller-high-rise-wide-leg-jeans-g3d95</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-crew-neck-long-dress-g3d2v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/staud-leather-belt-g3ct7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-long-dress-w-tags-g3cpa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-v-neck-long-sleeve-tunic-g3ch0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-w-tags-g3caf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/lemaire-straight-leg-pants-g3c50</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/the-frankie-shop-straight-leg-pants-w-tags-g3c4v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/apiece-apart-wide-leg-pants-g3c4o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-long-dress-g3bvk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/doen-silk-jumpsuit-fmnmh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/petar-petrov-long-sleeve-tunic-w-tags-g3blz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/aje-crew-neck-long-dress-fvcli</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/la-ligne-striped-scoop-neck-top-g3bbi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-short-sleeve-button-up-top-g3b1a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/anine-bing-turtleneck-sweater-g3av8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/rachel-comey-v-neck-jumpsuit-g3aiy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/rachel-comey-v-neck-jumpsuit-g3aiw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/staud-high-rise-wide-leg-jeans-ftopf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-crew-neck-mini-dress-g3a0f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/dion-lee-off-the-shoulder-mini-dress-ft9zb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/aje-crew-neck-mini-dress-g39wf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/rixo-floral-print-evening-jacket-w-tags-g0lfc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-jacket-g0lhy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-silk-long-dress-g0kwr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-striped-long-dress-g0gse</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-midi-length-dress-w-tags-g0j1i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-animal-print-coat-g0f84</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-silk-long-dress-g0at4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-long-dress-g0iqk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-striped-blazer-g0iqb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-colorblock-pattern-bomber-jacket-g0hc7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-midi-length-dress-g0ekd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-floral-print-long-dress-g0jke</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-mini-dress-g0jde</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-polka-dot-print-long-dress-w-tags-g0a95</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-polka-dot-print-long-dress-w-tags-g0a6n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-g09aa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-printed-knee-length-dress-g093u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-g06wl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-tie-dye-print-long-dress-g08hj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/anine-bing-v-neck-knee-length-dress-g0d2m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-long-dress-g0cmg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-g0h5j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/r13-plaid-print-knee-length-dress-g0fnr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g0jiu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-mini-dress-g0gap</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-silk-midi-length-dress-g0euv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-floral-print-long-dress-g0l7g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-striped-faux-fur-coat-g0jjc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/stine-goya-printed-mini-dress-fyo3t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sandy-liang-printed-long-dress-fz7kk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/stine-goya-floral-print-mini-dress-fz3tl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alice-mccall-floral-print-mini-dress-fz5z2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-striped-mini-dress-fz0vc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-floral-print-long-dress-fz03v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-polka-dot-print-midi-length-dress-fyr2u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/nanushka-v-neck-mini-dress-g018d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-polka-dot-print-long-dress-w-tags-g0b22</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-long-dress-w-tags-g08ks</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-colorblock-pattern-performance-coat-g09iy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-denim-jacket-g0bze</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-g0d84</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/marine-serre-mock-neck-mini-dress-g0idb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-crew-neck-long-dress-g0kvu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/lemaire-cowl-neck-midi-length-dress-fvwfy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-fz73e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-knee-length-dress-fyvez</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-long-dress-fyov3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/lemaire-turtleneck-midi-length-dress-fyrwt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-v-neck-long-dress-w-tags-fyqvd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-midi-length-dress-fypv7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/fleur-du-mal-silk-long-dress-fzpdj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-scoop-neck-long-dress-w-tags-fz9dc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-mini-dress-g06z6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-plaid-print-long-dress-fzl0j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-polka-dot-print-long-dress-w-tags-g0b47</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-scoop-neck-mini-dress-g02t0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-scoop-neck-long-dress-g09w0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/fleur-du-mal-turtleneck-midi-length-dress-fz4ts</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-polka-dot-print-long-dress-fys4k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-floral-print-long-dress-w-tags-fz8bp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-printed-v-neck-crop-top-g09h7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-striped-crew-neck-blouse-g0ftk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/bassike-scoop-neck-long-dress-g0eww</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-g0haz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-v-neck-long-dress-w-tags-fz5t5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/paloma-wool-printed-square-neckline-crop-top-fznn0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-square-neckline-mini-dress-g0ch5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/ienki-ienki-faux-fur-jacket-g0gpn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-polka-dot-print-long-skirt-g0g10</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/toteme-scoop-neck-long-dress-w-tags-fxezz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-animal-print-long-dress-fvh3f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-square-neckline-midi-length-dress-fzfal</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-striped-crew-neck-sweatshirt-fzkgq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/anine-bing-silk-mini-dress-g00fm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-polka-dot-print-long-dress-w-tags-g0abk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-floral-print-long-dress-g0cmy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-mini-dress-g0hml</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-crew-neck-mini-dress-g0em1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-g0gv0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/the-frankie-shop-coat-fzoyr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-crew-neck-long-dress-g090o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-v-neck-mini-dress-g0e64</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/anine-bing-silk-knee-length-dress-g0ct4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-v-neck-long-dress-fzd0s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-crew-neck-mini-dress-fz99t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-jacket-g08a2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-scoop-neck-tunic-g0hv0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-printed-v-neck-crop-top-fz5vw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-printed-mini-dress-fz5bv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-scoop-neck-long-sleeve-bodysuit-g0hzx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-lace-pattern-mock-neck-top-g0jbi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-mini-dress-fynj5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-silk-animal-print-blouse-fzust</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-v-neck-three-quarter-sleeve-crop-top-g09mm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-printed-v-neck-blouse-g0egh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-printed-bateau-neckline-crop-top-g0k7j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/stine-goya-silk-wide-leg-pants-g0i0i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-scoop-neck-sleeveless-crop-top-fzlf8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/khaite-merino-wool-v-neck-bodysuit-fzz0f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-silk-square-neckline-blouse-fzxr0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-v-neck-three-quarter-sleeve-crop-top-g0b0t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rixo-floral-print-square-neckline-crop-top-g0i2d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/rachel-comey-leather-slingback-sandals-fzd27</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-silk-midi-length-skirt-fz8f5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-rubber-rain-boots-g054y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-printed-wide-leg-pants-g01v7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/the-frankie-shop-trench-coat-g008e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-floral-print-midi-length-skirt-g08p2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/farm-rio-printed-raw-edge-trim-short-set-g0b95</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-w-tags-g0cbf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/brother-vellies-leather-animal-print-sneakers-g0gy6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-baby-alpaca-bateau-neckline-sweater-g0e0c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-scoop-neck-sleeveless-top-g0brs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rosetta-getty-wide-leg-pants-fz5kp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-v-neck-short-sleeve-blouse-g0exp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-scoop-neck-long-sleeve-button-up-top-g0jab</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/staud-leather-boots-g0hp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/live-the-process-v-neck-long-sleeve-blouse-g0fwm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-bateau-neckline-crop-top-g0f14</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/rachel-comey-leather-boots-g0bsp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/sea-new-york-midi-length-skirt-g0gf5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/bassike-cashmere-one-shoulder-sweater-g0kdh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/rachel-comey-v-neck-jumpsuit-g0k2n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/anine-bing-patent-leather-boots-fzj6h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-scoop-neck-long-sleeve-blouse-fzxdp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/the-elder-statesman-tie-dye-print-scoop-neck-tunic-g0jij</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/reike-nen-leather-animal-print-boots-fzfl2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/by-far-leather-sock-boots-fzcbi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-ami-90-leather-slides-fzzna</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/simon-miller-crew-neck-sleeveless-tunic-fztth</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/aeyde-chelsea-boots-fzzxq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-wide-leg-pants-g0glv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-g11av</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/farm-rio-printed-romper-fz0q9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-crew-neck-three-quarter-sleeve-button-up-top-g0j9h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/aeyde-combat-boots-fyy0f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/the-frankie-shop-mock-neck-long-sleeve-sweatshirt-fzrgy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-crew-neck-long-sleeve-blouse-fzmv1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-crew-neck-sweater-w-tags-g0gcn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-gilda-leather-slides-fzz9s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-wide-leg-pants-g08x1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-plaid-print-straight-leg-pants-g0cuq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-low-rise-skinny-leg-jeans-g0dio</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-graphic-print-crew-neck-sweatshirt-g0gnt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/the-frankie-shop-bateau-neckline-long-sleeve-sweatshirt-g0frb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-plaid-print-long-sleeve-button-up-top-g08hl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/doen-high-rise-wide-leg-jeans-g0dxt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/staud-suede-boots-fz1k5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/staud-mid-rise-straight-leg-jeans-fzyld</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-g0ap2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rixo-plunge-neckline-three-quarter-sleeve-button-up-top-w-tags-g09ze</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/apiece-apart-striped-short-set-g0d57</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-mid-rise-straight-leg-jeans-g0ce5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-v-neck-sweater-g0bh8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-printed-mock-neck-button-up-top-g0gvd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/by-far-striped-slides-g0ih3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/aeyde-leather-pleated-accents-chelsea-boots-fzi81</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/staud-embossed-leather-printed-rain-boots-fzg36</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/lemaire-virgin-wool-wide-leg-pants-fzqfg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/rachel-comey-eyelet-trim-cover-up-g08f3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-polka-dot-print-mock-neck-blouse-g0a8i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/shrimps-printed-wide-leg-pants-g09pz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/lauren-manoogian-leather-slides-g0eul</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/marques-almeida-raw-edge-trim-knee-length-skirt-fz1a1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/anine-bing-suede-studded-accents-boots-fz96t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/sleeper-pajamas-fzifz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/sir-the-label-sweatpants-g07p6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-straight-leg-pants-g04mg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-g0dg2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-g0d89</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-wide-leg-jeans-fz2dv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-graphic-print-crew-neck-crop-top-fzlsd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/farm-rio-printed-v-neck-sweater-fzkth</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-high-rise-skinny-leg-jeans-fzwq2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-cashmere-striped-sweater-fz1us</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-high-rise-wide-leg-jeans-fzwkd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/natasha-zinko-high-rise-straight-leg-jeans-fztv3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-high-rise-straight-leg-jeans-fztrr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-g086d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/rachel-comey-suede-leather-trim-embellishment-pumps-g0an5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/cedric-charlier-straight-leg-pants-fyvvq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/gabriela-hearst-bateau-neckline-short-sleeve-top-fzkpy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/aje-wide-leg-pants-w-tags-fz7n5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/cult-gaia-mini-shorts-fzar9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/toteme-mid-rise-straight-leg-jeans-fz9m8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/reike-nen-leather-lasercut-accents-slides-g0c7s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-straight-leg-jeans-fz8x5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-crew-neck-long-sleeve-sweatshirt-fz8ak</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/toteme-high-rise-wide-leg-jeans-fz9h6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/rosetta-getty-leather-slides-fzp2d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/ganni-pleated-accents-slides-fzoom</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/attico-nylon-crystal-embellishments-slides-fzn6j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/amina-muaddi-yigit-satin-d-orsay-pumps-fzxuu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/apiece-apart-wide-leg-pants-g07r0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/doen-mid-rise-straight-leg-jeans-fz5kk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-skinny-leg-jeans-fz5jq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/aeyde-leather-riding-boots-fz42o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-silk-crew-neck-blouse-fz200</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/the-frankie-shop-mini-shorts-fzrqc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/staud-slides-fzpn6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/b-sides-high-rise-wide-leg-jeans-fzz5d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/b-sides-high-rise-wide-leg-jeans-fzz36</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/staud-wide-leg-pants-fz07r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/farm-rio-floral-print-romper-fyznc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/sea-new-york-crew-neck-sweater-fywdo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-high-rise-straight-leg-jeans-g0hez</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/r13-mock-neck-long-sleeve-sweatshirt-g0lhg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-tie-dye-print-sweater-g0dw2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-skinny-leg-pants-g0fms</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-high-rise-straight-leg-jeans-g0f2h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/sleeper-ruffle-embellishment-pant-set-w-tags-g0h2k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-g0ife</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/wandler-pumps-fytf3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-crew-neck-long-sleeve-button-up-top-g0dn5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-v-neck-three-quarter-sleeve-top-g0hpz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/peter-do-leather-animal-print-boots-fyr38</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/anine-bing-suede-cutout-accent-lace-up-boots-fz0e6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-crew-neck-top-g0d7n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-mock-neck-long-sleeve-sweatshirt-g0gg7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-suede-boots-fyoqp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/by-far-sandals-fz2fn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-baby-alpaca-bateau-neckline-sweater-g0gzy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/gabriela-hearst-fur-slides-fz0o0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/heron-preston-logo-baseball-cap-fz7z9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/amiri-leather-animal-print-sneakers-fzmxu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/ganni-high-rise-straight-leg-jeans-fzuwo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rixo-silk-printed-blouse-g0apc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/pangaia-turtleneck-long-sleeve-sweatshirt-g0e3r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/new-balance-x-staud-leather-colorblock-pattern-chunky-sneakers-fz4ny</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/rachel-comey-leather-mules-fznpr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/the-frankie-shop-straight-leg-pants-fzse5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/paloma-wool-leather-slingback-sandals-g0bs5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-scoop-neck-long-sleeve-sweatshirt-fz8dn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/apiece-apart-sweatpants-fz78f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/ganni-silk-striped-pajamas-fz758</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/pangaia-pajamas-fz6f6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/neous-mules-fzlrf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/a-w-a-k-e-mode-leather-mules-fzud9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-mock-neck-short-sleeve-blouse-fzalh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-mock-neck-long-sleeve-blouse-fzws0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/lemaire-mock-neck-sweater-fywf8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/r13-animal-print-skinny-leg-pants-w-tags-fz5nh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/staud-plastic-leather-trimmed-handle-bag-g0h0m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/rejina-pyo-one-piece-fyjm1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/r13-canvas-sneakers-g05d0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-slides-fzrtx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-slides-fzr9j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/sleeper-mini-shorts-fz0q4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-wide-leg-jeans-w-tags-fz71l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/attico-satin-cutout-accent-mules-fz8zz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-pvc-sandals-fzldw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/staud-leather-beaded-accents-slides-fzhpf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-gladiator-sandals-fz85q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/cult-gaia-leather-printed-mules-fz6yg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/rachel-comey-velvet-animal-print-mules-fzwl2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/ganni-sandals-fz03d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/emme-parsons-sneakers-fz16c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/simon-miller-patent-leather-mules-fz9t6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/staud-leather-animal-print-slingback-pumps-g0b8s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/boyy-leather-handle-bag-w-strap-g0494</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/boyy-ponyhair-leather-handle-bag-g0jsz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/rachel-comey-mules-fyudl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/senreve-grained-leather-handle-bag-w-strap-g0bxu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/cult-gaia-fabric-handle-bag-fzsas</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/cult-gaia-v-neck-sleeveless-crop-top-ftbaw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-g11vz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-three-quarter-sleeve-button-up-top-g0opi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-printed-crew-neck-sweater-g0yk8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/garrett-leight-wilson-round-sunglasses-fzxdn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-scoop-neck-short-sleeve-crop-top-fu317</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-long-dress-g2ws9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-silk-long-dress-fzx63</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-square-neckline-long-dress-fzzlo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/toteme-crew-neck-sleeveless-top-fxc7r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/cult-gaia-leather-handle-bag-fxlsw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/staud-embossed-tote-bag-fxcx5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/jacquemus-suede-handle-bag-fx9i2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/cult-gaia-acrylic-handle-bag-fmumu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-lilit-wayfarer-sunglasses-fl49u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/farm-rio-high-rise-wide-leg-jeans-w-tags-fzbb9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/la-ligne-short-sleeve-polo-fzb32</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-graphic-print-crew-neck-t-shirt-fz6m7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/amiri-mid-rise-skinny-leg-jeans-fzwd5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-colorblock-pattern-turtleneck-sweater-fzhb8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/doen-baby-alpaca-mock-neck-sweater-g0haw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-fzj10</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-lovesome-one-round-sunglasses-fwrft</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/gabriela-hearst-suede-animal-print-lace-up-boots-fzew9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/loveshackfancy-tassel-accents-sweatpants-fy4vp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-v-neck-midi-length-dress-fpr5i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-long-dress-fyldo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/peter-do-turtleneck-sweater-fydev</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/loveshackfancy-floral-print-embroidered-accent-robe-w-tags-fyliq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-fygh7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/jacquemus-skinny-leg-pants-fytg9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-silk-long-dress-fy4j9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/khaite-cashmere-mock-neck-sweater-fz9t7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-wide-leg-jeans-ft38u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/la-ligne-skirt-set-fti30</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christopher-esber-bateau-neckline-long-dress-w-tags-fusya</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/toteme-coat-fo4nl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rosetta-getty-v-neck-long-dress-w-tags-fmr6k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-floral-print-long-dress-fybio</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/lauren-manoogian-canvas-mules-fxbbb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/toteme-wide-leg-pants-fpsxh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/farm-rio-printed-midi-length-skirt-w-tags-fxdd3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-plaid-print-crew-neck-blouse-fyjc9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/r13-wide-leg-pants-fy7xp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/doen-suede-mules-fxg39</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-faux-fur-coat-fw7b3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/farm-rio-striped-crew-neck-sweater-w-tags-fwz2q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-ftfyi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-silk-long-dress-fkmiz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-crew-neck-short-sleeve-t-shirt-fwkz4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/nanushka-high-rise-wide-leg-jeans-fxl83</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/by-malene-birger-alpaca-bateau-neckline-top-fvumn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-coat-w-tags-fptkn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/gabriela-hearst-patent-leather-lace-up-boots-fpp07</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/sleeper-pajamas-w-tags-fnqrx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-long-dress-fgtz0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-floral-print-long-dress-fu1kb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/sleeper-feather-trim-pajamas-fs6po</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/fleur-du-mal-silk-straight-leg-pants-fszqi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/sea-new-york-merino-wool-turtleneck-sweater-fjel9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/lemaire-high-rise-straight-leg-jeans-fv6di</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/jacquemus-v-neck-sweater-ftuno</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/r13-long-skirt-fq8ax</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-striped-crew-neck-sweater-ftkw9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/r13-leather-skinny-leg-pants-fu3vt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-v-neck-long-dress-fxpfk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/gentle-monster-volta-square-eyeglasses-fxmby</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-slides-fqdlq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/cult-gaia-leather-tassel-accents-mules-fye0o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-paisley-print-mock-neck-blouse-w-tags-g121b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/shrimps-colorblock-pattern-faux-fur-coat-fp6y3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-blazer-ftkf0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-fxfbi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/cult-gaia-halterneck-sleeveless-tunic-w-tags-fnmrq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/khaite-suede-mules-fxcxx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-ellis-mini-dress-fvf5j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-colorblock-pattern-long-dress-fwmxr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-silk-floral-print-crop-top-fxxy3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-lace-pattern-long-dress-w-tags-fszql</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-v-neck-mini-dress-fvsth</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/anine-bing-sneakers-fx021</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/by-malene-birger-crew-neck-knee-length-dress-fpziz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-tie-neck-long-dress-frnlr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/amina-muaddi-romy-suede-pumps-fqnxm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/the-frankie-shop-sweatpants-fe54y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/rachel-comey-crew-neck-jumpsuit-ftzdn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/alessandra-rich-peacoat-fmqp0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/fleur-du-mal-square-neckline-sleeveless-crop-top-fu02h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-crew-neck-long-dress-fu0y3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/amina-muaddi-begum-leather-pumps-fudev</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/attico-floral-print-mini-skirt-fu017</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/farm-rio-printed-mini-shorts-fq3fp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/nanushka-turtleneck-long-dress-fn0zq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/nensi-dojaka-skinny-leg-pants-w-tags-ft93n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/hobos/khaite-leather-august-hobo-frjaw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-striped-long-dress-w-tags-fr6kn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-faux-fur-coat-w-tags-ft6m7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-fp2bc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-wide-leg-jeans-fs6kj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/aya-muse-long-sleeve-button-up-top-ftimb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-merino-wool-long-sleeve-button-up-top-fuva9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/the-frankie-shop-crew-neck-long-sleeve-sweatshirt-ft1qh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/a-w-a-k-e-mode-leather-tassel-accents-slides-fuyf4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-johana-leather-slides-fos4g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-striped-sweater-w-tags-frad7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/alessandra-rich-round-tinted-sunglasses-fgvl7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-mohair-crew-neck-sweater-f37v4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-hemp-straight-leg-pants-w-tags-fsoir</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-scoop-neck-top-w-tags-fr729</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/staud-mini-skirt-w-tags-fsgkx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/khaite-cashmere-turtleneck-sweater-ft9mg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-turtleneck-mini-dress-w-tags-frf6z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-midi-length-dress-folp9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/nanushka-trench-coat-fqpxc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/jacquemus-slides-flq4s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/nanushka-v-neck-sweater-fhhcg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-long-dress-fpm7n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/cedric-charlier-colorblock-pattern-crew-neck-sweater-fqqp5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-high-rise-wide-leg-jeans-fqfe4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-v-neck-mini-dress-w-tags-fot9o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-mini-dress-fr5um</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/orseund-iris-polka-dot-print-crew-neck-sweater-fqc4d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/krewe-wayfarer-gradient-sunglasses-fpva8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/gabriela-hearst-cashmere-crew-neck-sweater-w-tags-fp900</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-graphic-print-sweater-fppvq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-crew-neck-short-sleeve-blouse-w-tags-fnvjj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-solo-s-oversize-sunglasses-fmofu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/jacquemus-ruffle-embellishment-midi-length-skirt-fq9t7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-v-neck-three-quarter-sleeve-blouse-fey2k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/lemaire-scoop-neck-long-dress-fnz7a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-jacket-w-tags-finxm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/aeyde-leather-riding-boots-fim61</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-striped-midi-length-skirt-fpgew</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/neous-pvc-mules-foup9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-printed-long-sleeve-button-up-top-fgg2g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-jacket-fo3ki</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-plaid-print-midi-length-dress-fot6q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-mini-dress-w-tags-fnfwd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-square-neckline-long-dress-fpbyi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-striped-crew-neck-sweater-foulh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-fi637</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/reike-nen-leather-slingback-flats-fk0g8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-v-neck-midi-length-dress-fkg4h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-printed-crew-neck-sweater-fkgd3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/totes/loq-patent-leather-crinkle-tote-bag-fkyg6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-long-dress-fd1c4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-fnqi4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/victor-glemaud-midi-length-skirt-fnri4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/simon-miller-high-rise-wide-leg-jeans-fr0bn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/y-project-crew-neck-mini-dress-f88xp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/anine-bing-leather-animal-print-chelsea-boots-fbujj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-printed-mini-dress-faipy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-cowl-neck-long-sleeve-tunic-fjf3d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/dion-lee-knee-length-shorts-f40jj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/sea-new-york-printed-scoop-neck-sweater-fmgm0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/krewe-round-mirrored-sunglasses-flkrz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/the-vampire-s-wife-floral-print-mini-dress-flnba</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/b-sides-high-rise-straight-leg-jeans-w-tags-ffnbx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-printed-bateau-neckline-blouse-fluiu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/staud-mules-fl7cz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/neous-leather-mules-fl5a9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-skinny-leg-pants-fai1k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-v-neck-short-sleeve-crop-top-f7o33</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/attico-evening-jacket-fjt7n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/khaite-straight-leg-pants-fkl86</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/anine-bing-leather-mini-shorts-flfyr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-turtleneck-sweater-flky2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/manu-atelier-smooth-leather-bucket-bag-fl4nk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-striped-crew-neck-sweater-fkww0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-tie-dye-print-scoop-neck-sweater-fi8oz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-printed-long-dress-f71az</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/danse-lente-leather-colorblock-crossbody-bag-fifln</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/galvan-v-neck-midi-length-dress-fmnyu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/alice-mccall-printed-mini-skirt-fkhgx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/live-the-process-v-neck-sleeveless-top-fjgdz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-tie-dye-print-crew-neck-sweater-w-tags-fiz6m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/pangaia-crew-neck-long-sleeve-crop-top-ffzzp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-crew-neck-blouse-w-tags-fhbva</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-crew-neck-short-sleeve-blouse-fhgwi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/extreme-cashmere-crew-neck-sweater-fivhz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-blazer-w-tags-f708d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-square-neckline-knee-length-dress-fa9fb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/peter-do-crew-neck-long-dress-ep29l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alice-mccall-printed-mini-dress-fhgfa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christopher-esber-silk-midi-length-dress-f91ng</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/amiri-silk-printed-robe-ffbb4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/khaite-leather-sandals-fkj0g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/stine-goya-v-neck-long-dress-w-tags-f9rpb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/cult-gaia-bamboo-ark-nano-shoulder-bag-w-tags-fhy6x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-animal-print-mini-dress-fgwky</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-fgs2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-gladiator-sandals-ferjt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/cult-gaia-acrylic-luna-crossbody-bag-w-tags-fdxbs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-square-neckline-short-sleeve-crop-top-ff1uz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/brock-collection-square-neckline-sleeveless-crop-top-w-tags-febps</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/staud-printed-sweatpants-w-tags-fd7qb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-fatr0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/khaite-scoop-neck-sleeveless-top-fbwan</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/r13-cashmere-bateau-neckline-sweater-fdivr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-v-neck-mini-dress-f6h8j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-midi-length-dress-fcrd0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/aje-square-neckline-mini-dress-w-tags-fdvho</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/jacquemus-knee-length-dress-fco27</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-utility-jacket-w-tags-ermai</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/maisie-wilen-printed-bateau-neckline-bodysuit-f0041</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/la-ligne-striped-crew-neck-t-shirt-fb71e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/anine-bing-skinny-leg-pants-ezd14</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-striped-midi-length-dress-fe2dx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/jacquemus-plunge-neckline-long-dress-fb341</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/by-malene-birger-colorblock-pattern-midi-length-dress-fbyif</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/farm-rio-printed-wide-leg-pants-f9xy0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-polka-dot-print-square-neckline-blouse-fbaf7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/magda-butrym-silk-floral-print-blouse-fazmp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/sea-new-york-floral-print-mock-neck-romper-fbiow</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/r13-cashmere-animal-print-sweater-fct8j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/ganni-lamb-leather-knee-length-shorts-f1fzt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-wide-leg-jeans-ez1ua</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-gilda-leather-slides-f4l3v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-long-dress-f4s3p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/farm-rio-floral-print-romper-f97lf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-tie-dye-print-sweater-f4yhn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/aje-floral-print-mini-dress-fa89s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-long-dress-f9kt1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rokh-one-shoulder-long-sleeve-crop-top-w-tags-e4311</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/sea-new-york-crew-neck-sweater-f6h2r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-square-neckline-sleeveless-crop-top-f8knk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/r13-cashmere-animal-print-sweater-f8yr4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-silk-long-dress-fa43a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/anine-bing-square-neckline-midi-length-dress-f6wbz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/khaite-v-neck-sleeveless-top-f8c84</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-printed-sweater-f3gjv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-leather-chelsea-boots-f4baa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-f0wgg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-mini-dress-w-tags-f9bbi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-silk-tie-dye-print-sweater-f5mwj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/eckhaus-latta-mid-rise-skinny-leg-jeans-f7a45</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-f7oj5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-mini-dress-f7v93</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-mock-neck-mini-dress-f5m6k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/apiece-apart-v-neck-jumpsuit-exo93</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/la-ligne-cashmere-wide-leg-pants-g0wpr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-crystal-embellishments-slides-ft7xh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-lace-trim-embellishment-mini-skirt-fxh0h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/miaou-square-neckline-sleeveless-crop-top-fxhhn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-lace-pattern-midi-length-skirt-fxe9h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-low-rise-skinny-leg-jeans-g0jos</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/anine-bing-sweatpants-fn5aa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-utility-jacket-fxy18</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/rachel-comey-high-rise-straight-leg-jeans-w-tags-fxz9u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-short-sleeve-button-up-top-fy5yw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/khaite-patent-leather-boots-fttal</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/staud-printed-crew-neck-sweater-fjxmm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-floral-print-long-dress-w-tags-fvv0o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-w-tags-ftlj1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/fleur-du-mal-halterneck-sleeveless-bodysuit-w-tags-fwo9r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/miaou-straight-leg-pants-fwt4t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/fleur-du-mal-silk-patterned-robe-fw8k8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-skinny-leg-jeans-fvvem</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-striped-crew-neck-top-fwzfv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-tie-dye-print-sweater-fvef6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/jacquemus-mini-shorts-fwzvs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-alpaca-printed-sweater-fw89z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/anna-october-silk-long-dress-fwj1c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/sea-new-york-high-rise-wide-leg-jeans-fxfca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-fx504</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-skinny-leg-jeans-fwl85</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/anine-bing-leather-mules-fx0en</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/gabriela-hearst-leather-mules-fx56z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-long-dress-fomod</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-square-neckline-crop-top-w-tags-ftlk4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-crew-neck-short-sleeve-blouse-fo024</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/apiece-apart-square-neckline-jumpsuit-fkfv9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-long-dress-fuqpw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/dodo-bar-or-floral-print-long-dress-fv3iq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-floral-print-long-dress-fvjok</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-fupnn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/apiece-apart-pleated-accents-midi-length-skirt-fvjyp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-v-neck-mini-dress-fsq9d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/apiece-apart-baby-alpaca-bateau-neckline-sweater-fqaup</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/elleme-leather-knee-length-shorts-fpt0s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-floral-print-crew-neck-crop-top-fu6uz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/amina-muaddi-crew-neck-mini-dress-fv9kg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alessandra-rich-silk-mini-dress-fvjkm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-w-tags-fvm4n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-midi-length-dress-fvlf5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rotate-birger-christensen-plunge-neckline-mini-dress-fvn70</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-crew-neck-long-dress-fvthg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/farm-rio-printed-midi-length-skirt-fvjm1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-fvt36</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-fway0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/toteme-mid-rise-straight-leg-jeans-fvpty</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/danse-lente-leather-bucket-bag-futra</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/miaou-strapless-crop-top-fshls</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-v-neck-short-sleeve-blouse-fpmmu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-fwh8v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-mini-dress-fwekw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/olivia-von-halle-animal-print-long-dress-fl3a1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-printed-midi-length-dress-fuvti</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-plunge-neckline-long-dress-fszkk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/khaite-halterneck-knee-length-dress-w-tags-ft5cz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-floral-print-long-skirt-fps5h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/toteme-v-neck-midi-length-dress-w-tags-fuo4e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/anine-bing-leather-t-strap-sandals-fv6re</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/apparis-v-neck-sweater-fpxl2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/anine-bing-silk-midi-length-skirt-fn6vi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-scoop-neck-long-sleeve-top-fmobd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/loveshackfancy-tweed-pattern-faux-fur-jacket-w-tags-fvnlo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-mock-neck-long-dress-w-tags-fvf2o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-floral-print-midi-length-dress-ftz3y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-asymmetrical-mini-dress-fv6c2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/albus-lumen-crew-neck-long-dress-fvgys</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sleeper-square-neckline-long-dress-w-tags-ftywf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/r13-crew-neck-knee-length-dress-fvroo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/miaou-blazer-fv0n0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-fvka7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/nanushka-knee-length-shorts-fvbux</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-midi-length-dress-fvkvu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-one-shoulder-long-dress-fvqny</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/by-far-leather-bow-accents-flip-flops-fti5n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-skinny-leg-pants-fvahv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/christopher-esber-scoop-neck-sweater-fu43u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/the-frankie-shop-straight-leg-pants-fpbz4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-midi-length-dress-fhcnr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-denim-jacket-dcopo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-mock-neck-mini-dress-fw67h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/marques-almeida-plaid-print-knee-length-dress-fvwqn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-fw4hf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/rixo-silk-midi-length-skirt-fw014</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/maisie-wilen-v-neck-long-sleeve-crop-top-fvq2f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/aeyde-leather-boots-fvbjw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-alpaca-printed-sweater-fw5ho</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/lauren-manoogian-baby-alpaca-crew-neck-sweater-fvjt8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/nicole-saldana-leather-slides-fv970</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-slides-fvwc9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/paloma-wool-leather-slides-fv9s0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-silk-long-dress-fg8ir</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/toteme-scoop-neck-long-dress-fkml3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/by-far-leather-boots-fr6s4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/nanushka-cape-fmvnt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-square-neckline-long-dress-ftd5h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/r13-scoop-neck-three-quarter-sleeve-top-fv2zs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/batsheva-floral-print-crew-neck-sweatshirt-fp7n9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/markarian-one-shoulder-sleeveless-blouse-ftijm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-printed-scoop-neck-blouse-w-tags-fusmd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-tie-neck-long-sleeve-blouse-fu3dt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-mock-neck-long-sleeve-blouse-fu2x5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/by-malene-birger-silk-crew-neck-blouse-fsc07</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/cult-gaia-one-shoulder-long-sleeve-sweatshirt-w-tags-ftscr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/rachel-comey-midi-length-skirt-w-tags-fsg5l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-mock-neck-short-sleeve-crop-top-ft5jz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-plaid-print-off-the-shoulder-crop-top-fu8ov</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-wide-leg-pants-ftqhs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/nanushka-mock-neck-jumpsuit-w-tags-futxg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-v-neck-short-sleeve-crop-top-fuve8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/loveshackfancy-suede-floral-print-espadrilles-w-tags-fuqa0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-silk-printed-blouse-fsh17</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/paloma-wool-v-neck-jumpsuit-f2uar</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/sea-new-york-wide-leg-pants-foh44</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rotate-birger-christensen-v-neck-long-dress-fmcqr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-slides-fpnnk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-square-neckline-long-dress-fv7g3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-v-neck-long-dress-fue1s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/gabriela-hearst-silk-floral-print-button-up-top-w-tags-fv6x3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-silk-printed-blouse-w-tags-fuhpy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-printed-crew-neck-top-fv67j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-bateau-neckline-short-sleeve-crop-top-w-tags-fvnh0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-floral-print-v-neck-blouse-fvial</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-floral-print-crew-neck-blouse-fu8ea</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/apiece-apart-plaid-print-mock-neck-crop-top-fvltg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/heron-preston-graphic-print-mock-neck-crop-top-fvbv0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-printed-wide-leg-pants-fvhs7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-wide-leg-pants-fuiwp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/paloma-wool-scoop-neck-jumpsuit-fuyp8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/la-ligne-crew-neck-short-sleeve-t-shirt-fvyrc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-midi-length-dress-fnfdm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-wide-leg-jeans-w-tags-fimi9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/toteme-scoop-neck-long-dress-fmyhu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/miaou-floral-print-crew-neck-crop-top-fl1mn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-long-dress-flm9c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/khaite-v-neck-long-sleeve-bodysuit-f7igd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-striped-v-neck-sweater-fh8pn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-colorblock-pattern-long-dress-fik8p</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/anine-bing-open-front-sweater-fjek1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-crew-neck-mini-dress-fitbh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-mock-neck-mini-dress-fi448</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-mock-neck-sleeveless-blouse-fco0e</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-mini-dress-fl3cf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/live-the-process-sweatpants-fgj2a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/mach-mach-leather-crystal-embellishments-sandals-fehw3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-long-dress-w-tags-fecwq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-square-neckline-mini-dress-fgau1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/pyer-moss-x-reebok-mock-neck-three-quarter-sleeve-crop-top-fcvd7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/by-far-embossed-leather-boots-f3dkh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-f78e2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-crew-neck-sleeveless-top-eymug</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/the-frankie-shop-wide-leg-pants-ffhxo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/farm-rio-printed-bateau-neckline-sweater-w-tags-fc2xu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/khaite-turtleneck-long-dress-fc5q2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-floral-print-long-dress-fbq3r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-2020-naima-slides-f4l3z</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-floral-print-square-neckline-blouse-f1vlw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-midi-length-dress-f8wnv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/toteme-crew-neck-long-sleeve-sweatshirt-f4kfe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/by-malene-birger-scoop-neck-sleeveless-top-w-tags-f350a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/cult-gaia-mules-f2w7x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/jacquemus-woven-knit-fur-headband-f5rty</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/a-w-a-k-e-mode-long-skirt-ew2d8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/ganni-high-rise-wide-leg-jeans-f1l4h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/khaite-patent-leather-mesh-accents-chelsea-boots-ewf9a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-silk-floral-print-blouse-f29as</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-long-dress-et4zd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-denim-jacket-es64g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/olivia-von-halle-silk-long-dress-ewdai</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-crew-neck-short-sleeve-t-shirt-exhsv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/natasha-zinko-high-rise-straight-leg-jeans-ezp0k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-evu3y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-kick-fit-long-wide-leg-jeans-exa2i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rixo-silk-floral-print-blouse-epqjt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-w-tags-ets1o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-long-dress-evctj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-printed-mock-neck-top-et215</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-plaid-print-knee-length-dress-w-tags-enww4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/isa-arfen-printed-mini-dress-eqopt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-skinny-leg-jeans-eoekn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-long-dress-w-tags-e6x8g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-elaqq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/farm-rio-floral-print-mock-neck-sweatshirt-ekzca</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-midi-length-dress-ejxc4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-floral-print-knee-length-dress-ec1q2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-silk-long-dress-ebowx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-mini-dress-ehirh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-eac2l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-printed-mini-dress-ec1y9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-plaid-print-crew-neck-top-ec02s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/staud-leather-slides-e5pd6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-skinny-leg-jeans-eakvz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/la-ligne-sweatpants-eam8y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/hellessy-blazer-e53gq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/lemaire-animal-print-knee-length-dress-e433j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/magda-butrym-silk-long-sleeve-button-up-top-w-tags-dy4zy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-zula-crystal-embellishments-sandals-e3k3x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-jacket-w-tags-djm0o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-printed-jacket-d9wl1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/orseund-iris-evening-jacket-fvzc0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-fyepu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/anine-bing-peacoat-fr8zr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-fyig0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-fyehk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/sea-new-york-houndstooth-print-midi-length-skirt-fwnec</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-short-sleeve-button-up-top-fx18k</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-mock-neck-blouse-fyeku</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/olivia-von-halle-silk-printed-lounge-set-fxr65</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/sea-new-york-floral-print-v-neck-jumpsuit-d3zu1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-graphic-print-crew-neck-t-shirt-fwvrg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-floral-print-straight-leg-pants-fqn8q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/olivia-von-halle-silk-pajamas-frnau</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/fleur-du-mal-silk-cowl-neck-top-fxah4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/farm-rio-printed-v-neck-romper-fyn9u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/alice-mccall-v-neck-romper-fw595</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-striped-crew-neck-blouse-fsdap</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-straight-leg-jeans-ftw5v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/paloma-wool-wide-leg-pants-fyb1h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-sandals-w-tags-fxzj2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-square-neckline-long-dress-fvwtc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-midi-length-dress-w-tags-fq666</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-silk-long-dress-g371d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rosetta-getty-scoop-neck-long-dress-g370x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-printed-midi-length-dress-g1enq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-plaid-print-midi-length-dress-g0uu4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/apiece-apart-floral-print-long-dress-g0rqy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/bassike-one-shoulder-knee-length-dress-g1eu9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-turtleneck-midi-length-dress-g0mnr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/brock-collection-tweed-pattern-blazer-g0311</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-g0pyy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/rosetta-getty-coat-g0t84</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/natasha-zinko-scoop-neck-long-dress-g0s5u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-g1emj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-mini-dress-g1avj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/nanushka-knee-length-dress-g0yg8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-lambskin-jacket-g0mk0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-printed-knee-length-dress-fzv9l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/cecilie-bahnsen-utility-jacket-fzrpj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rotate-birger-christensen-mock-neck-mini-dress-g1ecn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/saks-potts-animal-print-down-jacket-g0whq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-mini-dress-g1awj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-knee-length-dress-w-tags-fzrkf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/rachel-comey-lambskin-faux-fur-coat-g0w7t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sandy-liang-mini-dress-g0ma5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-v-neck-long-dress-g0829</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-midi-length-dress-g06hw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alice-mccall-printed-mini-dress-fzyog</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-lace-pattern-long-dress-w-tags-fjhwm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/dion-lee-halterneck-sleeveless-crop-top-f91tt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-solar-forest-button-down-dress-midi-length-dress-w-tags-f6mnn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-mini-dress-f9xtb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/amina-muaddi-rosie-glass-pvc-slingback-pumps-f7hr2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-square-neckline-long-dress-w-tags-fa2zz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-silk-long-dress-f8gpb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/kate-young-for-tura-oversize-gradient-sunglasses-fki3b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/r13-animal-print-evening-jacket-fkb93</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/ugg-x-telfar-leather-moccasins-fircg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/amina-muaddi-rosie-pvc-slingback-pumps-fht14</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/gabriela-hearst-leather-loafers-fk8og</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/new-balance-x-staud-one-shoulder-sleeveless-crop-top-f8zqk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-polka-dot-print-long-dress-w-tags-fik5m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-mini-dress-fjgsy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-plaid-print-long-dress-fiotl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/lemaire-coat-fikbt</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/stine-goya-floral-print-long-dress-w-tags-fi2vp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-long-dress-fim5o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/staud-utility-jacket-fi7f8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/amelie-pichard-asymmetrical-mini-dress-fiqa2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-jacket-fihyn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/the-frankie-shop-lounge-set-ffdtl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/toteme-high-rise-straight-leg-jeans-fijjh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/rachel-comey-square-neckline-jumpsuit-fjctq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/attico-floral-print-mini-skirt-fjrbs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-crew-neck-crop-top-w-tags-fjwcu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/staud-plaid-print-straight-leg-pants-fj73h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/paloma-wool-high-rise-straight-leg-jeans-fk3kb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/staud-square-neckline-jumpsuit-w-tags-fhf47</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/toteme-trench-coat-ffdeo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/apparis-long-skirt-f9dx5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-w-tags-fhar1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/staud-striped-blazer-fhroe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-v-neck-mini-dress-fhb1l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-mini-dress-figeb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-printed-v-neck-crop-top-w-tags-fgh6x</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-midi-length-skirt-fhta1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-mock-neck-long-sleeve-button-up-top-filh6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/doen-printed-crew-neck-jumpsuit-fil1v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/crossbody-bags/senreve-epi-leather-crossbody-bag-fi8dl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-halterneck-long-dress-fe2wo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/fleur-du-mal-square-neckline-long-sleeve-crop-top-fg1lk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/acler-printed-mini-skirt-fj2ab</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-printed-crew-neck-blouse-fgt9o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-mock-neck-three-quarter-sleeve-button-up-top-fjbss</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-mock-neck-three-quarter-sleeve-blouse-f8ywm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-silk-long-dress-w-tags-f8415</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-mock-neck-blouse-fja6h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/collina-strada-printed-crew-neck-sweater-fazst</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-long-dress-w-tags-fdp15</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-v-neck-long-dress-fabns</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-colorblock-pattern-long-dress-w-tags-fayqe</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/anine-bing-printed-utility-jacket-fgd02</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-three-quarter-sleeve-button-up-top-fgo2b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-ffq46</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-mini-dress-fg2wv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-square-neckline-long-dress-w-tags-f9fsr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/pangaia-sweatpants-fg7md</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/toteme-turtleneck-sweater-fdd0f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-silk-long-dress-ffht2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/ganni-high-rise-wide-leg-jeans-ffqo7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-skinny-leg-jeans-fgjm0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-fe36r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-gilda-satin-slides-fa2k9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/fleur-du-mal-wide-leg-pants-ff25b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/jacquemus-virgin-wool-wide-leg-pants-w-tags-faul6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-feclj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-mock-neck-sweater-w-tags-f4gry</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-fdppw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-mini-dress-fddri</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-w-tags-fcgrq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-leather-knee-length-skirt-et31r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-mini-dress-fctmd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-lace-pattern-long-dress-fzcux</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/simon-miller-cowl-neck-mini-dress-w-tags-fvvw2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apiece-apart-faux-fur-jacket-fzjnl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-long-dress-fzekq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rosetta-getty-crew-neck-mini-dress-fyaqb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/cedric-charlier-peacoat-fy9bc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-animal-print-knee-length-dress-fzjop</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/attico-floral-print-strapless-top-fycip</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-fzcw2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/staud-striped-midi-length-skirt-fu2br</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/gabriela-hearst-blazer-fynui</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/brock-collection-floral-print-midi-length-skirt-fz41d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/protagonist-midi-length-skirt-fyre9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/aje-printed-midi-length-skirt-fxvvj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-floral-print-three-quarter-sleeve-button-up-top-fzesb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/khaite-silk-long-sleeve-blouse-fwvdo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-square-neckline-short-sleeve-crop-top-fzhy6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-crew-neck-three-quarter-sleeve-crop-top-fwu64</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/apiece-apart-plaid-print-mini-shorts-fzm4b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/ganni-leather-loafers-fypto</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-v-neck-sleeveless-top-fzecz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/fleur-du-mal-square-neckline-sleeveless-bodysuit-fxx6j</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/cult-gaia-printed-mini-skirt-fzf9i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/aje-long-sleeve-button-up-top-fytz5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-mock-neck-three-quarter-sleeve-crop-top-fzixc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-ruffle-embellishment-mini-skirt-fzcu0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/rixo-animal-print-midi-length-skirt-fwhv6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-crew-neck-short-sleeve-t-shirt-w-tags-fzf64</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/paloma-wool-printed-scoop-neck-sweater-w-tags-fz5g8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/belts/anine-bing-leather-waist-belt-fw7m4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/marine-serre-plaid-print-straight-leg-pants-fzg2d</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-printed-wide-leg-pants-fzes3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/paloma-wool-plaid-print-long-sleeve-button-up-top-fz425</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/by-malene-birger-plaid-print-mock-neck-button-up-top-fd84f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/lauren-manoogian-pajamas-fzim7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-wide-leg-jeans-fyhj8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/fleur-du-mal-wide-leg-pants-fy8om</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-long-sleeve-button-up-top-fxhmp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-fv68h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/swimwear/rhode-printed-tassel-accents-cover-up-fu7uw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/anine-bing-suede-fringe-trim-accent-western-boots-fyw72</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/reike-nen-leather-slides-fy8vm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/by-far-leather-animal-print-combat-boots-fz048</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rhode-floral-print-three-quarter-sleeve-blouse-fzjfr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-mid-rise-wide-leg-jeans-fyv16</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/apparis-crew-neck-sweater-fx5xq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rotate-birger-christensen-crew-neck-long-sleeve-sweatshirt-fws8m</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/christopher-john-rogers-wide-leg-pants-fp0u2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/reike-nen-leather-slingback-pumps-fy8z2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-crew-neck-short-sleeve-t-shirt-fw0mp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/reike-nen-leather-colorblock-pattern-slides-fy9b3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/reike-nen-leather-printed-sandals-fy965</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/reike-nen-leather-slingback-sandals-fy91i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/jacquemus-scarf-w-tags-fwu3o</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/pumps/reike-nen-leather-slingback-pumps-fy9ai</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-big-bully-aviator-sunglasses-fwz6u</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/staud-leather-trimmed-mini-bag-fyery</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/by-far-metallic-suede-handle-bag-fycsx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/handle-bags/staud-pvc-handle-bag-fyiqa</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rejina-pyo-square-neckline-midi-length-dress-w-tags-f5hm1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-ellis-mini-dress-fvf57</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/anine-bing-animal-print-v-neck-sweater-g29zy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-silk-v-neck-blouse-fw9s2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/ganni-leather-loafers-g29ai</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/apiece-apart-scoop-neck-jumpsuit-g290b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/staud-leather-beaded-accents-slides-g28hy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/stine-goya-mid-rise-wide-leg-jeans-fu927</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/toteme-long-sleeve-button-up-top-fqig4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/staud-mini-shorts-w-tags-fy6oh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-striped-mini-dress-g26jf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/loveshackfancy-floral-print-evening-jacket-g26it</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-silk-long-dress-w-tags-fu13r</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-v-neck-long-dress-fp1x0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/sea-new-york-printed-faux-fur-jacket-w-tags-fjw8y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-animal-print-faux-fur-coat-g26hc</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/farm-rio-floral-print-crew-neck-jumpsuit-fvp9n</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-fzsnx</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/fleur-du-mal-lamb-leather-midi-length-dress-w-tags-fz885</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-lace-pattern-mini-dress-fzrtu</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-midi-length-dress-g0cdh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/nanushka-patterned-faux-fur-jacket-fywky</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/arje-trench-coat-fxir4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-mini-dress-fxwrp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/khaite-v-neck-knee-length-dress-w-tags-fz5r7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/ganni-parka-fywpy</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-mini-dress-g0fdd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-animal-print-mini-dress-g0cpo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cecilie-bahnsen-crew-neck-midi-length-dress-fzt6f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-scoop-neck-sleeveless-top-w-tags-g0c83</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-floral-print-mock-neck-blouse-w-tags-fznan</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-ruffle-embellishment-midi-length-skirt-g00i0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-square-neckline-midi-length-dress-w-tags-fzxsb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-mock-neck-mini-dress-fzp1g</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-square-neckline-sleeveless-crop-top-w-tags-g0j6f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/khaite-striped-crew-neck-sweater-fzg7f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/flats/gabriela-hearst-suede-d-orsay-flats-fzozl</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/jacquemus-off-the-shoulder-sweater-fyaly</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-silk-animal-print-top-fy2vr</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-lace-pattern-midi-length-skirt-w-tags-fzqun</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-square-neckline-bodysuit-fxuzm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-scoop-neck-long-sleeve-crop-top-fznfz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rosetta-getty-wide-leg-pants-fzu7y</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-wide-leg-pants-fzpko</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/protagonist-v-neck-long-sleeve-blouse-w-tags-fzheb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-wide-leg-pants-fzof1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/b-sides-high-rise-straight-leg-jeans-fzipw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/paloma-wool-mini-shorts-w-tags-fz5sp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/rachel-comey-mock-neck-sleeveless-crop-top-fzxma</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-leather-lace-up-boots-fzeve</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/cedric-charlier-printed-straight-leg-pants-fzzgd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-v-neck-blouse-w-tags-fzrn9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/maryam-nassir-zadeh-leather-slingback-sandals-fzbc0</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/apiece-apart-mini-shorts-fy35f</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/shorts/sea-new-york-animal-print-mini-shorts-fzpz3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/staud-crew-neck-sweater-fzusg</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sandals/reike-nen-leather-gladiator-sandals-fy9gk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-printed-crew-neck-blouse-fzhny</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/sleeper-feather-trim-pajamas-fvygp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-printed-v-neck-blouse-fub2c</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-v-neck-long-sleeve-crop-top-fpey6</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/brock-collection-floral-print-long-dress-fzrm7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/wales-bonner-printed-crochet-trim-sweatpants-fxjkk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-striped-mock-neck-crop-top-w-tags-fzn9i</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-plaid-print-crew-neck-crop-top-fzn2l</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/stand-studio-faux-fur-coat-fvlvi</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-square-neckline-long-dress-fx1pb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/sleeper-cape-w-tags-fvcq5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-floral-print-crew-neck-blouse-fxk4b</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/gabriela-hearst-cashmere-crew-neck-top-fxnib</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/bevza-skinny-leg-pants-fxdwm</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-debby-round-sunglasses-fy6r2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/olivia-von-halle-silk-printed-pajamas-fx5j1</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-silk-long-dress-fn20v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-fynzh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/telfar-vegan-leather-mini-bag-g1ms2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/acler-asymmetrical-long-sleeve-sweatshirt-w-tags-g1ez8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/toteme-silk-midi-length-skirt-fyf07</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/staud-long-sleeve-crop-top-fytc7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/sea-new-york-v-neck-jumpsuit-fyvjd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/the-elder-statesman-paisley-print-scarf-fvuht</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-wide-leg-jeans-w-tags-fnolk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-fz4yz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/christopher-esber-scoop-neck-long-dress-fsb17</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/alessandra-rich-mini-skirt-fk5sq</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-printed-long-dress-fvr9t</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rotate-birger-christensen-plunge-neckline-long-dress-fxlbo</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-mock-neck-mini-dress-w-tags-fxpsf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/rotate-birger-christensen-blazer-w-tags-fxnn3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-scoop-neck-short-sleeve-t-shirt-fxhes</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-floral-print-crew-neck-blouse-fl8ox</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-bateau-neckline-mini-dress-fvl8h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/anine-bing-skinny-leg-pants-fy3gz</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/eckhaus-latta-crew-neck-long-sleeve-crop-top-fvnc3</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/accessories/hats/ganni-wool-beanie-fy63v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-crew-neck-long-sleeve-top-fp0fw</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/sea-new-york-bolero-fowox</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/alessandra-rich-striped-midi-length-skirt-fu09v</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-w-tags-fyauf</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-straight-leg-jeans-fx1dk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-long-sleeve-polo-fydsn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/r13-straight-leg-pants-fybu4</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rosetta-getty-turtleneck-sweater-fxk0q</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/the-elder-statesman-cashmere-sweatpants-w-tags-fuz0s</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/shoes/sneakers/new-balance-x-staud-suede-colorblock-pattern-athletic-sneakers-w-tags-fu506</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-printed-crew-neck-sweater-fyjkp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/handbags/mini-bags/jacquemus-leather-mini-bag-fxpd9</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/r13-floral-print-long-sleeve-button-up-top-fx9rd</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/stine-goya-printed-bateau-neckline-blouse-fxdeb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/the-frankie-shop-sweatpants-fwzhn</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-fyanb</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-blazer-fy3tv</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/coats/staud-trench-coat-w-tags-fxul7</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/loungewear/stine-goya-printed-robe-fvezh</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/dion-lee-wide-leg-pants-fr9cj</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-printed-long-dress-fs6wk</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/pants/staud-wide-leg-pants-fmdw2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-fwh23</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-v-neck-long-dress-fwzhs</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/jacquemus-v-neck-sweater-fxi6h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-plaid-print-short-sleeve-button-up-top-fwkr5</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/jackets/alessandra-rich-striped-evening-jacket-fmnav</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-strapless-mini-dress-fuymp</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-printed-scoop-neck-t-shirt-fuz0a</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/knitwear/rachel-comey-v-neck-sweater-fw1d8</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-fw76h</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-v-neck-mini-dress-w-tags-fo6i2</t>
+  </si>
+  <si>
+    <t>https://www.therealreal.com/products/women/clothing/tops/doen-bateau-neckline-three-quarter-sleeve-crop-top-fd326</t>
   </si>
 </sst>
 </file>
@@ -4656,7 +4476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1433"/>
+  <dimension ref="A1:A1373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11527,306 +11347,6 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1375" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1376" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1377" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1378" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1379" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1380" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1381" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1382" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1383" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1384" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1385" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1386" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1387" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1388" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1389" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1390" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1391" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1392" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1393" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1394" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1395" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1396" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1397" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1398" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1399" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1400" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1401" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1402" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1403" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1404" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1405" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1406" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1407" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1408" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1409" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1410" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1411" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1412" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1413" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1414" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1415" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1416" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1417" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1418" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1419" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1420" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1421" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1422" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1423" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1424" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1425" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1426" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1427" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1428" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1429" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1430" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1431" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1432" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1433" t="s">
-        <v>1432</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Extraction/assets/input_file.xlsx
+++ b/Extraction/assets/input_file.xlsx
@@ -19,4125 +19,4116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1370">
   <si>
     <t>New column 0 Url</t>
   </si>
   <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-midi-length-dress-g10qk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-midi-length-dress-g04oi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-long-dress-g07yd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-g05ig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-g07j2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-plaid-print-midi-length-dress-w-tags-g04xl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-mock-neck-mini-dress-g0ych</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g1320</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-tie-dye-print-mini-dress-g12hn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-mini-dress-g10yg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-scoop-neck-mini-dress-g12v4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g12sl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/aje-printed-mini-dress-g0so0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/dodo-bar-or-polka-dot-print-v-neck-blouse-g15lu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/doen-plaid-print-crew-neck-blouse-g1440</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sleeper-crew-neck-midi-length-dress-g15nx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-mini-dress-fzun6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-long-dress-fzvfg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-mini-dress-g04ao</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-mock-neck-mini-dress-g033n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-long-dress-fztpd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-long-dress-g043s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-tie-dye-print-long-dress-g02lk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/acler-v-neck-mini-dress-fzyec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/staud-v-neck-long-dress-g05bz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/assembly-plaid-print-mock-neck-top-g11jg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-polka-dot-print-mini-dress-g150l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sleeper-square-neckline-long-dress-g13zw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/apparis-faux-fur-coat-w-tags-g13io</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/ganni-lamb-leather-utility-jacket-g13ci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/stine-goya-polka-dot-print-long-dress-g14ep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-mini-dress-g13nv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandy-liang-faux-fur-jacket-g0m81</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-faux-fur-jacket-g0a6a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandy-liang-printed-faux-fur-jacket-w-tags-g0z0t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/dion-lee-v-neck-long-dress-g0z9p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-cowl-neck-long-dress-g10sf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/sandy-liang-faux-fur-jacket-w-tags-g0z2g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/staud-striped-v-neck-crop-top-g141q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-tie-dye-print-mini-skirt-w-tags-g12wo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/miaou-printed-mini-skirt-g14dd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-printed-mock-neck-blouse-g14dc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rotate-birger-christensen-coat-g04dc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/the-vampire-s-wife-silk-long-dress-g00t8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/cult-gaia-halterneck-long-dress-w-tags-g05w5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/christopher-esber-silk-long-dress-g04fw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/lemaire-tie-dye-print-cowl-neck-blouse-g0x0y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/nanushka-midi-length-skirt-w-tags-g12a2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-floral-print-mini-skirt-g11ye</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-crew-neck-short-sleeve-blouse-g11nx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-silk-long-skirt-g12d2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/adam-selman-sport-floral-print-skinny-leg-pants-g133j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-bateau-neckline-mini-dress-g12wa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-printed-crew-neck-blouse-g160n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-striped-crew-neck-sweater-g15f8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-animal-print-v-neck-top-w-tags-g03lv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/cedric-charlier-virgin-wool-knee-length-dress-g0gul</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/ganni-floral-print-knee-length-skirt-g0a1v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/anine-bing-silk-v-neck-top-g06di</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g12qs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/doen-printed-mini-shorts-w-tags-g12a4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/dodo-bar-or-printed-romper-g13a0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/sea-new-york-tie-neck-short-sleeve-blouse-g12j6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/fleur-du-mal-v-neck-sleeveless-bodysuit-g17u4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-raw-edge-trim-mini-skirt-w-tags-g04vp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-silk-long-skirt-g06x9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-tie-dye-print-mini-skirt-w-tags-g02sm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/stine-goya-printed-crew-neck-blouse-w-tags-g00fg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/gabriela-hearst-midi-length-skirt-g0oxa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/hellessy-alpaca-printed-blouse-g0nsi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-scoop-neck-sleeveless-top-w-tags-g07md</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-v-neck-long-dress-g0qui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/la-ligne-cashmere-striped-sweater-g116t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/loveshackfancy-floral-print-bateau-neckline-blouse-w-tags-g05rt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-striped-sweater-g0ara</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-elder-statesman-cashmere-striped-sweater-g0aqb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/acler-long-skirt-g11zv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/swimwear/farm-rio-floral-print-bottoms-w-tags-g136d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/r13-plaid-print-short-sleeve-tunic-g13sv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-v-neck-sweater-g17my</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/r13-printed-crew-neck-sweater-g1514</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-turtleneck-sweater-g17jj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/nanushka-silk-printed-button-up-top-fzyz3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/rachel-comey-wide-leg-pants-g11ui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/pangaia-crew-neck-long-sleeve-sweatshirt-g14vu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/loq-leather-animal-print-boots-g19ca</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/stine-goya-plaid-print-straight-leg-pants-fzvdz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/anine-bing-patent-leather-chain-link-accents-western-boots-fzrv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-g0xgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-striped-plunge-neckline-crop-top-g12mv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-high-rise-straight-leg-jeans-w-tags-g124n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/r13-mid-rise-skinny-leg-jeans-g11zw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-lupita-embossed-leather-slides-g166k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-crochet-trim-mini-skirt-fzw5e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-embroidered-accent-mini-skirt-g04yp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/rosetta-getty-long-sleeve-button-up-top-g0u8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/petar-petrov-cashmere-cowl-neck-sweater-g0oqm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/simon-miller-three-quarter-sleeve-button-up-top-g11sd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-mid-rise-straight-leg-jeans-g11rc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/ganni-animal-print-wide-leg-pants-g1105</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/khaite-high-rise-straight-leg-jeans-g0xo2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/galvan-halterneck-jumpsuit-g0v6a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/anine-bing-high-rise-straight-leg-jeans-w-tags-g123n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/jacquemus-wide-leg-pants-g0013</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-eyelet-trim-midi-length-skirt-fzyud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/doen-printed-crew-neck-blouse-w-tags-fzyn0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/loveshackfancy-tie-dye-print-square-neckline-romper-g049a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/gabriela-hearst-scoop-neck-sweater-g0p1j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/the-frankie-shop-v-neck-sweater-g0kgt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/peter-do-long-sleeve-button-up-top-g0wgh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/by-malene-birger-straight-leg-pants-g06qu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/shorts/the-elder-statesman-cashmere-mini-shorts-g04ro</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/swimwear/farm-rio-floral-print-ruffle-embellishment-top-w-tags-g1382</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/r13-graphic-print-crew-neck-t-shirt-g15n5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/loveshackfancy-v-neck-sweater-w-tags-g12tb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jeans/jacquemus-high-rise-wide-leg-jeans-g13am</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/amina-muaddi-lupita-patent-leather-slides-g164c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/farm-rio-crew-neck-jumpsuit-g123a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/jacquemus-v-neck-short-sleeve-bodysuit-g11l2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/sea-new-york-crew-neck-sweater-g123e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/flats/hereu-shearling-whipstitch-trim-moccasins-fzvxd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/skirts/loveshackfancy-lamb-leather-mini-skirt-w-tags-fzz6y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/staud-beaded-shoulder-bag-g0url</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/jacquemus-leather-mules-fztlj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/staud-square-neckline-three-quarter-sleeve-crop-top-g081s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/suits-and-sets/loveshackfancy-eyelet-trim-skirt-set-fzwjv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/pants/rotate-birger-christensen-lace-pattern-wide-leg-pants-g01jm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/doen-off-the-shoulder-three-quarter-sleeve-blouse-g00jr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jumpsuits-and-rompers/r13-graphic-print-jumpsuit-fzwp5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/jacquemus-printed-scarf-fybtx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/rachel-comey-patent-leather-mules-g03ka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/ganni-leather-colorblock-pattern-chelsea-boots-fznvx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/wandler-leather-slides-fzur8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/krewe-wayfarer-tinted-sunglasses-fztep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-lovesome-oversize-sunglasses-fztd0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/shoulder-bags/by-far-embossed-leather-printed-shoulder-bag-g0n0o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-absente-wayfarer-sunglasses-fzhxk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/albus-lumen-shawl-fzguq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/hobos/by-far-small-pebbled-leather-hobo-g0nh4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/bucket-bags/rejina-pyo-leather-crocodile-bucket-bag-g0kx5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/handle-bags/elleme-shearling-teddy-caramel-g0kik</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/handbags/totes/telfar-medium-oxblood-shopping-bag-g0m6f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/loungewear/come-back-as-a-flower-oatmeal-sweatpants-8uj4n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/khaite-printed-knee-length-dress-fzm9h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-printed-mini-dress-w-tags-fzry5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/attico-v-neck-mini-dress-g17yq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rokh-parka-fwh2t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/ganni-faux-fur-coat-fzueg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/coats/rachel-comey-coat-fzn0r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/lauren-manoogian-baby-alpaca-midi-length-dress-fyn0t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/marine-serre-2019-white-line-bodysuit-w-tags-fyjn6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/by-far-patent-leather-boots-fzur2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/sandals/cult-gaia-leather-slides-g0gr7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/alexandre-vauthier-suede-d-orsay-pumps-ek6zd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/pumps/gabriela-hearst-leather-pumps-fsd9b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/shoes/boots/wandler-leather-boots-g3jx0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rixo-silk-long-dress-g3jwg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/knitwear/ganni-striped-v-neck-sweater-fuha4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/dion-lee-plaid-print-v-neck-top-fonaa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-floral-print-midi-length-dress-g1l4x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-printed-mini-dress-w-tags-g1isz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-midi-length-dress-g1p7q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/r13-floral-print-mini-dress-g1f5m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-floral-print-long-dress-g1kor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/apiece-apart-scoop-neck-mini-dress-g1em6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-paisley-print-mini-dress-g1hp1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-animal-print-mini-dress-g1602</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/olivia-von-halle-silk-long-dress-w-tags-g0dtp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/gabriela-hearst-off-the-shoulder-midi-length-dress-g18yh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/la-ligne-animal-print-long-dress-g184y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-printed-knee-length-dress-g17w0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-mini-dress-g0hsh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-w-tags-g0g18</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-printed-long-dress-g0fba</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/farm-rio-printed-midi-length-dress-g0dpx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/aya-muse-bateau-neckline-midi-length-dress-g0bpq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/alexandre-vauthier-v-neck-mini-dress-g16bx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-scoop-neck-mini-dress-w-tags-g1dab</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rachel-comey-striped-long-dress-g1hpc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-mini-dress-g1l69</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sandy-liang-plaid-print-midi-length-dress-g1inq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-g1lr3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-plaid-print-mini-dress-g04sq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-silk-mini-dress-w-tags-g19g6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rokh-tie-neck-long-dress-w-tags-g16mk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-midi-length-dress-g1fvz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-printed-mini-dress-g1egn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/doen-plaid-print-long-dress-w-tags-g18mx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-g18l0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-square-neckline-mini-dress-w-tags-g17vu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-animal-print-long-dress-g1da2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-square-neckline-mini-dress-g1igk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-floral-print-mini-dress-g1iea</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/apparis-plaid-print-faux-fur-jacket-g0c1y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/sea-new-york-floral-print-long-dress-g0f39</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-v-neck-mini-dress-g0bub</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/rhode-floral-print-long-dress-g17xg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/batsheva-mock-neck-midi-length-dress-g0e1p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/doen-silk-paisley-print-crop-top-g1i0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/rachel-comey-blazer-g0cm2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/ganni-plaid-print-mock-neck-blouse-g0ilh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/loveshackfancy-crew-neck-mini-dress-g18vx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/dresses/ganni-silk-mini-dress-g1h8f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/tops/staud-colorblock-pattern-strapless-crop-top-g1khp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/clothing/jackets/jacquemus-blazer-g0cp9</t>
-  </